--- a/Power Sector.xlsx
+++ b/Power Sector.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2BC78E-4728-40BE-A792-CBC2CCDD4E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{1D2A36E0-E1BA-4A92-8146-7652B3799607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="51">
   <si>
     <t>Scenario</t>
   </si>
@@ -152,12 +154,45 @@
   <si>
     <t>Share of Geothermal in total renewable generation</t>
   </si>
+  <si>
+    <t>Share of total electricity generation from non-zero carbon sources</t>
+  </si>
+  <si>
+    <t>Share of total electricity generation from zero carbon sources</t>
+  </si>
+  <si>
+    <t>Absolute gross CO2 emissions reduction rate (relative to 2020)</t>
+  </si>
+  <si>
+    <t>Share of total electricity generation from renewables</t>
+  </si>
+  <si>
+    <t>Phase-out of coal power plants (year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2024, global electricity demand increased by 2.2%, outpacing the average growth of the previous decade. This surge was driven by higher temperatures, the expansion of electrification, and increasing digital energy demands. Renewable energy deployment reached a record high, with 700 GW of new capacity installed. Low-emission sources, including renewables and nuclear power, supplied 80% of the additional electricity demand, thereby increasing the global share of clean electricity to 40%. Despite this progress, fossil fuels—especially coal and gas—remained a major part of the generation mix. A 1.5°C-compatible pathway requires the full decarbonisation of the power sector by 2040, with no new unabated fossil capacity added after 2035. The key milestones for a 1.5°C aligned power sector is the 50th Percentile of the scenario ensemble that defines the power sector pathway. </t>
+  </si>
+  <si>
+    <t>Impact and Outcome Metrics</t>
+  </si>
+  <si>
+    <t>Share of capacity additions from zero carbon sources</t>
+  </si>
+  <si>
+    <t>Share of total electricity investment in zero carbon technologies</t>
+  </si>
+  <si>
+    <t>Share of total electricity investment in transmission and distribution technologies</t>
+  </si>
+  <si>
+    <t>Share of total electricity investment in coal Plants</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -165,23 +200,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="s"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,13 +257,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -433,5236 +521,5420 @@
   </sheetPr>
   <dimension ref="A1:J1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="12.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="11">
         <v>2020</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="11">
         <v>2025</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="11">
         <v>2030</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="11">
         <v>2035</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="11">
         <v>2040</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="11">
         <v>2045</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="11">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.47588999999999998</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0.20147000000000001</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>7.4759999999999993E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>2.0160000000000001E-2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>2.66E-3</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>3.4000000000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.47</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.17785999999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>4.0219999999999999E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>8.4799999999999997E-3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>3.0500000000000002E-3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>1.81E-3</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>1.33E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.47305999999999998</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0.18371000000000001</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>4.3639999999999998E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>3.0200000000000001E-3</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>9.1E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.47365000000000002</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.19087999999999999</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>5.2080000000000001E-2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>1.048E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>3.2799999999999999E-3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>1.8699999999999999E-3</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>1.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.47842000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.19725999999999999</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>1.196E-2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>3.3899999999999998E-3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>2.0300000000000001E-3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>9.5E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.41843999999999998</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.28217999999999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.13582</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>4.8149999999999998E-2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>1.9310000000000001E-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>1.436E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0.47588000000000003</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.19456999999999999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>6.4460000000000003E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>8.8999999999999995E-4</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>-2.1000000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.42851</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.29056999999999999</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.12604000000000001</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>4.7789999999999999E-2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>2.9420000000000002E-2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>2.0889999999999999E-2</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>1.7129999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0.50429000000000002</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.33126</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.15822</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>8.2430000000000003E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>6.6499999999999997E-3</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>4.7600000000000003E-3</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>2.8700000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.47639999999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.34437000000000001</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.21234</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>6.3070000000000001E-2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>1.132E-2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>6.3E-3</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.47365000000000002</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.19725999999999999</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>6.4460000000000003E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>3.2799999999999999E-3</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>1.8699999999999999E-3</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>1.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>12245.13766</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>5222.2208840000003</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>2326.3845879999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>796.60434840000005</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>128.11414600000001</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>59.367381629999997</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>23.155888829999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>13092.680619999999</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>5456.0174589999997</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>1551.135556</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>401.36126639999998</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>173.2930418</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>121.56220089999999</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>103.5291896</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>13070.874229999999</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>5518.1256370000001</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>1654.101981</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>419.8786819</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>168.22223070000001</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>112.6918115</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>70.43161198</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>13072.21305</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>5698.5651859999998</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>1936.8403430000001</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>476.64993299999998</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>179.51580240000001</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>122.52494780000001</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>78.663008009999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>13219.14602</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>5879.6236369999997</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>2165.198425</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>539.09918630000004</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>183.93757969999999</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>132.12912040000001</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>72.383944060000005</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>11045.935600000001</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>8177.9683999999997</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>4885.4584999999997</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>2088.4110000000001</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>1370.0753999999999</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>1176.7865999999999</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>1001.3920000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>12244.889719999999</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>5068.9998029999997</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>2024.078622</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>587.4153622</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>115.3827565</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>52.030781490000003</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>-14.4551956</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>11864.1587</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>9094.7816000000003</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>4943.0730999999996</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>2248.5515999999998</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>1592.0275999999999</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>1286.4405999999999</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>1151.2384</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>13504</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>9703.5</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>5903</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>3285.5</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>668</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>435.5</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>13504</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>10788</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>8072</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>2992</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>376</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>237.5</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>13071.54364</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>5789.0944120000004</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>2245.7915069999999</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>692.00985530000003</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>181.72669110000001</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>127.32703410000001</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>88.831504010000003</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>9.0856858490000008</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>16.153537</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>32.641511059999999</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>58.237357860000003</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>77.051372720000003</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>9.3144800980000007</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>19.610023269999999</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>30.01796384</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>40.379750360000003</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>29.018676670000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>5.1130028169999999</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>17.871448659999999</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>28.04604621</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>45.302578619999998</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>43.10586575</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>4.5368894500000003</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>21.711040239999999</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>39.646274079999998</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>58.767635030000001</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>65.063463580000004</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>3.3522564510000001</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>18.14120724</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>34.01241023</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>59.362532899999998</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>72.127785259999996</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>5.45E-2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>1.6577</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>11.231400000000001</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>30.8461</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>68.851699999999994</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>134.52940000000001</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>231.07409999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>6.2311924039999997</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>18.52040234</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>46.80606598</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>88.695589299999995</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>105.62414870000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>0.39839999999999998</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>1.7478</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>5.1456</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>12.0749</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>25.188700000000001</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>47.107199999999999</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>78.232600000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>87</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>272</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>457</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>514.5</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>572</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>0</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>-41</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>138</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>257</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>315.5</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>374</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>0</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>5.6883999999999997</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>19.06521</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>36.829340000000002</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>59.065080000000002</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>77.641990000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>12245.13766</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>5222.2208840000003</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>2317.298902</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>780.45081140000002</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>95.472634929999998</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <v>1.1300237710000001</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>-53.895483890000001</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>13092.680619999999</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>5456.0174589999997</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>1541.8210759999999</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>381.75124310000001</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <v>143.27507800000001</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <v>81.18245057</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>74.510512969999994</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>13070.874229999999</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>5518.1256370000001</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>1648.9889780000001</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>402.00723319999997</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>140.17618450000001</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <v>67.389232840000005</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>27.32574623</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>13072.21305</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>5698.5651859999998</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>1932.3034540000001</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>454.93889280000002</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>139.86952830000001</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>63.757312740000003</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>13.59954443</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>13219.14602</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>5879.6236369999997</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>2161.8461689999999</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>520.95797909999999</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <v>149.92516950000001</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <v>72.766587450000003</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>0.25615879600000002</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>11045.881100000001</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>8176.3107</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>4874.2271000000001</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>2057.5648999999999</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>1301.2237</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>1042.2572</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>770.31790000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>12244.889719999999</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>5068.9998029999997</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>2017.84743</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>568.8949599</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <v>68.576690529999993</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <v>-36.664807809999999</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <v>-120.0793443</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>11863.7603</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>9093.0337999999992</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>4937.9274999999998</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>2236.4767000000002</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>1566.8389</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <v>1239.3334</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <v>1073.0057999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>13504</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>9660</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>5816</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>2867.5</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <v>-81</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <v>-225</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>-369</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>13504</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>10808.5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>8113</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <v>2854</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="3">
         <v>411</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <v>68</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="3">
         <v>-275</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>13071.54364</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>5789.0944120000004</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>2239.5725360000001</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>674.67288570000005</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>141.7256313</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>67.694616420000003</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="3">
         <v>6.9278516129999996</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="3">
         <v>0.71</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>0.4</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>0.21</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <v>0.06</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <v>0.01</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <v>0.01</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="3">
         <v>0.7</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>0.32</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>0.01</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="3">
         <v>0.71</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>0.34</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>0.01</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <v>0.01</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49">
+      <c r="C49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="3">
         <v>0.71</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>0.35</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>0.1</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>0.01</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>0.01</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>0.01</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="3">
         <v>0.72</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>0.37</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>0.12</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <v>0.01</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <v>0.01</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <v>0.01</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51">
+      <c r="C51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="3">
         <v>0.71</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>0.36</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>0.16</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <v>0.04</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <v>0.01</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <v>0.01</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="3">
         <v>0.66</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>0.48</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>0.27</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <v>0.13</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <v>0.05</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>0.03</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A53" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53">
+      <c r="C53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="3">
         <v>0.67</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>0.5</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>0.27</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="3">
         <v>0.13</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="3">
         <v>0.08</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="3">
         <v>0.05</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A54" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54">
+      <c r="C54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="3">
         <v>0.7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>0.49</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>0.34</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
         <v>0.11</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="3">
         <v>0.02</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="3">
         <v>0.01</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A55" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55">
+      <c r="C55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="3">
         <v>0.7</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>0.37</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="3">
         <v>0.04</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="3">
         <v>0.01</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <v>0.01</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A56" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56">
+      <c r="C56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="3">
         <v>0.71</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>0.4</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>0.23</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="3">
         <v>0.11</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <v>0.06</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <v>0.06</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="3">
         <v>0.06</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A57" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C57" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57">
+      <c r="C57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="3">
         <v>0.7</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>0.32</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>0.09</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="3">
         <v>0.04</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="3">
         <v>0.03</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="3">
         <v>0.04</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58">
+      <c r="C58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="3">
         <v>0.71</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>0.34</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>0.1</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="3">
         <v>0.04</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="3">
         <v>0.04</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
         <v>0.04</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A59" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59">
+      <c r="C59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="3">
         <v>0.71</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>0.35</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>0.12</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <v>0.05</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="3">
         <v>0.05</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="3">
         <v>0.05</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A60" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60">
+      <c r="C60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="3">
         <v>0.72</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>0.37</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="3">
         <v>0.06</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="3">
         <v>0.05</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="3">
         <v>0.05</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A61" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C61" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61">
+      <c r="C61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="3">
         <v>0.71</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>0.36</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>0.19</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <v>0.09</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="3">
         <v>0.06</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="3">
         <v>0.06</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A62" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62">
+      <c r="C62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="3">
         <v>0.66</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>0.48</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="3">
         <v>0.13</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="3">
         <v>0.05</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A63" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63">
+      <c r="C63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="3">
         <v>0.67</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>0.5</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>0.27</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="3">
         <v>0.13</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="3">
         <v>0.08</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="3">
         <v>0.05</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A64" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C64" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64">
+      <c r="C64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="3">
         <v>0.7</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>0.49</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>0.35</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="3">
         <v>0.12</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="3">
         <v>0.04</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="3">
         <v>0.03</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A65" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C65" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65">
+      <c r="C65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="3">
         <v>0.7</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>0.37</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <v>0.17</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="3">
         <v>0.04</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
         <v>0.04</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66">
+      <c r="C66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="3">
         <v>0</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>0</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="3">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A67" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67">
+      <c r="C67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="3">
         <v>0</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>0</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="3">
         <v>2.3E-3</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="3">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68">
+      <c r="C68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="3">
         <v>0</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>0</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="3">
         <v>1.4E-3</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="3">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="3">
         <v>3.8E-3</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="3">
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A69" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C69" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69">
+      <c r="C69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="3">
         <v>0</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>0</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="3">
         <v>1.8E-3</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="3">
         <v>3.3E-3</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="3">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="3">
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A70" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C70" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70">
+      <c r="C70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="3">
         <v>0</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>0</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="3">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="3">
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A71" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C71" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71">
+      <c r="C71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="3">
         <v>0</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>0</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="3">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="3">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="3">
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A72" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C72" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72">
+      <c r="C72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="3">
         <v>0</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="3">
         <v>2E-3</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="3">
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A73" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C73" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73">
+      <c r="C73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="3">
         <v>0</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="3">
         <v>1.4E-3</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="3">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="3">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="74" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A74" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C74" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74">
+      <c r="C74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="3">
         <v>0</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>0</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="3">
         <v>2E-3</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="3">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="3">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="3">
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A75" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C75" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75">
+      <c r="C75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="3">
         <v>0</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>0</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="3">
         <v>5.3E-3</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="3">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="76" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C76" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76">
+      <c r="C76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="3">
         <v>0.1212</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>0.15579999999999999</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
         <v>0.1643</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="3">
         <v>0.15759999999999999</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="3">
         <v>0.1628</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="3">
         <v>0.17030000000000001</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="3">
         <v>0.18909999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A77" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C77" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77">
+      <c r="C77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="3">
         <v>0.1249</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>0.14779999999999999</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="3">
         <v>0.15440000000000001</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="3">
         <v>0.1668</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="3">
         <v>0.1958</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="3">
         <v>0.23419999999999999</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="3">
         <v>0.28189999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="78" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A78" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C78" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78">
+      <c r="C78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="3">
         <v>0.11840000000000001</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>0.14080000000000001</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="3">
         <v>0.14480000000000001</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="3">
         <v>0.15559999999999999</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="3">
         <v>0.17979999999999999</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="3">
         <v>0.2112</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="3">
         <v>0.25019999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A79" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C79" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79">
+      <c r="C79" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="3">
         <v>0.11260000000000001</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>0.1331</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="3">
         <v>0.13780000000000001</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="3">
         <v>0.14580000000000001</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="3">
         <v>0.1663</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="3">
         <v>0.1923</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="3">
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="80" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A80" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C80" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80">
+      <c r="C80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="3">
         <v>0.11119999999999999</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>0.13150000000000001</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="3">
         <v>0.13769999999999999</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="3">
         <v>0.14449999999999999</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="3">
         <v>0.16259999999999999</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="3">
         <v>0.17549999999999999</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="81" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A81" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C81" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81">
+      <c r="C81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="3">
         <v>0.1212</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>0.15440000000000001</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="3">
         <v>0.1618</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="3">
         <v>0.15720000000000001</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="3">
         <v>0.16569999999999999</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="3">
         <v>0.17549999999999999</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="3">
         <v>0.19350000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A82" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C82" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82">
+      <c r="C82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="3">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="3">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="3">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="3">
         <v>4.58E-2</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="3">
         <v>3.85E-2</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="3">
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A83" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C83" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83">
+      <c r="C83" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="3">
         <v>9.01E-2</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="3">
         <v>5.28E-2</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="3">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="3">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="3">
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A84" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C84" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84">
+      <c r="C84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="3">
         <v>0.1157</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>0.1193</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="3">
         <v>0.1212</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="3">
         <v>0.1246</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="3">
         <v>0.11169999999999999</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="3">
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="3">
         <v>9.06E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A85" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C85" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85">
+      <c r="C85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="3">
         <v>0.11609999999999999</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>0.1396</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="3">
         <v>0.1454</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="3">
         <v>0.14050000000000001</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="3">
         <v>0.14860000000000001</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="3">
         <v>0.1605</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="3">
         <v>0.17849999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A86" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C86" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86">
+      <c r="C86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="3">
         <v>0.1027</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>0.21729999999999999</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
         <v>0.32540000000000002</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="3">
         <v>0.36349999999999999</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="3">
         <v>0.37430000000000002</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="3">
         <v>0.37590000000000001</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="3">
         <v>0.38929999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A87" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C87" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87">
+      <c r="C87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="3">
         <v>9.3399999999999997E-2</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>0.2545</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="3">
         <v>0.35060000000000002</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="3">
         <v>0.36520000000000002</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="3">
         <v>0.37930000000000003</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="3">
         <v>0.3856</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="3">
         <v>0.38979999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A88" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C88" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88">
+      <c r="C88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>0.26050000000000001</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="3">
         <v>0.34749999999999998</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="3">
         <v>0.36199999999999999</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="3">
         <v>0.37090000000000001</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="3">
         <v>0.38</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="3">
         <v>0.3876</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A89" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C89" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89">
+      <c r="C89" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="3">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>0.26340000000000002</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>0.3448</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="3">
         <v>0.36159999999999998</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="3">
         <v>0.36980000000000002</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="3">
         <v>0.374</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="3">
         <v>0.38879999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A90" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C90" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90">
+      <c r="C90" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="3">
         <v>0.10009999999999999</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>0.26119999999999999</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>0.34960000000000002</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="3">
         <v>0.36499999999999999</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="3">
         <v>0.37390000000000001</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="3">
         <v>0.37540000000000001</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="3">
         <v>0.38929999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A91" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C91" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91">
+      <c r="C91" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="3">
         <v>0.1027</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>0.24790000000000001</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>0.33739999999999998</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="3">
         <v>0.36399999999999999</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="3">
         <v>0.3735</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="3">
         <v>0.38119999999999998</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="3">
         <v>0.39679999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A92" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C92" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92">
+      <c r="C92" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="3">
         <v>0.1125</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>0.27350000000000002</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="3">
         <v>0.4073</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="3">
         <v>0.40250000000000002</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="3">
         <v>0.39600000000000002</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="3">
         <v>0.39539999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A93" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C93" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93">
+      <c r="C93" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="3">
         <v>0.1137</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>0.29220000000000002</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="3">
         <v>0.42380000000000001</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="3">
         <v>0.44790000000000002</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="3">
         <v>0.44180000000000003</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="3">
         <v>0.43619999999999998</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="3">
         <v>0.43209999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A94" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C94" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94">
+      <c r="C94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="3">
         <v>0.1183</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>0.31979999999999997</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="3">
         <v>0.38569999999999999</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="3">
         <v>0.44350000000000001</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="3">
         <v>0.46339999999999998</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="3">
         <v>0.47220000000000001</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="3">
         <v>0.47870000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A95" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C95" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95">
+      <c r="C95" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="3">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>0.27900000000000003</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>0.38600000000000001</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="3">
         <v>0.39029999999999998</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="3">
         <v>0.3826</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="3">
         <v>0.38669999999999999</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="3">
         <v>0.39579999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A96" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C96" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96">
+      <c r="C96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>3.8E-3</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="3">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="3">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="3">
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="97" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A97" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C97" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97">
+      <c r="C97" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="3">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>7.6E-3</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="3">
         <v>1.04E-2</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="3">
         <v>1.54E-2</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="3">
         <v>2.29E-2</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="3">
         <v>3.44E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="98" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A98" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C98" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98">
+      <c r="C98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="3">
         <v>2.8E-3</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>4.3E-3</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="3">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="3">
         <v>1.24E-2</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="3">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="3">
         <v>2.7799999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="99" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A99" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C99" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99">
+      <c r="C99" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="3">
         <v>2.8E-3</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="3">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="3">
         <v>1.03E-2</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="3">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="3">
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="100" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A100" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C100" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100">
+      <c r="C100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="3">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="3">
         <v>1.32E-2</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="3">
         <v>1.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="101" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A101" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C101" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101">
+      <c r="C101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>3.3E-3</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
         <v>4.3E-3</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="3">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="3">
         <v>5.3E-3</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="3">
         <v>7.6E-3</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="3">
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="102" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A102" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102">
+      <c r="C102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="3">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="3">
         <v>3.3E-3</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="3">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="3">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="103" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A103" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C103" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103">
+      <c r="C103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="3">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="3">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="3">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="3">
         <v>3.3E-3</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="3">
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="104" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A104" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C104" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104">
+      <c r="C104" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="3">
         <v>2E-3</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
         <v>6.6E-3</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="3">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="3">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="3">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="3">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="105" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A105" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C105" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105">
+      <c r="C105" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="3">
         <v>2.8E-3</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="3">
         <v>3.8E-3</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="3">
         <v>5.3E-3</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="3">
         <v>6.3E-3</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="3">
         <v>1.34E-2</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="3">
         <v>2.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="106" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A106" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C106" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106">
+      <c r="C106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="3">
         <v>0.24</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <v>0.36</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="3">
         <v>0.35</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="3">
         <v>0.39</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="3">
         <v>0.41</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="3">
         <v>0.43</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="3">
         <v>0.42</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="107" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A107" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C107" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107">
+      <c r="C107" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="3">
         <v>0.21</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <v>0.4</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="3">
         <v>0.41</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="3">
         <v>0.41</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="3">
         <v>0.41</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="3">
         <v>0.41</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="108" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A108" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C108" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108">
+      <c r="C108" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="3">
         <v>0.22</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="3">
         <v>0.39</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="3">
         <v>0.41</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="3">
         <v>0.42</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="3">
         <v>0.42</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="3">
         <v>0.42</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="3">
         <v>0.41</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="109" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A109" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C109" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109">
+      <c r="C109" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="3">
         <v>0.22</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <v>0.38</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="3">
         <v>0.4</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="3">
         <v>0.41</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="3">
         <v>0.42</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="3">
         <v>0.43</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="3">
         <v>0.42</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="110" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A110" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C110" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110">
+      <c r="C110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="3">
         <v>0.23</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="3">
         <v>0.38</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="3">
         <v>0.39</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="3">
         <v>0.42</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="3">
         <v>0.42</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="3">
         <v>0.43</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="3">
         <v>0.42</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="111" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A111" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C111" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111">
+      <c r="C111" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="3">
         <v>0.24</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="3">
         <v>0.36</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="3">
         <v>0.36</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="3">
         <v>0.39</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="3">
         <v>0.41</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="3">
         <v>0.42</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="3">
         <v>0.41</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="112" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A112" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C112" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112">
+      <c r="C112" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="3">
         <v>0.19</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <v>0.25</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="3">
         <v>0.32</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="3">
         <v>0.38</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="3">
         <v>0.42</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="3">
         <v>0.45</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="3">
         <v>0.47</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="113" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A113" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C113" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113">
+      <c r="C113" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="3">
         <v>0.19</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="3">
         <v>0.25</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="3">
         <v>0.31</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="3">
         <v>0.36</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="3">
         <v>0.4</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="3">
         <v>0.43</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="3">
         <v>0.44</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="114" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A114" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C114" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114">
+      <c r="C114" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="3">
         <v>0.23</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="3">
         <v>0.31</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="3">
         <v>0.33</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="3">
         <v>0.34</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="3">
         <v>0.35</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="3">
         <v>0.36</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="3">
         <v>0.36</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="115" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A115" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C115" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115">
+      <c r="C115" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="3">
         <v>0.22</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="3">
         <v>0.33</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="3">
         <v>0.33</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="3">
         <v>0.39</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="3">
         <v>0.42</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="3">
         <v>0.43</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="3">
         <v>0.42</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="116" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A116" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C116" t="s">
-        <v>21</v>
-      </c>
-      <c r="D116">
+      <c r="C116" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="3">
         <v>0.64970000000000006</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="3">
         <v>0.41060000000000002</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="3">
         <v>0.30380000000000001</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="3">
         <v>0.2293</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="3">
         <v>0.1915</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="3">
         <v>0.17080000000000001</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="3">
         <v>0.1595</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="117" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A117" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C117" t="s">
-        <v>21</v>
-      </c>
-      <c r="D117">
+      <c r="C117" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="3">
         <v>0.67730000000000001</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="3">
         <v>0.32390000000000002</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="3">
         <v>0.22120000000000001</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="3">
         <v>0.1948</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="3">
         <v>0.17710000000000001</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="3">
         <v>0.1615</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="3">
         <v>0.15129999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="118" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C118" t="s">
-        <v>21</v>
-      </c>
-      <c r="D118">
+      <c r="C118" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="3">
         <v>0.66879999999999995</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="3">
         <v>0.33410000000000001</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="3">
         <v>0.2253</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="3">
         <v>0.19800000000000001</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="3">
         <v>0.17799999999999999</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="3">
         <v>0.16039999999999999</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="3">
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="119" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A119" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C119" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119">
+      <c r="C119" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="3">
         <v>0.66579999999999995</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="3">
         <v>0.34150000000000003</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="3">
         <v>0.2356</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="3">
         <v>0.20130000000000001</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="3">
         <v>0.18129999999999999</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="3">
         <v>0.16189999999999999</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="3">
         <v>0.1482</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="120" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A120" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C120" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120">
+      <c r="C120" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="3">
         <v>0.65610000000000002</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="3">
         <v>0.34439999999999998</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="3">
         <v>0.23849999999999999</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="3">
         <v>0.1983</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="3">
         <v>0.17660000000000001</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="3">
         <v>0.15759999999999999</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="3">
         <v>0.14549999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="121" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A121" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C121" t="s">
-        <v>21</v>
-      </c>
-      <c r="D121">
+      <c r="C121" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="3">
         <v>0.64970000000000006</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="3">
         <v>0.38169999999999998</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="3">
         <v>0.28420000000000001</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="3">
         <v>0.224</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="3">
         <v>0.1915</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="3">
         <v>0.17169999999999999</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="3">
         <v>0.16039999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="122" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A122" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C122" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122">
+      <c r="C122" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="3">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="3">
         <v>0.44729999999999998</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="3">
         <v>0.27339999999999998</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="3">
         <v>0.19869999999999999</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="3">
         <v>0.16470000000000001</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="3">
         <v>0.1411</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="3">
         <v>0.12540000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="123" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A123" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C123" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123">
+      <c r="C123" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="3">
         <v>0.66449999999999998</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="3">
         <v>0.4264</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="3">
         <v>0.24429999999999999</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="3">
         <v>0.17549999999999999</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="3">
         <v>0.14779999999999999</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="3">
         <v>0.128</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="3">
         <v>0.1169</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="124" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A124" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C124" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124">
+      <c r="C124" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="3">
         <v>0.63670000000000004</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="3">
         <v>0.35270000000000001</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="3">
         <v>0.25979999999999998</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="3">
         <v>0.18759999999999999</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="3">
         <v>0.15490000000000001</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="3">
         <v>0.13830000000000001</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="3">
         <v>0.126</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="125" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A125" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C125" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125">
+      <c r="C125" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="3">
         <v>0.66500000000000004</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="3">
         <v>0.37319999999999998</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="3">
         <v>0.26200000000000001</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="3">
         <v>0.19719999999999999</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="3">
         <v>0.1696</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="3">
         <v>0.1547</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="3">
         <v>0.14710000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="126" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A126" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C126" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126">
+      <c r="C126" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="3">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="3">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="3">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="3">
         <v>1.55E-2</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="3">
         <v>1.72E-2</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="3">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="127" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A127" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C127" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127">
+      <c r="C127" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="3">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="3">
         <v>1.46E-2</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="3">
         <v>1.44E-2</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="3">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="3">
         <v>1.83E-2</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="3">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="3">
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="128" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A128" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C128" t="s">
-        <v>21</v>
-      </c>
-      <c r="D128">
+      <c r="C128" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="3">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="3">
         <v>1.46E-2</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="3">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="3">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="3">
         <v>1.78E-2</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="3">
         <v>2.01E-2</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="3">
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="129" spans="1:10" ht="12.75">
+      <c r="A129" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C129" t="s">
-        <v>21</v>
-      </c>
-      <c r="D129">
+      <c r="C129" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="3">
         <v>1.29E-2</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="3">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="3">
         <v>1.44E-2</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="3">
         <v>1.54E-2</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="3">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="3">
         <v>1.95E-2</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="3">
         <v>2.12E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="130" spans="1:10" ht="12.75">
+      <c r="A130" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C130" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130">
+      <c r="C130" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="3">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="3">
         <v>1.44E-2</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="3">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="3">
         <v>1.54E-2</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="3">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="3">
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="131" spans="1:10" ht="12.75">
+      <c r="A131" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C131" t="s">
-        <v>21</v>
-      </c>
-      <c r="D131">
+      <c r="C131" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="3">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="3">
         <v>1.12E-2</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="3">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="3">
         <v>1.49E-2</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="3">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="3">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="3">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="132" spans="1:10" ht="12.75">
+      <c r="A132" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C132" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132">
+      <c r="C132" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="3">
         <v>2.98E-2</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="3">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="3">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="3">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="3">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="3">
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="133" spans="1:10" ht="12.75">
+      <c r="A133" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C133" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133">
+      <c r="C133" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="3">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="3">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="3">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="3">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="3">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="3">
         <v>6.6E-3</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="3">
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="134" spans="1:10" ht="12.75">
+      <c r="A134" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C134" t="s">
-        <v>21</v>
-      </c>
-      <c r="D134">
+      <c r="C134" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="3">
         <v>1.35E-2</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="3">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="3">
         <v>1.44E-2</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="3">
         <v>1.46E-2</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="3">
         <v>1.38E-2</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="3">
         <v>1.35E-2</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="3">
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="135" spans="1:10" ht="12.75">
+      <c r="A135" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C135" t="s">
-        <v>21</v>
-      </c>
-      <c r="D135">
+      <c r="C135" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="3">
         <v>1.35E-2</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="3">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="3">
         <v>1.44E-2</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="3">
         <v>1.52E-2</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="3">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="3">
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1008" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1009" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1010" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1011" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1012" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1013" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1014" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1015" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1016" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1017" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1018" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1019" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1020" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1021" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1022" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1023" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1024" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1025" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1026" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1027" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1028" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1029" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1030" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1031" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1032" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1033" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:10" ht="12.75"/>
+    <row r="137" spans="1:10" ht="12.75"/>
+    <row r="138" spans="1:10" ht="12.75"/>
+    <row r="139" spans="1:10" ht="12.75"/>
+    <row r="140" spans="1:10" ht="12.75"/>
+    <row r="141" spans="1:10" ht="12.75"/>
+    <row r="142" spans="1:10" ht="12.75"/>
+    <row r="143" spans="1:10" ht="12.75"/>
+    <row r="144" spans="1:10" ht="12.75"/>
+    <row r="145" s="10" customFormat="1" ht="12.75"/>
+    <row r="146" s="10" customFormat="1" ht="12.75"/>
+    <row r="147" s="10" customFormat="1" ht="12.75"/>
+    <row r="148" s="10" customFormat="1" ht="12.75"/>
+    <row r="149" s="10" customFormat="1" ht="12.75"/>
+    <row r="150" s="10" customFormat="1" ht="12.75"/>
+    <row r="151" s="10" customFormat="1" ht="12.75"/>
+    <row r="152" s="10" customFormat="1" ht="12.75"/>
+    <row r="153" s="10" customFormat="1" ht="12.75"/>
+    <row r="154" s="10" customFormat="1" ht="12.75"/>
+    <row r="155" s="10" customFormat="1" ht="12.75"/>
+    <row r="156" s="10" customFormat="1" ht="12.75"/>
+    <row r="157" s="10" customFormat="1" ht="12.75"/>
+    <row r="158" s="10" customFormat="1" ht="12.75"/>
+    <row r="159" s="10" customFormat="1" ht="12.75"/>
+    <row r="160" s="10" customFormat="1" ht="12.75"/>
+    <row r="161" s="10" customFormat="1" ht="12.75"/>
+    <row r="162" s="10" customFormat="1" ht="12.75"/>
+    <row r="163" s="10" customFormat="1" ht="12.75"/>
+    <row r="164" s="10" customFormat="1" ht="12.75"/>
+    <row r="165" s="10" customFormat="1" ht="12.75"/>
+    <row r="166" s="10" customFormat="1" ht="12.75"/>
+    <row r="167" s="10" customFormat="1" ht="12.75"/>
+    <row r="168" s="10" customFormat="1" ht="12.75"/>
+    <row r="169" s="10" customFormat="1" ht="12.75"/>
+    <row r="170" s="10" customFormat="1" ht="12.75"/>
+    <row r="171" s="10" customFormat="1" ht="12.75"/>
+    <row r="172" s="10" customFormat="1" ht="12.75"/>
+    <row r="173" s="10" customFormat="1" ht="12.75"/>
+    <row r="174" s="10" customFormat="1" ht="12.75"/>
+    <row r="175" s="10" customFormat="1" ht="12.75"/>
+    <row r="176" s="10" customFormat="1" ht="12.75"/>
+    <row r="177" s="10" customFormat="1" ht="12.75"/>
+    <row r="178" s="10" customFormat="1" ht="12.75"/>
+    <row r="179" s="10" customFormat="1" ht="12.75"/>
+    <row r="180" s="10" customFormat="1" ht="12.75"/>
+    <row r="181" s="10" customFormat="1" ht="12.75"/>
+    <row r="182" s="10" customFormat="1" ht="12.75"/>
+    <row r="183" s="10" customFormat="1" ht="12.75"/>
+    <row r="184" s="10" customFormat="1" ht="12.75"/>
+    <row r="185" s="10" customFormat="1" ht="12.75"/>
+    <row r="186" s="10" customFormat="1" ht="12.75"/>
+    <row r="187" s="10" customFormat="1" ht="12.75"/>
+    <row r="188" s="10" customFormat="1" ht="12.75"/>
+    <row r="189" s="10" customFormat="1" ht="12.75"/>
+    <row r="190" s="10" customFormat="1" ht="12.75"/>
+    <row r="191" s="10" customFormat="1" ht="12.75"/>
+    <row r="192" s="10" customFormat="1" ht="12.75"/>
+    <row r="193" s="10" customFormat="1" ht="12.75"/>
+    <row r="194" s="10" customFormat="1" ht="12.75"/>
+    <row r="195" s="10" customFormat="1" ht="12.75"/>
+    <row r="196" s="10" customFormat="1" ht="12.75"/>
+    <row r="197" s="10" customFormat="1" ht="12.75"/>
+    <row r="198" s="10" customFormat="1" ht="12.75"/>
+    <row r="199" s="10" customFormat="1" ht="12.75"/>
+    <row r="200" s="10" customFormat="1" ht="12.75"/>
+    <row r="201" s="10" customFormat="1" ht="12.75"/>
+    <row r="202" s="10" customFormat="1" ht="12.75"/>
+    <row r="203" s="10" customFormat="1" ht="12.75"/>
+    <row r="204" s="10" customFormat="1" ht="12.75"/>
+    <row r="205" s="10" customFormat="1" ht="12.75"/>
+    <row r="206" s="10" customFormat="1" ht="12.75"/>
+    <row r="207" s="10" customFormat="1" ht="12.75"/>
+    <row r="208" s="10" customFormat="1" ht="12.75"/>
+    <row r="209" s="10" customFormat="1" ht="12.75"/>
+    <row r="210" s="10" customFormat="1" ht="12.75"/>
+    <row r="211" s="10" customFormat="1" ht="12.75"/>
+    <row r="212" s="10" customFormat="1" ht="12.75"/>
+    <row r="213" s="10" customFormat="1" ht="12.75"/>
+    <row r="214" s="10" customFormat="1" ht="12.75"/>
+    <row r="215" s="10" customFormat="1" ht="12.75"/>
+    <row r="216" s="10" customFormat="1" ht="12.75"/>
+    <row r="217" s="10" customFormat="1" ht="12.75"/>
+    <row r="218" s="10" customFormat="1" ht="12.75"/>
+    <row r="219" s="10" customFormat="1" ht="12.75"/>
+    <row r="220" s="10" customFormat="1" ht="12.75"/>
+    <row r="221" s="10" customFormat="1" ht="12.75"/>
+    <row r="222" s="10" customFormat="1" ht="12.75"/>
+    <row r="223" s="10" customFormat="1" ht="12.75"/>
+    <row r="224" s="10" customFormat="1" ht="12.75"/>
+    <row r="225" s="10" customFormat="1" ht="12.75"/>
+    <row r="226" s="10" customFormat="1" ht="12.75"/>
+    <row r="227" s="10" customFormat="1" ht="12.75"/>
+    <row r="228" s="10" customFormat="1" ht="12.75"/>
+    <row r="229" s="10" customFormat="1" ht="12.75"/>
+    <row r="230" s="10" customFormat="1" ht="12.75"/>
+    <row r="231" s="10" customFormat="1" ht="12.75"/>
+    <row r="232" s="10" customFormat="1" ht="12.75"/>
+    <row r="233" s="10" customFormat="1" ht="12.75"/>
+    <row r="234" s="10" customFormat="1" ht="12.75"/>
+    <row r="235" s="10" customFormat="1" ht="12.75"/>
+    <row r="236" s="10" customFormat="1" ht="12.75"/>
+    <row r="237" s="10" customFormat="1" ht="12.75"/>
+    <row r="238" s="10" customFormat="1" ht="12.75"/>
+    <row r="239" s="10" customFormat="1" ht="12.75"/>
+    <row r="240" s="10" customFormat="1" ht="12.75"/>
+    <row r="241" s="10" customFormat="1" ht="12.75"/>
+    <row r="242" s="10" customFormat="1" ht="12.75"/>
+    <row r="243" s="10" customFormat="1" ht="12.75"/>
+    <row r="244" s="10" customFormat="1" ht="12.75"/>
+    <row r="245" s="10" customFormat="1" ht="12.75"/>
+    <row r="246" s="10" customFormat="1" ht="12.75"/>
+    <row r="247" s="10" customFormat="1" ht="12.75"/>
+    <row r="248" s="10" customFormat="1" ht="12.75"/>
+    <row r="249" s="10" customFormat="1" ht="12.75"/>
+    <row r="250" s="10" customFormat="1" ht="12.75"/>
+    <row r="251" s="10" customFormat="1" ht="12.75"/>
+    <row r="252" s="10" customFormat="1" ht="12.75"/>
+    <row r="253" s="10" customFormat="1" ht="12.75"/>
+    <row r="254" s="10" customFormat="1" ht="12.75"/>
+    <row r="255" s="10" customFormat="1" ht="12.75"/>
+    <row r="256" s="10" customFormat="1" ht="12.75"/>
+    <row r="257" s="10" customFormat="1" ht="12.75"/>
+    <row r="258" s="10" customFormat="1" ht="12.75"/>
+    <row r="259" s="10" customFormat="1" ht="12.75"/>
+    <row r="260" s="10" customFormat="1" ht="12.75"/>
+    <row r="261" s="10" customFormat="1" ht="12.75"/>
+    <row r="262" s="10" customFormat="1" ht="12.75"/>
+    <row r="263" s="10" customFormat="1" ht="12.75"/>
+    <row r="264" s="10" customFormat="1" ht="12.75"/>
+    <row r="265" s="10" customFormat="1" ht="12.75"/>
+    <row r="266" s="10" customFormat="1" ht="12.75"/>
+    <row r="267" s="10" customFormat="1" ht="12.75"/>
+    <row r="268" s="10" customFormat="1" ht="12.75"/>
+    <row r="269" s="10" customFormat="1" ht="12.75"/>
+    <row r="270" s="10" customFormat="1" ht="12.75"/>
+    <row r="271" s="10" customFormat="1" ht="12.75"/>
+    <row r="272" s="10" customFormat="1" ht="12.75"/>
+    <row r="273" s="10" customFormat="1" ht="12.75"/>
+    <row r="274" s="10" customFormat="1" ht="12.75"/>
+    <row r="275" s="10" customFormat="1" ht="12.75"/>
+    <row r="276" s="10" customFormat="1" ht="12.75"/>
+    <row r="277" s="10" customFormat="1" ht="12.75"/>
+    <row r="278" s="10" customFormat="1" ht="12.75"/>
+    <row r="279" s="10" customFormat="1" ht="12.75"/>
+    <row r="280" s="10" customFormat="1" ht="12.75"/>
+    <row r="281" s="10" customFormat="1" ht="12.75"/>
+    <row r="282" s="10" customFormat="1" ht="12.75"/>
+    <row r="283" s="10" customFormat="1" ht="12.75"/>
+    <row r="284" s="10" customFormat="1" ht="12.75"/>
+    <row r="285" s="10" customFormat="1" ht="12.75"/>
+    <row r="286" s="10" customFormat="1" ht="12.75"/>
+    <row r="287" s="10" customFormat="1" ht="12.75"/>
+    <row r="288" s="10" customFormat="1" ht="12.75"/>
+    <row r="289" s="10" customFormat="1" ht="12.75"/>
+    <row r="290" s="10" customFormat="1" ht="12.75"/>
+    <row r="291" s="10" customFormat="1" ht="12.75"/>
+    <row r="292" s="10" customFormat="1" ht="12.75"/>
+    <row r="293" s="10" customFormat="1" ht="12.75"/>
+    <row r="294" s="10" customFormat="1" ht="12.75"/>
+    <row r="295" s="10" customFormat="1" ht="12.75"/>
+    <row r="296" s="10" customFormat="1" ht="12.75"/>
+    <row r="297" s="10" customFormat="1" ht="12.75"/>
+    <row r="298" s="10" customFormat="1" ht="12.75"/>
+    <row r="299" s="10" customFormat="1" ht="12.75"/>
+    <row r="300" s="10" customFormat="1" ht="12.75"/>
+    <row r="301" s="10" customFormat="1" ht="12.75"/>
+    <row r="302" s="10" customFormat="1" ht="12.75"/>
+    <row r="303" s="10" customFormat="1" ht="12.75"/>
+    <row r="304" s="10" customFormat="1" ht="12.75"/>
+    <row r="305" s="10" customFormat="1" ht="12.75"/>
+    <row r="306" s="10" customFormat="1" ht="12.75"/>
+    <row r="307" s="10" customFormat="1" ht="12.75"/>
+    <row r="308" s="10" customFormat="1" ht="12.75"/>
+    <row r="309" s="10" customFormat="1" ht="12.75"/>
+    <row r="310" s="10" customFormat="1" ht="12.75"/>
+    <row r="311" s="10" customFormat="1" ht="12.75"/>
+    <row r="312" s="10" customFormat="1" ht="12.75"/>
+    <row r="313" s="10" customFormat="1" ht="12.75"/>
+    <row r="314" s="10" customFormat="1" ht="12.75"/>
+    <row r="315" s="10" customFormat="1" ht="12.75"/>
+    <row r="316" s="10" customFormat="1" ht="12.75"/>
+    <row r="317" s="10" customFormat="1" ht="12.75"/>
+    <row r="318" s="10" customFormat="1" ht="12.75"/>
+    <row r="319" s="10" customFormat="1" ht="12.75"/>
+    <row r="320" s="10" customFormat="1" ht="12.75"/>
+    <row r="321" s="10" customFormat="1" ht="12.75"/>
+    <row r="322" s="10" customFormat="1" ht="12.75"/>
+    <row r="323" s="10" customFormat="1" ht="12.75"/>
+    <row r="324" s="10" customFormat="1" ht="12.75"/>
+    <row r="325" s="10" customFormat="1" ht="12.75"/>
+    <row r="326" s="10" customFormat="1" ht="12.75"/>
+    <row r="327" s="10" customFormat="1" ht="12.75"/>
+    <row r="328" s="10" customFormat="1" ht="12.75"/>
+    <row r="329" s="10" customFormat="1" ht="12.75"/>
+    <row r="330" s="10" customFormat="1" ht="12.75"/>
+    <row r="331" s="10" customFormat="1" ht="12.75"/>
+    <row r="332" s="10" customFormat="1" ht="12.75"/>
+    <row r="333" s="10" customFormat="1" ht="12.75"/>
+    <row r="334" s="10" customFormat="1" ht="12.75"/>
+    <row r="335" s="10" customFormat="1" ht="12.75"/>
+    <row r="336" s="10" customFormat="1" ht="12.75"/>
+    <row r="337" s="10" customFormat="1" ht="12.75"/>
+    <row r="338" s="10" customFormat="1" ht="12.75"/>
+    <row r="339" s="10" customFormat="1" ht="12.75"/>
+    <row r="340" s="10" customFormat="1" ht="12.75"/>
+    <row r="341" s="10" customFormat="1" ht="12.75"/>
+    <row r="342" s="10" customFormat="1" ht="12.75"/>
+    <row r="343" s="10" customFormat="1" ht="12.75"/>
+    <row r="344" s="10" customFormat="1" ht="12.75"/>
+    <row r="345" s="10" customFormat="1" ht="12.75"/>
+    <row r="346" s="10" customFormat="1" ht="12.75"/>
+    <row r="347" s="10" customFormat="1" ht="12.75"/>
+    <row r="348" s="10" customFormat="1" ht="12.75"/>
+    <row r="349" s="10" customFormat="1" ht="12.75"/>
+    <row r="350" s="10" customFormat="1" ht="12.75"/>
+    <row r="351" s="10" customFormat="1" ht="12.75"/>
+    <row r="352" s="10" customFormat="1" ht="12.75"/>
+    <row r="353" s="10" customFormat="1" ht="12.75"/>
+    <row r="354" s="10" customFormat="1" ht="12.75"/>
+    <row r="355" s="10" customFormat="1" ht="12.75"/>
+    <row r="356" s="10" customFormat="1" ht="12.75"/>
+    <row r="357" s="10" customFormat="1" ht="12.75"/>
+    <row r="358" s="10" customFormat="1" ht="12.75"/>
+    <row r="359" s="10" customFormat="1" ht="12.75"/>
+    <row r="360" s="10" customFormat="1" ht="12.75"/>
+    <row r="361" s="10" customFormat="1" ht="12.75"/>
+    <row r="362" s="10" customFormat="1" ht="12.75"/>
+    <row r="363" s="10" customFormat="1" ht="12.75"/>
+    <row r="364" s="10" customFormat="1" ht="12.75"/>
+    <row r="365" s="10" customFormat="1" ht="12.75"/>
+    <row r="366" s="10" customFormat="1" ht="12.75"/>
+    <row r="367" s="10" customFormat="1" ht="12.75"/>
+    <row r="368" s="10" customFormat="1" ht="12.75"/>
+    <row r="369" s="10" customFormat="1" ht="12.75"/>
+    <row r="370" s="10" customFormat="1" ht="12.75"/>
+    <row r="371" s="10" customFormat="1" ht="12.75"/>
+    <row r="372" s="10" customFormat="1" ht="12.75"/>
+    <row r="373" s="10" customFormat="1" ht="12.75"/>
+    <row r="374" s="10" customFormat="1" ht="12.75"/>
+    <row r="375" s="10" customFormat="1" ht="12.75"/>
+    <row r="376" s="10" customFormat="1" ht="12.75"/>
+    <row r="377" s="10" customFormat="1" ht="12.75"/>
+    <row r="378" s="10" customFormat="1" ht="12.75"/>
+    <row r="379" s="10" customFormat="1" ht="12.75"/>
+    <row r="380" s="10" customFormat="1" ht="12.75"/>
+    <row r="381" s="10" customFormat="1" ht="12.75"/>
+    <row r="382" s="10" customFormat="1" ht="12.75"/>
+    <row r="383" s="10" customFormat="1" ht="12.75"/>
+    <row r="384" s="10" customFormat="1" ht="12.75"/>
+    <row r="385" s="10" customFormat="1" ht="12.75"/>
+    <row r="386" s="10" customFormat="1" ht="12.75"/>
+    <row r="387" s="10" customFormat="1" ht="12.75"/>
+    <row r="388" s="10" customFormat="1" ht="12.75"/>
+    <row r="389" s="10" customFormat="1" ht="12.75"/>
+    <row r="390" s="10" customFormat="1" ht="12.75"/>
+    <row r="391" s="10" customFormat="1" ht="12.75"/>
+    <row r="392" s="10" customFormat="1" ht="12.75"/>
+    <row r="393" s="10" customFormat="1" ht="12.75"/>
+    <row r="394" s="10" customFormat="1" ht="12.75"/>
+    <row r="395" s="10" customFormat="1" ht="12.75"/>
+    <row r="396" s="10" customFormat="1" ht="12.75"/>
+    <row r="397" s="10" customFormat="1" ht="12.75"/>
+    <row r="398" s="10" customFormat="1" ht="12.75"/>
+    <row r="399" s="10" customFormat="1" ht="12.75"/>
+    <row r="400" s="10" customFormat="1" ht="12.75"/>
+    <row r="401" s="10" customFormat="1" ht="12.75"/>
+    <row r="402" s="10" customFormat="1" ht="12.75"/>
+    <row r="403" s="10" customFormat="1" ht="12.75"/>
+    <row r="404" s="10" customFormat="1" ht="12.75"/>
+    <row r="405" s="10" customFormat="1" ht="12.75"/>
+    <row r="406" s="10" customFormat="1" ht="12.75"/>
+    <row r="407" s="10" customFormat="1" ht="12.75"/>
+    <row r="408" s="10" customFormat="1" ht="12.75"/>
+    <row r="409" s="10" customFormat="1" ht="12.75"/>
+    <row r="410" s="10" customFormat="1" ht="12.75"/>
+    <row r="411" s="10" customFormat="1" ht="12.75"/>
+    <row r="412" s="10" customFormat="1" ht="12.75"/>
+    <row r="413" s="10" customFormat="1" ht="12.75"/>
+    <row r="414" s="10" customFormat="1" ht="12.75"/>
+    <row r="415" s="10" customFormat="1" ht="12.75"/>
+    <row r="416" s="10" customFormat="1" ht="12.75"/>
+    <row r="417" s="10" customFormat="1" ht="12.75"/>
+    <row r="418" s="10" customFormat="1" ht="12.75"/>
+    <row r="419" s="10" customFormat="1" ht="12.75"/>
+    <row r="420" s="10" customFormat="1" ht="12.75"/>
+    <row r="421" s="10" customFormat="1" ht="12.75"/>
+    <row r="422" s="10" customFormat="1" ht="12.75"/>
+    <row r="423" s="10" customFormat="1" ht="12.75"/>
+    <row r="424" s="10" customFormat="1" ht="12.75"/>
+    <row r="425" s="10" customFormat="1" ht="12.75"/>
+    <row r="426" s="10" customFormat="1" ht="12.75"/>
+    <row r="427" s="10" customFormat="1" ht="12.75"/>
+    <row r="428" s="10" customFormat="1" ht="12.75"/>
+    <row r="429" s="10" customFormat="1" ht="12.75"/>
+    <row r="430" s="10" customFormat="1" ht="12.75"/>
+    <row r="431" s="10" customFormat="1" ht="12.75"/>
+    <row r="432" s="10" customFormat="1" ht="12.75"/>
+    <row r="433" s="10" customFormat="1" ht="12.75"/>
+    <row r="434" s="10" customFormat="1" ht="12.75"/>
+    <row r="435" s="10" customFormat="1" ht="12.75"/>
+    <row r="436" s="10" customFormat="1" ht="12.75"/>
+    <row r="437" s="10" customFormat="1" ht="12.75"/>
+    <row r="438" s="10" customFormat="1" ht="12.75"/>
+    <row r="439" s="10" customFormat="1" ht="12.75"/>
+    <row r="440" s="10" customFormat="1" ht="12.75"/>
+    <row r="441" s="10" customFormat="1" ht="12.75"/>
+    <row r="442" s="10" customFormat="1" ht="12.75"/>
+    <row r="443" s="10" customFormat="1" ht="12.75"/>
+    <row r="444" s="10" customFormat="1" ht="12.75"/>
+    <row r="445" s="10" customFormat="1" ht="12.75"/>
+    <row r="446" s="10" customFormat="1" ht="12.75"/>
+    <row r="447" s="10" customFormat="1" ht="12.75"/>
+    <row r="448" s="10" customFormat="1" ht="12.75"/>
+    <row r="449" s="10" customFormat="1" ht="12.75"/>
+    <row r="450" s="10" customFormat="1" ht="12.75"/>
+    <row r="451" s="10" customFormat="1" ht="12.75"/>
+    <row r="452" s="10" customFormat="1" ht="12.75"/>
+    <row r="453" s="10" customFormat="1" ht="12.75"/>
+    <row r="454" s="10" customFormat="1" ht="12.75"/>
+    <row r="455" s="10" customFormat="1" ht="12.75"/>
+    <row r="456" s="10" customFormat="1" ht="12.75"/>
+    <row r="457" s="10" customFormat="1" ht="12.75"/>
+    <row r="458" s="10" customFormat="1" ht="12.75"/>
+    <row r="459" s="10" customFormat="1" ht="12.75"/>
+    <row r="460" s="10" customFormat="1" ht="12.75"/>
+    <row r="461" s="10" customFormat="1" ht="12.75"/>
+    <row r="462" s="10" customFormat="1" ht="12.75"/>
+    <row r="463" s="10" customFormat="1" ht="12.75"/>
+    <row r="464" s="10" customFormat="1" ht="12.75"/>
+    <row r="465" s="10" customFormat="1" ht="12.75"/>
+    <row r="466" s="10" customFormat="1" ht="12.75"/>
+    <row r="467" s="10" customFormat="1" ht="12.75"/>
+    <row r="468" s="10" customFormat="1" ht="12.75"/>
+    <row r="469" s="10" customFormat="1" ht="12.75"/>
+    <row r="470" s="10" customFormat="1" ht="12.75"/>
+    <row r="471" s="10" customFormat="1" ht="12.75"/>
+    <row r="472" s="10" customFormat="1" ht="12.75"/>
+    <row r="473" s="10" customFormat="1" ht="12.75"/>
+    <row r="474" s="10" customFormat="1" ht="12.75"/>
+    <row r="475" s="10" customFormat="1" ht="12.75"/>
+    <row r="476" s="10" customFormat="1" ht="12.75"/>
+    <row r="477" s="10" customFormat="1" ht="12.75"/>
+    <row r="478" s="10" customFormat="1" ht="12.75"/>
+    <row r="479" s="10" customFormat="1" ht="12.75"/>
+    <row r="480" s="10" customFormat="1" ht="12.75"/>
+    <row r="481" s="10" customFormat="1" ht="12.75"/>
+    <row r="482" s="10" customFormat="1" ht="12.75"/>
+    <row r="483" s="10" customFormat="1" ht="12.75"/>
+    <row r="484" s="10" customFormat="1" ht="12.75"/>
+    <row r="485" s="10" customFormat="1" ht="12.75"/>
+    <row r="486" s="10" customFormat="1" ht="12.75"/>
+    <row r="487" s="10" customFormat="1" ht="12.75"/>
+    <row r="488" s="10" customFormat="1" ht="12.75"/>
+    <row r="489" s="10" customFormat="1" ht="12.75"/>
+    <row r="490" s="10" customFormat="1" ht="12.75"/>
+    <row r="491" s="10" customFormat="1" ht="12.75"/>
+    <row r="492" s="10" customFormat="1" ht="12.75"/>
+    <row r="493" s="10" customFormat="1" ht="12.75"/>
+    <row r="494" s="10" customFormat="1" ht="12.75"/>
+    <row r="495" s="10" customFormat="1" ht="12.75"/>
+    <row r="496" s="10" customFormat="1" ht="12.75"/>
+    <row r="497" s="10" customFormat="1" ht="12.75"/>
+    <row r="498" s="10" customFormat="1" ht="12.75"/>
+    <row r="499" s="10" customFormat="1" ht="12.75"/>
+    <row r="500" s="10" customFormat="1" ht="12.75"/>
+    <row r="501" s="10" customFormat="1" ht="12.75"/>
+    <row r="502" s="10" customFormat="1" ht="12.75"/>
+    <row r="503" s="10" customFormat="1" ht="12.75"/>
+    <row r="504" s="10" customFormat="1" ht="12.75"/>
+    <row r="505" s="10" customFormat="1" ht="12.75"/>
+    <row r="506" s="10" customFormat="1" ht="12.75"/>
+    <row r="507" s="10" customFormat="1" ht="12.75"/>
+    <row r="508" s="10" customFormat="1" ht="12.75"/>
+    <row r="509" s="10" customFormat="1" ht="12.75"/>
+    <row r="510" s="10" customFormat="1" ht="12.75"/>
+    <row r="511" s="10" customFormat="1" ht="12.75"/>
+    <row r="512" s="10" customFormat="1" ht="12.75"/>
+    <row r="513" s="10" customFormat="1" ht="12.75"/>
+    <row r="514" s="10" customFormat="1" ht="12.75"/>
+    <row r="515" s="10" customFormat="1" ht="12.75"/>
+    <row r="516" s="10" customFormat="1" ht="12.75"/>
+    <row r="517" s="10" customFormat="1" ht="12.75"/>
+    <row r="518" s="10" customFormat="1" ht="12.75"/>
+    <row r="519" s="10" customFormat="1" ht="12.75"/>
+    <row r="520" s="10" customFormat="1" ht="12.75"/>
+    <row r="521" s="10" customFormat="1" ht="12.75"/>
+    <row r="522" s="10" customFormat="1" ht="12.75"/>
+    <row r="523" s="10" customFormat="1" ht="12.75"/>
+    <row r="524" s="10" customFormat="1" ht="12.75"/>
+    <row r="525" s="10" customFormat="1" ht="12.75"/>
+    <row r="526" s="10" customFormat="1" ht="12.75"/>
+    <row r="527" s="10" customFormat="1" ht="12.75"/>
+    <row r="528" s="10" customFormat="1" ht="12.75"/>
+    <row r="529" s="10" customFormat="1" ht="12.75"/>
+    <row r="530" s="10" customFormat="1" ht="12.75"/>
+    <row r="531" s="10" customFormat="1" ht="12.75"/>
+    <row r="532" s="10" customFormat="1" ht="12.75"/>
+    <row r="533" s="10" customFormat="1" ht="12.75"/>
+    <row r="534" s="10" customFormat="1" ht="12.75"/>
+    <row r="535" s="10" customFormat="1" ht="12.75"/>
+    <row r="536" s="10" customFormat="1" ht="12.75"/>
+    <row r="537" s="10" customFormat="1" ht="12.75"/>
+    <row r="538" s="10" customFormat="1" ht="12.75"/>
+    <row r="539" s="10" customFormat="1" ht="12.75"/>
+    <row r="540" s="10" customFormat="1" ht="12.75"/>
+    <row r="541" s="10" customFormat="1" ht="12.75"/>
+    <row r="542" s="10" customFormat="1" ht="12.75"/>
+    <row r="543" s="10" customFormat="1" ht="12.75"/>
+    <row r="544" s="10" customFormat="1" ht="12.75"/>
+    <row r="545" s="10" customFormat="1" ht="12.75"/>
+    <row r="546" s="10" customFormat="1" ht="12.75"/>
+    <row r="547" s="10" customFormat="1" ht="12.75"/>
+    <row r="548" s="10" customFormat="1" ht="12.75"/>
+    <row r="549" s="10" customFormat="1" ht="12.75"/>
+    <row r="550" s="10" customFormat="1" ht="12.75"/>
+    <row r="551" s="10" customFormat="1" ht="12.75"/>
+    <row r="552" s="10" customFormat="1" ht="12.75"/>
+    <row r="553" s="10" customFormat="1" ht="12.75"/>
+    <row r="554" s="10" customFormat="1" ht="12.75"/>
+    <row r="555" s="10" customFormat="1" ht="12.75"/>
+    <row r="556" s="10" customFormat="1" ht="12.75"/>
+    <row r="557" s="10" customFormat="1" ht="12.75"/>
+    <row r="558" s="10" customFormat="1" ht="12.75"/>
+    <row r="559" s="10" customFormat="1" ht="12.75"/>
+    <row r="560" s="10" customFormat="1" ht="12.75"/>
+    <row r="561" s="10" customFormat="1" ht="12.75"/>
+    <row r="562" s="10" customFormat="1" ht="12.75"/>
+    <row r="563" s="10" customFormat="1" ht="12.75"/>
+    <row r="564" s="10" customFormat="1" ht="12.75"/>
+    <row r="565" s="10" customFormat="1" ht="12.75"/>
+    <row r="566" s="10" customFormat="1" ht="12.75"/>
+    <row r="567" s="10" customFormat="1" ht="12.75"/>
+    <row r="568" s="10" customFormat="1" ht="12.75"/>
+    <row r="569" s="10" customFormat="1" ht="12.75"/>
+    <row r="570" s="10" customFormat="1" ht="12.75"/>
+    <row r="571" s="10" customFormat="1" ht="12.75"/>
+    <row r="572" s="10" customFormat="1" ht="12.75"/>
+    <row r="573" s="10" customFormat="1" ht="12.75"/>
+    <row r="574" s="10" customFormat="1" ht="12.75"/>
+    <row r="575" s="10" customFormat="1" ht="12.75"/>
+    <row r="576" s="10" customFormat="1" ht="12.75"/>
+    <row r="577" s="10" customFormat="1" ht="12.75"/>
+    <row r="578" s="10" customFormat="1" ht="12.75"/>
+    <row r="579" s="10" customFormat="1" ht="12.75"/>
+    <row r="580" s="10" customFormat="1" ht="12.75"/>
+    <row r="581" s="10" customFormat="1" ht="12.75"/>
+    <row r="582" s="10" customFormat="1" ht="12.75"/>
+    <row r="583" s="10" customFormat="1" ht="12.75"/>
+    <row r="584" s="10" customFormat="1" ht="12.75"/>
+    <row r="585" s="10" customFormat="1" ht="12.75"/>
+    <row r="586" s="10" customFormat="1" ht="12.75"/>
+    <row r="587" s="10" customFormat="1" ht="12.75"/>
+    <row r="588" s="10" customFormat="1" ht="12.75"/>
+    <row r="589" s="10" customFormat="1" ht="12.75"/>
+    <row r="590" s="10" customFormat="1" ht="12.75"/>
+    <row r="591" s="10" customFormat="1" ht="12.75"/>
+    <row r="592" s="10" customFormat="1" ht="12.75"/>
+    <row r="593" s="10" customFormat="1" ht="12.75"/>
+    <row r="594" s="10" customFormat="1" ht="12.75"/>
+    <row r="595" s="10" customFormat="1" ht="12.75"/>
+    <row r="596" s="10" customFormat="1" ht="12.75"/>
+    <row r="597" s="10" customFormat="1" ht="12.75"/>
+    <row r="598" s="10" customFormat="1" ht="12.75"/>
+    <row r="599" s="10" customFormat="1" ht="12.75"/>
+    <row r="600" s="10" customFormat="1" ht="12.75"/>
+    <row r="601" s="10" customFormat="1" ht="12.75"/>
+    <row r="602" s="10" customFormat="1" ht="12.75"/>
+    <row r="603" s="10" customFormat="1" ht="12.75"/>
+    <row r="604" s="10" customFormat="1" ht="12.75"/>
+    <row r="605" s="10" customFormat="1" ht="12.75"/>
+    <row r="606" s="10" customFormat="1" ht="12.75"/>
+    <row r="607" s="10" customFormat="1" ht="12.75"/>
+    <row r="608" s="10" customFormat="1" ht="12.75"/>
+    <row r="609" s="10" customFormat="1" ht="12.75"/>
+    <row r="610" s="10" customFormat="1" ht="12.75"/>
+    <row r="611" s="10" customFormat="1" ht="12.75"/>
+    <row r="612" s="10" customFormat="1" ht="12.75"/>
+    <row r="613" s="10" customFormat="1" ht="12.75"/>
+    <row r="614" s="10" customFormat="1" ht="12.75"/>
+    <row r="615" s="10" customFormat="1" ht="12.75"/>
+    <row r="616" s="10" customFormat="1" ht="12.75"/>
+    <row r="617" s="10" customFormat="1" ht="12.75"/>
+    <row r="618" s="10" customFormat="1" ht="12.75"/>
+    <row r="619" s="10" customFormat="1" ht="12.75"/>
+    <row r="620" s="10" customFormat="1" ht="12.75"/>
+    <row r="621" s="10" customFormat="1" ht="12.75"/>
+    <row r="622" s="10" customFormat="1" ht="12.75"/>
+    <row r="623" s="10" customFormat="1" ht="12.75"/>
+    <row r="624" s="10" customFormat="1" ht="12.75"/>
+    <row r="625" s="10" customFormat="1" ht="12.75"/>
+    <row r="626" s="10" customFormat="1" ht="12.75"/>
+    <row r="627" s="10" customFormat="1" ht="12.75"/>
+    <row r="628" s="10" customFormat="1" ht="12.75"/>
+    <row r="629" s="10" customFormat="1" ht="12.75"/>
+    <row r="630" s="10" customFormat="1" ht="12.75"/>
+    <row r="631" s="10" customFormat="1" ht="12.75"/>
+    <row r="632" s="10" customFormat="1" ht="12.75"/>
+    <row r="633" s="10" customFormat="1" ht="12.75"/>
+    <row r="634" s="10" customFormat="1" ht="12.75"/>
+    <row r="635" s="10" customFormat="1" ht="12.75"/>
+    <row r="636" s="10" customFormat="1" ht="12.75"/>
+    <row r="637" s="10" customFormat="1" ht="12.75"/>
+    <row r="638" s="10" customFormat="1" ht="12.75"/>
+    <row r="639" s="10" customFormat="1" ht="12.75"/>
+    <row r="640" s="10" customFormat="1" ht="12.75"/>
+    <row r="641" s="10" customFormat="1" ht="12.75"/>
+    <row r="642" s="10" customFormat="1" ht="12.75"/>
+    <row r="643" s="10" customFormat="1" ht="12.75"/>
+    <row r="644" s="10" customFormat="1" ht="12.75"/>
+    <row r="645" s="10" customFormat="1" ht="12.75"/>
+    <row r="646" s="10" customFormat="1" ht="12.75"/>
+    <row r="647" s="10" customFormat="1" ht="12.75"/>
+    <row r="648" s="10" customFormat="1" ht="12.75"/>
+    <row r="649" s="10" customFormat="1" ht="12.75"/>
+    <row r="650" s="10" customFormat="1" ht="12.75"/>
+    <row r="651" s="10" customFormat="1" ht="12.75"/>
+    <row r="652" s="10" customFormat="1" ht="12.75"/>
+    <row r="653" s="10" customFormat="1" ht="12.75"/>
+    <row r="654" s="10" customFormat="1" ht="12.75"/>
+    <row r="655" s="10" customFormat="1" ht="12.75"/>
+    <row r="656" s="10" customFormat="1" ht="12.75"/>
+    <row r="657" s="10" customFormat="1" ht="12.75"/>
+    <row r="658" s="10" customFormat="1" ht="12.75"/>
+    <row r="659" s="10" customFormat="1" ht="12.75"/>
+    <row r="660" s="10" customFormat="1" ht="12.75"/>
+    <row r="661" s="10" customFormat="1" ht="12.75"/>
+    <row r="662" s="10" customFormat="1" ht="12.75"/>
+    <row r="663" s="10" customFormat="1" ht="12.75"/>
+    <row r="664" s="10" customFormat="1" ht="12.75"/>
+    <row r="665" s="10" customFormat="1" ht="12.75"/>
+    <row r="666" s="10" customFormat="1" ht="12.75"/>
+    <row r="667" s="10" customFormat="1" ht="12.75"/>
+    <row r="668" s="10" customFormat="1" ht="12.75"/>
+    <row r="669" s="10" customFormat="1" ht="12.75"/>
+    <row r="670" s="10" customFormat="1" ht="12.75"/>
+    <row r="671" s="10" customFormat="1" ht="12.75"/>
+    <row r="672" s="10" customFormat="1" ht="12.75"/>
+    <row r="673" s="10" customFormat="1" ht="12.75"/>
+    <row r="674" s="10" customFormat="1" ht="12.75"/>
+    <row r="675" s="10" customFormat="1" ht="12.75"/>
+    <row r="676" s="10" customFormat="1" ht="12.75"/>
+    <row r="677" s="10" customFormat="1" ht="12.75"/>
+    <row r="678" s="10" customFormat="1" ht="12.75"/>
+    <row r="679" s="10" customFormat="1" ht="12.75"/>
+    <row r="680" s="10" customFormat="1" ht="12.75"/>
+    <row r="681" s="10" customFormat="1" ht="12.75"/>
+    <row r="682" s="10" customFormat="1" ht="12.75"/>
+    <row r="683" s="10" customFormat="1" ht="12.75"/>
+    <row r="684" s="10" customFormat="1" ht="12.75"/>
+    <row r="685" s="10" customFormat="1" ht="12.75"/>
+    <row r="686" s="10" customFormat="1" ht="12.75"/>
+    <row r="687" s="10" customFormat="1" ht="12.75"/>
+    <row r="688" s="10" customFormat="1" ht="12.75"/>
+    <row r="689" s="10" customFormat="1" ht="12.75"/>
+    <row r="690" s="10" customFormat="1" ht="12.75"/>
+    <row r="691" s="10" customFormat="1" ht="12.75"/>
+    <row r="692" s="10" customFormat="1" ht="12.75"/>
+    <row r="693" s="10" customFormat="1" ht="12.75"/>
+    <row r="694" s="10" customFormat="1" ht="12.75"/>
+    <row r="695" s="10" customFormat="1" ht="12.75"/>
+    <row r="696" s="10" customFormat="1" ht="12.75"/>
+    <row r="697" s="10" customFormat="1" ht="12.75"/>
+    <row r="698" s="10" customFormat="1" ht="12.75"/>
+    <row r="699" s="10" customFormat="1" ht="12.75"/>
+    <row r="700" s="10" customFormat="1" ht="12.75"/>
+    <row r="701" s="10" customFormat="1" ht="12.75"/>
+    <row r="702" s="10" customFormat="1" ht="12.75"/>
+    <row r="703" s="10" customFormat="1" ht="12.75"/>
+    <row r="704" s="10" customFormat="1" ht="12.75"/>
+    <row r="705" s="10" customFormat="1" ht="12.75"/>
+    <row r="706" s="10" customFormat="1" ht="12.75"/>
+    <row r="707" s="10" customFormat="1" ht="12.75"/>
+    <row r="708" s="10" customFormat="1" ht="12.75"/>
+    <row r="709" s="10" customFormat="1" ht="12.75"/>
+    <row r="710" s="10" customFormat="1" ht="12.75"/>
+    <row r="711" s="10" customFormat="1" ht="12.75"/>
+    <row r="712" s="10" customFormat="1" ht="12.75"/>
+    <row r="713" s="10" customFormat="1" ht="12.75"/>
+    <row r="714" s="10" customFormat="1" ht="12.75"/>
+    <row r="715" s="10" customFormat="1" ht="12.75"/>
+    <row r="716" s="10" customFormat="1" ht="12.75"/>
+    <row r="717" s="10" customFormat="1" ht="12.75"/>
+    <row r="718" s="10" customFormat="1" ht="12.75"/>
+    <row r="719" s="10" customFormat="1" ht="12.75"/>
+    <row r="720" s="10" customFormat="1" ht="12.75"/>
+    <row r="721" s="10" customFormat="1" ht="12.75"/>
+    <row r="722" s="10" customFormat="1" ht="12.75"/>
+    <row r="723" s="10" customFormat="1" ht="12.75"/>
+    <row r="724" s="10" customFormat="1" ht="12.75"/>
+    <row r="725" s="10" customFormat="1" ht="12.75"/>
+    <row r="726" s="10" customFormat="1" ht="12.75"/>
+    <row r="727" s="10" customFormat="1" ht="12.75"/>
+    <row r="728" s="10" customFormat="1" ht="12.75"/>
+    <row r="729" s="10" customFormat="1" ht="12.75"/>
+    <row r="730" s="10" customFormat="1" ht="12.75"/>
+    <row r="731" s="10" customFormat="1" ht="12.75"/>
+    <row r="732" s="10" customFormat="1" ht="12.75"/>
+    <row r="733" s="10" customFormat="1" ht="12.75"/>
+    <row r="734" s="10" customFormat="1" ht="12.75"/>
+    <row r="735" s="10" customFormat="1" ht="12.75"/>
+    <row r="736" s="10" customFormat="1" ht="12.75"/>
+    <row r="737" s="10" customFormat="1" ht="12.75"/>
+    <row r="738" s="10" customFormat="1" ht="12.75"/>
+    <row r="739" s="10" customFormat="1" ht="12.75"/>
+    <row r="740" s="10" customFormat="1" ht="12.75"/>
+    <row r="741" s="10" customFormat="1" ht="12.75"/>
+    <row r="742" s="10" customFormat="1" ht="12.75"/>
+    <row r="743" s="10" customFormat="1" ht="12.75"/>
+    <row r="744" s="10" customFormat="1" ht="12.75"/>
+    <row r="745" s="10" customFormat="1" ht="12.75"/>
+    <row r="746" s="10" customFormat="1" ht="12.75"/>
+    <row r="747" s="10" customFormat="1" ht="12.75"/>
+    <row r="748" s="10" customFormat="1" ht="12.75"/>
+    <row r="749" s="10" customFormat="1" ht="12.75"/>
+    <row r="750" s="10" customFormat="1" ht="12.75"/>
+    <row r="751" s="10" customFormat="1" ht="12.75"/>
+    <row r="752" s="10" customFormat="1" ht="12.75"/>
+    <row r="753" s="10" customFormat="1" ht="12.75"/>
+    <row r="754" s="10" customFormat="1" ht="12.75"/>
+    <row r="755" s="10" customFormat="1" ht="12.75"/>
+    <row r="756" s="10" customFormat="1" ht="12.75"/>
+    <row r="757" s="10" customFormat="1" ht="12.75"/>
+    <row r="758" s="10" customFormat="1" ht="12.75"/>
+    <row r="759" s="10" customFormat="1" ht="12.75"/>
+    <row r="760" s="10" customFormat="1" ht="12.75"/>
+    <row r="761" s="10" customFormat="1" ht="12.75"/>
+    <row r="762" s="10" customFormat="1" ht="12.75"/>
+    <row r="763" s="10" customFormat="1" ht="12.75"/>
+    <row r="764" s="10" customFormat="1" ht="12.75"/>
+    <row r="765" s="10" customFormat="1" ht="12.75"/>
+    <row r="766" s="10" customFormat="1" ht="12.75"/>
+    <row r="767" s="10" customFormat="1" ht="12.75"/>
+    <row r="768" s="10" customFormat="1" ht="12.75"/>
+    <row r="769" s="10" customFormat="1" ht="12.75"/>
+    <row r="770" s="10" customFormat="1" ht="12.75"/>
+    <row r="771" s="10" customFormat="1" ht="12.75"/>
+    <row r="772" s="10" customFormat="1" ht="12.75"/>
+    <row r="773" s="10" customFormat="1" ht="12.75"/>
+    <row r="774" s="10" customFormat="1" ht="12.75"/>
+    <row r="775" s="10" customFormat="1" ht="12.75"/>
+    <row r="776" s="10" customFormat="1" ht="12.75"/>
+    <row r="777" s="10" customFormat="1" ht="12.75"/>
+    <row r="778" s="10" customFormat="1" ht="12.75"/>
+    <row r="779" s="10" customFormat="1" ht="12.75"/>
+    <row r="780" s="10" customFormat="1" ht="12.75"/>
+    <row r="781" s="10" customFormat="1" ht="12.75"/>
+    <row r="782" s="10" customFormat="1" ht="12.75"/>
+    <row r="783" s="10" customFormat="1" ht="12.75"/>
+    <row r="784" s="10" customFormat="1" ht="12.75"/>
+    <row r="785" s="10" customFormat="1" ht="12.75"/>
+    <row r="786" s="10" customFormat="1" ht="12.75"/>
+    <row r="787" s="10" customFormat="1" ht="12.75"/>
+    <row r="788" s="10" customFormat="1" ht="12.75"/>
+    <row r="789" s="10" customFormat="1" ht="12.75"/>
+    <row r="790" s="10" customFormat="1" ht="12.75"/>
+    <row r="791" s="10" customFormat="1" ht="12.75"/>
+    <row r="792" s="10" customFormat="1" ht="12.75"/>
+    <row r="793" s="10" customFormat="1" ht="12.75"/>
+    <row r="794" s="10" customFormat="1" ht="12.75"/>
+    <row r="795" s="10" customFormat="1" ht="12.75"/>
+    <row r="796" s="10" customFormat="1" ht="12.75"/>
+    <row r="797" s="10" customFormat="1" ht="12.75"/>
+    <row r="798" s="10" customFormat="1" ht="12.75"/>
+    <row r="799" s="10" customFormat="1" ht="12.75"/>
+    <row r="800" s="10" customFormat="1" ht="12.75"/>
+    <row r="801" s="10" customFormat="1" ht="12.75"/>
+    <row r="802" s="10" customFormat="1" ht="12.75"/>
+    <row r="803" s="10" customFormat="1" ht="12.75"/>
+    <row r="804" s="10" customFormat="1" ht="12.75"/>
+    <row r="805" s="10" customFormat="1" ht="12.75"/>
+    <row r="806" s="10" customFormat="1" ht="12.75"/>
+    <row r="807" s="10" customFormat="1" ht="12.75"/>
+    <row r="808" s="10" customFormat="1" ht="12.75"/>
+    <row r="809" s="10" customFormat="1" ht="12.75"/>
+    <row r="810" s="10" customFormat="1" ht="12.75"/>
+    <row r="811" s="10" customFormat="1" ht="12.75"/>
+    <row r="812" s="10" customFormat="1" ht="12.75"/>
+    <row r="813" s="10" customFormat="1" ht="12.75"/>
+    <row r="814" s="10" customFormat="1" ht="12.75"/>
+    <row r="815" s="10" customFormat="1" ht="12.75"/>
+    <row r="816" s="10" customFormat="1" ht="12.75"/>
+    <row r="817" s="10" customFormat="1" ht="12.75"/>
+    <row r="818" s="10" customFormat="1" ht="12.75"/>
+    <row r="819" s="10" customFormat="1" ht="12.75"/>
+    <row r="820" s="10" customFormat="1" ht="12.75"/>
+    <row r="821" s="10" customFormat="1" ht="12.75"/>
+    <row r="822" s="10" customFormat="1" ht="12.75"/>
+    <row r="823" s="10" customFormat="1" ht="12.75"/>
+    <row r="824" s="10" customFormat="1" ht="12.75"/>
+    <row r="825" s="10" customFormat="1" ht="12.75"/>
+    <row r="826" s="10" customFormat="1" ht="12.75"/>
+    <row r="827" s="10" customFormat="1" ht="12.75"/>
+    <row r="828" s="10" customFormat="1" ht="12.75"/>
+    <row r="829" s="10" customFormat="1" ht="12.75"/>
+    <row r="830" s="10" customFormat="1" ht="12.75"/>
+    <row r="831" s="10" customFormat="1" ht="12.75"/>
+    <row r="832" s="10" customFormat="1" ht="12.75"/>
+    <row r="833" s="10" customFormat="1" ht="12.75"/>
+    <row r="834" s="10" customFormat="1" ht="12.75"/>
+    <row r="835" s="10" customFormat="1" ht="12.75"/>
+    <row r="836" s="10" customFormat="1" ht="12.75"/>
+    <row r="837" s="10" customFormat="1" ht="12.75"/>
+    <row r="838" s="10" customFormat="1" ht="12.75"/>
+    <row r="839" s="10" customFormat="1" ht="12.75"/>
+    <row r="840" s="10" customFormat="1" ht="12.75"/>
+    <row r="841" s="10" customFormat="1" ht="12.75"/>
+    <row r="842" s="10" customFormat="1" ht="12.75"/>
+    <row r="843" s="10" customFormat="1" ht="12.75"/>
+    <row r="844" s="10" customFormat="1" ht="12.75"/>
+    <row r="845" s="10" customFormat="1" ht="12.75"/>
+    <row r="846" s="10" customFormat="1" ht="12.75"/>
+    <row r="847" s="10" customFormat="1" ht="12.75"/>
+    <row r="848" s="10" customFormat="1" ht="12.75"/>
+    <row r="849" s="10" customFormat="1" ht="12.75"/>
+    <row r="850" s="10" customFormat="1" ht="12.75"/>
+    <row r="851" s="10" customFormat="1" ht="12.75"/>
+    <row r="852" s="10" customFormat="1" ht="12.75"/>
+    <row r="853" s="10" customFormat="1" ht="12.75"/>
+    <row r="854" s="10" customFormat="1" ht="12.75"/>
+    <row r="855" s="10" customFormat="1" ht="12.75"/>
+    <row r="856" s="10" customFormat="1" ht="12.75"/>
+    <row r="857" s="10" customFormat="1" ht="12.75"/>
+    <row r="858" s="10" customFormat="1" ht="12.75"/>
+    <row r="859" s="10" customFormat="1" ht="12.75"/>
+    <row r="860" s="10" customFormat="1" ht="12.75"/>
+    <row r="861" s="10" customFormat="1" ht="12.75"/>
+    <row r="862" s="10" customFormat="1" ht="12.75"/>
+    <row r="863" s="10" customFormat="1" ht="12.75"/>
+    <row r="864" s="10" customFormat="1" ht="12.75"/>
+    <row r="865" s="10" customFormat="1" ht="12.75"/>
+    <row r="866" s="10" customFormat="1" ht="12.75"/>
+    <row r="867" s="10" customFormat="1" ht="12.75"/>
+    <row r="868" s="10" customFormat="1" ht="12.75"/>
+    <row r="869" s="10" customFormat="1" ht="12.75"/>
+    <row r="870" s="10" customFormat="1" ht="12.75"/>
+    <row r="871" s="10" customFormat="1" ht="12.75"/>
+    <row r="872" s="10" customFormat="1" ht="12.75"/>
+    <row r="873" s="10" customFormat="1" ht="12.75"/>
+    <row r="874" s="10" customFormat="1" ht="12.75"/>
+    <row r="875" s="10" customFormat="1" ht="12.75"/>
+    <row r="876" s="10" customFormat="1" ht="12.75"/>
+    <row r="877" s="10" customFormat="1" ht="12.75"/>
+    <row r="878" s="10" customFormat="1" ht="12.75"/>
+    <row r="879" s="10" customFormat="1" ht="12.75"/>
+    <row r="880" s="10" customFormat="1" ht="12.75"/>
+    <row r="881" s="10" customFormat="1" ht="12.75"/>
+    <row r="882" s="10" customFormat="1" ht="12.75"/>
+    <row r="883" s="10" customFormat="1" ht="12.75"/>
+    <row r="884" s="10" customFormat="1" ht="12.75"/>
+    <row r="885" s="10" customFormat="1" ht="12.75"/>
+    <row r="886" s="10" customFormat="1" ht="12.75"/>
+    <row r="887" s="10" customFormat="1" ht="12.75"/>
+    <row r="888" s="10" customFormat="1" ht="12.75"/>
+    <row r="889" s="10" customFormat="1" ht="12.75"/>
+    <row r="890" s="10" customFormat="1" ht="12.75"/>
+    <row r="891" s="10" customFormat="1" ht="12.75"/>
+    <row r="892" s="10" customFormat="1" ht="12.75"/>
+    <row r="893" s="10" customFormat="1" ht="12.75"/>
+    <row r="894" s="10" customFormat="1" ht="12.75"/>
+    <row r="895" s="10" customFormat="1" ht="12.75"/>
+    <row r="896" s="10" customFormat="1" ht="12.75"/>
+    <row r="897" s="10" customFormat="1" ht="12.75"/>
+    <row r="898" s="10" customFormat="1" ht="12.75"/>
+    <row r="899" s="10" customFormat="1" ht="12.75"/>
+    <row r="900" s="10" customFormat="1" ht="12.75"/>
+    <row r="901" s="10" customFormat="1" ht="12.75"/>
+    <row r="902" s="10" customFormat="1" ht="12.75"/>
+    <row r="903" s="10" customFormat="1" ht="12.75"/>
+    <row r="904" s="10" customFormat="1" ht="12.75"/>
+    <row r="905" s="10" customFormat="1" ht="12.75"/>
+    <row r="906" s="10" customFormat="1" ht="12.75"/>
+    <row r="907" s="10" customFormat="1" ht="12.75"/>
+    <row r="908" s="10" customFormat="1" ht="12.75"/>
+    <row r="909" s="10" customFormat="1" ht="12.75"/>
+    <row r="910" s="10" customFormat="1" ht="12.75"/>
+    <row r="911" s="10" customFormat="1" ht="12.75"/>
+    <row r="912" s="10" customFormat="1" ht="12.75"/>
+    <row r="913" s="10" customFormat="1" ht="12.75"/>
+    <row r="914" s="10" customFormat="1" ht="12.75"/>
+    <row r="915" s="10" customFormat="1" ht="12.75"/>
+    <row r="916" s="10" customFormat="1" ht="12.75"/>
+    <row r="917" s="10" customFormat="1" ht="12.75"/>
+    <row r="918" s="10" customFormat="1" ht="12.75"/>
+    <row r="919" s="10" customFormat="1" ht="12.75"/>
+    <row r="920" s="10" customFormat="1" ht="12.75"/>
+    <row r="921" s="10" customFormat="1" ht="12.75"/>
+    <row r="922" s="10" customFormat="1" ht="12.75"/>
+    <row r="923" s="10" customFormat="1" ht="12.75"/>
+    <row r="924" s="10" customFormat="1" ht="12.75"/>
+    <row r="925" s="10" customFormat="1" ht="12.75"/>
+    <row r="926" s="10" customFormat="1" ht="12.75"/>
+    <row r="927" s="10" customFormat="1" ht="12.75"/>
+    <row r="928" s="10" customFormat="1" ht="12.75"/>
+    <row r="929" s="10" customFormat="1" ht="12.75"/>
+    <row r="930" s="10" customFormat="1" ht="12.75"/>
+    <row r="931" s="10" customFormat="1" ht="12.75"/>
+    <row r="932" s="10" customFormat="1" ht="12.75"/>
+    <row r="933" s="10" customFormat="1" ht="12.75"/>
+    <row r="934" s="10" customFormat="1" ht="12.75"/>
+    <row r="935" s="10" customFormat="1" ht="12.75"/>
+    <row r="936" s="10" customFormat="1" ht="12.75"/>
+    <row r="937" s="10" customFormat="1" ht="12.75"/>
+    <row r="938" s="10" customFormat="1" ht="12.75"/>
+    <row r="939" s="10" customFormat="1" ht="12.75"/>
+    <row r="940" s="10" customFormat="1" ht="12.75"/>
+    <row r="941" s="10" customFormat="1" ht="12.75"/>
+    <row r="942" s="10" customFormat="1" ht="12.75"/>
+    <row r="943" s="10" customFormat="1" ht="12.75"/>
+    <row r="944" s="10" customFormat="1" ht="12.75"/>
+    <row r="945" s="10" customFormat="1" ht="12.75"/>
+    <row r="946" s="10" customFormat="1" ht="12.75"/>
+    <row r="947" s="10" customFormat="1" ht="12.75"/>
+    <row r="948" s="10" customFormat="1" ht="12.75"/>
+    <row r="949" s="10" customFormat="1" ht="12.75"/>
+    <row r="950" s="10" customFormat="1" ht="12.75"/>
+    <row r="951" s="10" customFormat="1" ht="12.75"/>
+    <row r="952" s="10" customFormat="1" ht="12.75"/>
+    <row r="953" s="10" customFormat="1" ht="12.75"/>
+    <row r="954" s="10" customFormat="1" ht="12.75"/>
+    <row r="955" s="10" customFormat="1" ht="12.75"/>
+    <row r="956" s="10" customFormat="1" ht="12.75"/>
+    <row r="957" s="10" customFormat="1" ht="12.75"/>
+    <row r="958" s="10" customFormat="1" ht="12.75"/>
+    <row r="959" s="10" customFormat="1" ht="12.75"/>
+    <row r="960" s="10" customFormat="1" ht="12.75"/>
+    <row r="961" s="10" customFormat="1" ht="12.75"/>
+    <row r="962" s="10" customFormat="1" ht="12.75"/>
+    <row r="963" s="10" customFormat="1" ht="12.75"/>
+    <row r="964" s="10" customFormat="1" ht="12.75"/>
+    <row r="965" s="10" customFormat="1" ht="12.75"/>
+    <row r="966" s="10" customFormat="1" ht="12.75"/>
+    <row r="967" s="10" customFormat="1" ht="12.75"/>
+    <row r="968" s="10" customFormat="1" ht="12.75"/>
+    <row r="969" s="10" customFormat="1" ht="12.75"/>
+    <row r="970" s="10" customFormat="1" ht="12.75"/>
+    <row r="971" s="10" customFormat="1" ht="12.75"/>
+    <row r="972" s="10" customFormat="1" ht="12.75"/>
+    <row r="973" s="10" customFormat="1" ht="12.75"/>
+    <row r="974" s="10" customFormat="1" ht="12.75"/>
+    <row r="975" s="10" customFormat="1" ht="12.75"/>
+    <row r="976" s="10" customFormat="1" ht="12.75"/>
+    <row r="977" s="10" customFormat="1" ht="12.75"/>
+    <row r="978" s="10" customFormat="1" ht="12.75"/>
+    <row r="979" s="10" customFormat="1" ht="12.75"/>
+    <row r="980" s="10" customFormat="1" ht="12.75"/>
+    <row r="981" s="10" customFormat="1" ht="12.75"/>
+    <row r="982" s="10" customFormat="1" ht="12.75"/>
+    <row r="983" s="10" customFormat="1" ht="12.75"/>
+    <row r="984" s="10" customFormat="1" ht="12.75"/>
+    <row r="985" s="10" customFormat="1" ht="12.75"/>
+    <row r="986" s="10" customFormat="1" ht="12.75"/>
+    <row r="987" s="10" customFormat="1" ht="12.75"/>
+    <row r="988" s="10" customFormat="1" ht="12.75"/>
+    <row r="989" s="10" customFormat="1" ht="12.75"/>
+    <row r="990" s="10" customFormat="1" ht="12.75"/>
+    <row r="991" s="10" customFormat="1" ht="12.75"/>
+    <row r="992" s="10" customFormat="1" ht="12.75"/>
+    <row r="993" s="10" customFormat="1" ht="12.75"/>
+    <row r="994" s="10" customFormat="1" ht="12.75"/>
+    <row r="995" s="10" customFormat="1" ht="12.75"/>
+    <row r="996" s="10" customFormat="1" ht="12.75"/>
+    <row r="997" s="10" customFormat="1" ht="12.75"/>
+    <row r="998" s="10" customFormat="1" ht="12.75"/>
+    <row r="999" s="10" customFormat="1" ht="12.75"/>
+    <row r="1000" s="10" customFormat="1" ht="12.75"/>
+    <row r="1001" s="10" customFormat="1" ht="12.75"/>
+    <row r="1002" s="10" customFormat="1" ht="12.75"/>
+    <row r="1003" s="10" customFormat="1" ht="12.75"/>
+    <row r="1004" s="10" customFormat="1" ht="12.75"/>
+    <row r="1005" s="10" customFormat="1" ht="12.75"/>
+    <row r="1006" s="10" customFormat="1" ht="12.75"/>
+    <row r="1007" s="10" customFormat="1" ht="12.75"/>
+    <row r="1008" s="10" customFormat="1" ht="12.75"/>
+    <row r="1009" s="10" customFormat="1" ht="12.75"/>
+    <row r="1010" s="10" customFormat="1" ht="12.75"/>
+    <row r="1011" s="10" customFormat="1" ht="12.75"/>
+    <row r="1012" s="10" customFormat="1" ht="12.75"/>
+    <row r="1013" s="10" customFormat="1" ht="12.75"/>
+    <row r="1014" s="10" customFormat="1" ht="12.75"/>
+    <row r="1015" s="10" customFormat="1" ht="12.75"/>
+    <row r="1016" s="10" customFormat="1" ht="12.75"/>
+    <row r="1017" s="10" customFormat="1" ht="12.75"/>
+    <row r="1018" s="10" customFormat="1" ht="12.75"/>
+    <row r="1019" s="10" customFormat="1" ht="12.75"/>
+    <row r="1020" s="10" customFormat="1" ht="12.75"/>
+    <row r="1021" s="10" customFormat="1" ht="12.75"/>
+    <row r="1022" s="10" customFormat="1" ht="12.75"/>
+    <row r="1023" s="10" customFormat="1" ht="12.75"/>
+    <row r="1024" s="10" customFormat="1" ht="12.75"/>
+    <row r="1025" s="10" customFormat="1" ht="12.75"/>
+    <row r="1026" s="10" customFormat="1" ht="12.75"/>
+    <row r="1027" s="10" customFormat="1" ht="12.75"/>
+    <row r="1028" s="10" customFormat="1" ht="12.75"/>
+    <row r="1029" s="10" customFormat="1" ht="12.75"/>
+    <row r="1030" s="10" customFormat="1" ht="12.75"/>
+    <row r="1031" s="10" customFormat="1" ht="12.75"/>
+    <row r="1032" s="10" customFormat="1" ht="12.75"/>
+    <row r="1033" s="10" customFormat="1" ht="12.75"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBF3C3B-240C-4F7F-A1B9-C9337BE32FB4}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="78.75" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2040</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5">
+        <v>82.3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>98.6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2040</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Power Sector.xlsx
+++ b/Power Sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{1D2A36E0-E1BA-4A92-8146-7652B3799607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A9ED84-B3F0-484B-9F48-33D90677D2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -192,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -219,8 +218,13 @@
       <color rgb="FF000000"/>
       <name val="s"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Seaford"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,12 +233,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -259,12 +269,19 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -274,32 +291,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,4329 +543,4329 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="12.7109375" style="10"/>
+    <col min="1" max="1" width="46.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="12.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="3">
         <v>2020</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="3">
         <v>2025</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="3">
         <v>2030</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="3">
         <v>2035</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="3">
         <v>2040</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="3">
         <v>2045</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="3">
         <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>0.47588999999999998</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>0.20147000000000001</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>7.4759999999999993E-2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>2.0160000000000001E-2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>2.66E-3</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>3.4000000000000002E-4</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>0.47</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>0.17785999999999999</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>4.0219999999999999E-2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>8.4799999999999997E-3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>3.0500000000000002E-3</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>1.81E-3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <v>1.33E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>0.47305999999999998</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>0.18371000000000001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>4.3639999999999998E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>3.0200000000000001E-3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <v>9.1E-4</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>0.47365000000000002</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>0.19087999999999999</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>5.2080000000000001E-2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>1.048E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>3.2799999999999999E-3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>1.8699999999999999E-3</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>1.0300000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>0.47842000000000001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>0.19725999999999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>1.196E-2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>3.3899999999999998E-3</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>2.0300000000000001E-3</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>9.5E-4</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>0.41843999999999998</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>0.28217999999999999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>0.13582</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>4.8149999999999998E-2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>1.9310000000000001E-2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <v>1.436E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>0.47588000000000003</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>0.19456999999999999</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>6.4460000000000003E-2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>8.8999999999999995E-4</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <v>-2.1000000000000001E-4</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>0.42851</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>0.29056999999999999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>0.12604000000000001</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>4.7789999999999999E-2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>2.9420000000000002E-2</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>2.0889999999999999E-2</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="1">
         <v>1.7129999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>0.50429000000000002</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>0.33126</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>0.15822</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>8.2430000000000003E-2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>6.6499999999999997E-3</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>4.7600000000000003E-3</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <v>2.8700000000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>0.47639999999999999</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>0.34437000000000001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>0.21234</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>6.3070000000000001E-2</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>1.132E-2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>6.3E-3</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="1">
         <v>1.2899999999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>0.47365000000000002</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>0.19725999999999999</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>6.4460000000000003E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>3.2799999999999999E-3</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>1.8699999999999999E-3</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="1">
         <v>1.0300000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>12245.13766</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>5222.2208840000003</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>2326.3845879999999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>796.60434840000005</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>128.11414600000001</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>59.367381629999997</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="1">
         <v>23.155888829999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>13092.680619999999</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>5456.0174589999997</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>1551.135556</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>401.36126639999998</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>173.2930418</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <v>121.56220089999999</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="1">
         <v>103.5291896</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>13070.874229999999</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>5518.1256370000001</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>1654.101981</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>419.8786819</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>168.22223070000001</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>112.6918115</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="1">
         <v>70.43161198</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>13072.21305</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>5698.5651859999998</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>1936.8403430000001</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>476.64993299999998</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>179.51580240000001</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="1">
         <v>122.52494780000001</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="1">
         <v>78.663008009999999</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>13219.14602</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>5879.6236369999997</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>2165.198425</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>539.09918630000004</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>183.93757969999999</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="1">
         <v>132.12912040000001</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="1">
         <v>72.383944060000005</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>11045.935600000001</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>8177.9683999999997</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>4885.4584999999997</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>2088.4110000000001</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>1370.0753999999999</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>1176.7865999999999</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="1">
         <v>1001.3920000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>12244.889719999999</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>5068.9998029999997</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>2024.078622</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>587.4153622</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>115.3827565</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1">
         <v>52.030781490000003</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="1">
         <v>-14.4551956</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>11864.1587</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>9094.7816000000003</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>4943.0730999999996</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>2248.5515999999998</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>1592.0275999999999</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <v>1286.4405999999999</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="1">
         <v>1151.2384</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>13504</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>9703.5</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>5903</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>3285.5</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>668</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="1">
         <v>435.5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="1">
         <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>13504</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>10788</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>8072</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>2992</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>376</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <v>237.5</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="1">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>13071.54364</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>5789.0944120000004</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>2245.7915069999999</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>692.00985530000003</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>181.72669110000001</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>127.32703410000001</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="1">
         <v>88.831504010000003</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>9.0856858490000008</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>16.153537</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>32.641511059999999</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="1">
         <v>58.237357860000003</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="1">
         <v>77.051372720000003</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>9.3144800980000007</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <v>19.610023269999999</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="1">
         <v>30.01796384</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="1">
         <v>40.379750360000003</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="1">
         <v>29.018676670000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>5.1130028169999999</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>17.871448659999999</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1">
         <v>28.04604621</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1">
         <v>45.302578619999998</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="1">
         <v>43.10586575</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
         <v>0</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>4.5368894500000003</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="1">
         <v>21.711040239999999</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="1">
         <v>39.646274079999998</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="1">
         <v>58.767635030000001</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="1">
         <v>65.063463580000004</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="1">
         <v>3.3522564510000001</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="1">
         <v>18.14120724</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="1">
         <v>34.01241023</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="1">
         <v>59.362532899999998</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="1">
         <v>72.127785259999996</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>5.45E-2</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
         <v>1.6577</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>11.231400000000001</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="1">
         <v>30.8461</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="1">
         <v>68.851699999999994</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="1">
         <v>134.52940000000001</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="1">
         <v>231.07409999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="1">
         <v>0</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="1">
         <v>6.2311924039999997</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="1">
         <v>18.52040234</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="1">
         <v>46.80606598</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="1">
         <v>88.695589299999995</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="1">
         <v>105.62414870000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>0.39839999999999998</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
         <v>1.7478</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="1">
         <v>5.1456</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="1">
         <v>12.0749</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="1">
         <v>25.188700000000001</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="1">
         <v>47.107199999999999</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="1">
         <v>78.232600000000005</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>0</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="1">
         <v>0</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="1">
         <v>87</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="1">
         <v>272</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="1">
         <v>457</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="1">
         <v>514.5</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="1">
         <v>572</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>0</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>0</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="1">
         <v>-41</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="1">
         <v>138</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="1">
         <v>257</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="1">
         <v>315.5</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="1">
         <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>0</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>5.6883999999999997</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="1">
         <v>19.06521</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <v>36.829340000000002</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <v>59.065080000000002</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="1">
         <v>77.641990000000007</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>12245.13766</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
         <v>5222.2208840000003</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="1">
         <v>2317.298902</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="1">
         <v>780.45081140000002</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="1">
         <v>95.472634929999998</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="1">
         <v>1.1300237710000001</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="1">
         <v>-53.895483890000001</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>13092.680619999999</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="1">
         <v>5456.0174589999997</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="1">
         <v>1541.8210759999999</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="1">
         <v>381.75124310000001</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="1">
         <v>143.27507800000001</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="1">
         <v>81.18245057</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="1">
         <v>74.510512969999994</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>13070.874229999999</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
         <v>5518.1256370000001</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="1">
         <v>1648.9889780000001</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="1">
         <v>402.00723319999997</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="1">
         <v>140.17618450000001</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="1">
         <v>67.389232840000005</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="1">
         <v>27.32574623</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>13072.21305</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="1">
         <v>5698.5651859999998</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="1">
         <v>1932.3034540000001</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="1">
         <v>454.93889280000002</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="1">
         <v>139.86952830000001</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="1">
         <v>63.757312740000003</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="1">
         <v>13.59954443</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>13219.14602</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
         <v>5879.6236369999997</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="1">
         <v>2161.8461689999999</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="1">
         <v>520.95797909999999</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="1">
         <v>149.92516950000001</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="1">
         <v>72.766587450000003</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="1">
         <v>0.25615879600000002</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>11045.881100000001</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="1">
         <v>8176.3107</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="1">
         <v>4874.2271000000001</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="1">
         <v>2057.5648999999999</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="1">
         <v>1301.2237</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="1">
         <v>1042.2572</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="1">
         <v>770.31790000000001</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>12244.889719999999</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="1">
         <v>5068.9998029999997</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="1">
         <v>2017.84743</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="1">
         <v>568.8949599</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="1">
         <v>68.576690529999993</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="1">
         <v>-36.664807809999999</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="1">
         <v>-120.0793443</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <v>11863.7603</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="1">
         <v>9093.0337999999992</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="1">
         <v>4937.9274999999998</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="1">
         <v>2236.4767000000002</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="1">
         <v>1566.8389</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="1">
         <v>1239.3334</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="1">
         <v>1073.0057999999999</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>13504</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="1">
         <v>9660</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="1">
         <v>5816</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="1">
         <v>2867.5</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="1">
         <v>-81</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="1">
         <v>-225</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="1">
         <v>-369</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <v>13504</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="1">
         <v>10808.5</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="1">
         <v>8113</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="1">
         <v>2854</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="1">
         <v>411</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="1">
         <v>68</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="1">
         <v>-275</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <v>13071.54364</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="1">
         <v>5789.0944120000004</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="1">
         <v>2239.5725360000001</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="1">
         <v>674.67288570000005</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="1">
         <v>141.7256313</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="1">
         <v>67.694616420000003</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="1">
         <v>6.9278516129999996</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="C46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="1">
         <v>0.71</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="1">
         <v>0.4</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="1">
         <v>0.21</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="1">
         <v>0.06</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="1">
         <v>0.01</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="1">
         <v>0.01</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="C47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="1">
         <v>0.7</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="1">
         <v>0.32</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="1">
         <v>0.01</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="1">
         <v>0</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="1">
         <v>0</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="C48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="1">
         <v>0.71</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="1">
         <v>0.34</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="1">
         <v>0.01</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="1">
         <v>0</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="1">
         <v>0.01</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="C49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="1">
         <v>0.71</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="1">
         <v>0.35</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="1">
         <v>0.1</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="1">
         <v>0.01</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="1">
         <v>0.01</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="1">
         <v>0.01</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="C50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="1">
         <v>0.72</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="1">
         <v>0.37</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="1">
         <v>0.12</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="1">
         <v>0.01</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="1">
         <v>0.01</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="1">
         <v>0.01</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="C51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="1">
         <v>0.71</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="1">
         <v>0.36</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="1">
         <v>0.16</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="1">
         <v>0.04</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="1">
         <v>0.01</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="1">
         <v>0.01</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="C52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="1">
         <v>0.66</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="1">
         <v>0.48</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="1">
         <v>0.27</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="1">
         <v>0.13</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="1">
         <v>0.05</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="1">
         <v>0.03</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="C53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="1">
         <v>0.67</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="1">
         <v>0.5</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="1">
         <v>0.27</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="1">
         <v>0.13</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="1">
         <v>0.08</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="1">
         <v>0.05</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="1">
         <v>0.04</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="C54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="1">
         <v>0.7</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="1">
         <v>0.49</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="1">
         <v>0.34</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="1">
         <v>0.11</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="1">
         <v>0.02</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="1">
         <v>0.01</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="C55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="1">
         <v>0.7</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="1">
         <v>0.37</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="1">
         <v>0.04</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="1">
         <v>0.01</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="1">
         <v>0.01</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="C56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="1">
         <v>0.71</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="1">
         <v>0.4</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="1">
         <v>0.23</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="1">
         <v>0.11</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="1">
         <v>0.06</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="1">
         <v>0.06</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="1">
         <v>0.06</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="C57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="1">
         <v>0.7</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="1">
         <v>0.32</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="1">
         <v>0.09</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="1">
         <v>0.04</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="1">
         <v>0.03</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="1">
         <v>0.04</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="1">
         <v>0.04</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="C58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="1">
         <v>0.71</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="1">
         <v>0.34</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="1">
         <v>0.1</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="1">
         <v>0.04</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="1">
         <v>0.04</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="1">
         <v>0.04</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="1">
         <v>0.04</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="C59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="1">
         <v>0.71</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="1">
         <v>0.35</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="1">
         <v>0.12</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="1">
         <v>0.05</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="1">
         <v>0.05</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="1">
         <v>0.05</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="C60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="1">
         <v>0.72</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="1">
         <v>0.37</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="1">
         <v>0.06</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="1">
         <v>0.05</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="1">
         <v>0.05</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="C61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="1">
         <v>0.71</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="1">
         <v>0.36</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="1">
         <v>0.19</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="1">
         <v>0.09</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="1">
         <v>0.06</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="1">
         <v>0.06</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="C62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="1">
         <v>0.66</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="1">
         <v>0.48</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="1">
         <v>0.13</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="1">
         <v>0.05</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="1">
         <v>0.04</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="C63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="1">
         <v>0.67</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="1">
         <v>0.5</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="1">
         <v>0.27</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="1">
         <v>0.13</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="1">
         <v>0.08</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="1">
         <v>0.05</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="1">
         <v>0.04</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="C64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="1">
         <v>0.7</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="1">
         <v>0.49</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="1">
         <v>0.35</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="1">
         <v>0.12</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="1">
         <v>0.04</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="1">
         <v>0.03</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="1">
         <v>0.02</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="C65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="1">
         <v>0.7</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="1">
         <v>0.37</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="1">
         <v>0.17</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="1">
         <v>0.04</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="1">
         <v>0.04</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="1">
         <v>0.04</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="C66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="1">
         <v>0</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="1">
         <v>0</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="1">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="1">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="3">
+      <c r="C67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="1">
         <v>0</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="1">
         <v>0</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="1">
         <v>2.3E-3</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="1">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="3">
+      <c r="C68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="1">
         <v>0</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="1">
         <v>0</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="1">
         <v>1.4E-3</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="1">
         <v>3.8E-3</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="1">
         <v>4.3E-3</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="C69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="1">
         <v>0</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="1">
         <v>0</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="1">
         <v>1.8E-3</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="1">
         <v>3.3E-3</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="1">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="1">
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="3">
+      <c r="C70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="1">
         <v>0</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="1">
         <v>0</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="1">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="1">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="1">
         <v>6.3E-3</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="3">
+      <c r="C71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="1">
         <v>0</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="1">
         <v>0</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="1">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="1">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="1">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="1">
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="3">
+      <c r="C72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="1">
         <v>0</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="1">
         <v>2E-3</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="1">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="1">
         <v>1.04E-2</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="3">
+      <c r="C73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="1">
         <v>0</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="1">
         <v>1E-4</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="1">
         <v>1.4E-3</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="1">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="3">
+      <c r="C74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="1">
         <v>0</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="1">
         <v>0</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="1">
         <v>2E-3</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="1">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="1">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="1">
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="3">
+      <c r="C75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="1">
         <v>0</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="1">
         <v>0</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="1">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="1">
         <v>5.3E-3</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="1">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="3">
+      <c r="C76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="1">
         <v>0.1212</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="1">
         <v>0.15579999999999999</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="1">
         <v>0.1643</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="1">
         <v>0.15759999999999999</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="1">
         <v>0.1628</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="1">
         <v>0.17030000000000001</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="1">
         <v>0.18909999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="3">
+      <c r="C77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="1">
         <v>0.1249</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="1">
         <v>0.14779999999999999</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="1">
         <v>0.15440000000000001</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="1">
         <v>0.1668</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="1">
         <v>0.1958</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="1">
         <v>0.23419999999999999</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="1">
         <v>0.28189999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="3">
+      <c r="C78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="1">
         <v>0.11840000000000001</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="1">
         <v>0.14080000000000001</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="1">
         <v>0.14480000000000001</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="1">
         <v>0.15559999999999999</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="1">
         <v>0.17979999999999999</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="1">
         <v>0.2112</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="1">
         <v>0.25019999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="3">
+      <c r="C79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="1">
         <v>0.11260000000000001</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="1">
         <v>0.1331</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="1">
         <v>0.13780000000000001</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="1">
         <v>0.14580000000000001</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="1">
         <v>0.1663</v>
       </c>
-      <c r="I79" s="3">
+      <c r="I79" s="1">
         <v>0.1923</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="1">
         <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="3">
+      <c r="C80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="1">
         <v>0.11119999999999999</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="1">
         <v>0.13150000000000001</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="1">
         <v>0.13769999999999999</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="1">
         <v>0.14449999999999999</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="1">
         <v>0.16259999999999999</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="1">
         <v>0.17549999999999999</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="3">
+      <c r="C81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="1">
         <v>0.1212</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="1">
         <v>0.15440000000000001</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="1">
         <v>0.1618</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="1">
         <v>0.15720000000000001</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="1">
         <v>0.16569999999999999</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="1">
         <v>0.17549999999999999</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="1">
         <v>0.19350000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="3">
+      <c r="C82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="1">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="1">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="1">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="1">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="1">
         <v>4.58E-2</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="1">
         <v>3.85E-2</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="1">
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="3">
+      <c r="C83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="1">
         <v>9.01E-2</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="1">
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="1">
         <v>5.28E-2</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="1">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="1">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="1">
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="3">
+      <c r="C84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="1">
         <v>0.1157</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="1">
         <v>0.1193</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="1">
         <v>0.1212</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="1">
         <v>0.1246</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="1">
         <v>0.11169999999999999</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="1">
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="1">
         <v>9.06E-2</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="3">
+      <c r="C85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="1">
         <v>0.11609999999999999</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="1">
         <v>0.1396</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="1">
         <v>0.1454</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="1">
         <v>0.14050000000000001</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="1">
         <v>0.14860000000000001</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="1">
         <v>0.1605</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="1">
         <v>0.17849999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="3">
+      <c r="C86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="1">
         <v>0.1027</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="1">
         <v>0.21729999999999999</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="1">
         <v>0.32540000000000002</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="1">
         <v>0.36349999999999999</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="1">
         <v>0.37430000000000002</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="1">
         <v>0.37590000000000001</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="1">
         <v>0.38929999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="3">
+      <c r="C87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="1">
         <v>9.3399999999999997E-2</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="1">
         <v>0.2545</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="1">
         <v>0.35060000000000002</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="1">
         <v>0.36520000000000002</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="1">
         <v>0.37930000000000003</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="1">
         <v>0.3856</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87" s="1">
         <v>0.38979999999999998</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="3">
+      <c r="C88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="1">
         <v>0.26050000000000001</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="1">
         <v>0.34749999999999998</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="1">
         <v>0.36199999999999999</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="1">
         <v>0.37090000000000001</v>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="1">
         <v>0.38</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="1">
         <v>0.3876</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="3">
+      <c r="C89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="1">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="1">
         <v>0.26340000000000002</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="1">
         <v>0.3448</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="1">
         <v>0.36159999999999998</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="1">
         <v>0.36980000000000002</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="1">
         <v>0.374</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="1">
         <v>0.38879999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="3">
+      <c r="C90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="1">
         <v>0.10009999999999999</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="1">
         <v>0.26119999999999999</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="1">
         <v>0.34960000000000002</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="1">
         <v>0.36499999999999999</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="1">
         <v>0.37390000000000001</v>
       </c>
-      <c r="I90" s="3">
+      <c r="I90" s="1">
         <v>0.37540000000000001</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90" s="1">
         <v>0.38929999999999998</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="3">
+      <c r="C91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="1">
         <v>0.1027</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="1">
         <v>0.24790000000000001</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="1">
         <v>0.33739999999999998</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="1">
         <v>0.36399999999999999</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="1">
         <v>0.3735</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="1">
         <v>0.38119999999999998</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="1">
         <v>0.39679999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="3">
+      <c r="C92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="1">
         <v>0.1125</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="1">
         <v>0.27350000000000002</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="1">
         <v>0.38750000000000001</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="1">
         <v>0.4073</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="1">
         <v>0.40250000000000002</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92" s="1">
         <v>0.39600000000000002</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92" s="1">
         <v>0.39539999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="3">
+      <c r="C93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="1">
         <v>0.1137</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="1">
         <v>0.29220000000000002</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="1">
         <v>0.42380000000000001</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="1">
         <v>0.44790000000000002</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="1">
         <v>0.44180000000000003</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93" s="1">
         <v>0.43619999999999998</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93" s="1">
         <v>0.43209999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="3">
+      <c r="C94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="1">
         <v>0.1183</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="1">
         <v>0.31979999999999997</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="1">
         <v>0.38569999999999999</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="1">
         <v>0.44350000000000001</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="1">
         <v>0.46339999999999998</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="1">
         <v>0.47220000000000001</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="1">
         <v>0.47870000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="3">
+      <c r="C95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="1">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="1">
         <v>0.27900000000000003</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="1">
         <v>0.38600000000000001</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="1">
         <v>0.39029999999999998</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="1">
         <v>0.3826</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95" s="1">
         <v>0.38669999999999999</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95" s="1">
         <v>0.39579999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="3">
+      <c r="C96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="1">
         <v>3.8E-3</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I96" s="3">
+      <c r="I96" s="1">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96" s="1">
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="3">
+      <c r="C97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="1">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="1">
         <v>7.6E-3</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" s="1">
         <v>1.04E-2</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="1">
         <v>1.54E-2</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="1">
         <v>2.29E-2</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97" s="1">
         <v>3.44E-2</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="3">
+      <c r="C98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="1">
         <v>2.8E-3</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="1">
         <v>4.3E-3</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="1">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="1">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="1">
         <v>1.24E-2</v>
       </c>
-      <c r="I98" s="3">
+      <c r="I98" s="1">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98" s="1">
         <v>2.7799999999999998E-2</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="3">
+      <c r="C99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="1">
         <v>2.8E-3</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="1">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="1">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="1">
         <v>1.03E-2</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99" s="1">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99" s="1">
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="3">
+      <c r="C100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="1">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="1">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="1">
         <v>1.32E-2</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="1">
         <v>1.9800000000000002E-2</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="3">
+      <c r="C101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="1">
         <v>3.3E-3</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="1">
         <v>4.3E-3</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="1">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="1">
         <v>5.3E-3</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="1">
         <v>7.6E-3</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="1">
         <v>1.14E-2</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="3">
+      <c r="C102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="1">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="1">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="1">
         <v>3.3E-3</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="1">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="1">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="3">
+      <c r="C103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="1">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="1">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103" s="1">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103" s="1">
         <v>3.3E-3</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103" s="1">
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104" s="3">
+      <c r="C104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="1">
         <v>2E-3</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="1">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="1">
         <v>6.6E-3</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104" s="1">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="1">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I104" s="1">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104" s="1">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105" s="3">
+      <c r="C105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="1">
         <v>2.8E-3</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="1">
         <v>3.8E-3</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="1">
         <v>5.3E-3</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" s="1">
         <v>6.3E-3</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I105" s="3">
+      <c r="I105" s="1">
         <v>1.34E-2</v>
       </c>
-      <c r="J105" s="3">
+      <c r="J105" s="1">
         <v>2.0299999999999999E-2</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="3">
+      <c r="C106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="1">
         <v>0.24</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="1">
         <v>0.36</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="1">
         <v>0.35</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="1">
         <v>0.39</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="1">
         <v>0.41</v>
       </c>
-      <c r="I106" s="3">
+      <c r="I106" s="1">
         <v>0.43</v>
       </c>
-      <c r="J106" s="3">
+      <c r="J106" s="1">
         <v>0.42</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107" s="3">
+      <c r="C107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="1">
         <v>0.21</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="1">
         <v>0.4</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="1">
         <v>0.41</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="1">
         <v>0.41</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="1">
         <v>0.41</v>
       </c>
-      <c r="I107" s="3">
+      <c r="I107" s="1">
         <v>0.41</v>
       </c>
-      <c r="J107" s="3">
+      <c r="J107" s="1">
         <v>0.4</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="3">
+      <c r="C108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="1">
         <v>0.22</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="1">
         <v>0.39</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="1">
         <v>0.41</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108" s="1">
         <v>0.42</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="1">
         <v>0.42</v>
       </c>
-      <c r="I108" s="3">
+      <c r="I108" s="1">
         <v>0.42</v>
       </c>
-      <c r="J108" s="3">
+      <c r="J108" s="1">
         <v>0.41</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="3">
+      <c r="C109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="1">
         <v>0.22</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="1">
         <v>0.38</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="1">
         <v>0.4</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109" s="1">
         <v>0.41</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="1">
         <v>0.42</v>
       </c>
-      <c r="I109" s="3">
+      <c r="I109" s="1">
         <v>0.43</v>
       </c>
-      <c r="J109" s="3">
+      <c r="J109" s="1">
         <v>0.42</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="3">
+      <c r="C110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="1">
         <v>0.23</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="1">
         <v>0.38</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="1">
         <v>0.39</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G110" s="1">
         <v>0.42</v>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="1">
         <v>0.42</v>
       </c>
-      <c r="I110" s="3">
+      <c r="I110" s="1">
         <v>0.43</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110" s="1">
         <v>0.42</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" s="3">
+      <c r="C111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="1">
         <v>0.24</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="1">
         <v>0.36</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="1">
         <v>0.36</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G111" s="1">
         <v>0.39</v>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="1">
         <v>0.41</v>
       </c>
-      <c r="I111" s="3">
+      <c r="I111" s="1">
         <v>0.42</v>
       </c>
-      <c r="J111" s="3">
+      <c r="J111" s="1">
         <v>0.41</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="3">
+      <c r="C112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="1">
         <v>0.19</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="1">
         <v>0.25</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="1">
         <v>0.32</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G112" s="1">
         <v>0.38</v>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="1">
         <v>0.42</v>
       </c>
-      <c r="I112" s="3">
+      <c r="I112" s="1">
         <v>0.45</v>
       </c>
-      <c r="J112" s="3">
+      <c r="J112" s="1">
         <v>0.47</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="3">
+      <c r="C113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="1">
         <v>0.19</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="1">
         <v>0.25</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="1">
         <v>0.31</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G113" s="1">
         <v>0.36</v>
       </c>
-      <c r="H113" s="3">
+      <c r="H113" s="1">
         <v>0.4</v>
       </c>
-      <c r="I113" s="3">
+      <c r="I113" s="1">
         <v>0.43</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J113" s="1">
         <v>0.44</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="3">
+      <c r="C114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="1">
         <v>0.23</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="1">
         <v>0.31</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="1">
         <v>0.33</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G114" s="1">
         <v>0.34</v>
       </c>
-      <c r="H114" s="3">
+      <c r="H114" s="1">
         <v>0.35</v>
       </c>
-      <c r="I114" s="3">
+      <c r="I114" s="1">
         <v>0.36</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114" s="1">
         <v>0.36</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115" s="3">
+      <c r="C115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="1">
         <v>0.22</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="1">
         <v>0.33</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="1">
         <v>0.33</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G115" s="1">
         <v>0.39</v>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="1">
         <v>0.42</v>
       </c>
-      <c r="I115" s="3">
+      <c r="I115" s="1">
         <v>0.43</v>
       </c>
-      <c r="J115" s="3">
+      <c r="J115" s="1">
         <v>0.42</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D116" s="3">
+      <c r="C116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="1">
         <v>0.64970000000000006</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="1">
         <v>0.41060000000000002</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="1">
         <v>0.30380000000000001</v>
       </c>
-      <c r="G116" s="3">
+      <c r="G116" s="1">
         <v>0.2293</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="1">
         <v>0.1915</v>
       </c>
-      <c r="I116" s="3">
+      <c r="I116" s="1">
         <v>0.17080000000000001</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J116" s="1">
         <v>0.1595</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D117" s="3">
+      <c r="C117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="1">
         <v>0.67730000000000001</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="1">
         <v>0.32390000000000002</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="1">
         <v>0.22120000000000001</v>
       </c>
-      <c r="G117" s="3">
+      <c r="G117" s="1">
         <v>0.1948</v>
       </c>
-      <c r="H117" s="3">
+      <c r="H117" s="1">
         <v>0.17710000000000001</v>
       </c>
-      <c r="I117" s="3">
+      <c r="I117" s="1">
         <v>0.1615</v>
       </c>
-      <c r="J117" s="3">
+      <c r="J117" s="1">
         <v>0.15129999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D118" s="3">
+      <c r="C118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="1">
         <v>0.66879999999999995</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="1">
         <v>0.33410000000000001</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="1">
         <v>0.2253</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G118" s="1">
         <v>0.19800000000000001</v>
       </c>
-      <c r="H118" s="3">
+      <c r="H118" s="1">
         <v>0.17799999999999999</v>
       </c>
-      <c r="I118" s="3">
+      <c r="I118" s="1">
         <v>0.16039999999999999</v>
       </c>
-      <c r="J118" s="3">
+      <c r="J118" s="1">
         <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="3">
+      <c r="C119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="1">
         <v>0.66579999999999995</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="1">
         <v>0.34150000000000003</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="1">
         <v>0.2356</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G119" s="1">
         <v>0.20130000000000001</v>
       </c>
-      <c r="H119" s="3">
+      <c r="H119" s="1">
         <v>0.18129999999999999</v>
       </c>
-      <c r="I119" s="3">
+      <c r="I119" s="1">
         <v>0.16189999999999999</v>
       </c>
-      <c r="J119" s="3">
+      <c r="J119" s="1">
         <v>0.1482</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120" s="3">
+      <c r="C120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="1">
         <v>0.65610000000000002</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="1">
         <v>0.34439999999999998</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="1">
         <v>0.23849999999999999</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G120" s="1">
         <v>0.1983</v>
       </c>
-      <c r="H120" s="3">
+      <c r="H120" s="1">
         <v>0.17660000000000001</v>
       </c>
-      <c r="I120" s="3">
+      <c r="I120" s="1">
         <v>0.15759999999999999</v>
       </c>
-      <c r="J120" s="3">
+      <c r="J120" s="1">
         <v>0.14549999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D121" s="3">
+      <c r="C121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="1">
         <v>0.64970000000000006</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="1">
         <v>0.38169999999999998</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="1">
         <v>0.28420000000000001</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G121" s="1">
         <v>0.224</v>
       </c>
-      <c r="H121" s="3">
+      <c r="H121" s="1">
         <v>0.1915</v>
       </c>
-      <c r="I121" s="3">
+      <c r="I121" s="1">
         <v>0.17169999999999999</v>
       </c>
-      <c r="J121" s="3">
+      <c r="J121" s="1">
         <v>0.16039999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122" s="3">
+      <c r="C122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="1">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="1">
         <v>0.44729999999999998</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="1">
         <v>0.27339999999999998</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G122" s="1">
         <v>0.19869999999999999</v>
       </c>
-      <c r="H122" s="3">
+      <c r="H122" s="1">
         <v>0.16470000000000001</v>
       </c>
-      <c r="I122" s="3">
+      <c r="I122" s="1">
         <v>0.1411</v>
       </c>
-      <c r="J122" s="3">
+      <c r="J122" s="1">
         <v>0.12540000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123" s="3">
+      <c r="C123" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="1">
         <v>0.66449999999999998</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="1">
         <v>0.4264</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="1">
         <v>0.24429999999999999</v>
       </c>
-      <c r="G123" s="3">
+      <c r="G123" s="1">
         <v>0.17549999999999999</v>
       </c>
-      <c r="H123" s="3">
+      <c r="H123" s="1">
         <v>0.14779999999999999</v>
       </c>
-      <c r="I123" s="3">
+      <c r="I123" s="1">
         <v>0.128</v>
       </c>
-      <c r="J123" s="3">
+      <c r="J123" s="1">
         <v>0.1169</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124" s="3">
+      <c r="C124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="1">
         <v>0.63670000000000004</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="1">
         <v>0.35270000000000001</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="1">
         <v>0.25979999999999998</v>
       </c>
-      <c r="G124" s="3">
+      <c r="G124" s="1">
         <v>0.18759999999999999</v>
       </c>
-      <c r="H124" s="3">
+      <c r="H124" s="1">
         <v>0.15490000000000001</v>
       </c>
-      <c r="I124" s="3">
+      <c r="I124" s="1">
         <v>0.13830000000000001</v>
       </c>
-      <c r="J124" s="3">
+      <c r="J124" s="1">
         <v>0.126</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125" s="3">
+      <c r="C125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="1">
         <v>0.66500000000000004</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="1">
         <v>0.37319999999999998</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125" s="1">
         <v>0.26200000000000001</v>
       </c>
-      <c r="G125" s="3">
+      <c r="G125" s="1">
         <v>0.19719999999999999</v>
       </c>
-      <c r="H125" s="3">
+      <c r="H125" s="1">
         <v>0.1696</v>
       </c>
-      <c r="I125" s="3">
+      <c r="I125" s="1">
         <v>0.1547</v>
       </c>
-      <c r="J125" s="3">
+      <c r="J125" s="1">
         <v>0.14710000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126" s="3">
+      <c r="C126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="1">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="1">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="1">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="G126" s="3">
+      <c r="G126" s="1">
         <v>1.55E-2</v>
       </c>
-      <c r="H126" s="3">
+      <c r="H126" s="1">
         <v>1.72E-2</v>
       </c>
-      <c r="I126" s="3">
+      <c r="I126" s="1">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="J126" s="3">
+      <c r="J126" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127" s="3">
+      <c r="C127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="1">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="1">
         <v>1.46E-2</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="1">
         <v>1.44E-2</v>
       </c>
-      <c r="G127" s="3">
+      <c r="G127" s="1">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="H127" s="3">
+      <c r="H127" s="1">
         <v>1.83E-2</v>
       </c>
-      <c r="I127" s="3">
+      <c r="I127" s="1">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="J127" s="3">
+      <c r="J127" s="1">
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D128" s="3">
+      <c r="C128" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="1">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="1">
         <v>1.46E-2</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="1">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="G128" s="3">
+      <c r="G128" s="1">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="H128" s="3">
+      <c r="H128" s="1">
         <v>1.78E-2</v>
       </c>
-      <c r="I128" s="3">
+      <c r="I128" s="1">
         <v>2.01E-2</v>
       </c>
-      <c r="J128" s="3">
+      <c r="J128" s="1">
         <v>2.18E-2</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="12.75">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D129" s="3">
+      <c r="C129" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="1">
         <v>1.29E-2</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="1">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="1">
         <v>1.44E-2</v>
       </c>
-      <c r="G129" s="3">
+      <c r="G129" s="1">
         <v>1.54E-2</v>
       </c>
-      <c r="H129" s="3">
+      <c r="H129" s="1">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="I129" s="3">
+      <c r="I129" s="1">
         <v>1.95E-2</v>
       </c>
-      <c r="J129" s="3">
+      <c r="J129" s="1">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="12.75">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130" s="3">
+      <c r="C130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="1">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="1">
         <v>1.44E-2</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="1">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="G130" s="3">
+      <c r="G130" s="1">
         <v>1.54E-2</v>
       </c>
-      <c r="H130" s="3">
+      <c r="H130" s="1">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="I130" s="3">
+      <c r="I130" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="J130" s="3">
+      <c r="J130" s="1">
         <v>2.07E-2</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="12.75">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D131" s="3">
+      <c r="C131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="1">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="1">
         <v>1.12E-2</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="1">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="G131" s="3">
+      <c r="G131" s="1">
         <v>1.49E-2</v>
       </c>
-      <c r="H131" s="3">
+      <c r="H131" s="1">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="I131" s="3">
+      <c r="I131" s="1">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="J131" s="3">
+      <c r="J131" s="1">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="12.75">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" s="3">
+      <c r="C132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="1">
         <v>2.98E-2</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="1">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="1">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="G132" s="3">
+      <c r="G132" s="1">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="H132" s="3">
+      <c r="H132" s="1">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="I132" s="3">
+      <c r="I132" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J132" s="3">
+      <c r="J132" s="1">
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="12.75">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" s="3">
+      <c r="C133" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="1">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="1">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="1">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="G133" s="3">
+      <c r="G133" s="1">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="H133" s="3">
+      <c r="H133" s="1">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="I133" s="3">
+      <c r="I133" s="1">
         <v>6.6E-3</v>
       </c>
-      <c r="J133" s="3">
+      <c r="J133" s="1">
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="12.75">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D134" s="3">
+      <c r="C134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="1">
         <v>1.35E-2</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="1">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="1">
         <v>1.44E-2</v>
       </c>
-      <c r="G134" s="3">
+      <c r="G134" s="1">
         <v>1.46E-2</v>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="1">
         <v>1.38E-2</v>
       </c>
-      <c r="I134" s="3">
+      <c r="I134" s="1">
         <v>1.35E-2</v>
       </c>
-      <c r="J134" s="3">
+      <c r="J134" s="1">
         <v>1.32E-2</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="12.75">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D135" s="3">
+      <c r="C135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="1">
         <v>1.35E-2</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="1">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G135" s="3">
+      <c r="G135" s="1">
         <v>1.44E-2</v>
       </c>
-      <c r="H135" s="3">
+      <c r="H135" s="1">
         <v>1.52E-2</v>
       </c>
-      <c r="I135" s="3">
+      <c r="I135" s="1">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="J135" s="3">
+      <c r="J135" s="1">
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
@@ -4862,895 +4878,895 @@
     <row r="142" spans="1:10" ht="12.75"/>
     <row r="143" spans="1:10" ht="12.75"/>
     <row r="144" spans="1:10" ht="12.75"/>
-    <row r="145" s="10" customFormat="1" ht="12.75"/>
-    <row r="146" s="10" customFormat="1" ht="12.75"/>
-    <row r="147" s="10" customFormat="1" ht="12.75"/>
-    <row r="148" s="10" customFormat="1" ht="12.75"/>
-    <row r="149" s="10" customFormat="1" ht="12.75"/>
-    <row r="150" s="10" customFormat="1" ht="12.75"/>
-    <row r="151" s="10" customFormat="1" ht="12.75"/>
-    <row r="152" s="10" customFormat="1" ht="12.75"/>
-    <row r="153" s="10" customFormat="1" ht="12.75"/>
-    <row r="154" s="10" customFormat="1" ht="12.75"/>
-    <row r="155" s="10" customFormat="1" ht="12.75"/>
-    <row r="156" s="10" customFormat="1" ht="12.75"/>
-    <row r="157" s="10" customFormat="1" ht="12.75"/>
-    <row r="158" s="10" customFormat="1" ht="12.75"/>
-    <row r="159" s="10" customFormat="1" ht="12.75"/>
-    <row r="160" s="10" customFormat="1" ht="12.75"/>
-    <row r="161" s="10" customFormat="1" ht="12.75"/>
-    <row r="162" s="10" customFormat="1" ht="12.75"/>
-    <row r="163" s="10" customFormat="1" ht="12.75"/>
-    <row r="164" s="10" customFormat="1" ht="12.75"/>
-    <row r="165" s="10" customFormat="1" ht="12.75"/>
-    <row r="166" s="10" customFormat="1" ht="12.75"/>
-    <row r="167" s="10" customFormat="1" ht="12.75"/>
-    <row r="168" s="10" customFormat="1" ht="12.75"/>
-    <row r="169" s="10" customFormat="1" ht="12.75"/>
-    <row r="170" s="10" customFormat="1" ht="12.75"/>
-    <row r="171" s="10" customFormat="1" ht="12.75"/>
-    <row r="172" s="10" customFormat="1" ht="12.75"/>
-    <row r="173" s="10" customFormat="1" ht="12.75"/>
-    <row r="174" s="10" customFormat="1" ht="12.75"/>
-    <row r="175" s="10" customFormat="1" ht="12.75"/>
-    <row r="176" s="10" customFormat="1" ht="12.75"/>
-    <row r="177" s="10" customFormat="1" ht="12.75"/>
-    <row r="178" s="10" customFormat="1" ht="12.75"/>
-    <row r="179" s="10" customFormat="1" ht="12.75"/>
-    <row r="180" s="10" customFormat="1" ht="12.75"/>
-    <row r="181" s="10" customFormat="1" ht="12.75"/>
-    <row r="182" s="10" customFormat="1" ht="12.75"/>
-    <row r="183" s="10" customFormat="1" ht="12.75"/>
-    <row r="184" s="10" customFormat="1" ht="12.75"/>
-    <row r="185" s="10" customFormat="1" ht="12.75"/>
-    <row r="186" s="10" customFormat="1" ht="12.75"/>
-    <row r="187" s="10" customFormat="1" ht="12.75"/>
-    <row r="188" s="10" customFormat="1" ht="12.75"/>
-    <row r="189" s="10" customFormat="1" ht="12.75"/>
-    <row r="190" s="10" customFormat="1" ht="12.75"/>
-    <row r="191" s="10" customFormat="1" ht="12.75"/>
-    <row r="192" s="10" customFormat="1" ht="12.75"/>
-    <row r="193" s="10" customFormat="1" ht="12.75"/>
-    <row r="194" s="10" customFormat="1" ht="12.75"/>
-    <row r="195" s="10" customFormat="1" ht="12.75"/>
-    <row r="196" s="10" customFormat="1" ht="12.75"/>
-    <row r="197" s="10" customFormat="1" ht="12.75"/>
-    <row r="198" s="10" customFormat="1" ht="12.75"/>
-    <row r="199" s="10" customFormat="1" ht="12.75"/>
-    <row r="200" s="10" customFormat="1" ht="12.75"/>
-    <row r="201" s="10" customFormat="1" ht="12.75"/>
-    <row r="202" s="10" customFormat="1" ht="12.75"/>
-    <row r="203" s="10" customFormat="1" ht="12.75"/>
-    <row r="204" s="10" customFormat="1" ht="12.75"/>
-    <row r="205" s="10" customFormat="1" ht="12.75"/>
-    <row r="206" s="10" customFormat="1" ht="12.75"/>
-    <row r="207" s="10" customFormat="1" ht="12.75"/>
-    <row r="208" s="10" customFormat="1" ht="12.75"/>
-    <row r="209" s="10" customFormat="1" ht="12.75"/>
-    <row r="210" s="10" customFormat="1" ht="12.75"/>
-    <row r="211" s="10" customFormat="1" ht="12.75"/>
-    <row r="212" s="10" customFormat="1" ht="12.75"/>
-    <row r="213" s="10" customFormat="1" ht="12.75"/>
-    <row r="214" s="10" customFormat="1" ht="12.75"/>
-    <row r="215" s="10" customFormat="1" ht="12.75"/>
-    <row r="216" s="10" customFormat="1" ht="12.75"/>
-    <row r="217" s="10" customFormat="1" ht="12.75"/>
-    <row r="218" s="10" customFormat="1" ht="12.75"/>
-    <row r="219" s="10" customFormat="1" ht="12.75"/>
-    <row r="220" s="10" customFormat="1" ht="12.75"/>
-    <row r="221" s="10" customFormat="1" ht="12.75"/>
-    <row r="222" s="10" customFormat="1" ht="12.75"/>
-    <row r="223" s="10" customFormat="1" ht="12.75"/>
-    <row r="224" s="10" customFormat="1" ht="12.75"/>
-    <row r="225" s="10" customFormat="1" ht="12.75"/>
-    <row r="226" s="10" customFormat="1" ht="12.75"/>
-    <row r="227" s="10" customFormat="1" ht="12.75"/>
-    <row r="228" s="10" customFormat="1" ht="12.75"/>
-    <row r="229" s="10" customFormat="1" ht="12.75"/>
-    <row r="230" s="10" customFormat="1" ht="12.75"/>
-    <row r="231" s="10" customFormat="1" ht="12.75"/>
-    <row r="232" s="10" customFormat="1" ht="12.75"/>
-    <row r="233" s="10" customFormat="1" ht="12.75"/>
-    <row r="234" s="10" customFormat="1" ht="12.75"/>
-    <row r="235" s="10" customFormat="1" ht="12.75"/>
-    <row r="236" s="10" customFormat="1" ht="12.75"/>
-    <row r="237" s="10" customFormat="1" ht="12.75"/>
-    <row r="238" s="10" customFormat="1" ht="12.75"/>
-    <row r="239" s="10" customFormat="1" ht="12.75"/>
-    <row r="240" s="10" customFormat="1" ht="12.75"/>
-    <row r="241" s="10" customFormat="1" ht="12.75"/>
-    <row r="242" s="10" customFormat="1" ht="12.75"/>
-    <row r="243" s="10" customFormat="1" ht="12.75"/>
-    <row r="244" s="10" customFormat="1" ht="12.75"/>
-    <row r="245" s="10" customFormat="1" ht="12.75"/>
-    <row r="246" s="10" customFormat="1" ht="12.75"/>
-    <row r="247" s="10" customFormat="1" ht="12.75"/>
-    <row r="248" s="10" customFormat="1" ht="12.75"/>
-    <row r="249" s="10" customFormat="1" ht="12.75"/>
-    <row r="250" s="10" customFormat="1" ht="12.75"/>
-    <row r="251" s="10" customFormat="1" ht="12.75"/>
-    <row r="252" s="10" customFormat="1" ht="12.75"/>
-    <row r="253" s="10" customFormat="1" ht="12.75"/>
-    <row r="254" s="10" customFormat="1" ht="12.75"/>
-    <row r="255" s="10" customFormat="1" ht="12.75"/>
-    <row r="256" s="10" customFormat="1" ht="12.75"/>
-    <row r="257" s="10" customFormat="1" ht="12.75"/>
-    <row r="258" s="10" customFormat="1" ht="12.75"/>
-    <row r="259" s="10" customFormat="1" ht="12.75"/>
-    <row r="260" s="10" customFormat="1" ht="12.75"/>
-    <row r="261" s="10" customFormat="1" ht="12.75"/>
-    <row r="262" s="10" customFormat="1" ht="12.75"/>
-    <row r="263" s="10" customFormat="1" ht="12.75"/>
-    <row r="264" s="10" customFormat="1" ht="12.75"/>
-    <row r="265" s="10" customFormat="1" ht="12.75"/>
-    <row r="266" s="10" customFormat="1" ht="12.75"/>
-    <row r="267" s="10" customFormat="1" ht="12.75"/>
-    <row r="268" s="10" customFormat="1" ht="12.75"/>
-    <row r="269" s="10" customFormat="1" ht="12.75"/>
-    <row r="270" s="10" customFormat="1" ht="12.75"/>
-    <row r="271" s="10" customFormat="1" ht="12.75"/>
-    <row r="272" s="10" customFormat="1" ht="12.75"/>
-    <row r="273" s="10" customFormat="1" ht="12.75"/>
-    <row r="274" s="10" customFormat="1" ht="12.75"/>
-    <row r="275" s="10" customFormat="1" ht="12.75"/>
-    <row r="276" s="10" customFormat="1" ht="12.75"/>
-    <row r="277" s="10" customFormat="1" ht="12.75"/>
-    <row r="278" s="10" customFormat="1" ht="12.75"/>
-    <row r="279" s="10" customFormat="1" ht="12.75"/>
-    <row r="280" s="10" customFormat="1" ht="12.75"/>
-    <row r="281" s="10" customFormat="1" ht="12.75"/>
-    <row r="282" s="10" customFormat="1" ht="12.75"/>
-    <row r="283" s="10" customFormat="1" ht="12.75"/>
-    <row r="284" s="10" customFormat="1" ht="12.75"/>
-    <row r="285" s="10" customFormat="1" ht="12.75"/>
-    <row r="286" s="10" customFormat="1" ht="12.75"/>
-    <row r="287" s="10" customFormat="1" ht="12.75"/>
-    <row r="288" s="10" customFormat="1" ht="12.75"/>
-    <row r="289" s="10" customFormat="1" ht="12.75"/>
-    <row r="290" s="10" customFormat="1" ht="12.75"/>
-    <row r="291" s="10" customFormat="1" ht="12.75"/>
-    <row r="292" s="10" customFormat="1" ht="12.75"/>
-    <row r="293" s="10" customFormat="1" ht="12.75"/>
-    <row r="294" s="10" customFormat="1" ht="12.75"/>
-    <row r="295" s="10" customFormat="1" ht="12.75"/>
-    <row r="296" s="10" customFormat="1" ht="12.75"/>
-    <row r="297" s="10" customFormat="1" ht="12.75"/>
-    <row r="298" s="10" customFormat="1" ht="12.75"/>
-    <row r="299" s="10" customFormat="1" ht="12.75"/>
-    <row r="300" s="10" customFormat="1" ht="12.75"/>
-    <row r="301" s="10" customFormat="1" ht="12.75"/>
-    <row r="302" s="10" customFormat="1" ht="12.75"/>
-    <row r="303" s="10" customFormat="1" ht="12.75"/>
-    <row r="304" s="10" customFormat="1" ht="12.75"/>
-    <row r="305" s="10" customFormat="1" ht="12.75"/>
-    <row r="306" s="10" customFormat="1" ht="12.75"/>
-    <row r="307" s="10" customFormat="1" ht="12.75"/>
-    <row r="308" s="10" customFormat="1" ht="12.75"/>
-    <row r="309" s="10" customFormat="1" ht="12.75"/>
-    <row r="310" s="10" customFormat="1" ht="12.75"/>
-    <row r="311" s="10" customFormat="1" ht="12.75"/>
-    <row r="312" s="10" customFormat="1" ht="12.75"/>
-    <row r="313" s="10" customFormat="1" ht="12.75"/>
-    <row r="314" s="10" customFormat="1" ht="12.75"/>
-    <row r="315" s="10" customFormat="1" ht="12.75"/>
-    <row r="316" s="10" customFormat="1" ht="12.75"/>
-    <row r="317" s="10" customFormat="1" ht="12.75"/>
-    <row r="318" s="10" customFormat="1" ht="12.75"/>
-    <row r="319" s="10" customFormat="1" ht="12.75"/>
-    <row r="320" s="10" customFormat="1" ht="12.75"/>
-    <row r="321" s="10" customFormat="1" ht="12.75"/>
-    <row r="322" s="10" customFormat="1" ht="12.75"/>
-    <row r="323" s="10" customFormat="1" ht="12.75"/>
-    <row r="324" s="10" customFormat="1" ht="12.75"/>
-    <row r="325" s="10" customFormat="1" ht="12.75"/>
-    <row r="326" s="10" customFormat="1" ht="12.75"/>
-    <row r="327" s="10" customFormat="1" ht="12.75"/>
-    <row r="328" s="10" customFormat="1" ht="12.75"/>
-    <row r="329" s="10" customFormat="1" ht="12.75"/>
-    <row r="330" s="10" customFormat="1" ht="12.75"/>
-    <row r="331" s="10" customFormat="1" ht="12.75"/>
-    <row r="332" s="10" customFormat="1" ht="12.75"/>
-    <row r="333" s="10" customFormat="1" ht="12.75"/>
-    <row r="334" s="10" customFormat="1" ht="12.75"/>
-    <row r="335" s="10" customFormat="1" ht="12.75"/>
-    <row r="336" s="10" customFormat="1" ht="12.75"/>
-    <row r="337" s="10" customFormat="1" ht="12.75"/>
-    <row r="338" s="10" customFormat="1" ht="12.75"/>
-    <row r="339" s="10" customFormat="1" ht="12.75"/>
-    <row r="340" s="10" customFormat="1" ht="12.75"/>
-    <row r="341" s="10" customFormat="1" ht="12.75"/>
-    <row r="342" s="10" customFormat="1" ht="12.75"/>
-    <row r="343" s="10" customFormat="1" ht="12.75"/>
-    <row r="344" s="10" customFormat="1" ht="12.75"/>
-    <row r="345" s="10" customFormat="1" ht="12.75"/>
-    <row r="346" s="10" customFormat="1" ht="12.75"/>
-    <row r="347" s="10" customFormat="1" ht="12.75"/>
-    <row r="348" s="10" customFormat="1" ht="12.75"/>
-    <row r="349" s="10" customFormat="1" ht="12.75"/>
-    <row r="350" s="10" customFormat="1" ht="12.75"/>
-    <row r="351" s="10" customFormat="1" ht="12.75"/>
-    <row r="352" s="10" customFormat="1" ht="12.75"/>
-    <row r="353" s="10" customFormat="1" ht="12.75"/>
-    <row r="354" s="10" customFormat="1" ht="12.75"/>
-    <row r="355" s="10" customFormat="1" ht="12.75"/>
-    <row r="356" s="10" customFormat="1" ht="12.75"/>
-    <row r="357" s="10" customFormat="1" ht="12.75"/>
-    <row r="358" s="10" customFormat="1" ht="12.75"/>
-    <row r="359" s="10" customFormat="1" ht="12.75"/>
-    <row r="360" s="10" customFormat="1" ht="12.75"/>
-    <row r="361" s="10" customFormat="1" ht="12.75"/>
-    <row r="362" s="10" customFormat="1" ht="12.75"/>
-    <row r="363" s="10" customFormat="1" ht="12.75"/>
-    <row r="364" s="10" customFormat="1" ht="12.75"/>
-    <row r="365" s="10" customFormat="1" ht="12.75"/>
-    <row r="366" s="10" customFormat="1" ht="12.75"/>
-    <row r="367" s="10" customFormat="1" ht="12.75"/>
-    <row r="368" s="10" customFormat="1" ht="12.75"/>
-    <row r="369" s="10" customFormat="1" ht="12.75"/>
-    <row r="370" s="10" customFormat="1" ht="12.75"/>
-    <row r="371" s="10" customFormat="1" ht="12.75"/>
-    <row r="372" s="10" customFormat="1" ht="12.75"/>
-    <row r="373" s="10" customFormat="1" ht="12.75"/>
-    <row r="374" s="10" customFormat="1" ht="12.75"/>
-    <row r="375" s="10" customFormat="1" ht="12.75"/>
-    <row r="376" s="10" customFormat="1" ht="12.75"/>
-    <row r="377" s="10" customFormat="1" ht="12.75"/>
-    <row r="378" s="10" customFormat="1" ht="12.75"/>
-    <row r="379" s="10" customFormat="1" ht="12.75"/>
-    <row r="380" s="10" customFormat="1" ht="12.75"/>
-    <row r="381" s="10" customFormat="1" ht="12.75"/>
-    <row r="382" s="10" customFormat="1" ht="12.75"/>
-    <row r="383" s="10" customFormat="1" ht="12.75"/>
-    <row r="384" s="10" customFormat="1" ht="12.75"/>
-    <row r="385" s="10" customFormat="1" ht="12.75"/>
-    <row r="386" s="10" customFormat="1" ht="12.75"/>
-    <row r="387" s="10" customFormat="1" ht="12.75"/>
-    <row r="388" s="10" customFormat="1" ht="12.75"/>
-    <row r="389" s="10" customFormat="1" ht="12.75"/>
-    <row r="390" s="10" customFormat="1" ht="12.75"/>
-    <row r="391" s="10" customFormat="1" ht="12.75"/>
-    <row r="392" s="10" customFormat="1" ht="12.75"/>
-    <row r="393" s="10" customFormat="1" ht="12.75"/>
-    <row r="394" s="10" customFormat="1" ht="12.75"/>
-    <row r="395" s="10" customFormat="1" ht="12.75"/>
-    <row r="396" s="10" customFormat="1" ht="12.75"/>
-    <row r="397" s="10" customFormat="1" ht="12.75"/>
-    <row r="398" s="10" customFormat="1" ht="12.75"/>
-    <row r="399" s="10" customFormat="1" ht="12.75"/>
-    <row r="400" s="10" customFormat="1" ht="12.75"/>
-    <row r="401" s="10" customFormat="1" ht="12.75"/>
-    <row r="402" s="10" customFormat="1" ht="12.75"/>
-    <row r="403" s="10" customFormat="1" ht="12.75"/>
-    <row r="404" s="10" customFormat="1" ht="12.75"/>
-    <row r="405" s="10" customFormat="1" ht="12.75"/>
-    <row r="406" s="10" customFormat="1" ht="12.75"/>
-    <row r="407" s="10" customFormat="1" ht="12.75"/>
-    <row r="408" s="10" customFormat="1" ht="12.75"/>
-    <row r="409" s="10" customFormat="1" ht="12.75"/>
-    <row r="410" s="10" customFormat="1" ht="12.75"/>
-    <row r="411" s="10" customFormat="1" ht="12.75"/>
-    <row r="412" s="10" customFormat="1" ht="12.75"/>
-    <row r="413" s="10" customFormat="1" ht="12.75"/>
-    <row r="414" s="10" customFormat="1" ht="12.75"/>
-    <row r="415" s="10" customFormat="1" ht="12.75"/>
-    <row r="416" s="10" customFormat="1" ht="12.75"/>
-    <row r="417" s="10" customFormat="1" ht="12.75"/>
-    <row r="418" s="10" customFormat="1" ht="12.75"/>
-    <row r="419" s="10" customFormat="1" ht="12.75"/>
-    <row r="420" s="10" customFormat="1" ht="12.75"/>
-    <row r="421" s="10" customFormat="1" ht="12.75"/>
-    <row r="422" s="10" customFormat="1" ht="12.75"/>
-    <row r="423" s="10" customFormat="1" ht="12.75"/>
-    <row r="424" s="10" customFormat="1" ht="12.75"/>
-    <row r="425" s="10" customFormat="1" ht="12.75"/>
-    <row r="426" s="10" customFormat="1" ht="12.75"/>
-    <row r="427" s="10" customFormat="1" ht="12.75"/>
-    <row r="428" s="10" customFormat="1" ht="12.75"/>
-    <row r="429" s="10" customFormat="1" ht="12.75"/>
-    <row r="430" s="10" customFormat="1" ht="12.75"/>
-    <row r="431" s="10" customFormat="1" ht="12.75"/>
-    <row r="432" s="10" customFormat="1" ht="12.75"/>
-    <row r="433" s="10" customFormat="1" ht="12.75"/>
-    <row r="434" s="10" customFormat="1" ht="12.75"/>
-    <row r="435" s="10" customFormat="1" ht="12.75"/>
-    <row r="436" s="10" customFormat="1" ht="12.75"/>
-    <row r="437" s="10" customFormat="1" ht="12.75"/>
-    <row r="438" s="10" customFormat="1" ht="12.75"/>
-    <row r="439" s="10" customFormat="1" ht="12.75"/>
-    <row r="440" s="10" customFormat="1" ht="12.75"/>
-    <row r="441" s="10" customFormat="1" ht="12.75"/>
-    <row r="442" s="10" customFormat="1" ht="12.75"/>
-    <row r="443" s="10" customFormat="1" ht="12.75"/>
-    <row r="444" s="10" customFormat="1" ht="12.75"/>
-    <row r="445" s="10" customFormat="1" ht="12.75"/>
-    <row r="446" s="10" customFormat="1" ht="12.75"/>
-    <row r="447" s="10" customFormat="1" ht="12.75"/>
-    <row r="448" s="10" customFormat="1" ht="12.75"/>
-    <row r="449" s="10" customFormat="1" ht="12.75"/>
-    <row r="450" s="10" customFormat="1" ht="12.75"/>
-    <row r="451" s="10" customFormat="1" ht="12.75"/>
-    <row r="452" s="10" customFormat="1" ht="12.75"/>
-    <row r="453" s="10" customFormat="1" ht="12.75"/>
-    <row r="454" s="10" customFormat="1" ht="12.75"/>
-    <row r="455" s="10" customFormat="1" ht="12.75"/>
-    <row r="456" s="10" customFormat="1" ht="12.75"/>
-    <row r="457" s="10" customFormat="1" ht="12.75"/>
-    <row r="458" s="10" customFormat="1" ht="12.75"/>
-    <row r="459" s="10" customFormat="1" ht="12.75"/>
-    <row r="460" s="10" customFormat="1" ht="12.75"/>
-    <row r="461" s="10" customFormat="1" ht="12.75"/>
-    <row r="462" s="10" customFormat="1" ht="12.75"/>
-    <row r="463" s="10" customFormat="1" ht="12.75"/>
-    <row r="464" s="10" customFormat="1" ht="12.75"/>
-    <row r="465" s="10" customFormat="1" ht="12.75"/>
-    <row r="466" s="10" customFormat="1" ht="12.75"/>
-    <row r="467" s="10" customFormat="1" ht="12.75"/>
-    <row r="468" s="10" customFormat="1" ht="12.75"/>
-    <row r="469" s="10" customFormat="1" ht="12.75"/>
-    <row r="470" s="10" customFormat="1" ht="12.75"/>
-    <row r="471" s="10" customFormat="1" ht="12.75"/>
-    <row r="472" s="10" customFormat="1" ht="12.75"/>
-    <row r="473" s="10" customFormat="1" ht="12.75"/>
-    <row r="474" s="10" customFormat="1" ht="12.75"/>
-    <row r="475" s="10" customFormat="1" ht="12.75"/>
-    <row r="476" s="10" customFormat="1" ht="12.75"/>
-    <row r="477" s="10" customFormat="1" ht="12.75"/>
-    <row r="478" s="10" customFormat="1" ht="12.75"/>
-    <row r="479" s="10" customFormat="1" ht="12.75"/>
-    <row r="480" s="10" customFormat="1" ht="12.75"/>
-    <row r="481" s="10" customFormat="1" ht="12.75"/>
-    <row r="482" s="10" customFormat="1" ht="12.75"/>
-    <row r="483" s="10" customFormat="1" ht="12.75"/>
-    <row r="484" s="10" customFormat="1" ht="12.75"/>
-    <row r="485" s="10" customFormat="1" ht="12.75"/>
-    <row r="486" s="10" customFormat="1" ht="12.75"/>
-    <row r="487" s="10" customFormat="1" ht="12.75"/>
-    <row r="488" s="10" customFormat="1" ht="12.75"/>
-    <row r="489" s="10" customFormat="1" ht="12.75"/>
-    <row r="490" s="10" customFormat="1" ht="12.75"/>
-    <row r="491" s="10" customFormat="1" ht="12.75"/>
-    <row r="492" s="10" customFormat="1" ht="12.75"/>
-    <row r="493" s="10" customFormat="1" ht="12.75"/>
-    <row r="494" s="10" customFormat="1" ht="12.75"/>
-    <row r="495" s="10" customFormat="1" ht="12.75"/>
-    <row r="496" s="10" customFormat="1" ht="12.75"/>
-    <row r="497" s="10" customFormat="1" ht="12.75"/>
-    <row r="498" s="10" customFormat="1" ht="12.75"/>
-    <row r="499" s="10" customFormat="1" ht="12.75"/>
-    <row r="500" s="10" customFormat="1" ht="12.75"/>
-    <row r="501" s="10" customFormat="1" ht="12.75"/>
-    <row r="502" s="10" customFormat="1" ht="12.75"/>
-    <row r="503" s="10" customFormat="1" ht="12.75"/>
-    <row r="504" s="10" customFormat="1" ht="12.75"/>
-    <row r="505" s="10" customFormat="1" ht="12.75"/>
-    <row r="506" s="10" customFormat="1" ht="12.75"/>
-    <row r="507" s="10" customFormat="1" ht="12.75"/>
-    <row r="508" s="10" customFormat="1" ht="12.75"/>
-    <row r="509" s="10" customFormat="1" ht="12.75"/>
-    <row r="510" s="10" customFormat="1" ht="12.75"/>
-    <row r="511" s="10" customFormat="1" ht="12.75"/>
-    <row r="512" s="10" customFormat="1" ht="12.75"/>
-    <row r="513" s="10" customFormat="1" ht="12.75"/>
-    <row r="514" s="10" customFormat="1" ht="12.75"/>
-    <row r="515" s="10" customFormat="1" ht="12.75"/>
-    <row r="516" s="10" customFormat="1" ht="12.75"/>
-    <row r="517" s="10" customFormat="1" ht="12.75"/>
-    <row r="518" s="10" customFormat="1" ht="12.75"/>
-    <row r="519" s="10" customFormat="1" ht="12.75"/>
-    <row r="520" s="10" customFormat="1" ht="12.75"/>
-    <row r="521" s="10" customFormat="1" ht="12.75"/>
-    <row r="522" s="10" customFormat="1" ht="12.75"/>
-    <row r="523" s="10" customFormat="1" ht="12.75"/>
-    <row r="524" s="10" customFormat="1" ht="12.75"/>
-    <row r="525" s="10" customFormat="1" ht="12.75"/>
-    <row r="526" s="10" customFormat="1" ht="12.75"/>
-    <row r="527" s="10" customFormat="1" ht="12.75"/>
-    <row r="528" s="10" customFormat="1" ht="12.75"/>
-    <row r="529" s="10" customFormat="1" ht="12.75"/>
-    <row r="530" s="10" customFormat="1" ht="12.75"/>
-    <row r="531" s="10" customFormat="1" ht="12.75"/>
-    <row r="532" s="10" customFormat="1" ht="12.75"/>
-    <row r="533" s="10" customFormat="1" ht="12.75"/>
-    <row r="534" s="10" customFormat="1" ht="12.75"/>
-    <row r="535" s="10" customFormat="1" ht="12.75"/>
-    <row r="536" s="10" customFormat="1" ht="12.75"/>
-    <row r="537" s="10" customFormat="1" ht="12.75"/>
-    <row r="538" s="10" customFormat="1" ht="12.75"/>
-    <row r="539" s="10" customFormat="1" ht="12.75"/>
-    <row r="540" s="10" customFormat="1" ht="12.75"/>
-    <row r="541" s="10" customFormat="1" ht="12.75"/>
-    <row r="542" s="10" customFormat="1" ht="12.75"/>
-    <row r="543" s="10" customFormat="1" ht="12.75"/>
-    <row r="544" s="10" customFormat="1" ht="12.75"/>
-    <row r="545" s="10" customFormat="1" ht="12.75"/>
-    <row r="546" s="10" customFormat="1" ht="12.75"/>
-    <row r="547" s="10" customFormat="1" ht="12.75"/>
-    <row r="548" s="10" customFormat="1" ht="12.75"/>
-    <row r="549" s="10" customFormat="1" ht="12.75"/>
-    <row r="550" s="10" customFormat="1" ht="12.75"/>
-    <row r="551" s="10" customFormat="1" ht="12.75"/>
-    <row r="552" s="10" customFormat="1" ht="12.75"/>
-    <row r="553" s="10" customFormat="1" ht="12.75"/>
-    <row r="554" s="10" customFormat="1" ht="12.75"/>
-    <row r="555" s="10" customFormat="1" ht="12.75"/>
-    <row r="556" s="10" customFormat="1" ht="12.75"/>
-    <row r="557" s="10" customFormat="1" ht="12.75"/>
-    <row r="558" s="10" customFormat="1" ht="12.75"/>
-    <row r="559" s="10" customFormat="1" ht="12.75"/>
-    <row r="560" s="10" customFormat="1" ht="12.75"/>
-    <row r="561" s="10" customFormat="1" ht="12.75"/>
-    <row r="562" s="10" customFormat="1" ht="12.75"/>
-    <row r="563" s="10" customFormat="1" ht="12.75"/>
-    <row r="564" s="10" customFormat="1" ht="12.75"/>
-    <row r="565" s="10" customFormat="1" ht="12.75"/>
-    <row r="566" s="10" customFormat="1" ht="12.75"/>
-    <row r="567" s="10" customFormat="1" ht="12.75"/>
-    <row r="568" s="10" customFormat="1" ht="12.75"/>
-    <row r="569" s="10" customFormat="1" ht="12.75"/>
-    <row r="570" s="10" customFormat="1" ht="12.75"/>
-    <row r="571" s="10" customFormat="1" ht="12.75"/>
-    <row r="572" s="10" customFormat="1" ht="12.75"/>
-    <row r="573" s="10" customFormat="1" ht="12.75"/>
-    <row r="574" s="10" customFormat="1" ht="12.75"/>
-    <row r="575" s="10" customFormat="1" ht="12.75"/>
-    <row r="576" s="10" customFormat="1" ht="12.75"/>
-    <row r="577" s="10" customFormat="1" ht="12.75"/>
-    <row r="578" s="10" customFormat="1" ht="12.75"/>
-    <row r="579" s="10" customFormat="1" ht="12.75"/>
-    <row r="580" s="10" customFormat="1" ht="12.75"/>
-    <row r="581" s="10" customFormat="1" ht="12.75"/>
-    <row r="582" s="10" customFormat="1" ht="12.75"/>
-    <row r="583" s="10" customFormat="1" ht="12.75"/>
-    <row r="584" s="10" customFormat="1" ht="12.75"/>
-    <row r="585" s="10" customFormat="1" ht="12.75"/>
-    <row r="586" s="10" customFormat="1" ht="12.75"/>
-    <row r="587" s="10" customFormat="1" ht="12.75"/>
-    <row r="588" s="10" customFormat="1" ht="12.75"/>
-    <row r="589" s="10" customFormat="1" ht="12.75"/>
-    <row r="590" s="10" customFormat="1" ht="12.75"/>
-    <row r="591" s="10" customFormat="1" ht="12.75"/>
-    <row r="592" s="10" customFormat="1" ht="12.75"/>
-    <row r="593" s="10" customFormat="1" ht="12.75"/>
-    <row r="594" s="10" customFormat="1" ht="12.75"/>
-    <row r="595" s="10" customFormat="1" ht="12.75"/>
-    <row r="596" s="10" customFormat="1" ht="12.75"/>
-    <row r="597" s="10" customFormat="1" ht="12.75"/>
-    <row r="598" s="10" customFormat="1" ht="12.75"/>
-    <row r="599" s="10" customFormat="1" ht="12.75"/>
-    <row r="600" s="10" customFormat="1" ht="12.75"/>
-    <row r="601" s="10" customFormat="1" ht="12.75"/>
-    <row r="602" s="10" customFormat="1" ht="12.75"/>
-    <row r="603" s="10" customFormat="1" ht="12.75"/>
-    <row r="604" s="10" customFormat="1" ht="12.75"/>
-    <row r="605" s="10" customFormat="1" ht="12.75"/>
-    <row r="606" s="10" customFormat="1" ht="12.75"/>
-    <row r="607" s="10" customFormat="1" ht="12.75"/>
-    <row r="608" s="10" customFormat="1" ht="12.75"/>
-    <row r="609" s="10" customFormat="1" ht="12.75"/>
-    <row r="610" s="10" customFormat="1" ht="12.75"/>
-    <row r="611" s="10" customFormat="1" ht="12.75"/>
-    <row r="612" s="10" customFormat="1" ht="12.75"/>
-    <row r="613" s="10" customFormat="1" ht="12.75"/>
-    <row r="614" s="10" customFormat="1" ht="12.75"/>
-    <row r="615" s="10" customFormat="1" ht="12.75"/>
-    <row r="616" s="10" customFormat="1" ht="12.75"/>
-    <row r="617" s="10" customFormat="1" ht="12.75"/>
-    <row r="618" s="10" customFormat="1" ht="12.75"/>
-    <row r="619" s="10" customFormat="1" ht="12.75"/>
-    <row r="620" s="10" customFormat="1" ht="12.75"/>
-    <row r="621" s="10" customFormat="1" ht="12.75"/>
-    <row r="622" s="10" customFormat="1" ht="12.75"/>
-    <row r="623" s="10" customFormat="1" ht="12.75"/>
-    <row r="624" s="10" customFormat="1" ht="12.75"/>
-    <row r="625" s="10" customFormat="1" ht="12.75"/>
-    <row r="626" s="10" customFormat="1" ht="12.75"/>
-    <row r="627" s="10" customFormat="1" ht="12.75"/>
-    <row r="628" s="10" customFormat="1" ht="12.75"/>
-    <row r="629" s="10" customFormat="1" ht="12.75"/>
-    <row r="630" s="10" customFormat="1" ht="12.75"/>
-    <row r="631" s="10" customFormat="1" ht="12.75"/>
-    <row r="632" s="10" customFormat="1" ht="12.75"/>
-    <row r="633" s="10" customFormat="1" ht="12.75"/>
-    <row r="634" s="10" customFormat="1" ht="12.75"/>
-    <row r="635" s="10" customFormat="1" ht="12.75"/>
-    <row r="636" s="10" customFormat="1" ht="12.75"/>
-    <row r="637" s="10" customFormat="1" ht="12.75"/>
-    <row r="638" s="10" customFormat="1" ht="12.75"/>
-    <row r="639" s="10" customFormat="1" ht="12.75"/>
-    <row r="640" s="10" customFormat="1" ht="12.75"/>
-    <row r="641" s="10" customFormat="1" ht="12.75"/>
-    <row r="642" s="10" customFormat="1" ht="12.75"/>
-    <row r="643" s="10" customFormat="1" ht="12.75"/>
-    <row r="644" s="10" customFormat="1" ht="12.75"/>
-    <row r="645" s="10" customFormat="1" ht="12.75"/>
-    <row r="646" s="10" customFormat="1" ht="12.75"/>
-    <row r="647" s="10" customFormat="1" ht="12.75"/>
-    <row r="648" s="10" customFormat="1" ht="12.75"/>
-    <row r="649" s="10" customFormat="1" ht="12.75"/>
-    <row r="650" s="10" customFormat="1" ht="12.75"/>
-    <row r="651" s="10" customFormat="1" ht="12.75"/>
-    <row r="652" s="10" customFormat="1" ht="12.75"/>
-    <row r="653" s="10" customFormat="1" ht="12.75"/>
-    <row r="654" s="10" customFormat="1" ht="12.75"/>
-    <row r="655" s="10" customFormat="1" ht="12.75"/>
-    <row r="656" s="10" customFormat="1" ht="12.75"/>
-    <row r="657" s="10" customFormat="1" ht="12.75"/>
-    <row r="658" s="10" customFormat="1" ht="12.75"/>
-    <row r="659" s="10" customFormat="1" ht="12.75"/>
-    <row r="660" s="10" customFormat="1" ht="12.75"/>
-    <row r="661" s="10" customFormat="1" ht="12.75"/>
-    <row r="662" s="10" customFormat="1" ht="12.75"/>
-    <row r="663" s="10" customFormat="1" ht="12.75"/>
-    <row r="664" s="10" customFormat="1" ht="12.75"/>
-    <row r="665" s="10" customFormat="1" ht="12.75"/>
-    <row r="666" s="10" customFormat="1" ht="12.75"/>
-    <row r="667" s="10" customFormat="1" ht="12.75"/>
-    <row r="668" s="10" customFormat="1" ht="12.75"/>
-    <row r="669" s="10" customFormat="1" ht="12.75"/>
-    <row r="670" s="10" customFormat="1" ht="12.75"/>
-    <row r="671" s="10" customFormat="1" ht="12.75"/>
-    <row r="672" s="10" customFormat="1" ht="12.75"/>
-    <row r="673" s="10" customFormat="1" ht="12.75"/>
-    <row r="674" s="10" customFormat="1" ht="12.75"/>
-    <row r="675" s="10" customFormat="1" ht="12.75"/>
-    <row r="676" s="10" customFormat="1" ht="12.75"/>
-    <row r="677" s="10" customFormat="1" ht="12.75"/>
-    <row r="678" s="10" customFormat="1" ht="12.75"/>
-    <row r="679" s="10" customFormat="1" ht="12.75"/>
-    <row r="680" s="10" customFormat="1" ht="12.75"/>
-    <row r="681" s="10" customFormat="1" ht="12.75"/>
-    <row r="682" s="10" customFormat="1" ht="12.75"/>
-    <row r="683" s="10" customFormat="1" ht="12.75"/>
-    <row r="684" s="10" customFormat="1" ht="12.75"/>
-    <row r="685" s="10" customFormat="1" ht="12.75"/>
-    <row r="686" s="10" customFormat="1" ht="12.75"/>
-    <row r="687" s="10" customFormat="1" ht="12.75"/>
-    <row r="688" s="10" customFormat="1" ht="12.75"/>
-    <row r="689" s="10" customFormat="1" ht="12.75"/>
-    <row r="690" s="10" customFormat="1" ht="12.75"/>
-    <row r="691" s="10" customFormat="1" ht="12.75"/>
-    <row r="692" s="10" customFormat="1" ht="12.75"/>
-    <row r="693" s="10" customFormat="1" ht="12.75"/>
-    <row r="694" s="10" customFormat="1" ht="12.75"/>
-    <row r="695" s="10" customFormat="1" ht="12.75"/>
-    <row r="696" s="10" customFormat="1" ht="12.75"/>
-    <row r="697" s="10" customFormat="1" ht="12.75"/>
-    <row r="698" s="10" customFormat="1" ht="12.75"/>
-    <row r="699" s="10" customFormat="1" ht="12.75"/>
-    <row r="700" s="10" customFormat="1" ht="12.75"/>
-    <row r="701" s="10" customFormat="1" ht="12.75"/>
-    <row r="702" s="10" customFormat="1" ht="12.75"/>
-    <row r="703" s="10" customFormat="1" ht="12.75"/>
-    <row r="704" s="10" customFormat="1" ht="12.75"/>
-    <row r="705" s="10" customFormat="1" ht="12.75"/>
-    <row r="706" s="10" customFormat="1" ht="12.75"/>
-    <row r="707" s="10" customFormat="1" ht="12.75"/>
-    <row r="708" s="10" customFormat="1" ht="12.75"/>
-    <row r="709" s="10" customFormat="1" ht="12.75"/>
-    <row r="710" s="10" customFormat="1" ht="12.75"/>
-    <row r="711" s="10" customFormat="1" ht="12.75"/>
-    <row r="712" s="10" customFormat="1" ht="12.75"/>
-    <row r="713" s="10" customFormat="1" ht="12.75"/>
-    <row r="714" s="10" customFormat="1" ht="12.75"/>
-    <row r="715" s="10" customFormat="1" ht="12.75"/>
-    <row r="716" s="10" customFormat="1" ht="12.75"/>
-    <row r="717" s="10" customFormat="1" ht="12.75"/>
-    <row r="718" s="10" customFormat="1" ht="12.75"/>
-    <row r="719" s="10" customFormat="1" ht="12.75"/>
-    <row r="720" s="10" customFormat="1" ht="12.75"/>
-    <row r="721" s="10" customFormat="1" ht="12.75"/>
-    <row r="722" s="10" customFormat="1" ht="12.75"/>
-    <row r="723" s="10" customFormat="1" ht="12.75"/>
-    <row r="724" s="10" customFormat="1" ht="12.75"/>
-    <row r="725" s="10" customFormat="1" ht="12.75"/>
-    <row r="726" s="10" customFormat="1" ht="12.75"/>
-    <row r="727" s="10" customFormat="1" ht="12.75"/>
-    <row r="728" s="10" customFormat="1" ht="12.75"/>
-    <row r="729" s="10" customFormat="1" ht="12.75"/>
-    <row r="730" s="10" customFormat="1" ht="12.75"/>
-    <row r="731" s="10" customFormat="1" ht="12.75"/>
-    <row r="732" s="10" customFormat="1" ht="12.75"/>
-    <row r="733" s="10" customFormat="1" ht="12.75"/>
-    <row r="734" s="10" customFormat="1" ht="12.75"/>
-    <row r="735" s="10" customFormat="1" ht="12.75"/>
-    <row r="736" s="10" customFormat="1" ht="12.75"/>
-    <row r="737" s="10" customFormat="1" ht="12.75"/>
-    <row r="738" s="10" customFormat="1" ht="12.75"/>
-    <row r="739" s="10" customFormat="1" ht="12.75"/>
-    <row r="740" s="10" customFormat="1" ht="12.75"/>
-    <row r="741" s="10" customFormat="1" ht="12.75"/>
-    <row r="742" s="10" customFormat="1" ht="12.75"/>
-    <row r="743" s="10" customFormat="1" ht="12.75"/>
-    <row r="744" s="10" customFormat="1" ht="12.75"/>
-    <row r="745" s="10" customFormat="1" ht="12.75"/>
-    <row r="746" s="10" customFormat="1" ht="12.75"/>
-    <row r="747" s="10" customFormat="1" ht="12.75"/>
-    <row r="748" s="10" customFormat="1" ht="12.75"/>
-    <row r="749" s="10" customFormat="1" ht="12.75"/>
-    <row r="750" s="10" customFormat="1" ht="12.75"/>
-    <row r="751" s="10" customFormat="1" ht="12.75"/>
-    <row r="752" s="10" customFormat="1" ht="12.75"/>
-    <row r="753" s="10" customFormat="1" ht="12.75"/>
-    <row r="754" s="10" customFormat="1" ht="12.75"/>
-    <row r="755" s="10" customFormat="1" ht="12.75"/>
-    <row r="756" s="10" customFormat="1" ht="12.75"/>
-    <row r="757" s="10" customFormat="1" ht="12.75"/>
-    <row r="758" s="10" customFormat="1" ht="12.75"/>
-    <row r="759" s="10" customFormat="1" ht="12.75"/>
-    <row r="760" s="10" customFormat="1" ht="12.75"/>
-    <row r="761" s="10" customFormat="1" ht="12.75"/>
-    <row r="762" s="10" customFormat="1" ht="12.75"/>
-    <row r="763" s="10" customFormat="1" ht="12.75"/>
-    <row r="764" s="10" customFormat="1" ht="12.75"/>
-    <row r="765" s="10" customFormat="1" ht="12.75"/>
-    <row r="766" s="10" customFormat="1" ht="12.75"/>
-    <row r="767" s="10" customFormat="1" ht="12.75"/>
-    <row r="768" s="10" customFormat="1" ht="12.75"/>
-    <row r="769" s="10" customFormat="1" ht="12.75"/>
-    <row r="770" s="10" customFormat="1" ht="12.75"/>
-    <row r="771" s="10" customFormat="1" ht="12.75"/>
-    <row r="772" s="10" customFormat="1" ht="12.75"/>
-    <row r="773" s="10" customFormat="1" ht="12.75"/>
-    <row r="774" s="10" customFormat="1" ht="12.75"/>
-    <row r="775" s="10" customFormat="1" ht="12.75"/>
-    <row r="776" s="10" customFormat="1" ht="12.75"/>
-    <row r="777" s="10" customFormat="1" ht="12.75"/>
-    <row r="778" s="10" customFormat="1" ht="12.75"/>
-    <row r="779" s="10" customFormat="1" ht="12.75"/>
-    <row r="780" s="10" customFormat="1" ht="12.75"/>
-    <row r="781" s="10" customFormat="1" ht="12.75"/>
-    <row r="782" s="10" customFormat="1" ht="12.75"/>
-    <row r="783" s="10" customFormat="1" ht="12.75"/>
-    <row r="784" s="10" customFormat="1" ht="12.75"/>
-    <row r="785" s="10" customFormat="1" ht="12.75"/>
-    <row r="786" s="10" customFormat="1" ht="12.75"/>
-    <row r="787" s="10" customFormat="1" ht="12.75"/>
-    <row r="788" s="10" customFormat="1" ht="12.75"/>
-    <row r="789" s="10" customFormat="1" ht="12.75"/>
-    <row r="790" s="10" customFormat="1" ht="12.75"/>
-    <row r="791" s="10" customFormat="1" ht="12.75"/>
-    <row r="792" s="10" customFormat="1" ht="12.75"/>
-    <row r="793" s="10" customFormat="1" ht="12.75"/>
-    <row r="794" s="10" customFormat="1" ht="12.75"/>
-    <row r="795" s="10" customFormat="1" ht="12.75"/>
-    <row r="796" s="10" customFormat="1" ht="12.75"/>
-    <row r="797" s="10" customFormat="1" ht="12.75"/>
-    <row r="798" s="10" customFormat="1" ht="12.75"/>
-    <row r="799" s="10" customFormat="1" ht="12.75"/>
-    <row r="800" s="10" customFormat="1" ht="12.75"/>
-    <row r="801" s="10" customFormat="1" ht="12.75"/>
-    <row r="802" s="10" customFormat="1" ht="12.75"/>
-    <row r="803" s="10" customFormat="1" ht="12.75"/>
-    <row r="804" s="10" customFormat="1" ht="12.75"/>
-    <row r="805" s="10" customFormat="1" ht="12.75"/>
-    <row r="806" s="10" customFormat="1" ht="12.75"/>
-    <row r="807" s="10" customFormat="1" ht="12.75"/>
-    <row r="808" s="10" customFormat="1" ht="12.75"/>
-    <row r="809" s="10" customFormat="1" ht="12.75"/>
-    <row r="810" s="10" customFormat="1" ht="12.75"/>
-    <row r="811" s="10" customFormat="1" ht="12.75"/>
-    <row r="812" s="10" customFormat="1" ht="12.75"/>
-    <row r="813" s="10" customFormat="1" ht="12.75"/>
-    <row r="814" s="10" customFormat="1" ht="12.75"/>
-    <row r="815" s="10" customFormat="1" ht="12.75"/>
-    <row r="816" s="10" customFormat="1" ht="12.75"/>
-    <row r="817" s="10" customFormat="1" ht="12.75"/>
-    <row r="818" s="10" customFormat="1" ht="12.75"/>
-    <row r="819" s="10" customFormat="1" ht="12.75"/>
-    <row r="820" s="10" customFormat="1" ht="12.75"/>
-    <row r="821" s="10" customFormat="1" ht="12.75"/>
-    <row r="822" s="10" customFormat="1" ht="12.75"/>
-    <row r="823" s="10" customFormat="1" ht="12.75"/>
-    <row r="824" s="10" customFormat="1" ht="12.75"/>
-    <row r="825" s="10" customFormat="1" ht="12.75"/>
-    <row r="826" s="10" customFormat="1" ht="12.75"/>
-    <row r="827" s="10" customFormat="1" ht="12.75"/>
-    <row r="828" s="10" customFormat="1" ht="12.75"/>
-    <row r="829" s="10" customFormat="1" ht="12.75"/>
-    <row r="830" s="10" customFormat="1" ht="12.75"/>
-    <row r="831" s="10" customFormat="1" ht="12.75"/>
-    <row r="832" s="10" customFormat="1" ht="12.75"/>
-    <row r="833" s="10" customFormat="1" ht="12.75"/>
-    <row r="834" s="10" customFormat="1" ht="12.75"/>
-    <row r="835" s="10" customFormat="1" ht="12.75"/>
-    <row r="836" s="10" customFormat="1" ht="12.75"/>
-    <row r="837" s="10" customFormat="1" ht="12.75"/>
-    <row r="838" s="10" customFormat="1" ht="12.75"/>
-    <row r="839" s="10" customFormat="1" ht="12.75"/>
-    <row r="840" s="10" customFormat="1" ht="12.75"/>
-    <row r="841" s="10" customFormat="1" ht="12.75"/>
-    <row r="842" s="10" customFormat="1" ht="12.75"/>
-    <row r="843" s="10" customFormat="1" ht="12.75"/>
-    <row r="844" s="10" customFormat="1" ht="12.75"/>
-    <row r="845" s="10" customFormat="1" ht="12.75"/>
-    <row r="846" s="10" customFormat="1" ht="12.75"/>
-    <row r="847" s="10" customFormat="1" ht="12.75"/>
-    <row r="848" s="10" customFormat="1" ht="12.75"/>
-    <row r="849" s="10" customFormat="1" ht="12.75"/>
-    <row r="850" s="10" customFormat="1" ht="12.75"/>
-    <row r="851" s="10" customFormat="1" ht="12.75"/>
-    <row r="852" s="10" customFormat="1" ht="12.75"/>
-    <row r="853" s="10" customFormat="1" ht="12.75"/>
-    <row r="854" s="10" customFormat="1" ht="12.75"/>
-    <row r="855" s="10" customFormat="1" ht="12.75"/>
-    <row r="856" s="10" customFormat="1" ht="12.75"/>
-    <row r="857" s="10" customFormat="1" ht="12.75"/>
-    <row r="858" s="10" customFormat="1" ht="12.75"/>
-    <row r="859" s="10" customFormat="1" ht="12.75"/>
-    <row r="860" s="10" customFormat="1" ht="12.75"/>
-    <row r="861" s="10" customFormat="1" ht="12.75"/>
-    <row r="862" s="10" customFormat="1" ht="12.75"/>
-    <row r="863" s="10" customFormat="1" ht="12.75"/>
-    <row r="864" s="10" customFormat="1" ht="12.75"/>
-    <row r="865" s="10" customFormat="1" ht="12.75"/>
-    <row r="866" s="10" customFormat="1" ht="12.75"/>
-    <row r="867" s="10" customFormat="1" ht="12.75"/>
-    <row r="868" s="10" customFormat="1" ht="12.75"/>
-    <row r="869" s="10" customFormat="1" ht="12.75"/>
-    <row r="870" s="10" customFormat="1" ht="12.75"/>
-    <row r="871" s="10" customFormat="1" ht="12.75"/>
-    <row r="872" s="10" customFormat="1" ht="12.75"/>
-    <row r="873" s="10" customFormat="1" ht="12.75"/>
-    <row r="874" s="10" customFormat="1" ht="12.75"/>
-    <row r="875" s="10" customFormat="1" ht="12.75"/>
-    <row r="876" s="10" customFormat="1" ht="12.75"/>
-    <row r="877" s="10" customFormat="1" ht="12.75"/>
-    <row r="878" s="10" customFormat="1" ht="12.75"/>
-    <row r="879" s="10" customFormat="1" ht="12.75"/>
-    <row r="880" s="10" customFormat="1" ht="12.75"/>
-    <row r="881" s="10" customFormat="1" ht="12.75"/>
-    <row r="882" s="10" customFormat="1" ht="12.75"/>
-    <row r="883" s="10" customFormat="1" ht="12.75"/>
-    <row r="884" s="10" customFormat="1" ht="12.75"/>
-    <row r="885" s="10" customFormat="1" ht="12.75"/>
-    <row r="886" s="10" customFormat="1" ht="12.75"/>
-    <row r="887" s="10" customFormat="1" ht="12.75"/>
-    <row r="888" s="10" customFormat="1" ht="12.75"/>
-    <row r="889" s="10" customFormat="1" ht="12.75"/>
-    <row r="890" s="10" customFormat="1" ht="12.75"/>
-    <row r="891" s="10" customFormat="1" ht="12.75"/>
-    <row r="892" s="10" customFormat="1" ht="12.75"/>
-    <row r="893" s="10" customFormat="1" ht="12.75"/>
-    <row r="894" s="10" customFormat="1" ht="12.75"/>
-    <row r="895" s="10" customFormat="1" ht="12.75"/>
-    <row r="896" s="10" customFormat="1" ht="12.75"/>
-    <row r="897" s="10" customFormat="1" ht="12.75"/>
-    <row r="898" s="10" customFormat="1" ht="12.75"/>
-    <row r="899" s="10" customFormat="1" ht="12.75"/>
-    <row r="900" s="10" customFormat="1" ht="12.75"/>
-    <row r="901" s="10" customFormat="1" ht="12.75"/>
-    <row r="902" s="10" customFormat="1" ht="12.75"/>
-    <row r="903" s="10" customFormat="1" ht="12.75"/>
-    <row r="904" s="10" customFormat="1" ht="12.75"/>
-    <row r="905" s="10" customFormat="1" ht="12.75"/>
-    <row r="906" s="10" customFormat="1" ht="12.75"/>
-    <row r="907" s="10" customFormat="1" ht="12.75"/>
-    <row r="908" s="10" customFormat="1" ht="12.75"/>
-    <row r="909" s="10" customFormat="1" ht="12.75"/>
-    <row r="910" s="10" customFormat="1" ht="12.75"/>
-    <row r="911" s="10" customFormat="1" ht="12.75"/>
-    <row r="912" s="10" customFormat="1" ht="12.75"/>
-    <row r="913" s="10" customFormat="1" ht="12.75"/>
-    <row r="914" s="10" customFormat="1" ht="12.75"/>
-    <row r="915" s="10" customFormat="1" ht="12.75"/>
-    <row r="916" s="10" customFormat="1" ht="12.75"/>
-    <row r="917" s="10" customFormat="1" ht="12.75"/>
-    <row r="918" s="10" customFormat="1" ht="12.75"/>
-    <row r="919" s="10" customFormat="1" ht="12.75"/>
-    <row r="920" s="10" customFormat="1" ht="12.75"/>
-    <row r="921" s="10" customFormat="1" ht="12.75"/>
-    <row r="922" s="10" customFormat="1" ht="12.75"/>
-    <row r="923" s="10" customFormat="1" ht="12.75"/>
-    <row r="924" s="10" customFormat="1" ht="12.75"/>
-    <row r="925" s="10" customFormat="1" ht="12.75"/>
-    <row r="926" s="10" customFormat="1" ht="12.75"/>
-    <row r="927" s="10" customFormat="1" ht="12.75"/>
-    <row r="928" s="10" customFormat="1" ht="12.75"/>
-    <row r="929" s="10" customFormat="1" ht="12.75"/>
-    <row r="930" s="10" customFormat="1" ht="12.75"/>
-    <row r="931" s="10" customFormat="1" ht="12.75"/>
-    <row r="932" s="10" customFormat="1" ht="12.75"/>
-    <row r="933" s="10" customFormat="1" ht="12.75"/>
-    <row r="934" s="10" customFormat="1" ht="12.75"/>
-    <row r="935" s="10" customFormat="1" ht="12.75"/>
-    <row r="936" s="10" customFormat="1" ht="12.75"/>
-    <row r="937" s="10" customFormat="1" ht="12.75"/>
-    <row r="938" s="10" customFormat="1" ht="12.75"/>
-    <row r="939" s="10" customFormat="1" ht="12.75"/>
-    <row r="940" s="10" customFormat="1" ht="12.75"/>
-    <row r="941" s="10" customFormat="1" ht="12.75"/>
-    <row r="942" s="10" customFormat="1" ht="12.75"/>
-    <row r="943" s="10" customFormat="1" ht="12.75"/>
-    <row r="944" s="10" customFormat="1" ht="12.75"/>
-    <row r="945" s="10" customFormat="1" ht="12.75"/>
-    <row r="946" s="10" customFormat="1" ht="12.75"/>
-    <row r="947" s="10" customFormat="1" ht="12.75"/>
-    <row r="948" s="10" customFormat="1" ht="12.75"/>
-    <row r="949" s="10" customFormat="1" ht="12.75"/>
-    <row r="950" s="10" customFormat="1" ht="12.75"/>
-    <row r="951" s="10" customFormat="1" ht="12.75"/>
-    <row r="952" s="10" customFormat="1" ht="12.75"/>
-    <row r="953" s="10" customFormat="1" ht="12.75"/>
-    <row r="954" s="10" customFormat="1" ht="12.75"/>
-    <row r="955" s="10" customFormat="1" ht="12.75"/>
-    <row r="956" s="10" customFormat="1" ht="12.75"/>
-    <row r="957" s="10" customFormat="1" ht="12.75"/>
-    <row r="958" s="10" customFormat="1" ht="12.75"/>
-    <row r="959" s="10" customFormat="1" ht="12.75"/>
-    <row r="960" s="10" customFormat="1" ht="12.75"/>
-    <row r="961" s="10" customFormat="1" ht="12.75"/>
-    <row r="962" s="10" customFormat="1" ht="12.75"/>
-    <row r="963" s="10" customFormat="1" ht="12.75"/>
-    <row r="964" s="10" customFormat="1" ht="12.75"/>
-    <row r="965" s="10" customFormat="1" ht="12.75"/>
-    <row r="966" s="10" customFormat="1" ht="12.75"/>
-    <row r="967" s="10" customFormat="1" ht="12.75"/>
-    <row r="968" s="10" customFormat="1" ht="12.75"/>
-    <row r="969" s="10" customFormat="1" ht="12.75"/>
-    <row r="970" s="10" customFormat="1" ht="12.75"/>
-    <row r="971" s="10" customFormat="1" ht="12.75"/>
-    <row r="972" s="10" customFormat="1" ht="12.75"/>
-    <row r="973" s="10" customFormat="1" ht="12.75"/>
-    <row r="974" s="10" customFormat="1" ht="12.75"/>
-    <row r="975" s="10" customFormat="1" ht="12.75"/>
-    <row r="976" s="10" customFormat="1" ht="12.75"/>
-    <row r="977" s="10" customFormat="1" ht="12.75"/>
-    <row r="978" s="10" customFormat="1" ht="12.75"/>
-    <row r="979" s="10" customFormat="1" ht="12.75"/>
-    <row r="980" s="10" customFormat="1" ht="12.75"/>
-    <row r="981" s="10" customFormat="1" ht="12.75"/>
-    <row r="982" s="10" customFormat="1" ht="12.75"/>
-    <row r="983" s="10" customFormat="1" ht="12.75"/>
-    <row r="984" s="10" customFormat="1" ht="12.75"/>
-    <row r="985" s="10" customFormat="1" ht="12.75"/>
-    <row r="986" s="10" customFormat="1" ht="12.75"/>
-    <row r="987" s="10" customFormat="1" ht="12.75"/>
-    <row r="988" s="10" customFormat="1" ht="12.75"/>
-    <row r="989" s="10" customFormat="1" ht="12.75"/>
-    <row r="990" s="10" customFormat="1" ht="12.75"/>
-    <row r="991" s="10" customFormat="1" ht="12.75"/>
-    <row r="992" s="10" customFormat="1" ht="12.75"/>
-    <row r="993" s="10" customFormat="1" ht="12.75"/>
-    <row r="994" s="10" customFormat="1" ht="12.75"/>
-    <row r="995" s="10" customFormat="1" ht="12.75"/>
-    <row r="996" s="10" customFormat="1" ht="12.75"/>
-    <row r="997" s="10" customFormat="1" ht="12.75"/>
-    <row r="998" s="10" customFormat="1" ht="12.75"/>
-    <row r="999" s="10" customFormat="1" ht="12.75"/>
-    <row r="1000" s="10" customFormat="1" ht="12.75"/>
-    <row r="1001" s="10" customFormat="1" ht="12.75"/>
-    <row r="1002" s="10" customFormat="1" ht="12.75"/>
-    <row r="1003" s="10" customFormat="1" ht="12.75"/>
-    <row r="1004" s="10" customFormat="1" ht="12.75"/>
-    <row r="1005" s="10" customFormat="1" ht="12.75"/>
-    <row r="1006" s="10" customFormat="1" ht="12.75"/>
-    <row r="1007" s="10" customFormat="1" ht="12.75"/>
-    <row r="1008" s="10" customFormat="1" ht="12.75"/>
-    <row r="1009" s="10" customFormat="1" ht="12.75"/>
-    <row r="1010" s="10" customFormat="1" ht="12.75"/>
-    <row r="1011" s="10" customFormat="1" ht="12.75"/>
-    <row r="1012" s="10" customFormat="1" ht="12.75"/>
-    <row r="1013" s="10" customFormat="1" ht="12.75"/>
-    <row r="1014" s="10" customFormat="1" ht="12.75"/>
-    <row r="1015" s="10" customFormat="1" ht="12.75"/>
-    <row r="1016" s="10" customFormat="1" ht="12.75"/>
-    <row r="1017" s="10" customFormat="1" ht="12.75"/>
-    <row r="1018" s="10" customFormat="1" ht="12.75"/>
-    <row r="1019" s="10" customFormat="1" ht="12.75"/>
-    <row r="1020" s="10" customFormat="1" ht="12.75"/>
-    <row r="1021" s="10" customFormat="1" ht="12.75"/>
-    <row r="1022" s="10" customFormat="1" ht="12.75"/>
-    <row r="1023" s="10" customFormat="1" ht="12.75"/>
-    <row r="1024" s="10" customFormat="1" ht="12.75"/>
-    <row r="1025" s="10" customFormat="1" ht="12.75"/>
-    <row r="1026" s="10" customFormat="1" ht="12.75"/>
-    <row r="1027" s="10" customFormat="1" ht="12.75"/>
-    <row r="1028" s="10" customFormat="1" ht="12.75"/>
-    <row r="1029" s="10" customFormat="1" ht="12.75"/>
-    <row r="1030" s="10" customFormat="1" ht="12.75"/>
-    <row r="1031" s="10" customFormat="1" ht="12.75"/>
-    <row r="1032" s="10" customFormat="1" ht="12.75"/>
-    <row r="1033" s="10" customFormat="1" ht="12.75"/>
+    <row r="145" s="2" customFormat="1" ht="12.75"/>
+    <row r="146" s="2" customFormat="1" ht="12.75"/>
+    <row r="147" s="2" customFormat="1" ht="12.75"/>
+    <row r="148" s="2" customFormat="1" ht="12.75"/>
+    <row r="149" s="2" customFormat="1" ht="12.75"/>
+    <row r="150" s="2" customFormat="1" ht="12.75"/>
+    <row r="151" s="2" customFormat="1" ht="12.75"/>
+    <row r="152" s="2" customFormat="1" ht="12.75"/>
+    <row r="153" s="2" customFormat="1" ht="12.75"/>
+    <row r="154" s="2" customFormat="1" ht="12.75"/>
+    <row r="155" s="2" customFormat="1" ht="12.75"/>
+    <row r="156" s="2" customFormat="1" ht="12.75"/>
+    <row r="157" s="2" customFormat="1" ht="12.75"/>
+    <row r="158" s="2" customFormat="1" ht="12.75"/>
+    <row r="159" s="2" customFormat="1" ht="12.75"/>
+    <row r="160" s="2" customFormat="1" ht="12.75"/>
+    <row r="161" s="2" customFormat="1" ht="12.75"/>
+    <row r="162" s="2" customFormat="1" ht="12.75"/>
+    <row r="163" s="2" customFormat="1" ht="12.75"/>
+    <row r="164" s="2" customFormat="1" ht="12.75"/>
+    <row r="165" s="2" customFormat="1" ht="12.75"/>
+    <row r="166" s="2" customFormat="1" ht="12.75"/>
+    <row r="167" s="2" customFormat="1" ht="12.75"/>
+    <row r="168" s="2" customFormat="1" ht="12.75"/>
+    <row r="169" s="2" customFormat="1" ht="12.75"/>
+    <row r="170" s="2" customFormat="1" ht="12.75"/>
+    <row r="171" s="2" customFormat="1" ht="12.75"/>
+    <row r="172" s="2" customFormat="1" ht="12.75"/>
+    <row r="173" s="2" customFormat="1" ht="12.75"/>
+    <row r="174" s="2" customFormat="1" ht="12.75"/>
+    <row r="175" s="2" customFormat="1" ht="12.75"/>
+    <row r="176" s="2" customFormat="1" ht="12.75"/>
+    <row r="177" s="2" customFormat="1" ht="12.75"/>
+    <row r="178" s="2" customFormat="1" ht="12.75"/>
+    <row r="179" s="2" customFormat="1" ht="12.75"/>
+    <row r="180" s="2" customFormat="1" ht="12.75"/>
+    <row r="181" s="2" customFormat="1" ht="12.75"/>
+    <row r="182" s="2" customFormat="1" ht="12.75"/>
+    <row r="183" s="2" customFormat="1" ht="12.75"/>
+    <row r="184" s="2" customFormat="1" ht="12.75"/>
+    <row r="185" s="2" customFormat="1" ht="12.75"/>
+    <row r="186" s="2" customFormat="1" ht="12.75"/>
+    <row r="187" s="2" customFormat="1" ht="12.75"/>
+    <row r="188" s="2" customFormat="1" ht="12.75"/>
+    <row r="189" s="2" customFormat="1" ht="12.75"/>
+    <row r="190" s="2" customFormat="1" ht="12.75"/>
+    <row r="191" s="2" customFormat="1" ht="12.75"/>
+    <row r="192" s="2" customFormat="1" ht="12.75"/>
+    <row r="193" s="2" customFormat="1" ht="12.75"/>
+    <row r="194" s="2" customFormat="1" ht="12.75"/>
+    <row r="195" s="2" customFormat="1" ht="12.75"/>
+    <row r="196" s="2" customFormat="1" ht="12.75"/>
+    <row r="197" s="2" customFormat="1" ht="12.75"/>
+    <row r="198" s="2" customFormat="1" ht="12.75"/>
+    <row r="199" s="2" customFormat="1" ht="12.75"/>
+    <row r="200" s="2" customFormat="1" ht="12.75"/>
+    <row r="201" s="2" customFormat="1" ht="12.75"/>
+    <row r="202" s="2" customFormat="1" ht="12.75"/>
+    <row r="203" s="2" customFormat="1" ht="12.75"/>
+    <row r="204" s="2" customFormat="1" ht="12.75"/>
+    <row r="205" s="2" customFormat="1" ht="12.75"/>
+    <row r="206" s="2" customFormat="1" ht="12.75"/>
+    <row r="207" s="2" customFormat="1" ht="12.75"/>
+    <row r="208" s="2" customFormat="1" ht="12.75"/>
+    <row r="209" s="2" customFormat="1" ht="12.75"/>
+    <row r="210" s="2" customFormat="1" ht="12.75"/>
+    <row r="211" s="2" customFormat="1" ht="12.75"/>
+    <row r="212" s="2" customFormat="1" ht="12.75"/>
+    <row r="213" s="2" customFormat="1" ht="12.75"/>
+    <row r="214" s="2" customFormat="1" ht="12.75"/>
+    <row r="215" s="2" customFormat="1" ht="12.75"/>
+    <row r="216" s="2" customFormat="1" ht="12.75"/>
+    <row r="217" s="2" customFormat="1" ht="12.75"/>
+    <row r="218" s="2" customFormat="1" ht="12.75"/>
+    <row r="219" s="2" customFormat="1" ht="12.75"/>
+    <row r="220" s="2" customFormat="1" ht="12.75"/>
+    <row r="221" s="2" customFormat="1" ht="12.75"/>
+    <row r="222" s="2" customFormat="1" ht="12.75"/>
+    <row r="223" s="2" customFormat="1" ht="12.75"/>
+    <row r="224" s="2" customFormat="1" ht="12.75"/>
+    <row r="225" s="2" customFormat="1" ht="12.75"/>
+    <row r="226" s="2" customFormat="1" ht="12.75"/>
+    <row r="227" s="2" customFormat="1" ht="12.75"/>
+    <row r="228" s="2" customFormat="1" ht="12.75"/>
+    <row r="229" s="2" customFormat="1" ht="12.75"/>
+    <row r="230" s="2" customFormat="1" ht="12.75"/>
+    <row r="231" s="2" customFormat="1" ht="12.75"/>
+    <row r="232" s="2" customFormat="1" ht="12.75"/>
+    <row r="233" s="2" customFormat="1" ht="12.75"/>
+    <row r="234" s="2" customFormat="1" ht="12.75"/>
+    <row r="235" s="2" customFormat="1" ht="12.75"/>
+    <row r="236" s="2" customFormat="1" ht="12.75"/>
+    <row r="237" s="2" customFormat="1" ht="12.75"/>
+    <row r="238" s="2" customFormat="1" ht="12.75"/>
+    <row r="239" s="2" customFormat="1" ht="12.75"/>
+    <row r="240" s="2" customFormat="1" ht="12.75"/>
+    <row r="241" s="2" customFormat="1" ht="12.75"/>
+    <row r="242" s="2" customFormat="1" ht="12.75"/>
+    <row r="243" s="2" customFormat="1" ht="12.75"/>
+    <row r="244" s="2" customFormat="1" ht="12.75"/>
+    <row r="245" s="2" customFormat="1" ht="12.75"/>
+    <row r="246" s="2" customFormat="1" ht="12.75"/>
+    <row r="247" s="2" customFormat="1" ht="12.75"/>
+    <row r="248" s="2" customFormat="1" ht="12.75"/>
+    <row r="249" s="2" customFormat="1" ht="12.75"/>
+    <row r="250" s="2" customFormat="1" ht="12.75"/>
+    <row r="251" s="2" customFormat="1" ht="12.75"/>
+    <row r="252" s="2" customFormat="1" ht="12.75"/>
+    <row r="253" s="2" customFormat="1" ht="12.75"/>
+    <row r="254" s="2" customFormat="1" ht="12.75"/>
+    <row r="255" s="2" customFormat="1" ht="12.75"/>
+    <row r="256" s="2" customFormat="1" ht="12.75"/>
+    <row r="257" s="2" customFormat="1" ht="12.75"/>
+    <row r="258" s="2" customFormat="1" ht="12.75"/>
+    <row r="259" s="2" customFormat="1" ht="12.75"/>
+    <row r="260" s="2" customFormat="1" ht="12.75"/>
+    <row r="261" s="2" customFormat="1" ht="12.75"/>
+    <row r="262" s="2" customFormat="1" ht="12.75"/>
+    <row r="263" s="2" customFormat="1" ht="12.75"/>
+    <row r="264" s="2" customFormat="1" ht="12.75"/>
+    <row r="265" s="2" customFormat="1" ht="12.75"/>
+    <row r="266" s="2" customFormat="1" ht="12.75"/>
+    <row r="267" s="2" customFormat="1" ht="12.75"/>
+    <row r="268" s="2" customFormat="1" ht="12.75"/>
+    <row r="269" s="2" customFormat="1" ht="12.75"/>
+    <row r="270" s="2" customFormat="1" ht="12.75"/>
+    <row r="271" s="2" customFormat="1" ht="12.75"/>
+    <row r="272" s="2" customFormat="1" ht="12.75"/>
+    <row r="273" s="2" customFormat="1" ht="12.75"/>
+    <row r="274" s="2" customFormat="1" ht="12.75"/>
+    <row r="275" s="2" customFormat="1" ht="12.75"/>
+    <row r="276" s="2" customFormat="1" ht="12.75"/>
+    <row r="277" s="2" customFormat="1" ht="12.75"/>
+    <row r="278" s="2" customFormat="1" ht="12.75"/>
+    <row r="279" s="2" customFormat="1" ht="12.75"/>
+    <row r="280" s="2" customFormat="1" ht="12.75"/>
+    <row r="281" s="2" customFormat="1" ht="12.75"/>
+    <row r="282" s="2" customFormat="1" ht="12.75"/>
+    <row r="283" s="2" customFormat="1" ht="12.75"/>
+    <row r="284" s="2" customFormat="1" ht="12.75"/>
+    <row r="285" s="2" customFormat="1" ht="12.75"/>
+    <row r="286" s="2" customFormat="1" ht="12.75"/>
+    <row r="287" s="2" customFormat="1" ht="12.75"/>
+    <row r="288" s="2" customFormat="1" ht="12.75"/>
+    <row r="289" s="2" customFormat="1" ht="12.75"/>
+    <row r="290" s="2" customFormat="1" ht="12.75"/>
+    <row r="291" s="2" customFormat="1" ht="12.75"/>
+    <row r="292" s="2" customFormat="1" ht="12.75"/>
+    <row r="293" s="2" customFormat="1" ht="12.75"/>
+    <row r="294" s="2" customFormat="1" ht="12.75"/>
+    <row r="295" s="2" customFormat="1" ht="12.75"/>
+    <row r="296" s="2" customFormat="1" ht="12.75"/>
+    <row r="297" s="2" customFormat="1" ht="12.75"/>
+    <row r="298" s="2" customFormat="1" ht="12.75"/>
+    <row r="299" s="2" customFormat="1" ht="12.75"/>
+    <row r="300" s="2" customFormat="1" ht="12.75"/>
+    <row r="301" s="2" customFormat="1" ht="12.75"/>
+    <row r="302" s="2" customFormat="1" ht="12.75"/>
+    <row r="303" s="2" customFormat="1" ht="12.75"/>
+    <row r="304" s="2" customFormat="1" ht="12.75"/>
+    <row r="305" s="2" customFormat="1" ht="12.75"/>
+    <row r="306" s="2" customFormat="1" ht="12.75"/>
+    <row r="307" s="2" customFormat="1" ht="12.75"/>
+    <row r="308" s="2" customFormat="1" ht="12.75"/>
+    <row r="309" s="2" customFormat="1" ht="12.75"/>
+    <row r="310" s="2" customFormat="1" ht="12.75"/>
+    <row r="311" s="2" customFormat="1" ht="12.75"/>
+    <row r="312" s="2" customFormat="1" ht="12.75"/>
+    <row r="313" s="2" customFormat="1" ht="12.75"/>
+    <row r="314" s="2" customFormat="1" ht="12.75"/>
+    <row r="315" s="2" customFormat="1" ht="12.75"/>
+    <row r="316" s="2" customFormat="1" ht="12.75"/>
+    <row r="317" s="2" customFormat="1" ht="12.75"/>
+    <row r="318" s="2" customFormat="1" ht="12.75"/>
+    <row r="319" s="2" customFormat="1" ht="12.75"/>
+    <row r="320" s="2" customFormat="1" ht="12.75"/>
+    <row r="321" s="2" customFormat="1" ht="12.75"/>
+    <row r="322" s="2" customFormat="1" ht="12.75"/>
+    <row r="323" s="2" customFormat="1" ht="12.75"/>
+    <row r="324" s="2" customFormat="1" ht="12.75"/>
+    <row r="325" s="2" customFormat="1" ht="12.75"/>
+    <row r="326" s="2" customFormat="1" ht="12.75"/>
+    <row r="327" s="2" customFormat="1" ht="12.75"/>
+    <row r="328" s="2" customFormat="1" ht="12.75"/>
+    <row r="329" s="2" customFormat="1" ht="12.75"/>
+    <row r="330" s="2" customFormat="1" ht="12.75"/>
+    <row r="331" s="2" customFormat="1" ht="12.75"/>
+    <row r="332" s="2" customFormat="1" ht="12.75"/>
+    <row r="333" s="2" customFormat="1" ht="12.75"/>
+    <row r="334" s="2" customFormat="1" ht="12.75"/>
+    <row r="335" s="2" customFormat="1" ht="12.75"/>
+    <row r="336" s="2" customFormat="1" ht="12.75"/>
+    <row r="337" s="2" customFormat="1" ht="12.75"/>
+    <row r="338" s="2" customFormat="1" ht="12.75"/>
+    <row r="339" s="2" customFormat="1" ht="12.75"/>
+    <row r="340" s="2" customFormat="1" ht="12.75"/>
+    <row r="341" s="2" customFormat="1" ht="12.75"/>
+    <row r="342" s="2" customFormat="1" ht="12.75"/>
+    <row r="343" s="2" customFormat="1" ht="12.75"/>
+    <row r="344" s="2" customFormat="1" ht="12.75"/>
+    <row r="345" s="2" customFormat="1" ht="12.75"/>
+    <row r="346" s="2" customFormat="1" ht="12.75"/>
+    <row r="347" s="2" customFormat="1" ht="12.75"/>
+    <row r="348" s="2" customFormat="1" ht="12.75"/>
+    <row r="349" s="2" customFormat="1" ht="12.75"/>
+    <row r="350" s="2" customFormat="1" ht="12.75"/>
+    <row r="351" s="2" customFormat="1" ht="12.75"/>
+    <row r="352" s="2" customFormat="1" ht="12.75"/>
+    <row r="353" s="2" customFormat="1" ht="12.75"/>
+    <row r="354" s="2" customFormat="1" ht="12.75"/>
+    <row r="355" s="2" customFormat="1" ht="12.75"/>
+    <row r="356" s="2" customFormat="1" ht="12.75"/>
+    <row r="357" s="2" customFormat="1" ht="12.75"/>
+    <row r="358" s="2" customFormat="1" ht="12.75"/>
+    <row r="359" s="2" customFormat="1" ht="12.75"/>
+    <row r="360" s="2" customFormat="1" ht="12.75"/>
+    <row r="361" s="2" customFormat="1" ht="12.75"/>
+    <row r="362" s="2" customFormat="1" ht="12.75"/>
+    <row r="363" s="2" customFormat="1" ht="12.75"/>
+    <row r="364" s="2" customFormat="1" ht="12.75"/>
+    <row r="365" s="2" customFormat="1" ht="12.75"/>
+    <row r="366" s="2" customFormat="1" ht="12.75"/>
+    <row r="367" s="2" customFormat="1" ht="12.75"/>
+    <row r="368" s="2" customFormat="1" ht="12.75"/>
+    <row r="369" s="2" customFormat="1" ht="12.75"/>
+    <row r="370" s="2" customFormat="1" ht="12.75"/>
+    <row r="371" s="2" customFormat="1" ht="12.75"/>
+    <row r="372" s="2" customFormat="1" ht="12.75"/>
+    <row r="373" s="2" customFormat="1" ht="12.75"/>
+    <row r="374" s="2" customFormat="1" ht="12.75"/>
+    <row r="375" s="2" customFormat="1" ht="12.75"/>
+    <row r="376" s="2" customFormat="1" ht="12.75"/>
+    <row r="377" s="2" customFormat="1" ht="12.75"/>
+    <row r="378" s="2" customFormat="1" ht="12.75"/>
+    <row r="379" s="2" customFormat="1" ht="12.75"/>
+    <row r="380" s="2" customFormat="1" ht="12.75"/>
+    <row r="381" s="2" customFormat="1" ht="12.75"/>
+    <row r="382" s="2" customFormat="1" ht="12.75"/>
+    <row r="383" s="2" customFormat="1" ht="12.75"/>
+    <row r="384" s="2" customFormat="1" ht="12.75"/>
+    <row r="385" s="2" customFormat="1" ht="12.75"/>
+    <row r="386" s="2" customFormat="1" ht="12.75"/>
+    <row r="387" s="2" customFormat="1" ht="12.75"/>
+    <row r="388" s="2" customFormat="1" ht="12.75"/>
+    <row r="389" s="2" customFormat="1" ht="12.75"/>
+    <row r="390" s="2" customFormat="1" ht="12.75"/>
+    <row r="391" s="2" customFormat="1" ht="12.75"/>
+    <row r="392" s="2" customFormat="1" ht="12.75"/>
+    <row r="393" s="2" customFormat="1" ht="12.75"/>
+    <row r="394" s="2" customFormat="1" ht="12.75"/>
+    <row r="395" s="2" customFormat="1" ht="12.75"/>
+    <row r="396" s="2" customFormat="1" ht="12.75"/>
+    <row r="397" s="2" customFormat="1" ht="12.75"/>
+    <row r="398" s="2" customFormat="1" ht="12.75"/>
+    <row r="399" s="2" customFormat="1" ht="12.75"/>
+    <row r="400" s="2" customFormat="1" ht="12.75"/>
+    <row r="401" s="2" customFormat="1" ht="12.75"/>
+    <row r="402" s="2" customFormat="1" ht="12.75"/>
+    <row r="403" s="2" customFormat="1" ht="12.75"/>
+    <row r="404" s="2" customFormat="1" ht="12.75"/>
+    <row r="405" s="2" customFormat="1" ht="12.75"/>
+    <row r="406" s="2" customFormat="1" ht="12.75"/>
+    <row r="407" s="2" customFormat="1" ht="12.75"/>
+    <row r="408" s="2" customFormat="1" ht="12.75"/>
+    <row r="409" s="2" customFormat="1" ht="12.75"/>
+    <row r="410" s="2" customFormat="1" ht="12.75"/>
+    <row r="411" s="2" customFormat="1" ht="12.75"/>
+    <row r="412" s="2" customFormat="1" ht="12.75"/>
+    <row r="413" s="2" customFormat="1" ht="12.75"/>
+    <row r="414" s="2" customFormat="1" ht="12.75"/>
+    <row r="415" s="2" customFormat="1" ht="12.75"/>
+    <row r="416" s="2" customFormat="1" ht="12.75"/>
+    <row r="417" s="2" customFormat="1" ht="12.75"/>
+    <row r="418" s="2" customFormat="1" ht="12.75"/>
+    <row r="419" s="2" customFormat="1" ht="12.75"/>
+    <row r="420" s="2" customFormat="1" ht="12.75"/>
+    <row r="421" s="2" customFormat="1" ht="12.75"/>
+    <row r="422" s="2" customFormat="1" ht="12.75"/>
+    <row r="423" s="2" customFormat="1" ht="12.75"/>
+    <row r="424" s="2" customFormat="1" ht="12.75"/>
+    <row r="425" s="2" customFormat="1" ht="12.75"/>
+    <row r="426" s="2" customFormat="1" ht="12.75"/>
+    <row r="427" s="2" customFormat="1" ht="12.75"/>
+    <row r="428" s="2" customFormat="1" ht="12.75"/>
+    <row r="429" s="2" customFormat="1" ht="12.75"/>
+    <row r="430" s="2" customFormat="1" ht="12.75"/>
+    <row r="431" s="2" customFormat="1" ht="12.75"/>
+    <row r="432" s="2" customFormat="1" ht="12.75"/>
+    <row r="433" s="2" customFormat="1" ht="12.75"/>
+    <row r="434" s="2" customFormat="1" ht="12.75"/>
+    <row r="435" s="2" customFormat="1" ht="12.75"/>
+    <row r="436" s="2" customFormat="1" ht="12.75"/>
+    <row r="437" s="2" customFormat="1" ht="12.75"/>
+    <row r="438" s="2" customFormat="1" ht="12.75"/>
+    <row r="439" s="2" customFormat="1" ht="12.75"/>
+    <row r="440" s="2" customFormat="1" ht="12.75"/>
+    <row r="441" s="2" customFormat="1" ht="12.75"/>
+    <row r="442" s="2" customFormat="1" ht="12.75"/>
+    <row r="443" s="2" customFormat="1" ht="12.75"/>
+    <row r="444" s="2" customFormat="1" ht="12.75"/>
+    <row r="445" s="2" customFormat="1" ht="12.75"/>
+    <row r="446" s="2" customFormat="1" ht="12.75"/>
+    <row r="447" s="2" customFormat="1" ht="12.75"/>
+    <row r="448" s="2" customFormat="1" ht="12.75"/>
+    <row r="449" s="2" customFormat="1" ht="12.75"/>
+    <row r="450" s="2" customFormat="1" ht="12.75"/>
+    <row r="451" s="2" customFormat="1" ht="12.75"/>
+    <row r="452" s="2" customFormat="1" ht="12.75"/>
+    <row r="453" s="2" customFormat="1" ht="12.75"/>
+    <row r="454" s="2" customFormat="1" ht="12.75"/>
+    <row r="455" s="2" customFormat="1" ht="12.75"/>
+    <row r="456" s="2" customFormat="1" ht="12.75"/>
+    <row r="457" s="2" customFormat="1" ht="12.75"/>
+    <row r="458" s="2" customFormat="1" ht="12.75"/>
+    <row r="459" s="2" customFormat="1" ht="12.75"/>
+    <row r="460" s="2" customFormat="1" ht="12.75"/>
+    <row r="461" s="2" customFormat="1" ht="12.75"/>
+    <row r="462" s="2" customFormat="1" ht="12.75"/>
+    <row r="463" s="2" customFormat="1" ht="12.75"/>
+    <row r="464" s="2" customFormat="1" ht="12.75"/>
+    <row r="465" s="2" customFormat="1" ht="12.75"/>
+    <row r="466" s="2" customFormat="1" ht="12.75"/>
+    <row r="467" s="2" customFormat="1" ht="12.75"/>
+    <row r="468" s="2" customFormat="1" ht="12.75"/>
+    <row r="469" s="2" customFormat="1" ht="12.75"/>
+    <row r="470" s="2" customFormat="1" ht="12.75"/>
+    <row r="471" s="2" customFormat="1" ht="12.75"/>
+    <row r="472" s="2" customFormat="1" ht="12.75"/>
+    <row r="473" s="2" customFormat="1" ht="12.75"/>
+    <row r="474" s="2" customFormat="1" ht="12.75"/>
+    <row r="475" s="2" customFormat="1" ht="12.75"/>
+    <row r="476" s="2" customFormat="1" ht="12.75"/>
+    <row r="477" s="2" customFormat="1" ht="12.75"/>
+    <row r="478" s="2" customFormat="1" ht="12.75"/>
+    <row r="479" s="2" customFormat="1" ht="12.75"/>
+    <row r="480" s="2" customFormat="1" ht="12.75"/>
+    <row r="481" s="2" customFormat="1" ht="12.75"/>
+    <row r="482" s="2" customFormat="1" ht="12.75"/>
+    <row r="483" s="2" customFormat="1" ht="12.75"/>
+    <row r="484" s="2" customFormat="1" ht="12.75"/>
+    <row r="485" s="2" customFormat="1" ht="12.75"/>
+    <row r="486" s="2" customFormat="1" ht="12.75"/>
+    <row r="487" s="2" customFormat="1" ht="12.75"/>
+    <row r="488" s="2" customFormat="1" ht="12.75"/>
+    <row r="489" s="2" customFormat="1" ht="12.75"/>
+    <row r="490" s="2" customFormat="1" ht="12.75"/>
+    <row r="491" s="2" customFormat="1" ht="12.75"/>
+    <row r="492" s="2" customFormat="1" ht="12.75"/>
+    <row r="493" s="2" customFormat="1" ht="12.75"/>
+    <row r="494" s="2" customFormat="1" ht="12.75"/>
+    <row r="495" s="2" customFormat="1" ht="12.75"/>
+    <row r="496" s="2" customFormat="1" ht="12.75"/>
+    <row r="497" s="2" customFormat="1" ht="12.75"/>
+    <row r="498" s="2" customFormat="1" ht="12.75"/>
+    <row r="499" s="2" customFormat="1" ht="12.75"/>
+    <row r="500" s="2" customFormat="1" ht="12.75"/>
+    <row r="501" s="2" customFormat="1" ht="12.75"/>
+    <row r="502" s="2" customFormat="1" ht="12.75"/>
+    <row r="503" s="2" customFormat="1" ht="12.75"/>
+    <row r="504" s="2" customFormat="1" ht="12.75"/>
+    <row r="505" s="2" customFormat="1" ht="12.75"/>
+    <row r="506" s="2" customFormat="1" ht="12.75"/>
+    <row r="507" s="2" customFormat="1" ht="12.75"/>
+    <row r="508" s="2" customFormat="1" ht="12.75"/>
+    <row r="509" s="2" customFormat="1" ht="12.75"/>
+    <row r="510" s="2" customFormat="1" ht="12.75"/>
+    <row r="511" s="2" customFormat="1" ht="12.75"/>
+    <row r="512" s="2" customFormat="1" ht="12.75"/>
+    <row r="513" s="2" customFormat="1" ht="12.75"/>
+    <row r="514" s="2" customFormat="1" ht="12.75"/>
+    <row r="515" s="2" customFormat="1" ht="12.75"/>
+    <row r="516" s="2" customFormat="1" ht="12.75"/>
+    <row r="517" s="2" customFormat="1" ht="12.75"/>
+    <row r="518" s="2" customFormat="1" ht="12.75"/>
+    <row r="519" s="2" customFormat="1" ht="12.75"/>
+    <row r="520" s="2" customFormat="1" ht="12.75"/>
+    <row r="521" s="2" customFormat="1" ht="12.75"/>
+    <row r="522" s="2" customFormat="1" ht="12.75"/>
+    <row r="523" s="2" customFormat="1" ht="12.75"/>
+    <row r="524" s="2" customFormat="1" ht="12.75"/>
+    <row r="525" s="2" customFormat="1" ht="12.75"/>
+    <row r="526" s="2" customFormat="1" ht="12.75"/>
+    <row r="527" s="2" customFormat="1" ht="12.75"/>
+    <row r="528" s="2" customFormat="1" ht="12.75"/>
+    <row r="529" s="2" customFormat="1" ht="12.75"/>
+    <row r="530" s="2" customFormat="1" ht="12.75"/>
+    <row r="531" s="2" customFormat="1" ht="12.75"/>
+    <row r="532" s="2" customFormat="1" ht="12.75"/>
+    <row r="533" s="2" customFormat="1" ht="12.75"/>
+    <row r="534" s="2" customFormat="1" ht="12.75"/>
+    <row r="535" s="2" customFormat="1" ht="12.75"/>
+    <row r="536" s="2" customFormat="1" ht="12.75"/>
+    <row r="537" s="2" customFormat="1" ht="12.75"/>
+    <row r="538" s="2" customFormat="1" ht="12.75"/>
+    <row r="539" s="2" customFormat="1" ht="12.75"/>
+    <row r="540" s="2" customFormat="1" ht="12.75"/>
+    <row r="541" s="2" customFormat="1" ht="12.75"/>
+    <row r="542" s="2" customFormat="1" ht="12.75"/>
+    <row r="543" s="2" customFormat="1" ht="12.75"/>
+    <row r="544" s="2" customFormat="1" ht="12.75"/>
+    <row r="545" s="2" customFormat="1" ht="12.75"/>
+    <row r="546" s="2" customFormat="1" ht="12.75"/>
+    <row r="547" s="2" customFormat="1" ht="12.75"/>
+    <row r="548" s="2" customFormat="1" ht="12.75"/>
+    <row r="549" s="2" customFormat="1" ht="12.75"/>
+    <row r="550" s="2" customFormat="1" ht="12.75"/>
+    <row r="551" s="2" customFormat="1" ht="12.75"/>
+    <row r="552" s="2" customFormat="1" ht="12.75"/>
+    <row r="553" s="2" customFormat="1" ht="12.75"/>
+    <row r="554" s="2" customFormat="1" ht="12.75"/>
+    <row r="555" s="2" customFormat="1" ht="12.75"/>
+    <row r="556" s="2" customFormat="1" ht="12.75"/>
+    <row r="557" s="2" customFormat="1" ht="12.75"/>
+    <row r="558" s="2" customFormat="1" ht="12.75"/>
+    <row r="559" s="2" customFormat="1" ht="12.75"/>
+    <row r="560" s="2" customFormat="1" ht="12.75"/>
+    <row r="561" s="2" customFormat="1" ht="12.75"/>
+    <row r="562" s="2" customFormat="1" ht="12.75"/>
+    <row r="563" s="2" customFormat="1" ht="12.75"/>
+    <row r="564" s="2" customFormat="1" ht="12.75"/>
+    <row r="565" s="2" customFormat="1" ht="12.75"/>
+    <row r="566" s="2" customFormat="1" ht="12.75"/>
+    <row r="567" s="2" customFormat="1" ht="12.75"/>
+    <row r="568" s="2" customFormat="1" ht="12.75"/>
+    <row r="569" s="2" customFormat="1" ht="12.75"/>
+    <row r="570" s="2" customFormat="1" ht="12.75"/>
+    <row r="571" s="2" customFormat="1" ht="12.75"/>
+    <row r="572" s="2" customFormat="1" ht="12.75"/>
+    <row r="573" s="2" customFormat="1" ht="12.75"/>
+    <row r="574" s="2" customFormat="1" ht="12.75"/>
+    <row r="575" s="2" customFormat="1" ht="12.75"/>
+    <row r="576" s="2" customFormat="1" ht="12.75"/>
+    <row r="577" s="2" customFormat="1" ht="12.75"/>
+    <row r="578" s="2" customFormat="1" ht="12.75"/>
+    <row r="579" s="2" customFormat="1" ht="12.75"/>
+    <row r="580" s="2" customFormat="1" ht="12.75"/>
+    <row r="581" s="2" customFormat="1" ht="12.75"/>
+    <row r="582" s="2" customFormat="1" ht="12.75"/>
+    <row r="583" s="2" customFormat="1" ht="12.75"/>
+    <row r="584" s="2" customFormat="1" ht="12.75"/>
+    <row r="585" s="2" customFormat="1" ht="12.75"/>
+    <row r="586" s="2" customFormat="1" ht="12.75"/>
+    <row r="587" s="2" customFormat="1" ht="12.75"/>
+    <row r="588" s="2" customFormat="1" ht="12.75"/>
+    <row r="589" s="2" customFormat="1" ht="12.75"/>
+    <row r="590" s="2" customFormat="1" ht="12.75"/>
+    <row r="591" s="2" customFormat="1" ht="12.75"/>
+    <row r="592" s="2" customFormat="1" ht="12.75"/>
+    <row r="593" s="2" customFormat="1" ht="12.75"/>
+    <row r="594" s="2" customFormat="1" ht="12.75"/>
+    <row r="595" s="2" customFormat="1" ht="12.75"/>
+    <row r="596" s="2" customFormat="1" ht="12.75"/>
+    <row r="597" s="2" customFormat="1" ht="12.75"/>
+    <row r="598" s="2" customFormat="1" ht="12.75"/>
+    <row r="599" s="2" customFormat="1" ht="12.75"/>
+    <row r="600" s="2" customFormat="1" ht="12.75"/>
+    <row r="601" s="2" customFormat="1" ht="12.75"/>
+    <row r="602" s="2" customFormat="1" ht="12.75"/>
+    <row r="603" s="2" customFormat="1" ht="12.75"/>
+    <row r="604" s="2" customFormat="1" ht="12.75"/>
+    <row r="605" s="2" customFormat="1" ht="12.75"/>
+    <row r="606" s="2" customFormat="1" ht="12.75"/>
+    <row r="607" s="2" customFormat="1" ht="12.75"/>
+    <row r="608" s="2" customFormat="1" ht="12.75"/>
+    <row r="609" s="2" customFormat="1" ht="12.75"/>
+    <row r="610" s="2" customFormat="1" ht="12.75"/>
+    <row r="611" s="2" customFormat="1" ht="12.75"/>
+    <row r="612" s="2" customFormat="1" ht="12.75"/>
+    <row r="613" s="2" customFormat="1" ht="12.75"/>
+    <row r="614" s="2" customFormat="1" ht="12.75"/>
+    <row r="615" s="2" customFormat="1" ht="12.75"/>
+    <row r="616" s="2" customFormat="1" ht="12.75"/>
+    <row r="617" s="2" customFormat="1" ht="12.75"/>
+    <row r="618" s="2" customFormat="1" ht="12.75"/>
+    <row r="619" s="2" customFormat="1" ht="12.75"/>
+    <row r="620" s="2" customFormat="1" ht="12.75"/>
+    <row r="621" s="2" customFormat="1" ht="12.75"/>
+    <row r="622" s="2" customFormat="1" ht="12.75"/>
+    <row r="623" s="2" customFormat="1" ht="12.75"/>
+    <row r="624" s="2" customFormat="1" ht="12.75"/>
+    <row r="625" s="2" customFormat="1" ht="12.75"/>
+    <row r="626" s="2" customFormat="1" ht="12.75"/>
+    <row r="627" s="2" customFormat="1" ht="12.75"/>
+    <row r="628" s="2" customFormat="1" ht="12.75"/>
+    <row r="629" s="2" customFormat="1" ht="12.75"/>
+    <row r="630" s="2" customFormat="1" ht="12.75"/>
+    <row r="631" s="2" customFormat="1" ht="12.75"/>
+    <row r="632" s="2" customFormat="1" ht="12.75"/>
+    <row r="633" s="2" customFormat="1" ht="12.75"/>
+    <row r="634" s="2" customFormat="1" ht="12.75"/>
+    <row r="635" s="2" customFormat="1" ht="12.75"/>
+    <row r="636" s="2" customFormat="1" ht="12.75"/>
+    <row r="637" s="2" customFormat="1" ht="12.75"/>
+    <row r="638" s="2" customFormat="1" ht="12.75"/>
+    <row r="639" s="2" customFormat="1" ht="12.75"/>
+    <row r="640" s="2" customFormat="1" ht="12.75"/>
+    <row r="641" s="2" customFormat="1" ht="12.75"/>
+    <row r="642" s="2" customFormat="1" ht="12.75"/>
+    <row r="643" s="2" customFormat="1" ht="12.75"/>
+    <row r="644" s="2" customFormat="1" ht="12.75"/>
+    <row r="645" s="2" customFormat="1" ht="12.75"/>
+    <row r="646" s="2" customFormat="1" ht="12.75"/>
+    <row r="647" s="2" customFormat="1" ht="12.75"/>
+    <row r="648" s="2" customFormat="1" ht="12.75"/>
+    <row r="649" s="2" customFormat="1" ht="12.75"/>
+    <row r="650" s="2" customFormat="1" ht="12.75"/>
+    <row r="651" s="2" customFormat="1" ht="12.75"/>
+    <row r="652" s="2" customFormat="1" ht="12.75"/>
+    <row r="653" s="2" customFormat="1" ht="12.75"/>
+    <row r="654" s="2" customFormat="1" ht="12.75"/>
+    <row r="655" s="2" customFormat="1" ht="12.75"/>
+    <row r="656" s="2" customFormat="1" ht="12.75"/>
+    <row r="657" s="2" customFormat="1" ht="12.75"/>
+    <row r="658" s="2" customFormat="1" ht="12.75"/>
+    <row r="659" s="2" customFormat="1" ht="12.75"/>
+    <row r="660" s="2" customFormat="1" ht="12.75"/>
+    <row r="661" s="2" customFormat="1" ht="12.75"/>
+    <row r="662" s="2" customFormat="1" ht="12.75"/>
+    <row r="663" s="2" customFormat="1" ht="12.75"/>
+    <row r="664" s="2" customFormat="1" ht="12.75"/>
+    <row r="665" s="2" customFormat="1" ht="12.75"/>
+    <row r="666" s="2" customFormat="1" ht="12.75"/>
+    <row r="667" s="2" customFormat="1" ht="12.75"/>
+    <row r="668" s="2" customFormat="1" ht="12.75"/>
+    <row r="669" s="2" customFormat="1" ht="12.75"/>
+    <row r="670" s="2" customFormat="1" ht="12.75"/>
+    <row r="671" s="2" customFormat="1" ht="12.75"/>
+    <row r="672" s="2" customFormat="1" ht="12.75"/>
+    <row r="673" s="2" customFormat="1" ht="12.75"/>
+    <row r="674" s="2" customFormat="1" ht="12.75"/>
+    <row r="675" s="2" customFormat="1" ht="12.75"/>
+    <row r="676" s="2" customFormat="1" ht="12.75"/>
+    <row r="677" s="2" customFormat="1" ht="12.75"/>
+    <row r="678" s="2" customFormat="1" ht="12.75"/>
+    <row r="679" s="2" customFormat="1" ht="12.75"/>
+    <row r="680" s="2" customFormat="1" ht="12.75"/>
+    <row r="681" s="2" customFormat="1" ht="12.75"/>
+    <row r="682" s="2" customFormat="1" ht="12.75"/>
+    <row r="683" s="2" customFormat="1" ht="12.75"/>
+    <row r="684" s="2" customFormat="1" ht="12.75"/>
+    <row r="685" s="2" customFormat="1" ht="12.75"/>
+    <row r="686" s="2" customFormat="1" ht="12.75"/>
+    <row r="687" s="2" customFormat="1" ht="12.75"/>
+    <row r="688" s="2" customFormat="1" ht="12.75"/>
+    <row r="689" s="2" customFormat="1" ht="12.75"/>
+    <row r="690" s="2" customFormat="1" ht="12.75"/>
+    <row r="691" s="2" customFormat="1" ht="12.75"/>
+    <row r="692" s="2" customFormat="1" ht="12.75"/>
+    <row r="693" s="2" customFormat="1" ht="12.75"/>
+    <row r="694" s="2" customFormat="1" ht="12.75"/>
+    <row r="695" s="2" customFormat="1" ht="12.75"/>
+    <row r="696" s="2" customFormat="1" ht="12.75"/>
+    <row r="697" s="2" customFormat="1" ht="12.75"/>
+    <row r="698" s="2" customFormat="1" ht="12.75"/>
+    <row r="699" s="2" customFormat="1" ht="12.75"/>
+    <row r="700" s="2" customFormat="1" ht="12.75"/>
+    <row r="701" s="2" customFormat="1" ht="12.75"/>
+    <row r="702" s="2" customFormat="1" ht="12.75"/>
+    <row r="703" s="2" customFormat="1" ht="12.75"/>
+    <row r="704" s="2" customFormat="1" ht="12.75"/>
+    <row r="705" s="2" customFormat="1" ht="12.75"/>
+    <row r="706" s="2" customFormat="1" ht="12.75"/>
+    <row r="707" s="2" customFormat="1" ht="12.75"/>
+    <row r="708" s="2" customFormat="1" ht="12.75"/>
+    <row r="709" s="2" customFormat="1" ht="12.75"/>
+    <row r="710" s="2" customFormat="1" ht="12.75"/>
+    <row r="711" s="2" customFormat="1" ht="12.75"/>
+    <row r="712" s="2" customFormat="1" ht="12.75"/>
+    <row r="713" s="2" customFormat="1" ht="12.75"/>
+    <row r="714" s="2" customFormat="1" ht="12.75"/>
+    <row r="715" s="2" customFormat="1" ht="12.75"/>
+    <row r="716" s="2" customFormat="1" ht="12.75"/>
+    <row r="717" s="2" customFormat="1" ht="12.75"/>
+    <row r="718" s="2" customFormat="1" ht="12.75"/>
+    <row r="719" s="2" customFormat="1" ht="12.75"/>
+    <row r="720" s="2" customFormat="1" ht="12.75"/>
+    <row r="721" s="2" customFormat="1" ht="12.75"/>
+    <row r="722" s="2" customFormat="1" ht="12.75"/>
+    <row r="723" s="2" customFormat="1" ht="12.75"/>
+    <row r="724" s="2" customFormat="1" ht="12.75"/>
+    <row r="725" s="2" customFormat="1" ht="12.75"/>
+    <row r="726" s="2" customFormat="1" ht="12.75"/>
+    <row r="727" s="2" customFormat="1" ht="12.75"/>
+    <row r="728" s="2" customFormat="1" ht="12.75"/>
+    <row r="729" s="2" customFormat="1" ht="12.75"/>
+    <row r="730" s="2" customFormat="1" ht="12.75"/>
+    <row r="731" s="2" customFormat="1" ht="12.75"/>
+    <row r="732" s="2" customFormat="1" ht="12.75"/>
+    <row r="733" s="2" customFormat="1" ht="12.75"/>
+    <row r="734" s="2" customFormat="1" ht="12.75"/>
+    <row r="735" s="2" customFormat="1" ht="12.75"/>
+    <row r="736" s="2" customFormat="1" ht="12.75"/>
+    <row r="737" s="2" customFormat="1" ht="12.75"/>
+    <row r="738" s="2" customFormat="1" ht="12.75"/>
+    <row r="739" s="2" customFormat="1" ht="12.75"/>
+    <row r="740" s="2" customFormat="1" ht="12.75"/>
+    <row r="741" s="2" customFormat="1" ht="12.75"/>
+    <row r="742" s="2" customFormat="1" ht="12.75"/>
+    <row r="743" s="2" customFormat="1" ht="12.75"/>
+    <row r="744" s="2" customFormat="1" ht="12.75"/>
+    <row r="745" s="2" customFormat="1" ht="12.75"/>
+    <row r="746" s="2" customFormat="1" ht="12.75"/>
+    <row r="747" s="2" customFormat="1" ht="12.75"/>
+    <row r="748" s="2" customFormat="1" ht="12.75"/>
+    <row r="749" s="2" customFormat="1" ht="12.75"/>
+    <row r="750" s="2" customFormat="1" ht="12.75"/>
+    <row r="751" s="2" customFormat="1" ht="12.75"/>
+    <row r="752" s="2" customFormat="1" ht="12.75"/>
+    <row r="753" s="2" customFormat="1" ht="12.75"/>
+    <row r="754" s="2" customFormat="1" ht="12.75"/>
+    <row r="755" s="2" customFormat="1" ht="12.75"/>
+    <row r="756" s="2" customFormat="1" ht="12.75"/>
+    <row r="757" s="2" customFormat="1" ht="12.75"/>
+    <row r="758" s="2" customFormat="1" ht="12.75"/>
+    <row r="759" s="2" customFormat="1" ht="12.75"/>
+    <row r="760" s="2" customFormat="1" ht="12.75"/>
+    <row r="761" s="2" customFormat="1" ht="12.75"/>
+    <row r="762" s="2" customFormat="1" ht="12.75"/>
+    <row r="763" s="2" customFormat="1" ht="12.75"/>
+    <row r="764" s="2" customFormat="1" ht="12.75"/>
+    <row r="765" s="2" customFormat="1" ht="12.75"/>
+    <row r="766" s="2" customFormat="1" ht="12.75"/>
+    <row r="767" s="2" customFormat="1" ht="12.75"/>
+    <row r="768" s="2" customFormat="1" ht="12.75"/>
+    <row r="769" s="2" customFormat="1" ht="12.75"/>
+    <row r="770" s="2" customFormat="1" ht="12.75"/>
+    <row r="771" s="2" customFormat="1" ht="12.75"/>
+    <row r="772" s="2" customFormat="1" ht="12.75"/>
+    <row r="773" s="2" customFormat="1" ht="12.75"/>
+    <row r="774" s="2" customFormat="1" ht="12.75"/>
+    <row r="775" s="2" customFormat="1" ht="12.75"/>
+    <row r="776" s="2" customFormat="1" ht="12.75"/>
+    <row r="777" s="2" customFormat="1" ht="12.75"/>
+    <row r="778" s="2" customFormat="1" ht="12.75"/>
+    <row r="779" s="2" customFormat="1" ht="12.75"/>
+    <row r="780" s="2" customFormat="1" ht="12.75"/>
+    <row r="781" s="2" customFormat="1" ht="12.75"/>
+    <row r="782" s="2" customFormat="1" ht="12.75"/>
+    <row r="783" s="2" customFormat="1" ht="12.75"/>
+    <row r="784" s="2" customFormat="1" ht="12.75"/>
+    <row r="785" s="2" customFormat="1" ht="12.75"/>
+    <row r="786" s="2" customFormat="1" ht="12.75"/>
+    <row r="787" s="2" customFormat="1" ht="12.75"/>
+    <row r="788" s="2" customFormat="1" ht="12.75"/>
+    <row r="789" s="2" customFormat="1" ht="12.75"/>
+    <row r="790" s="2" customFormat="1" ht="12.75"/>
+    <row r="791" s="2" customFormat="1" ht="12.75"/>
+    <row r="792" s="2" customFormat="1" ht="12.75"/>
+    <row r="793" s="2" customFormat="1" ht="12.75"/>
+    <row r="794" s="2" customFormat="1" ht="12.75"/>
+    <row r="795" s="2" customFormat="1" ht="12.75"/>
+    <row r="796" s="2" customFormat="1" ht="12.75"/>
+    <row r="797" s="2" customFormat="1" ht="12.75"/>
+    <row r="798" s="2" customFormat="1" ht="12.75"/>
+    <row r="799" s="2" customFormat="1" ht="12.75"/>
+    <row r="800" s="2" customFormat="1" ht="12.75"/>
+    <row r="801" s="2" customFormat="1" ht="12.75"/>
+    <row r="802" s="2" customFormat="1" ht="12.75"/>
+    <row r="803" s="2" customFormat="1" ht="12.75"/>
+    <row r="804" s="2" customFormat="1" ht="12.75"/>
+    <row r="805" s="2" customFormat="1" ht="12.75"/>
+    <row r="806" s="2" customFormat="1" ht="12.75"/>
+    <row r="807" s="2" customFormat="1" ht="12.75"/>
+    <row r="808" s="2" customFormat="1" ht="12.75"/>
+    <row r="809" s="2" customFormat="1" ht="12.75"/>
+    <row r="810" s="2" customFormat="1" ht="12.75"/>
+    <row r="811" s="2" customFormat="1" ht="12.75"/>
+    <row r="812" s="2" customFormat="1" ht="12.75"/>
+    <row r="813" s="2" customFormat="1" ht="12.75"/>
+    <row r="814" s="2" customFormat="1" ht="12.75"/>
+    <row r="815" s="2" customFormat="1" ht="12.75"/>
+    <row r="816" s="2" customFormat="1" ht="12.75"/>
+    <row r="817" s="2" customFormat="1" ht="12.75"/>
+    <row r="818" s="2" customFormat="1" ht="12.75"/>
+    <row r="819" s="2" customFormat="1" ht="12.75"/>
+    <row r="820" s="2" customFormat="1" ht="12.75"/>
+    <row r="821" s="2" customFormat="1" ht="12.75"/>
+    <row r="822" s="2" customFormat="1" ht="12.75"/>
+    <row r="823" s="2" customFormat="1" ht="12.75"/>
+    <row r="824" s="2" customFormat="1" ht="12.75"/>
+    <row r="825" s="2" customFormat="1" ht="12.75"/>
+    <row r="826" s="2" customFormat="1" ht="12.75"/>
+    <row r="827" s="2" customFormat="1" ht="12.75"/>
+    <row r="828" s="2" customFormat="1" ht="12.75"/>
+    <row r="829" s="2" customFormat="1" ht="12.75"/>
+    <row r="830" s="2" customFormat="1" ht="12.75"/>
+    <row r="831" s="2" customFormat="1" ht="12.75"/>
+    <row r="832" s="2" customFormat="1" ht="12.75"/>
+    <row r="833" s="2" customFormat="1" ht="12.75"/>
+    <row r="834" s="2" customFormat="1" ht="12.75"/>
+    <row r="835" s="2" customFormat="1" ht="12.75"/>
+    <row r="836" s="2" customFormat="1" ht="12.75"/>
+    <row r="837" s="2" customFormat="1" ht="12.75"/>
+    <row r="838" s="2" customFormat="1" ht="12.75"/>
+    <row r="839" s="2" customFormat="1" ht="12.75"/>
+    <row r="840" s="2" customFormat="1" ht="12.75"/>
+    <row r="841" s="2" customFormat="1" ht="12.75"/>
+    <row r="842" s="2" customFormat="1" ht="12.75"/>
+    <row r="843" s="2" customFormat="1" ht="12.75"/>
+    <row r="844" s="2" customFormat="1" ht="12.75"/>
+    <row r="845" s="2" customFormat="1" ht="12.75"/>
+    <row r="846" s="2" customFormat="1" ht="12.75"/>
+    <row r="847" s="2" customFormat="1" ht="12.75"/>
+    <row r="848" s="2" customFormat="1" ht="12.75"/>
+    <row r="849" s="2" customFormat="1" ht="12.75"/>
+    <row r="850" s="2" customFormat="1" ht="12.75"/>
+    <row r="851" s="2" customFormat="1" ht="12.75"/>
+    <row r="852" s="2" customFormat="1" ht="12.75"/>
+    <row r="853" s="2" customFormat="1" ht="12.75"/>
+    <row r="854" s="2" customFormat="1" ht="12.75"/>
+    <row r="855" s="2" customFormat="1" ht="12.75"/>
+    <row r="856" s="2" customFormat="1" ht="12.75"/>
+    <row r="857" s="2" customFormat="1" ht="12.75"/>
+    <row r="858" s="2" customFormat="1" ht="12.75"/>
+    <row r="859" s="2" customFormat="1" ht="12.75"/>
+    <row r="860" s="2" customFormat="1" ht="12.75"/>
+    <row r="861" s="2" customFormat="1" ht="12.75"/>
+    <row r="862" s="2" customFormat="1" ht="12.75"/>
+    <row r="863" s="2" customFormat="1" ht="12.75"/>
+    <row r="864" s="2" customFormat="1" ht="12.75"/>
+    <row r="865" s="2" customFormat="1" ht="12.75"/>
+    <row r="866" s="2" customFormat="1" ht="12.75"/>
+    <row r="867" s="2" customFormat="1" ht="12.75"/>
+    <row r="868" s="2" customFormat="1" ht="12.75"/>
+    <row r="869" s="2" customFormat="1" ht="12.75"/>
+    <row r="870" s="2" customFormat="1" ht="12.75"/>
+    <row r="871" s="2" customFormat="1" ht="12.75"/>
+    <row r="872" s="2" customFormat="1" ht="12.75"/>
+    <row r="873" s="2" customFormat="1" ht="12.75"/>
+    <row r="874" s="2" customFormat="1" ht="12.75"/>
+    <row r="875" s="2" customFormat="1" ht="12.75"/>
+    <row r="876" s="2" customFormat="1" ht="12.75"/>
+    <row r="877" s="2" customFormat="1" ht="12.75"/>
+    <row r="878" s="2" customFormat="1" ht="12.75"/>
+    <row r="879" s="2" customFormat="1" ht="12.75"/>
+    <row r="880" s="2" customFormat="1" ht="12.75"/>
+    <row r="881" s="2" customFormat="1" ht="12.75"/>
+    <row r="882" s="2" customFormat="1" ht="12.75"/>
+    <row r="883" s="2" customFormat="1" ht="12.75"/>
+    <row r="884" s="2" customFormat="1" ht="12.75"/>
+    <row r="885" s="2" customFormat="1" ht="12.75"/>
+    <row r="886" s="2" customFormat="1" ht="12.75"/>
+    <row r="887" s="2" customFormat="1" ht="12.75"/>
+    <row r="888" s="2" customFormat="1" ht="12.75"/>
+    <row r="889" s="2" customFormat="1" ht="12.75"/>
+    <row r="890" s="2" customFormat="1" ht="12.75"/>
+    <row r="891" s="2" customFormat="1" ht="12.75"/>
+    <row r="892" s="2" customFormat="1" ht="12.75"/>
+    <row r="893" s="2" customFormat="1" ht="12.75"/>
+    <row r="894" s="2" customFormat="1" ht="12.75"/>
+    <row r="895" s="2" customFormat="1" ht="12.75"/>
+    <row r="896" s="2" customFormat="1" ht="12.75"/>
+    <row r="897" s="2" customFormat="1" ht="12.75"/>
+    <row r="898" s="2" customFormat="1" ht="12.75"/>
+    <row r="899" s="2" customFormat="1" ht="12.75"/>
+    <row r="900" s="2" customFormat="1" ht="12.75"/>
+    <row r="901" s="2" customFormat="1" ht="12.75"/>
+    <row r="902" s="2" customFormat="1" ht="12.75"/>
+    <row r="903" s="2" customFormat="1" ht="12.75"/>
+    <row r="904" s="2" customFormat="1" ht="12.75"/>
+    <row r="905" s="2" customFormat="1" ht="12.75"/>
+    <row r="906" s="2" customFormat="1" ht="12.75"/>
+    <row r="907" s="2" customFormat="1" ht="12.75"/>
+    <row r="908" s="2" customFormat="1" ht="12.75"/>
+    <row r="909" s="2" customFormat="1" ht="12.75"/>
+    <row r="910" s="2" customFormat="1" ht="12.75"/>
+    <row r="911" s="2" customFormat="1" ht="12.75"/>
+    <row r="912" s="2" customFormat="1" ht="12.75"/>
+    <row r="913" s="2" customFormat="1" ht="12.75"/>
+    <row r="914" s="2" customFormat="1" ht="12.75"/>
+    <row r="915" s="2" customFormat="1" ht="12.75"/>
+    <row r="916" s="2" customFormat="1" ht="12.75"/>
+    <row r="917" s="2" customFormat="1" ht="12.75"/>
+    <row r="918" s="2" customFormat="1" ht="12.75"/>
+    <row r="919" s="2" customFormat="1" ht="12.75"/>
+    <row r="920" s="2" customFormat="1" ht="12.75"/>
+    <row r="921" s="2" customFormat="1" ht="12.75"/>
+    <row r="922" s="2" customFormat="1" ht="12.75"/>
+    <row r="923" s="2" customFormat="1" ht="12.75"/>
+    <row r="924" s="2" customFormat="1" ht="12.75"/>
+    <row r="925" s="2" customFormat="1" ht="12.75"/>
+    <row r="926" s="2" customFormat="1" ht="12.75"/>
+    <row r="927" s="2" customFormat="1" ht="12.75"/>
+    <row r="928" s="2" customFormat="1" ht="12.75"/>
+    <row r="929" s="2" customFormat="1" ht="12.75"/>
+    <row r="930" s="2" customFormat="1" ht="12.75"/>
+    <row r="931" s="2" customFormat="1" ht="12.75"/>
+    <row r="932" s="2" customFormat="1" ht="12.75"/>
+    <row r="933" s="2" customFormat="1" ht="12.75"/>
+    <row r="934" s="2" customFormat="1" ht="12.75"/>
+    <row r="935" s="2" customFormat="1" ht="12.75"/>
+    <row r="936" s="2" customFormat="1" ht="12.75"/>
+    <row r="937" s="2" customFormat="1" ht="12.75"/>
+    <row r="938" s="2" customFormat="1" ht="12.75"/>
+    <row r="939" s="2" customFormat="1" ht="12.75"/>
+    <row r="940" s="2" customFormat="1" ht="12.75"/>
+    <row r="941" s="2" customFormat="1" ht="12.75"/>
+    <row r="942" s="2" customFormat="1" ht="12.75"/>
+    <row r="943" s="2" customFormat="1" ht="12.75"/>
+    <row r="944" s="2" customFormat="1" ht="12.75"/>
+    <row r="945" s="2" customFormat="1" ht="12.75"/>
+    <row r="946" s="2" customFormat="1" ht="12.75"/>
+    <row r="947" s="2" customFormat="1" ht="12.75"/>
+    <row r="948" s="2" customFormat="1" ht="12.75"/>
+    <row r="949" s="2" customFormat="1" ht="12.75"/>
+    <row r="950" s="2" customFormat="1" ht="12.75"/>
+    <row r="951" s="2" customFormat="1" ht="12.75"/>
+    <row r="952" s="2" customFormat="1" ht="12.75"/>
+    <row r="953" s="2" customFormat="1" ht="12.75"/>
+    <row r="954" s="2" customFormat="1" ht="12.75"/>
+    <row r="955" s="2" customFormat="1" ht="12.75"/>
+    <row r="956" s="2" customFormat="1" ht="12.75"/>
+    <row r="957" s="2" customFormat="1" ht="12.75"/>
+    <row r="958" s="2" customFormat="1" ht="12.75"/>
+    <row r="959" s="2" customFormat="1" ht="12.75"/>
+    <row r="960" s="2" customFormat="1" ht="12.75"/>
+    <row r="961" s="2" customFormat="1" ht="12.75"/>
+    <row r="962" s="2" customFormat="1" ht="12.75"/>
+    <row r="963" s="2" customFormat="1" ht="12.75"/>
+    <row r="964" s="2" customFormat="1" ht="12.75"/>
+    <row r="965" s="2" customFormat="1" ht="12.75"/>
+    <row r="966" s="2" customFormat="1" ht="12.75"/>
+    <row r="967" s="2" customFormat="1" ht="12.75"/>
+    <row r="968" s="2" customFormat="1" ht="12.75"/>
+    <row r="969" s="2" customFormat="1" ht="12.75"/>
+    <row r="970" s="2" customFormat="1" ht="12.75"/>
+    <row r="971" s="2" customFormat="1" ht="12.75"/>
+    <row r="972" s="2" customFormat="1" ht="12.75"/>
+    <row r="973" s="2" customFormat="1" ht="12.75"/>
+    <row r="974" s="2" customFormat="1" ht="12.75"/>
+    <row r="975" s="2" customFormat="1" ht="12.75"/>
+    <row r="976" s="2" customFormat="1" ht="12.75"/>
+    <row r="977" s="2" customFormat="1" ht="12.75"/>
+    <row r="978" s="2" customFormat="1" ht="12.75"/>
+    <row r="979" s="2" customFormat="1" ht="12.75"/>
+    <row r="980" s="2" customFormat="1" ht="12.75"/>
+    <row r="981" s="2" customFormat="1" ht="12.75"/>
+    <row r="982" s="2" customFormat="1" ht="12.75"/>
+    <row r="983" s="2" customFormat="1" ht="12.75"/>
+    <row r="984" s="2" customFormat="1" ht="12.75"/>
+    <row r="985" s="2" customFormat="1" ht="12.75"/>
+    <row r="986" s="2" customFormat="1" ht="12.75"/>
+    <row r="987" s="2" customFormat="1" ht="12.75"/>
+    <row r="988" s="2" customFormat="1" ht="12.75"/>
+    <row r="989" s="2" customFormat="1" ht="12.75"/>
+    <row r="990" s="2" customFormat="1" ht="12.75"/>
+    <row r="991" s="2" customFormat="1" ht="12.75"/>
+    <row r="992" s="2" customFormat="1" ht="12.75"/>
+    <row r="993" s="2" customFormat="1" ht="12.75"/>
+    <row r="994" s="2" customFormat="1" ht="12.75"/>
+    <row r="995" s="2" customFormat="1" ht="12.75"/>
+    <row r="996" s="2" customFormat="1" ht="12.75"/>
+    <row r="997" s="2" customFormat="1" ht="12.75"/>
+    <row r="998" s="2" customFormat="1" ht="12.75"/>
+    <row r="999" s="2" customFormat="1" ht="12.75"/>
+    <row r="1000" s="2" customFormat="1" ht="12.75"/>
+    <row r="1001" s="2" customFormat="1" ht="12.75"/>
+    <row r="1002" s="2" customFormat="1" ht="12.75"/>
+    <row r="1003" s="2" customFormat="1" ht="12.75"/>
+    <row r="1004" s="2" customFormat="1" ht="12.75"/>
+    <row r="1005" s="2" customFormat="1" ht="12.75"/>
+    <row r="1006" s="2" customFormat="1" ht="12.75"/>
+    <row r="1007" s="2" customFormat="1" ht="12.75"/>
+    <row r="1008" s="2" customFormat="1" ht="12.75"/>
+    <row r="1009" s="2" customFormat="1" ht="12.75"/>
+    <row r="1010" s="2" customFormat="1" ht="12.75"/>
+    <row r="1011" s="2" customFormat="1" ht="12.75"/>
+    <row r="1012" s="2" customFormat="1" ht="12.75"/>
+    <row r="1013" s="2" customFormat="1" ht="12.75"/>
+    <row r="1014" s="2" customFormat="1" ht="12.75"/>
+    <row r="1015" s="2" customFormat="1" ht="12.75"/>
+    <row r="1016" s="2" customFormat="1" ht="12.75"/>
+    <row r="1017" s="2" customFormat="1" ht="12.75"/>
+    <row r="1018" s="2" customFormat="1" ht="12.75"/>
+    <row r="1019" s="2" customFormat="1" ht="12.75"/>
+    <row r="1020" s="2" customFormat="1" ht="12.75"/>
+    <row r="1021" s="2" customFormat="1" ht="12.75"/>
+    <row r="1022" s="2" customFormat="1" ht="12.75"/>
+    <row r="1023" s="2" customFormat="1" ht="12.75"/>
+    <row r="1024" s="2" customFormat="1" ht="12.75"/>
+    <row r="1025" s="2" customFormat="1" ht="12.75"/>
+    <row r="1026" s="2" customFormat="1" ht="12.75"/>
+    <row r="1027" s="2" customFormat="1" ht="12.75"/>
+    <row r="1028" s="2" customFormat="1" ht="12.75"/>
+    <row r="1029" s="2" customFormat="1" ht="12.75"/>
+    <row r="1030" s="2" customFormat="1" ht="12.75"/>
+    <row r="1031" s="2" customFormat="1" ht="12.75"/>
+    <row r="1032" s="2" customFormat="1" ht="12.75"/>
+    <row r="1033" s="2" customFormat="1" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5759,181 +5775,340 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBF3C3B-240C-4F7F-A1B9-C9337BE32FB4}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="78.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" ht="78.75" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="12">
         <v>2020</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="12">
         <v>2030</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="12">
         <v>2040</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="12">
         <v>2050</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
         <v>82.3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <v>98.6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="8">
         <v>99.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="9">
         <v>0.7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>0.17</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="9">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="9">
         <v>0.37</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>0.85</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="9">
         <v>0.96</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="9">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="9">
         <v>0.3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>0.83</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>0.95</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="9">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="9">
         <v>0.74</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>0.98</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <v>0.95</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="9">
         <v>0.03</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>0.01</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="11">
         <v>2040</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Power Sector.xlsx
+++ b/Power Sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A9ED84-B3F0-484B-9F48-33D90677D2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB482182-E354-4E4B-9DFB-F81A6D7AC5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,10 +200,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Seaford"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Seaford"/>
     </font>
@@ -221,6 +217,10 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Seaford"/>
     </font>
   </fonts>
@@ -291,31 +291,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5778,332 +5777,331 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="68.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="78.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>2020</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>2030</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>2040</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>2050</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6">
         <v>82.3</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>98.6</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>99.3</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>0.7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>0.17</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>0.05</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>0.04</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>0.37</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>0.85</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>0.96</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>0.96</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>0.3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>0.83</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>0.95</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>0.95</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>0.74</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>0.98</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>0.95</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>0.89</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>0.03</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>0.01</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>2040</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Power Sector.xlsx
+++ b/Power Sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB482182-E354-4E4B-9DFB-F81A6D7AC5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05BCE4F-8E8A-4053-B395-14714792DE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,7 +191,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -215,12 +218,17 @@
       <name val="s"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Seaford"/>
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Seaford"/>
     </font>
   </fonts>
@@ -299,22 +307,22 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5777,7 +5785,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5786,21 +5794,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="78.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4"/>
@@ -5818,19 +5826,19 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>2020</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>2030</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>2040</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>2050</v>
       </c>
       <c r="F3" s="4"/>
@@ -5843,18 +5851,18 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6">
-        <v>82.3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>98.6</v>
-      </c>
-      <c r="E4" s="6">
-        <v>99.3</v>
+      <c r="B4" s="7"/>
+      <c r="C4" s="11">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.99299999999999999</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -5866,19 +5874,19 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>0.7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>0.17</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>0.05</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>0.04</v>
       </c>
       <c r="F5" s="4"/>
@@ -5891,19 +5899,19 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>0.37</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>0.85</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>0.96</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>0.96</v>
       </c>
       <c r="F6" s="4"/>
@@ -5916,19 +5924,19 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>0.3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>0.83</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>0.95</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>0.95</v>
       </c>
       <c r="F7" s="4"/>
@@ -5941,19 +5949,19 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>0.74</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>0.98</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>0.95</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>0.89</v>
       </c>
       <c r="F8" s="4"/>
@@ -5966,13 +5974,13 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -5983,13 +5991,13 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -6000,19 +6008,19 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>0.03</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>0.01</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>0</v>
       </c>
       <c r="F11" s="4"/>
@@ -6025,7 +6033,7 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="10">

--- a/Power Sector.xlsx
+++ b/Power Sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05BCE4F-8E8A-4053-B395-14714792DE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEC51DD-33C7-4DBC-9669-345F65E7BAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,10 +181,10 @@
     <t>Share of total electricity investment in zero carbon technologies</t>
   </si>
   <si>
-    <t>Share of total electricity investment in transmission and distribution technologies</t>
+    <t>Share of total electricity investment in coal Plants</t>
   </si>
   <si>
-    <t>Share of total electricity investment in coal Plants</t>
+    <t>Share of total electricity investment in T&amp;D technologies</t>
   </si>
 </sst>
 </file>
@@ -222,12 +222,12 @@
       <name val="Seaford"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Seaford"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Seaford"/>
     </font>
@@ -247,7 +247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,14 +314,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5785,7 +5785,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5855,13 +5855,13 @@
         <v>42</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>0.82299999999999995</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>0.99299999999999999</v>
       </c>
       <c r="F4" s="4"/>
@@ -5877,16 +5877,16 @@
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>0.7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>0.17</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <v>0.04</v>
       </c>
       <c r="F5" s="4"/>
@@ -5902,16 +5902,16 @@
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>0.37</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>0.85</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>0.96</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <v>0.96</v>
       </c>
       <c r="F6" s="4"/>
@@ -5927,16 +5927,16 @@
       <c r="A7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>0.3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>0.83</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>0.95</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>0.95</v>
       </c>
       <c r="F7" s="4"/>
@@ -5952,16 +5952,16 @@
       <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>0.74</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>0.98</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>0.95</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <v>0.89</v>
       </c>
       <c r="F8" s="4"/>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -6009,18 +6009,18 @@
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="8">
+        <v>49</v>
+      </c>
+      <c r="B11" s="9">
         <v>0.03</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>0.01</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <v>0</v>
       </c>
       <c r="F11" s="4"/>
@@ -6033,15 +6033,15 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>2040</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>

--- a/Power Sector.xlsx
+++ b/Power Sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEC51DD-33C7-4DBC-9669-345F65E7BAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C882916-3BC9-4E0C-B896-7CA0D08A4E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="49">
   <si>
     <t>Scenario</t>
   </si>
@@ -154,16 +154,7 @@
     <t>Share of Geothermal in total renewable generation</t>
   </si>
   <si>
-    <t>Share of total electricity generation from non-zero carbon sources</t>
-  </si>
-  <si>
-    <t>Share of total electricity generation from zero carbon sources</t>
-  </si>
-  <si>
     <t>Absolute gross CO2 emissions reduction rate (relative to 2020)</t>
-  </si>
-  <si>
-    <t>Share of total electricity generation from renewables</t>
   </si>
   <si>
     <t>Phase-out of coal power plants (year)</t>
@@ -178,13 +169,16 @@
     <t>Share of capacity additions from zero carbon sources</t>
   </si>
   <si>
-    <t>Share of total electricity investment in zero carbon technologies</t>
-  </si>
-  <si>
     <t>Share of total electricity investment in coal Plants</t>
   </si>
   <si>
-    <t>Share of total electricity investment in T&amp;D technologies</t>
+    <t>Share of renewables in total electricity generation</t>
+  </si>
+  <si>
+    <t>Share of non-zero carbon sources in total electricity generation</t>
+  </si>
+  <si>
+    <t>Share of zero-carbon sources in total electricity generation</t>
   </si>
 </sst>
 </file>
@@ -299,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -307,9 +301,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -324,6 +315,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5782,10 +5783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBF3C3B-240C-4F7F-A1B9-C9337BE32FB4}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5793,22 +5794,22 @@
     <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+    <row r="1" spans="1:13" ht="111.75" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4"/>
@@ -5826,19 +5827,19 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="5">
         <v>2020</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2030</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>2040</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>2050</v>
       </c>
       <c r="F3" s="4"/>
@@ -5850,18 +5851,18 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8">
+    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7">
         <v>0.82299999999999995</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>0.99299999999999999</v>
       </c>
       <c r="F4" s="4"/>
@@ -5873,20 +5874,20 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="9">
+    <row r="5" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="8">
         <v>0.7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.17</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>0.05</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>0.04</v>
       </c>
       <c r="F5" s="4"/>
@@ -5898,20 +5899,20 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="9">
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="8">
         <v>0.37</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.85</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>0.96</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>0.96</v>
       </c>
       <c r="F6" s="4"/>
@@ -5923,64 +5924,72 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="9">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="8">
         <v>0.3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0.83</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>0.95</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>0.95</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="9">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="8">
         <v>0.74</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="E8" s="8">
         <v>0.98</v>
       </c>
-      <c r="D8" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.89</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+    <row r="9" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -5990,14 +5999,16 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2040</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -6007,22 +6018,12 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -6032,16 +6033,12 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="11">
-        <v>2040</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -6081,40 +6078,10 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Power Sector.xlsx
+++ b/Power Sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C882916-3BC9-4E0C-B896-7CA0D08A4E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7AD652-6156-4899-A780-E9F52EC3D9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t>Share of Geothermal in total renewable generation</t>
   </si>
   <si>
-    <t>Absolute gross CO2 emissions reduction rate (relative to 2020)</t>
-  </si>
-  <si>
     <t>Phase-out of coal power plants (year)</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Share of zero-carbon sources in total electricity generation</t>
+  </si>
+  <si>
+    <t>Absolute gross CO2 emissions reduction rate, compared to 2020</t>
   </si>
 </sst>
 </file>
@@ -216,12 +216,12 @@
       <name val="Seaford"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Seaford"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Seaford"/>
     </font>
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -301,6 +301,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,16 +322,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5783,10 +5780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBF3C3B-240C-4F7F-A1B9-C9337BE32FB4}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5794,24 +5791,25 @@
     <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="111.75" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13">
+    <row r="1" spans="1:14" ht="100.5" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" hidden="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -5826,20 +5824,20 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" spans="1:14" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="8">
         <v>2020</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <v>2030</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>2040</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>2050</v>
       </c>
       <c r="F3" s="4"/>
@@ -5851,18 +5849,18 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7">
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10">
         <v>0.82299999999999995</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10">
         <v>0.99299999999999999</v>
       </c>
       <c r="F4" s="4"/>
@@ -5874,20 +5872,20 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="8">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="11">
         <v>0.7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
         <v>0.17</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="11">
         <v>0.04</v>
       </c>
       <c r="F5" s="4"/>
@@ -5899,20 +5897,20 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="8">
+    <row r="6" spans="1:14" ht="15" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="11">
         <v>0.37</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="11">
         <v>0.85</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="11">
         <v>0.96</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="11">
         <v>0.96</v>
       </c>
       <c r="F6" s="4"/>
@@ -5924,70 +5922,70 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="8">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="11">
         <v>0.3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="11">
         <v>0.83</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="11">
         <v>0.95</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="11">
         <v>0.95</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="8">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="11">
         <v>0.74</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="11">
         <v>0.89</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="11">
         <v>0.95</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="11">
         <v>0.98</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="8">
+    <row r="9" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="11">
         <v>0.03</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="11">
         <v>0.01</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="11">
         <v>0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="11">
         <v>0</v>
       </c>
       <c r="F9" s="4"/>
@@ -5999,16 +5997,16 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="10">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="13">
         <v>2040</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -6018,7 +6016,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -6033,7 +6031,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -6048,7 +6046,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -6063,7 +6061,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -6081,7 +6079,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Power Sector.xlsx
+++ b/Power Sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7AD652-6156-4899-A780-E9F52EC3D9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32F00FA-2383-48EE-B52E-2D7C245E31CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="50">
   <si>
     <t>Scenario</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>IEA NZE 2023</t>
-  </si>
-  <si>
-    <t>Median - ALL</t>
   </si>
   <si>
     <t>MtCO2</t>
@@ -130,9 +127,6 @@
     <t>Share of Fossil in total electricity generation</t>
   </si>
   <si>
-    <t>SBTI</t>
-  </si>
-  <si>
     <t>Share of BECCS in total electricity generation</t>
   </si>
   <si>
@@ -180,6 +174,15 @@
   <si>
     <t>Absolute gross CO2 emissions reduction rate, compared to 2020</t>
   </si>
+  <si>
+    <t>Share of Zero carbon in total generation</t>
+  </si>
+  <si>
+    <t>Share of unabated fossil in total generation</t>
+  </si>
+  <si>
+    <t>Share of abated fossil in total generation</t>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -225,6 +228,13 @@
       <color rgb="FF000000"/>
       <name val="Seaford"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -246,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -289,11 +299,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -305,9 +397,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -321,6 +410,35 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,10 +658,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1033"/>
+  <dimension ref="A1:J1023"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -559,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3">
         <v>2020</v>
@@ -591,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -623,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -655,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -687,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -719,7 +837,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -751,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -783,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
@@ -815,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
@@ -847,7 +965,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -879,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -908,7 +1026,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
@@ -917,350 +1035,350 @@
         <v>12</v>
       </c>
       <c r="D12" s="1">
-        <v>0.47365000000000002</v>
+        <v>12245.13766</v>
       </c>
       <c r="E12" s="1">
-        <v>0.19725999999999999</v>
+        <v>5222.2208840000003</v>
       </c>
       <c r="F12" s="1">
-        <v>6.4460000000000003E-2</v>
+        <v>2326.3845879999999</v>
       </c>
       <c r="G12" s="1">
-        <v>1.4800000000000001E-2</v>
+        <v>796.60434840000005</v>
       </c>
       <c r="H12" s="1">
-        <v>3.2799999999999999E-3</v>
+        <v>128.11414600000001</v>
       </c>
       <c r="I12" s="1">
-        <v>1.8699999999999999E-3</v>
+        <v>59.367381629999997</v>
       </c>
       <c r="J12" s="1">
-        <v>1.0300000000000001E-3</v>
+        <v>23.155888829999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1">
-        <v>12245.13766</v>
+        <v>13092.680619999999</v>
       </c>
       <c r="E13" s="1">
-        <v>5222.2208840000003</v>
+        <v>5456.0174589999997</v>
       </c>
       <c r="F13" s="1">
-        <v>2326.3845879999999</v>
+        <v>1551.135556</v>
       </c>
       <c r="G13" s="1">
-        <v>796.60434840000005</v>
+        <v>401.36126639999998</v>
       </c>
       <c r="H13" s="1">
-        <v>128.11414600000001</v>
+        <v>173.2930418</v>
       </c>
       <c r="I13" s="1">
-        <v>59.367381629999997</v>
+        <v>121.56220089999999</v>
       </c>
       <c r="J13" s="1">
-        <v>23.155888829999999</v>
+        <v>103.5291896</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>13092.680619999999</v>
+        <v>13070.874229999999</v>
       </c>
       <c r="E14" s="1">
-        <v>5456.0174589999997</v>
+        <v>5518.1256370000001</v>
       </c>
       <c r="F14" s="1">
-        <v>1551.135556</v>
+        <v>1654.101981</v>
       </c>
       <c r="G14" s="1">
-        <v>401.36126639999998</v>
+        <v>419.8786819</v>
       </c>
       <c r="H14" s="1">
-        <v>173.2930418</v>
+        <v>168.22223070000001</v>
       </c>
       <c r="I14" s="1">
-        <v>121.56220089999999</v>
+        <v>112.6918115</v>
       </c>
       <c r="J14" s="1">
-        <v>103.5291896</v>
+        <v>70.43161198</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1">
-        <v>13070.874229999999</v>
+        <v>13072.21305</v>
       </c>
       <c r="E15" s="1">
-        <v>5518.1256370000001</v>
+        <v>5698.5651859999998</v>
       </c>
       <c r="F15" s="1">
-        <v>1654.101981</v>
+        <v>1936.8403430000001</v>
       </c>
       <c r="G15" s="1">
-        <v>419.8786819</v>
+        <v>476.64993299999998</v>
       </c>
       <c r="H15" s="1">
-        <v>168.22223070000001</v>
+        <v>179.51580240000001</v>
       </c>
       <c r="I15" s="1">
-        <v>112.6918115</v>
+        <v>122.52494780000001</v>
       </c>
       <c r="J15" s="1">
-        <v>70.43161198</v>
+        <v>78.663008009999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1">
-        <v>13072.21305</v>
+        <v>13219.14602</v>
       </c>
       <c r="E16" s="1">
-        <v>5698.5651859999998</v>
+        <v>5879.6236369999997</v>
       </c>
       <c r="F16" s="1">
-        <v>1936.8403430000001</v>
+        <v>2165.198425</v>
       </c>
       <c r="G16" s="1">
-        <v>476.64993299999998</v>
+        <v>539.09918630000004</v>
       </c>
       <c r="H16" s="1">
-        <v>179.51580240000001</v>
+        <v>183.93757969999999</v>
       </c>
       <c r="I16" s="1">
-        <v>122.52494780000001</v>
+        <v>132.12912040000001</v>
       </c>
       <c r="J16" s="1">
-        <v>78.663008009999999</v>
+        <v>72.383944060000005</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
-        <v>13219.14602</v>
+        <v>11045.935600000001</v>
       </c>
       <c r="E17" s="1">
-        <v>5879.6236369999997</v>
+        <v>8177.9683999999997</v>
       </c>
       <c r="F17" s="1">
-        <v>2165.198425</v>
+        <v>4885.4584999999997</v>
       </c>
       <c r="G17" s="1">
-        <v>539.09918630000004</v>
+        <v>2088.4110000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>183.93757969999999</v>
+        <v>1370.0753999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>132.12912040000001</v>
+        <v>1176.7865999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>72.383944060000005</v>
+        <v>1001.3920000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
-        <v>11045.935600000001</v>
+        <v>12244.889719999999</v>
       </c>
       <c r="E18" s="1">
-        <v>8177.9683999999997</v>
+        <v>5068.9998029999997</v>
       </c>
       <c r="F18" s="1">
-        <v>4885.4584999999997</v>
+        <v>2024.078622</v>
       </c>
       <c r="G18" s="1">
-        <v>2088.4110000000001</v>
+        <v>587.4153622</v>
       </c>
       <c r="H18" s="1">
-        <v>1370.0753999999999</v>
+        <v>115.3827565</v>
       </c>
       <c r="I18" s="1">
-        <v>1176.7865999999999</v>
+        <v>52.030781490000003</v>
       </c>
       <c r="J18" s="1">
-        <v>1001.3920000000001</v>
+        <v>-14.4551956</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1">
-        <v>12244.889719999999</v>
+        <v>11864.1587</v>
       </c>
       <c r="E19" s="1">
-        <v>5068.9998029999997</v>
+        <v>9094.7816000000003</v>
       </c>
       <c r="F19" s="1">
-        <v>2024.078622</v>
+        <v>4943.0730999999996</v>
       </c>
       <c r="G19" s="1">
-        <v>587.4153622</v>
+        <v>2248.5515999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>115.3827565</v>
+        <v>1592.0275999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>52.030781490000003</v>
+        <v>1286.4405999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>-14.4551956</v>
+        <v>1151.2384</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1">
-        <v>11864.1587</v>
+        <v>13504</v>
       </c>
       <c r="E20" s="1">
-        <v>9094.7816000000003</v>
+        <v>9703.5</v>
       </c>
       <c r="F20" s="1">
-        <v>4943.0730999999996</v>
+        <v>5903</v>
       </c>
       <c r="G20" s="1">
-        <v>2248.5515999999998</v>
+        <v>3285.5</v>
       </c>
       <c r="H20" s="1">
-        <v>1592.0275999999999</v>
+        <v>668</v>
       </c>
       <c r="I20" s="1">
-        <v>1286.4405999999999</v>
+        <v>435.5</v>
       </c>
       <c r="J20" s="1">
-        <v>1151.2384</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1">
         <v>13504</v>
       </c>
       <c r="E21" s="1">
-        <v>9703.5</v>
+        <v>10788</v>
       </c>
       <c r="F21" s="1">
-        <v>5903</v>
+        <v>8072</v>
       </c>
       <c r="G21" s="1">
-        <v>3285.5</v>
+        <v>2992</v>
       </c>
       <c r="H21" s="1">
-        <v>668</v>
+        <v>376</v>
       </c>
       <c r="I21" s="1">
-        <v>435.5</v>
+        <v>237.5</v>
       </c>
       <c r="J21" s="1">
-        <v>203</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1">
-        <v>13504</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>10788</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>8072</v>
+        <v>9.0856858490000008</v>
       </c>
       <c r="G22" s="1">
-        <v>2992</v>
+        <v>16.153537</v>
       </c>
       <c r="H22" s="1">
-        <v>376</v>
+        <v>32.641511059999999</v>
       </c>
       <c r="I22" s="1">
-        <v>237.5</v>
+        <v>58.237357860000003</v>
       </c>
       <c r="J22" s="1">
-        <v>99</v>
+        <v>77.051372720000003</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
@@ -1269,36 +1387,36 @@
         <v>12</v>
       </c>
       <c r="D23" s="1">
-        <v>13071.54364</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>5789.0944120000004</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>2245.7915069999999</v>
+        <v>9.3144800980000007</v>
       </c>
       <c r="G23" s="1">
-        <v>692.00985530000003</v>
+        <v>19.610023269999999</v>
       </c>
       <c r="H23" s="1">
-        <v>181.72669110000001</v>
+        <v>30.01796384</v>
       </c>
       <c r="I23" s="1">
-        <v>127.32703410000001</v>
+        <v>40.379750360000003</v>
       </c>
       <c r="J23" s="1">
-        <v>88.831504010000003</v>
+        <v>29.018676670000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1307,30 +1425,30 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>9.0856858490000008</v>
+        <v>5.1130028169999999</v>
       </c>
       <c r="G24" s="1">
-        <v>16.153537</v>
+        <v>17.871448659999999</v>
       </c>
       <c r="H24" s="1">
-        <v>32.641511059999999</v>
+        <v>28.04604621</v>
       </c>
       <c r="I24" s="1">
-        <v>58.237357860000003</v>
+        <v>45.302578619999998</v>
       </c>
       <c r="J24" s="1">
-        <v>77.051372720000003</v>
+        <v>43.10586575</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1339,30 +1457,30 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>9.3144800980000007</v>
+        <v>4.5368894500000003</v>
       </c>
       <c r="G25" s="1">
-        <v>19.610023269999999</v>
+        <v>21.711040239999999</v>
       </c>
       <c r="H25" s="1">
-        <v>30.01796384</v>
+        <v>39.646274079999998</v>
       </c>
       <c r="I25" s="1">
-        <v>40.379750360000003</v>
+        <v>58.767635030000001</v>
       </c>
       <c r="J25" s="1">
-        <v>29.018676670000001</v>
+        <v>65.063463580000004</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1371,62 +1489,62 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>5.1130028169999999</v>
+        <v>3.3522564510000001</v>
       </c>
       <c r="G26" s="1">
-        <v>17.871448659999999</v>
+        <v>18.14120724</v>
       </c>
       <c r="H26" s="1">
-        <v>28.04604621</v>
+        <v>34.01241023</v>
       </c>
       <c r="I26" s="1">
-        <v>45.302578619999998</v>
+        <v>59.362532899999998</v>
       </c>
       <c r="J26" s="1">
-        <v>43.10586575</v>
+        <v>72.127785259999996</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>5.45E-2</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>1.6577</v>
       </c>
       <c r="F27" s="1">
-        <v>4.5368894500000003</v>
+        <v>11.231400000000001</v>
       </c>
       <c r="G27" s="1">
-        <v>21.711040239999999</v>
+        <v>30.8461</v>
       </c>
       <c r="H27" s="1">
-        <v>39.646274079999998</v>
+        <v>68.851699999999994</v>
       </c>
       <c r="I27" s="1">
-        <v>58.767635030000001</v>
+        <v>134.52940000000001</v>
       </c>
       <c r="J27" s="1">
-        <v>65.063463580000004</v>
+        <v>231.07409999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -1435,62 +1553,62 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>3.3522564510000001</v>
+        <v>6.2311924039999997</v>
       </c>
       <c r="G28" s="1">
-        <v>18.14120724</v>
+        <v>18.52040234</v>
       </c>
       <c r="H28" s="1">
-        <v>34.01241023</v>
+        <v>46.80606598</v>
       </c>
       <c r="I28" s="1">
-        <v>59.362532899999998</v>
+        <v>88.695589299999995</v>
       </c>
       <c r="J28" s="1">
-        <v>72.127785259999996</v>
+        <v>105.62414870000001</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1">
-        <v>5.45E-2</v>
+        <v>0.39839999999999998</v>
       </c>
       <c r="E29" s="1">
-        <v>1.6577</v>
+        <v>1.7478</v>
       </c>
       <c r="F29" s="1">
-        <v>11.231400000000001</v>
+        <v>5.1456</v>
       </c>
       <c r="G29" s="1">
-        <v>30.8461</v>
+        <v>12.0749</v>
       </c>
       <c r="H29" s="1">
-        <v>68.851699999999994</v>
+        <v>25.188700000000001</v>
       </c>
       <c r="I29" s="1">
-        <v>134.52940000000001</v>
+        <v>47.107199999999999</v>
       </c>
       <c r="J29" s="1">
-        <v>231.07409999999999</v>
+        <v>78.232600000000005</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1499,120 +1617,120 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>6.2311924039999997</v>
+        <v>87</v>
       </c>
       <c r="G30" s="1">
-        <v>18.52040234</v>
+        <v>272</v>
       </c>
       <c r="H30" s="1">
-        <v>46.80606598</v>
+        <v>457</v>
       </c>
       <c r="I30" s="1">
-        <v>88.695589299999995</v>
+        <v>514.5</v>
       </c>
       <c r="J30" s="1">
-        <v>105.62414870000001</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1">
-        <v>0.39839999999999998</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>1.7478</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>5.1456</v>
+        <v>-41</v>
       </c>
       <c r="G31" s="1">
-        <v>12.0749</v>
+        <v>138</v>
       </c>
       <c r="H31" s="1">
-        <v>25.188700000000001</v>
+        <v>257</v>
       </c>
       <c r="I31" s="1">
-        <v>47.107199999999999</v>
+        <v>315.5</v>
       </c>
       <c r="J31" s="1">
-        <v>78.232600000000005</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>12245.13766</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>5222.2208840000003</v>
       </c>
       <c r="F32" s="1">
-        <v>87</v>
+        <v>2317.298902</v>
       </c>
       <c r="G32" s="1">
-        <v>272</v>
+        <v>780.45081140000002</v>
       </c>
       <c r="H32" s="1">
-        <v>457</v>
+        <v>95.472634929999998</v>
       </c>
       <c r="I32" s="1">
-        <v>514.5</v>
+        <v>1.1300237710000001</v>
       </c>
       <c r="J32" s="1">
-        <v>572</v>
+        <v>-53.895483890000001</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>13092.680619999999</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>5456.0174589999997</v>
       </c>
       <c r="F33" s="1">
-        <v>-41</v>
+        <v>1541.8210759999999</v>
       </c>
       <c r="G33" s="1">
-        <v>138</v>
+        <v>381.75124310000001</v>
       </c>
       <c r="H33" s="1">
-        <v>257</v>
+        <v>143.27507800000001</v>
       </c>
       <c r="I33" s="1">
-        <v>315.5</v>
+        <v>81.18245057</v>
       </c>
       <c r="J33" s="1">
-        <v>374</v>
+        <v>74.510512969999994</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>17</v>
@@ -1621,400 +1739,400 @@
         <v>12</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>13070.874229999999</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>5518.1256370000001</v>
       </c>
       <c r="F34" s="1">
-        <v>5.6883999999999997</v>
+        <v>1648.9889780000001</v>
       </c>
       <c r="G34" s="1">
-        <v>19.06521</v>
+        <v>402.00723319999997</v>
       </c>
       <c r="H34" s="1">
-        <v>36.829340000000002</v>
+        <v>140.17618450000001</v>
       </c>
       <c r="I34" s="1">
-        <v>59.065080000000002</v>
+        <v>67.389232840000005</v>
       </c>
       <c r="J34" s="1">
-        <v>77.641990000000007</v>
+        <v>27.32574623</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1">
-        <v>12245.13766</v>
+        <v>13072.21305</v>
       </c>
       <c r="E35" s="1">
-        <v>5222.2208840000003</v>
+        <v>5698.5651859999998</v>
       </c>
       <c r="F35" s="1">
-        <v>2317.298902</v>
+        <v>1932.3034540000001</v>
       </c>
       <c r="G35" s="1">
-        <v>780.45081140000002</v>
+        <v>454.93889280000002</v>
       </c>
       <c r="H35" s="1">
-        <v>95.472634929999998</v>
+        <v>139.86952830000001</v>
       </c>
       <c r="I35" s="1">
-        <v>1.1300237710000001</v>
+        <v>63.757312740000003</v>
       </c>
       <c r="J35" s="1">
-        <v>-53.895483890000001</v>
+        <v>13.59954443</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1">
-        <v>13092.680619999999</v>
+        <v>13219.14602</v>
       </c>
       <c r="E36" s="1">
-        <v>5456.0174589999997</v>
+        <v>5879.6236369999997</v>
       </c>
       <c r="F36" s="1">
-        <v>1541.8210759999999</v>
+        <v>2161.8461689999999</v>
       </c>
       <c r="G36" s="1">
-        <v>381.75124310000001</v>
+        <v>520.95797909999999</v>
       </c>
       <c r="H36" s="1">
-        <v>143.27507800000001</v>
+        <v>149.92516950000001</v>
       </c>
       <c r="I36" s="1">
-        <v>81.18245057</v>
+        <v>72.766587450000003</v>
       </c>
       <c r="J36" s="1">
-        <v>74.510512969999994</v>
+        <v>0.25615879600000002</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1">
-        <v>13070.874229999999</v>
+        <v>11045.881100000001</v>
       </c>
       <c r="E37" s="1">
-        <v>5518.1256370000001</v>
+        <v>8176.3107</v>
       </c>
       <c r="F37" s="1">
-        <v>1648.9889780000001</v>
+        <v>4874.2271000000001</v>
       </c>
       <c r="G37" s="1">
-        <v>402.00723319999997</v>
+        <v>2057.5648999999999</v>
       </c>
       <c r="H37" s="1">
-        <v>140.17618450000001</v>
+        <v>1301.2237</v>
       </c>
       <c r="I37" s="1">
-        <v>67.389232840000005</v>
+        <v>1042.2572</v>
       </c>
       <c r="J37" s="1">
-        <v>27.32574623</v>
+        <v>770.31790000000001</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1">
-        <v>13072.21305</v>
+        <v>12244.889719999999</v>
       </c>
       <c r="E38" s="1">
-        <v>5698.5651859999998</v>
+        <v>5068.9998029999997</v>
       </c>
       <c r="F38" s="1">
-        <v>1932.3034540000001</v>
+        <v>2017.84743</v>
       </c>
       <c r="G38" s="1">
-        <v>454.93889280000002</v>
+        <v>568.8949599</v>
       </c>
       <c r="H38" s="1">
-        <v>139.86952830000001</v>
+        <v>68.576690529999993</v>
       </c>
       <c r="I38" s="1">
-        <v>63.757312740000003</v>
+        <v>-36.664807809999999</v>
       </c>
       <c r="J38" s="1">
-        <v>13.59954443</v>
+        <v>-120.0793443</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1">
-        <v>13219.14602</v>
+        <v>11863.7603</v>
       </c>
       <c r="E39" s="1">
-        <v>5879.6236369999997</v>
+        <v>9093.0337999999992</v>
       </c>
       <c r="F39" s="1">
-        <v>2161.8461689999999</v>
+        <v>4937.9274999999998</v>
       </c>
       <c r="G39" s="1">
-        <v>520.95797909999999</v>
+        <v>2236.4767000000002</v>
       </c>
       <c r="H39" s="1">
-        <v>149.92516950000001</v>
+        <v>1566.8389</v>
       </c>
       <c r="I39" s="1">
-        <v>72.766587450000003</v>
+        <v>1239.3334</v>
       </c>
       <c r="J39" s="1">
-        <v>0.25615879600000002</v>
+        <v>1073.0057999999999</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1">
-        <v>11045.881100000001</v>
+        <v>13504</v>
       </c>
       <c r="E40" s="1">
-        <v>8176.3107</v>
+        <v>9660</v>
       </c>
       <c r="F40" s="1">
-        <v>4874.2271000000001</v>
+        <v>5816</v>
       </c>
       <c r="G40" s="1">
-        <v>2057.5648999999999</v>
+        <v>2867.5</v>
       </c>
       <c r="H40" s="1">
-        <v>1301.2237</v>
+        <v>-81</v>
       </c>
       <c r="I40" s="1">
-        <v>1042.2572</v>
+        <v>-225</v>
       </c>
       <c r="J40" s="1">
-        <v>770.31790000000001</v>
+        <v>-369</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1">
-        <v>12244.889719999999</v>
+        <v>13504</v>
       </c>
       <c r="E41" s="1">
-        <v>5068.9998029999997</v>
+        <v>10808.5</v>
       </c>
       <c r="F41" s="1">
-        <v>2017.84743</v>
+        <v>8113</v>
       </c>
       <c r="G41" s="1">
-        <v>568.8949599</v>
+        <v>2854</v>
       </c>
       <c r="H41" s="1">
-        <v>68.576690529999993</v>
+        <v>411</v>
       </c>
       <c r="I41" s="1">
-        <v>-36.664807809999999</v>
+        <v>68</v>
       </c>
       <c r="J41" s="1">
-        <v>-120.0793443</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1">
-        <v>11863.7603</v>
+        <v>0.71</v>
       </c>
       <c r="E42" s="1">
-        <v>9093.0337999999992</v>
+        <v>0.4</v>
       </c>
       <c r="F42" s="1">
-        <v>4937.9274999999998</v>
+        <v>0.21</v>
       </c>
       <c r="G42" s="1">
-        <v>2236.4767000000002</v>
+        <v>0.06</v>
       </c>
       <c r="H42" s="1">
-        <v>1566.8389</v>
+        <v>0.01</v>
       </c>
       <c r="I42" s="1">
-        <v>1239.3334</v>
+        <v>0.01</v>
       </c>
       <c r="J42" s="1">
-        <v>1073.0057999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1">
-        <v>13504</v>
+        <v>0.7</v>
       </c>
       <c r="E43" s="1">
-        <v>9660</v>
+        <v>0.32</v>
       </c>
       <c r="F43" s="1">
-        <v>5816</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G43" s="1">
-        <v>2867.5</v>
+        <v>0.01</v>
       </c>
       <c r="H43" s="1">
-        <v>-81</v>
+        <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>-225</v>
+        <v>0</v>
       </c>
       <c r="J43" s="1">
-        <v>-369</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1">
-        <v>13504</v>
+        <v>0.71</v>
       </c>
       <c r="E44" s="1">
-        <v>10808.5</v>
+        <v>0.34</v>
       </c>
       <c r="F44" s="1">
-        <v>8113</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G44" s="1">
-        <v>2854</v>
+        <v>0.01</v>
       </c>
       <c r="H44" s="1">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>68</v>
+        <v>0.01</v>
       </c>
       <c r="J44" s="1">
-        <v>-275</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D45" s="1">
-        <v>13071.54364</v>
+        <v>0.71</v>
       </c>
       <c r="E45" s="1">
-        <v>5789.0944120000004</v>
+        <v>0.35</v>
       </c>
       <c r="F45" s="1">
-        <v>2239.5725360000001</v>
+        <v>0.1</v>
       </c>
       <c r="G45" s="1">
-        <v>674.67288570000005</v>
+        <v>0.01</v>
       </c>
       <c r="H45" s="1">
-        <v>141.7256313</v>
+        <v>0.01</v>
       </c>
       <c r="I45" s="1">
-        <v>67.694616420000003</v>
+        <v>0.01</v>
       </c>
       <c r="J45" s="1">
-        <v>6.9278516129999996</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E46" s="1">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="F46" s="1">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="G46" s="1">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="H46" s="1">
         <v>0.01</v>
@@ -2028,31 +2146,31 @@
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E47" s="1">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="F47" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.16</v>
       </c>
       <c r="G47" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H47" s="1">
         <v>0.01</v>
       </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J47" s="1">
         <v>0.01</v>
@@ -2060,118 +2178,118 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="E48" s="1">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="F48" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="H48" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G48" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
       <c r="I48" s="1">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="J48" s="1">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" s="1">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="E49" s="1">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="F49" s="1">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="G49" s="1">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="H49" s="1">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="I49" s="1">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="J49" s="1">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50" s="1">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E50" s="1">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="F50" s="1">
-        <v>0.12</v>
+        <v>0.34</v>
       </c>
       <c r="G50" s="1">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H50" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I50" s="1">
         <v>0.01</v>
       </c>
       <c r="J50" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="1">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="E51" s="1">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="F51" s="1">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G51" s="1">
         <v>0.04</v>
@@ -2188,63 +2306,63 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="1">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="E52" s="1">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="F52" s="1">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="G52" s="1">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="H52" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="I52" s="1">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J52" s="1">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D53" s="1">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="E53" s="1">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
       <c r="F53" s="1">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="G53" s="1">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="H53" s="1">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I53" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J53" s="1">
         <v>0.04</v>
@@ -2252,159 +2370,159 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54" s="1">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E54" s="1">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="F54" s="1">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="G54" s="1">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="H54" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I54" s="1">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D55" s="1">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E55" s="1">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="F55" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G55" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H55" s="1">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I55" s="1">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="J55" s="1">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" s="1">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E56" s="1">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="F56" s="1">
-        <v>0.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G56" s="1">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="H56" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I56" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J56" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" s="1">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E57" s="1">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="F57" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G57" s="1">
         <v>0.09</v>
       </c>
-      <c r="G57" s="1">
-        <v>0.04</v>
-      </c>
       <c r="H57" s="1">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I57" s="1">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J57" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58" s="1">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="E58" s="1">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="F58" s="1">
-        <v>0.1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G58" s="1">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="H58" s="1">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I58" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J58" s="1">
         <v>0.04</v>
@@ -2412,237 +2530,237 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" s="1">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="E59" s="1">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="F59" s="1">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="G59" s="1">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="H59" s="1">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I59" s="1">
         <v>0.05</v>
       </c>
       <c r="J59" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D60" s="1">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E60" s="1">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="F60" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="G60" s="1">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="H60" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I60" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="J60" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D61" s="1">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>0.19</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="G61" s="1">
-        <v>0.09</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H61" s="1">
-        <v>0.06</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I61" s="1">
-        <v>0.06</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="J61" s="1">
-        <v>0.05</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" s="1">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>0.28000000000000003</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="G62" s="1">
-        <v>0.13</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H62" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="I62" s="1">
-        <v>0.05</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="J62" s="1">
-        <v>0.04</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" s="1">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>0.27</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="G63" s="1">
-        <v>0.13</v>
+        <v>1.4E-3</v>
       </c>
       <c r="H63" s="1">
-        <v>0.08</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="I63" s="1">
-        <v>0.05</v>
+        <v>3.8E-3</v>
       </c>
       <c r="J63" s="1">
-        <v>0.04</v>
+        <v>4.3E-3</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>0.35</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="G64" s="1">
-        <v>0.12</v>
+        <v>1.8E-3</v>
       </c>
       <c r="H64" s="1">
-        <v>0.04</v>
+        <v>3.3E-3</v>
       </c>
       <c r="I64" s="1">
-        <v>0.03</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="J64" s="1">
-        <v>0.02</v>
+        <v>6.1000000000000004E-3</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D65" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>0.17</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G65" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H65" s="1">
-        <v>0.04</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I65" s="1">
-        <v>0.04</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="J65" s="1">
-        <v>0.04</v>
+        <v>6.3E-3</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -2651,94 +2769,94 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G66" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H66" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="I66" s="1">
-        <v>6.1000000000000004E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="J66" s="1">
-        <v>7.4999999999999997E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F67" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G67" s="1">
-        <v>1.5E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H67" s="1">
-        <v>2.3E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I67" s="1">
-        <v>3.5000000000000001E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="J67" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1.04E-2</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="F68" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="G68" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="H68" s="1">
         <v>1.4E-3</v>
       </c>
-      <c r="H68" s="1">
+      <c r="I68" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="I68" s="1">
-        <v>3.8E-3</v>
-      </c>
       <c r="J68" s="1">
-        <v>4.3E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -2747,30 +2865,30 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="G69" s="1">
-        <v>1.8E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="H69" s="1">
-        <v>3.3E-3</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="I69" s="1">
-        <v>5.1999999999999998E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="J69" s="1">
-        <v>6.1000000000000004E-3</v>
+        <v>9.7000000000000003E-3</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -2779,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="G70" s="1">
         <v>1.6000000000000001E-3</v>
@@ -2788,1546 +2906,1546 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I70" s="1">
-        <v>4.8999999999999998E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="J70" s="1">
-        <v>6.3E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>0.1212</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>0.15579999999999999</v>
       </c>
       <c r="F71" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>0.1643</v>
       </c>
       <c r="G71" s="1">
-        <v>1.5E-3</v>
+        <v>0.15759999999999999</v>
       </c>
       <c r="H71" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>0.1628</v>
       </c>
       <c r="I71" s="1">
-        <v>7.1000000000000004E-3</v>
+        <v>0.17030000000000001</v>
       </c>
       <c r="J71" s="1">
-        <v>9.4999999999999998E-3</v>
+        <v>0.18909999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>0.1249</v>
       </c>
       <c r="E72" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>0.14779999999999999</v>
       </c>
       <c r="F72" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>0.15440000000000001</v>
       </c>
       <c r="G72" s="1">
-        <v>2E-3</v>
+        <v>0.1668</v>
       </c>
       <c r="H72" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>0.1958</v>
       </c>
       <c r="I72" s="1">
-        <v>6.8999999999999999E-3</v>
+        <v>0.23419999999999999</v>
       </c>
       <c r="J72" s="1">
-        <v>1.04E-2</v>
+        <v>0.28189999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>0.11840000000000001</v>
       </c>
       <c r="E73" s="1">
-        <v>1E-4</v>
+        <v>0.14080000000000001</v>
       </c>
       <c r="F73" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>0.14480000000000001</v>
       </c>
       <c r="G73" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>0.15559999999999999</v>
       </c>
       <c r="H73" s="1">
-        <v>1.4E-3</v>
+        <v>0.17979999999999999</v>
       </c>
       <c r="I73" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>0.2112</v>
       </c>
       <c r="J73" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>0.25019999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>0.11260000000000001</v>
       </c>
       <c r="E74" s="1">
-        <v>0</v>
+        <v>0.1331</v>
       </c>
       <c r="F74" s="1">
-        <v>2E-3</v>
+        <v>0.13780000000000001</v>
       </c>
       <c r="G74" s="1">
-        <v>7.4999999999999997E-3</v>
+        <v>0.14580000000000001</v>
       </c>
       <c r="H74" s="1">
-        <v>9.4000000000000004E-3</v>
+        <v>0.1663</v>
       </c>
       <c r="I74" s="1">
-        <v>9.5999999999999992E-3</v>
+        <v>0.1923</v>
       </c>
       <c r="J74" s="1">
-        <v>9.7000000000000003E-3</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>0.11119999999999999</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>0.13150000000000001</v>
       </c>
       <c r="F75" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>0.13769999999999999</v>
       </c>
       <c r="G75" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>0.14449999999999999</v>
       </c>
       <c r="H75" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.16259999999999999</v>
       </c>
       <c r="I75" s="1">
-        <v>5.3E-3</v>
+        <v>0.17549999999999999</v>
       </c>
       <c r="J75" s="1">
-        <v>6.4999999999999997E-3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" s="1">
         <v>0.1212</v>
       </c>
       <c r="E76" s="1">
-        <v>0.15579999999999999</v>
+        <v>0.15440000000000001</v>
       </c>
       <c r="F76" s="1">
-        <v>0.1643</v>
+        <v>0.1618</v>
       </c>
       <c r="G76" s="1">
-        <v>0.15759999999999999</v>
+        <v>0.15720000000000001</v>
       </c>
       <c r="H76" s="1">
-        <v>0.1628</v>
+        <v>0.16569999999999999</v>
       </c>
       <c r="I76" s="1">
-        <v>0.17030000000000001</v>
+        <v>0.17549999999999999</v>
       </c>
       <c r="J76" s="1">
-        <v>0.18909999999999999</v>
+        <v>0.19350000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D77" s="1">
-        <v>0.1249</v>
+        <v>9.4500000000000001E-2</v>
       </c>
       <c r="E77" s="1">
-        <v>0.14779999999999999</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="F77" s="1">
-        <v>0.15440000000000001</v>
+        <v>6.2799999999999995E-2</v>
       </c>
       <c r="G77" s="1">
-        <v>0.1668</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="H77" s="1">
-        <v>0.1958</v>
+        <v>4.58E-2</v>
       </c>
       <c r="I77" s="1">
-        <v>0.23419999999999999</v>
+        <v>3.85E-2</v>
       </c>
       <c r="J77" s="1">
-        <v>0.28189999999999998</v>
+        <v>3.2800000000000003E-2</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78" s="1">
-        <v>0.11840000000000001</v>
+        <v>9.01E-2</v>
       </c>
       <c r="E78" s="1">
-        <v>0.14080000000000001</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="F78" s="1">
-        <v>0.14480000000000001</v>
+        <v>5.28E-2</v>
       </c>
       <c r="G78" s="1">
-        <v>0.15559999999999999</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="H78" s="1">
-        <v>0.17979999999999999</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="I78" s="1">
-        <v>0.2112</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J78" s="1">
-        <v>0.25019999999999998</v>
+        <v>1.6400000000000001E-2</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D79" s="1">
-        <v>0.11260000000000001</v>
+        <v>0.1157</v>
       </c>
       <c r="E79" s="1">
-        <v>0.1331</v>
+        <v>0.1193</v>
       </c>
       <c r="F79" s="1">
-        <v>0.13780000000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="G79" s="1">
-        <v>0.14580000000000001</v>
+        <v>0.1246</v>
       </c>
       <c r="H79" s="1">
-        <v>0.1663</v>
+        <v>0.11169999999999999</v>
       </c>
       <c r="I79" s="1">
-        <v>0.1923</v>
+        <v>9.9699999999999997E-2</v>
       </c>
       <c r="J79" s="1">
-        <v>0.22500000000000001</v>
+        <v>9.06E-2</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D80" s="1">
-        <v>0.11119999999999999</v>
+        <v>0.1027</v>
       </c>
       <c r="E80" s="1">
-        <v>0.13150000000000001</v>
+        <v>0.21729999999999999</v>
       </c>
       <c r="F80" s="1">
-        <v>0.13769999999999999</v>
+        <v>0.32540000000000002</v>
       </c>
       <c r="G80" s="1">
-        <v>0.14449999999999999</v>
+        <v>0.36349999999999999</v>
       </c>
       <c r="H80" s="1">
-        <v>0.16259999999999999</v>
+        <v>0.37430000000000002</v>
       </c>
       <c r="I80" s="1">
-        <v>0.17549999999999999</v>
+        <v>0.37590000000000001</v>
       </c>
       <c r="J80" s="1">
-        <v>0.2</v>
+        <v>0.38929999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81" s="1">
-        <v>0.1212</v>
+        <v>9.3399999999999997E-2</v>
       </c>
       <c r="E81" s="1">
-        <v>0.15440000000000001</v>
+        <v>0.2545</v>
       </c>
       <c r="F81" s="1">
-        <v>0.1618</v>
+        <v>0.35060000000000002</v>
       </c>
       <c r="G81" s="1">
-        <v>0.15720000000000001</v>
+        <v>0.36520000000000002</v>
       </c>
       <c r="H81" s="1">
-        <v>0.16569999999999999</v>
+        <v>0.37930000000000003</v>
       </c>
       <c r="I81" s="1">
-        <v>0.17549999999999999</v>
+        <v>0.3856</v>
       </c>
       <c r="J81" s="1">
-        <v>0.19350000000000001</v>
+        <v>0.38979999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D82" s="1">
-        <v>9.4500000000000001E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E82" s="1">
-        <v>8.0699999999999994E-2</v>
+        <v>0.26050000000000001</v>
       </c>
       <c r="F82" s="1">
-        <v>6.2799999999999995E-2</v>
+        <v>0.34749999999999998</v>
       </c>
       <c r="G82" s="1">
-        <v>5.2600000000000001E-2</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="H82" s="1">
-        <v>4.58E-2</v>
+        <v>0.37090000000000001</v>
       </c>
       <c r="I82" s="1">
-        <v>3.85E-2</v>
+        <v>0.38</v>
       </c>
       <c r="J82" s="1">
-        <v>3.2800000000000003E-2</v>
+        <v>0.3876</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D83" s="1">
-        <v>9.01E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="E83" s="1">
-        <v>7.3499999999999996E-2</v>
+        <v>0.26340000000000002</v>
       </c>
       <c r="F83" s="1">
-        <v>5.28E-2</v>
+        <v>0.3448</v>
       </c>
       <c r="G83" s="1">
-        <v>3.9199999999999999E-2</v>
+        <v>0.36159999999999998</v>
       </c>
       <c r="H83" s="1">
-        <v>3.0300000000000001E-2</v>
+        <v>0.36980000000000002</v>
       </c>
       <c r="I83" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>0.374</v>
       </c>
       <c r="J83" s="1">
-        <v>1.6400000000000001E-2</v>
+        <v>0.38879999999999998</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D84" s="1">
-        <v>0.1157</v>
+        <v>0.10009999999999999</v>
       </c>
       <c r="E84" s="1">
-        <v>0.1193</v>
+        <v>0.26119999999999999</v>
       </c>
       <c r="F84" s="1">
-        <v>0.1212</v>
+        <v>0.34960000000000002</v>
       </c>
       <c r="G84" s="1">
-        <v>0.1246</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="H84" s="1">
-        <v>0.11169999999999999</v>
+        <v>0.37390000000000001</v>
       </c>
       <c r="I84" s="1">
-        <v>9.9699999999999997E-2</v>
+        <v>0.37540000000000001</v>
       </c>
       <c r="J84" s="1">
-        <v>9.06E-2</v>
+        <v>0.38929999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D85" s="1">
-        <v>0.11609999999999999</v>
+        <v>0.1027</v>
       </c>
       <c r="E85" s="1">
-        <v>0.1396</v>
+        <v>0.24790000000000001</v>
       </c>
       <c r="F85" s="1">
-        <v>0.1454</v>
+        <v>0.33739999999999998</v>
       </c>
       <c r="G85" s="1">
-        <v>0.14050000000000001</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="H85" s="1">
-        <v>0.14860000000000001</v>
+        <v>0.3735</v>
       </c>
       <c r="I85" s="1">
-        <v>0.1605</v>
+        <v>0.38119999999999998</v>
       </c>
       <c r="J85" s="1">
-        <v>0.17849999999999999</v>
+        <v>0.39679999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D86" s="1">
-        <v>0.1027</v>
+        <v>0.1125</v>
       </c>
       <c r="E86" s="1">
-        <v>0.21729999999999999</v>
+        <v>0.27350000000000002</v>
       </c>
       <c r="F86" s="1">
-        <v>0.32540000000000002</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="G86" s="1">
-        <v>0.36349999999999999</v>
+        <v>0.4073</v>
       </c>
       <c r="H86" s="1">
-        <v>0.37430000000000002</v>
+        <v>0.40250000000000002</v>
       </c>
       <c r="I86" s="1">
-        <v>0.37590000000000001</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="J86" s="1">
-        <v>0.38929999999999998</v>
+        <v>0.39539999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D87" s="1">
-        <v>9.3399999999999997E-2</v>
+        <v>0.1137</v>
       </c>
       <c r="E87" s="1">
-        <v>0.2545</v>
+        <v>0.29220000000000002</v>
       </c>
       <c r="F87" s="1">
-        <v>0.35060000000000002</v>
+        <v>0.42380000000000001</v>
       </c>
       <c r="G87" s="1">
-        <v>0.36520000000000002</v>
+        <v>0.44790000000000002</v>
       </c>
       <c r="H87" s="1">
-        <v>0.37930000000000003</v>
+        <v>0.44180000000000003</v>
       </c>
       <c r="I87" s="1">
-        <v>0.3856</v>
+        <v>0.43619999999999998</v>
       </c>
       <c r="J87" s="1">
-        <v>0.38979999999999998</v>
+        <v>0.43209999999999998</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D88" s="1">
-        <v>9.6000000000000002E-2</v>
+        <v>0.1183</v>
       </c>
       <c r="E88" s="1">
-        <v>0.26050000000000001</v>
+        <v>0.31979999999999997</v>
       </c>
       <c r="F88" s="1">
-        <v>0.34749999999999998</v>
+        <v>0.38569999999999999</v>
       </c>
       <c r="G88" s="1">
-        <v>0.36199999999999999</v>
+        <v>0.44350000000000001</v>
       </c>
       <c r="H88" s="1">
-        <v>0.37090000000000001</v>
+        <v>0.46339999999999998</v>
       </c>
       <c r="I88" s="1">
-        <v>0.38</v>
+        <v>0.47220000000000001</v>
       </c>
       <c r="J88" s="1">
-        <v>0.3876</v>
+        <v>0.47870000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D89" s="1">
-        <v>9.7199999999999995E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E89" s="1">
-        <v>0.26340000000000002</v>
+        <v>3.8E-3</v>
       </c>
       <c r="F89" s="1">
-        <v>0.3448</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G89" s="1">
-        <v>0.36159999999999998</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="H89" s="1">
-        <v>0.36980000000000002</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I89" s="1">
-        <v>0.374</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="J89" s="1">
-        <v>0.38879999999999998</v>
+        <v>1.2699999999999999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D90" s="1">
-        <v>0.10009999999999999</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="E90" s="1">
-        <v>0.26119999999999999</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F90" s="1">
-        <v>0.34960000000000002</v>
+        <v>7.6E-3</v>
       </c>
       <c r="G90" s="1">
-        <v>0.36499999999999999</v>
+        <v>1.04E-2</v>
       </c>
       <c r="H90" s="1">
-        <v>0.37390000000000001</v>
+        <v>1.54E-2</v>
       </c>
       <c r="I90" s="1">
-        <v>0.37540000000000001</v>
+        <v>2.29E-2</v>
       </c>
       <c r="J90" s="1">
-        <v>0.38929999999999998</v>
+        <v>3.44E-2</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91" s="1">
-        <v>0.1027</v>
+        <v>2.8E-3</v>
       </c>
       <c r="E91" s="1">
-        <v>0.24790000000000001</v>
+        <v>4.3E-3</v>
       </c>
       <c r="F91" s="1">
-        <v>0.33739999999999998</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="G91" s="1">
-        <v>0.36399999999999999</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="H91" s="1">
-        <v>0.3735</v>
+        <v>1.24E-2</v>
       </c>
       <c r="I91" s="1">
-        <v>0.38119999999999998</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="J91" s="1">
-        <v>0.39679999999999999</v>
+        <v>2.7799999999999998E-2</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D92" s="1">
-        <v>0.1125</v>
+        <v>2.8E-3</v>
       </c>
       <c r="E92" s="1">
-        <v>0.27350000000000002</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F92" s="1">
-        <v>0.38750000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G92" s="1">
-        <v>0.4073</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="H92" s="1">
-        <v>0.40250000000000002</v>
+        <v>1.03E-2</v>
       </c>
       <c r="I92" s="1">
-        <v>0.39600000000000002</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="J92" s="1">
-        <v>0.39539999999999997</v>
+        <v>2.3199999999999998E-2</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D93" s="1">
-        <v>0.1137</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E93" s="1">
-        <v>0.29220000000000002</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="F93" s="1">
-        <v>0.42380000000000001</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="G93" s="1">
-        <v>0.44790000000000002</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H93" s="1">
-        <v>0.44180000000000003</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I93" s="1">
-        <v>0.43619999999999998</v>
+        <v>1.32E-2</v>
       </c>
       <c r="J93" s="1">
-        <v>0.43209999999999998</v>
+        <v>1.9800000000000002E-2</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D94" s="1">
-        <v>0.1183</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E94" s="1">
-        <v>0.31979999999999997</v>
+        <v>3.3E-3</v>
       </c>
       <c r="F94" s="1">
-        <v>0.38569999999999999</v>
+        <v>4.3E-3</v>
       </c>
       <c r="G94" s="1">
-        <v>0.44350000000000001</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="H94" s="1">
-        <v>0.46339999999999998</v>
+        <v>5.3E-3</v>
       </c>
       <c r="I94" s="1">
-        <v>0.47220000000000001</v>
+        <v>7.6E-3</v>
       </c>
       <c r="J94" s="1">
-        <v>0.47870000000000001</v>
+        <v>1.14E-2</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D95" s="1">
-        <v>9.7100000000000006E-2</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="E95" s="1">
-        <v>0.27900000000000003</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="F95" s="1">
-        <v>0.38600000000000001</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G95" s="1">
-        <v>0.39029999999999998</v>
+        <v>3.3E-3</v>
       </c>
       <c r="H95" s="1">
-        <v>0.3826</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="I95" s="1">
-        <v>0.38669999999999999</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="J95" s="1">
-        <v>0.39579999999999999</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D96" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="E96" s="1">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="F96" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="G96" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="H96" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="I96" s="1">
-        <v>8.5000000000000006E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="J96" s="1">
-        <v>1.2699999999999999E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D97" s="1">
-        <v>2.7000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E97" s="1">
-        <v>5.7999999999999996E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="F97" s="1">
-        <v>7.6E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="G97" s="1">
-        <v>1.04E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="H97" s="1">
-        <v>1.54E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="I97" s="1">
-        <v>2.29E-2</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="J97" s="1">
-        <v>3.44E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D98" s="1">
-        <v>2.8E-3</v>
+        <v>0.24</v>
       </c>
       <c r="E98" s="1">
-        <v>4.3E-3</v>
+        <v>0.36</v>
       </c>
       <c r="F98" s="1">
-        <v>6.1000000000000004E-3</v>
+        <v>0.35</v>
       </c>
       <c r="G98" s="1">
-        <v>8.3000000000000001E-3</v>
+        <v>0.39</v>
       </c>
       <c r="H98" s="1">
-        <v>1.24E-2</v>
+        <v>0.41</v>
       </c>
       <c r="I98" s="1">
-        <v>1.8700000000000001E-2</v>
+        <v>0.43</v>
       </c>
       <c r="J98" s="1">
-        <v>2.7799999999999998E-2</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D99" s="1">
-        <v>2.8E-3</v>
+        <v>0.21</v>
       </c>
       <c r="E99" s="1">
-        <v>3.3999999999999998E-3</v>
+        <v>0.4</v>
       </c>
       <c r="F99" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.41</v>
       </c>
       <c r="G99" s="1">
-        <v>6.7000000000000002E-3</v>
+        <v>0.41</v>
       </c>
       <c r="H99" s="1">
-        <v>1.03E-2</v>
+        <v>0.41</v>
       </c>
       <c r="I99" s="1">
-        <v>1.5599999999999999E-2</v>
+        <v>0.41</v>
       </c>
       <c r="J99" s="1">
-        <v>2.3199999999999998E-2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D100" s="1">
-        <v>2.8999999999999998E-3</v>
+        <v>0.22</v>
       </c>
       <c r="E100" s="1">
-        <v>3.5000000000000001E-3</v>
+        <v>0.39</v>
       </c>
       <c r="F100" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>0.41</v>
       </c>
       <c r="G100" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>0.42</v>
       </c>
       <c r="H100" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.42</v>
       </c>
       <c r="I100" s="1">
-        <v>1.32E-2</v>
+        <v>0.42</v>
       </c>
       <c r="J100" s="1">
-        <v>1.9800000000000002E-2</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D101" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.22</v>
       </c>
       <c r="E101" s="1">
-        <v>3.3E-3</v>
+        <v>0.38</v>
       </c>
       <c r="F101" s="1">
-        <v>4.3E-3</v>
+        <v>0.4</v>
       </c>
       <c r="G101" s="1">
-        <v>4.1000000000000003E-3</v>
+        <v>0.41</v>
       </c>
       <c r="H101" s="1">
-        <v>5.3E-3</v>
+        <v>0.42</v>
       </c>
       <c r="I101" s="1">
-        <v>7.6E-3</v>
+        <v>0.43</v>
       </c>
       <c r="J101" s="1">
-        <v>1.14E-2</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D102" s="1">
-        <v>3.2000000000000002E-3</v>
+        <v>0.23</v>
       </c>
       <c r="E102" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>0.38</v>
       </c>
       <c r="F102" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>0.39</v>
       </c>
       <c r="G102" s="1">
-        <v>3.3E-3</v>
+        <v>0.42</v>
       </c>
       <c r="H102" s="1">
-        <v>3.0999999999999999E-3</v>
+        <v>0.42</v>
       </c>
       <c r="I102" s="1">
-        <v>3.3999999999999998E-3</v>
+        <v>0.43</v>
       </c>
       <c r="J102" s="1">
-        <v>4.4999999999999997E-3</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D103" s="1">
-        <v>3.2000000000000002E-3</v>
+        <v>0.24</v>
       </c>
       <c r="E103" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>0.36</v>
       </c>
       <c r="F103" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>0.36</v>
       </c>
       <c r="G103" s="1">
-        <v>3.3999999999999998E-3</v>
+        <v>0.39</v>
       </c>
       <c r="H103" s="1">
-        <v>3.2000000000000002E-3</v>
+        <v>0.41</v>
       </c>
       <c r="I103" s="1">
-        <v>3.3E-3</v>
+        <v>0.42</v>
       </c>
       <c r="J103" s="1">
-        <v>4.5999999999999999E-3</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D104" s="1">
-        <v>2E-3</v>
+        <v>0.19</v>
       </c>
       <c r="E104" s="1">
-        <v>5.4000000000000003E-3</v>
+        <v>0.25</v>
       </c>
       <c r="F104" s="1">
-        <v>6.6E-3</v>
+        <v>0.32</v>
       </c>
       <c r="G104" s="1">
-        <v>1.1900000000000001E-2</v>
+        <v>0.38</v>
       </c>
       <c r="H104" s="1">
-        <v>1.7299999999999999E-2</v>
+        <v>0.42</v>
       </c>
       <c r="I104" s="1">
-        <v>2.0500000000000001E-2</v>
+        <v>0.45</v>
       </c>
       <c r="J104" s="1">
-        <v>2.2800000000000001E-2</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D105" s="1">
-        <v>2.8E-3</v>
+        <v>0.19</v>
       </c>
       <c r="E105" s="1">
-        <v>3.8E-3</v>
+        <v>0.25</v>
       </c>
       <c r="F105" s="1">
-        <v>5.3E-3</v>
+        <v>0.31</v>
       </c>
       <c r="G105" s="1">
-        <v>6.3E-3</v>
+        <v>0.36</v>
       </c>
       <c r="H105" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.4</v>
       </c>
       <c r="I105" s="1">
-        <v>1.34E-2</v>
+        <v>0.43</v>
       </c>
       <c r="J105" s="1">
-        <v>2.0299999999999999E-2</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D106" s="1">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="E106" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="I106" s="1">
         <v>0.36</v>
       </c>
-      <c r="F106" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G106" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="H106" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="I106" s="1">
-        <v>0.43</v>
-      </c>
       <c r="J106" s="1">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D107" s="1">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E107" s="1">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="F107" s="1">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="G107" s="1">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="H107" s="1">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="I107" s="1">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="J107" s="1">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D108" s="1">
-        <v>0.22</v>
+        <v>0.64970000000000006</v>
       </c>
       <c r="E108" s="1">
-        <v>0.39</v>
+        <v>0.41060000000000002</v>
       </c>
       <c r="F108" s="1">
-        <v>0.41</v>
+        <v>0.30380000000000001</v>
       </c>
       <c r="G108" s="1">
-        <v>0.42</v>
+        <v>0.2293</v>
       </c>
       <c r="H108" s="1">
-        <v>0.42</v>
+        <v>0.1915</v>
       </c>
       <c r="I108" s="1">
-        <v>0.42</v>
+        <v>0.17080000000000001</v>
       </c>
       <c r="J108" s="1">
-        <v>0.41</v>
+        <v>0.1595</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D109" s="1">
-        <v>0.22</v>
+        <v>0.67730000000000001</v>
       </c>
       <c r="E109" s="1">
-        <v>0.38</v>
+        <v>0.32390000000000002</v>
       </c>
       <c r="F109" s="1">
-        <v>0.4</v>
+        <v>0.22120000000000001</v>
       </c>
       <c r="G109" s="1">
-        <v>0.41</v>
+        <v>0.1948</v>
       </c>
       <c r="H109" s="1">
-        <v>0.42</v>
+        <v>0.17710000000000001</v>
       </c>
       <c r="I109" s="1">
-        <v>0.43</v>
+        <v>0.1615</v>
       </c>
       <c r="J109" s="1">
-        <v>0.42</v>
+        <v>0.15129999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D110" s="1">
-        <v>0.23</v>
+        <v>0.66879999999999995</v>
       </c>
       <c r="E110" s="1">
-        <v>0.38</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="F110" s="1">
-        <v>0.39</v>
+        <v>0.2253</v>
       </c>
       <c r="G110" s="1">
-        <v>0.42</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="H110" s="1">
-        <v>0.42</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="I110" s="1">
-        <v>0.43</v>
+        <v>0.16039999999999999</v>
       </c>
       <c r="J110" s="1">
-        <v>0.42</v>
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D111" s="1">
-        <v>0.24</v>
+        <v>0.66579999999999995</v>
       </c>
       <c r="E111" s="1">
-        <v>0.36</v>
+        <v>0.34150000000000003</v>
       </c>
       <c r="F111" s="1">
-        <v>0.36</v>
+        <v>0.2356</v>
       </c>
       <c r="G111" s="1">
-        <v>0.39</v>
+        <v>0.20130000000000001</v>
       </c>
       <c r="H111" s="1">
-        <v>0.41</v>
+        <v>0.18129999999999999</v>
       </c>
       <c r="I111" s="1">
-        <v>0.42</v>
+        <v>0.16189999999999999</v>
       </c>
       <c r="J111" s="1">
-        <v>0.41</v>
+        <v>0.1482</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D112" s="1">
-        <v>0.19</v>
+        <v>0.65610000000000002</v>
       </c>
       <c r="E112" s="1">
-        <v>0.25</v>
+        <v>0.34439999999999998</v>
       </c>
       <c r="F112" s="1">
-        <v>0.32</v>
+        <v>0.23849999999999999</v>
       </c>
       <c r="G112" s="1">
-        <v>0.38</v>
+        <v>0.1983</v>
       </c>
       <c r="H112" s="1">
-        <v>0.42</v>
+        <v>0.17660000000000001</v>
       </c>
       <c r="I112" s="1">
-        <v>0.45</v>
+        <v>0.15759999999999999</v>
       </c>
       <c r="J112" s="1">
-        <v>0.47</v>
+        <v>0.14549999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D113" s="1">
-        <v>0.19</v>
+        <v>0.64970000000000006</v>
       </c>
       <c r="E113" s="1">
-        <v>0.25</v>
+        <v>0.38169999999999998</v>
       </c>
       <c r="F113" s="1">
-        <v>0.31</v>
+        <v>0.28420000000000001</v>
       </c>
       <c r="G113" s="1">
-        <v>0.36</v>
+        <v>0.224</v>
       </c>
       <c r="H113" s="1">
-        <v>0.4</v>
+        <v>0.1915</v>
       </c>
       <c r="I113" s="1">
-        <v>0.43</v>
+        <v>0.17169999999999999</v>
       </c>
       <c r="J113" s="1">
-        <v>0.44</v>
+        <v>0.16039999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D114" s="1">
-        <v>0.23</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="E114" s="1">
-        <v>0.31</v>
+        <v>0.44729999999999998</v>
       </c>
       <c r="F114" s="1">
-        <v>0.33</v>
+        <v>0.27339999999999998</v>
       </c>
       <c r="G114" s="1">
-        <v>0.34</v>
+        <v>0.19869999999999999</v>
       </c>
       <c r="H114" s="1">
-        <v>0.35</v>
+        <v>0.16470000000000001</v>
       </c>
       <c r="I114" s="1">
-        <v>0.36</v>
+        <v>0.1411</v>
       </c>
       <c r="J114" s="1">
-        <v>0.36</v>
+        <v>0.12540000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D115" s="1">
-        <v>0.22</v>
+        <v>0.66449999999999998</v>
       </c>
       <c r="E115" s="1">
-        <v>0.33</v>
+        <v>0.4264</v>
       </c>
       <c r="F115" s="1">
-        <v>0.33</v>
+        <v>0.24429999999999999</v>
       </c>
       <c r="G115" s="1">
-        <v>0.39</v>
+        <v>0.17549999999999999</v>
       </c>
       <c r="H115" s="1">
-        <v>0.42</v>
+        <v>0.14779999999999999</v>
       </c>
       <c r="I115" s="1">
-        <v>0.43</v>
+        <v>0.128</v>
       </c>
       <c r="J115" s="1">
-        <v>0.42</v>
+        <v>0.1169</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D116" s="1">
-        <v>0.64970000000000006</v>
+        <v>0.63670000000000004</v>
       </c>
       <c r="E116" s="1">
-        <v>0.41060000000000002</v>
+        <v>0.35270000000000001</v>
       </c>
       <c r="F116" s="1">
-        <v>0.30380000000000001</v>
+        <v>0.25979999999999998</v>
       </c>
       <c r="G116" s="1">
-        <v>0.2293</v>
+        <v>0.18759999999999999</v>
       </c>
       <c r="H116" s="1">
-        <v>0.1915</v>
+        <v>0.15490000000000001</v>
       </c>
       <c r="I116" s="1">
-        <v>0.17080000000000001</v>
+        <v>0.13830000000000001</v>
       </c>
       <c r="J116" s="1">
-        <v>0.1595</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D117" s="1">
-        <v>0.67730000000000001</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="E117" s="1">
-        <v>0.32390000000000002</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="F117" s="1">
-        <v>0.22120000000000001</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="G117" s="1">
-        <v>0.1948</v>
+        <v>1.55E-2</v>
       </c>
       <c r="H117" s="1">
-        <v>0.17710000000000001</v>
+        <v>1.72E-2</v>
       </c>
       <c r="I117" s="1">
-        <v>0.1615</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="J117" s="1">
-        <v>0.15129999999999999</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D118" s="1">
-        <v>0.66879999999999995</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="E118" s="1">
-        <v>0.33410000000000001</v>
+        <v>1.46E-2</v>
       </c>
       <c r="F118" s="1">
-        <v>0.2253</v>
+        <v>1.44E-2</v>
       </c>
       <c r="G118" s="1">
-        <v>0.19800000000000001</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="H118" s="1">
-        <v>0.17799999999999999</v>
+        <v>1.83E-2</v>
       </c>
       <c r="I118" s="1">
-        <v>0.16039999999999999</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="J118" s="1">
-        <v>0.14899999999999999</v>
+        <v>2.0400000000000001E-2</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1">
@@ -4335,1443 +4453,1960 @@
         <v>23</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D119" s="1">
-        <v>0.66579999999999995</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="E119" s="1">
-        <v>0.34150000000000003</v>
+        <v>1.46E-2</v>
       </c>
       <c r="F119" s="1">
-        <v>0.2356</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="G119" s="1">
-        <v>0.20130000000000001</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="H119" s="1">
-        <v>0.18129999999999999</v>
+        <v>1.78E-2</v>
       </c>
       <c r="I119" s="1">
-        <v>0.16189999999999999</v>
+        <v>2.01E-2</v>
       </c>
       <c r="J119" s="1">
-        <v>0.1482</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="12.75">
       <c r="A120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1.54E-2</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="I120" s="1">
+        <v>1.95E-2</v>
+      </c>
+      <c r="J120" s="1">
+        <v>2.12E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="12.75">
+      <c r="A121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1.54E-2</v>
+      </c>
+      <c r="H121" s="1">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="I121" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J121" s="1">
+        <v>2.07E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="12.75">
+      <c r="A122" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120" s="1">
+      <c r="B122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="1">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1.12E-2</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1.49E-2</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="I122" s="1">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="J122" s="1">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="12.75">
+      <c r="A123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2.98E-2</v>
+      </c>
+      <c r="E123" s="1">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="H123" s="1">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="I123" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J123" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="12.75">
+      <c r="A124" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="E124" s="1">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="G124" s="1">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="H124" s="1">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="I124" s="1">
+        <v>6.6E-3</v>
+      </c>
+      <c r="J124" s="1">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="20">
+        <v>1.35E-2</v>
+      </c>
+      <c r="E125" s="20">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="F125" s="20">
+        <v>1.44E-2</v>
+      </c>
+      <c r="G125" s="20">
+        <v>1.46E-2</v>
+      </c>
+      <c r="H125" s="20">
+        <v>1.38E-2</v>
+      </c>
+      <c r="I125" s="20">
+        <v>1.35E-2</v>
+      </c>
+      <c r="J125" s="20">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A126" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="21">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="E126" s="21">
         <v>0.65610000000000002</v>
       </c>
-      <c r="E120" s="1">
-        <v>0.34439999999999998</v>
-      </c>
-      <c r="F120" s="1">
-        <v>0.23849999999999999</v>
-      </c>
-      <c r="G120" s="1">
-        <v>0.1983</v>
-      </c>
-      <c r="H120" s="1">
-        <v>0.17660000000000001</v>
-      </c>
-      <c r="I120" s="1">
-        <v>0.15759999999999999</v>
-      </c>
-      <c r="J120" s="1">
-        <v>0.14549999999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A121" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D121" s="1">
-        <v>0.64970000000000006</v>
-      </c>
-      <c r="E121" s="1">
-        <v>0.38169999999999998</v>
-      </c>
-      <c r="F121" s="1">
-        <v>0.28420000000000001</v>
-      </c>
-      <c r="G121" s="1">
-        <v>0.224</v>
-      </c>
-      <c r="H121" s="1">
-        <v>0.1915</v>
-      </c>
-      <c r="I121" s="1">
-        <v>0.17169999999999999</v>
-      </c>
-      <c r="J121" s="1">
-        <v>0.16039999999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A122" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122" s="1">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="E122" s="1">
-        <v>0.44729999999999998</v>
-      </c>
-      <c r="F122" s="1">
-        <v>0.27339999999999998</v>
-      </c>
-      <c r="G122" s="1">
-        <v>0.19869999999999999</v>
-      </c>
-      <c r="H122" s="1">
-        <v>0.16470000000000001</v>
-      </c>
-      <c r="I122" s="1">
-        <v>0.1411</v>
-      </c>
-      <c r="J122" s="1">
-        <v>0.12540000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A123" s="1" t="s">
+      <c r="F126" s="21">
+        <v>0.79920000000000002</v>
+      </c>
+      <c r="G126" s="21">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="H126" s="21">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I126" s="21">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="J126" s="21">
+        <v>0.94120000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A127" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="21">
+        <v>0.37509999999999999</v>
+      </c>
+      <c r="E127" s="21">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="F127" s="21">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="G127" s="21">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="H127" s="21">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="I127" s="21">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="J127" s="21">
+        <v>0.96930000000000005</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A128" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="21">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E128" s="21">
+        <v>0.70530000000000004</v>
+      </c>
+      <c r="F128" s="21">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="G128" s="21">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="H128" s="21">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="I128" s="21">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="J128" s="21">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A129" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="21">
+        <v>0.3574</v>
+      </c>
+      <c r="E129" s="21">
+        <v>0.69079999999999997</v>
+      </c>
+      <c r="F129" s="21">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="G129" s="21">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H129" s="21">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="I129" s="21">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="J129" s="21">
+        <v>0.95669999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A130" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="21">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="E130" s="21">
+        <v>0.67720000000000002</v>
+      </c>
+      <c r="F130" s="21">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="G130" s="21">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="H130" s="21">
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="I130" s="21">
+        <v>0.95279999999999998</v>
+      </c>
+      <c r="J130" s="21">
+        <v>0.95320000000000005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A131" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="21">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="E131" s="21">
+        <v>0.68830000000000002</v>
+      </c>
+      <c r="F131" s="21">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="G131" s="21">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="H131" s="21">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="I131" s="21">
+        <v>0.94720000000000004</v>
+      </c>
+      <c r="J131" s="21">
+        <v>0.95089999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A132" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="21">
+        <v>0.4012</v>
+      </c>
+      <c r="E132" s="21">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="F132" s="21">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="G132" s="21">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="H132" s="21">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="I132" s="21">
+        <v>0.94510000000000005</v>
+      </c>
+      <c r="J132" s="21">
+        <v>0.95569999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A133" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="21">
+        <v>0.38419999999999999</v>
+      </c>
+      <c r="E133" s="21">
+        <v>0.53</v>
+      </c>
+      <c r="F133" s="21">
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="G133" s="21">
+        <v>0.876</v>
+      </c>
+      <c r="H133" s="21">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="I133" s="21">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="J133" s="21">
+        <v>0.95569999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A134" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123" s="1">
-        <v>0.66449999999999998</v>
-      </c>
-      <c r="E123" s="1">
-        <v>0.4264</v>
-      </c>
-      <c r="F123" s="1">
-        <v>0.24429999999999999</v>
-      </c>
-      <c r="G123" s="1">
-        <v>0.17549999999999999</v>
-      </c>
-      <c r="H123" s="1">
-        <v>0.14779999999999999</v>
-      </c>
-      <c r="I123" s="1">
-        <v>0.128</v>
-      </c>
-      <c r="J123" s="1">
-        <v>0.1169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A124" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124" s="1">
-        <v>0.63670000000000004</v>
-      </c>
-      <c r="E124" s="1">
-        <v>0.35270000000000001</v>
-      </c>
-      <c r="F124" s="1">
-        <v>0.25979999999999998</v>
-      </c>
-      <c r="G124" s="1">
-        <v>0.18759999999999999</v>
-      </c>
-      <c r="H124" s="1">
-        <v>0.15490000000000001</v>
-      </c>
-      <c r="I124" s="1">
-        <v>0.13830000000000001</v>
-      </c>
-      <c r="J124" s="1">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A125" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125" s="1">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="E125" s="1">
-        <v>0.37319999999999998</v>
-      </c>
-      <c r="F125" s="1">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="G125" s="1">
-        <v>0.19719999999999999</v>
-      </c>
-      <c r="H125" s="1">
-        <v>0.1696</v>
-      </c>
-      <c r="I125" s="1">
-        <v>0.1547</v>
-      </c>
-      <c r="J125" s="1">
-        <v>0.14710000000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A126" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126" s="1">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="E126" s="1">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="F126" s="1">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="G126" s="1">
-        <v>1.55E-2</v>
-      </c>
-      <c r="H126" s="1">
-        <v>1.72E-2</v>
-      </c>
-      <c r="I126" s="1">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="J126" s="1">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A127" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127" s="1">
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="E127" s="1">
+      <c r="B134" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="23">
+        <v>0.37059999999999998</v>
+      </c>
+      <c r="E134" s="23">
+        <v>0.56020000000000003</v>
+      </c>
+      <c r="F134" s="23">
+        <v>0.6915</v>
+      </c>
+      <c r="G134" s="23">
+        <v>0.8921</v>
+      </c>
+      <c r="H134" s="23">
+        <v>0.9708</v>
+      </c>
+      <c r="I134" s="23">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="J134" s="23">
+        <v>0.99560000000000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A135" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="21">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="E135" s="21">
+        <v>0.34389999999999998</v>
+      </c>
+      <c r="F135" s="21">
+        <v>0.17610000000000001</v>
+      </c>
+      <c r="G135" s="21">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H135" s="21">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="I135" s="21">
+        <v>6.6E-3</v>
+      </c>
+      <c r="J135" s="21">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A136" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="21">
+        <v>0.62490000000000001</v>
+      </c>
+      <c r="E136" s="21">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="F136" s="21">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G136" s="21">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="H136" s="21">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I136" s="21">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="J136" s="21">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A137" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="21">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="E137" s="21">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="F137" s="21">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="G137" s="21">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="H137" s="21">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="I137" s="21">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="J137" s="21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A138" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="21">
+        <v>0.64259999999999995</v>
+      </c>
+      <c r="E138" s="21">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="F138" s="21">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G138" s="21">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="H138" s="21">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="I138" s="21">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="J138" s="21">
+        <v>5.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A139" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="21">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="E139" s="21">
+        <v>0.32279999999999998</v>
+      </c>
+      <c r="F139" s="21">
+        <v>0.1028</v>
+      </c>
+      <c r="G139" s="21">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="H139" s="21">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="I139" s="21">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="J139" s="21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A140" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="21">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="E140" s="21">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="F140" s="21">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="G140" s="21">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="H140" s="21">
+        <v>6.6E-3</v>
+      </c>
+      <c r="I140" s="21">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="J140" s="21">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A141" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="21">
+        <v>0.5988</v>
+      </c>
+      <c r="E141" s="21">
+        <v>0.44819999999999999</v>
+      </c>
+      <c r="F141" s="21">
+        <v>0.25829999999999997</v>
+      </c>
+      <c r="G141" s="21">
+        <v>0.1197</v>
+      </c>
+      <c r="H141" s="21">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="I141" s="21">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="J141" s="21">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A142" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="21">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="E142" s="21">
+        <v>0.46989999999999998</v>
+      </c>
+      <c r="F142" s="21">
+        <v>0.25940000000000002</v>
+      </c>
+      <c r="G142" s="21">
+        <v>0.12330000000000001</v>
+      </c>
+      <c r="H142" s="21">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I142" s="21">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="J142" s="21">
+        <v>4.07E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A143" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="23">
+        <v>0.63</v>
+      </c>
+      <c r="E143" s="23">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="F143" s="23">
+        <v>0.30449999999999999</v>
+      </c>
+      <c r="G143" s="23">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="H143" s="23">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="I143" s="23">
+        <v>1.01E-2</v>
+      </c>
+      <c r="J143" s="23">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A144" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="21">
+        <v>0</v>
+      </c>
+      <c r="E144" s="21">
+        <v>0</v>
+      </c>
+      <c r="F144" s="21">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G144" s="21">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="H144" s="21">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I144" s="21">
+        <v>4.65E-2</v>
+      </c>
+      <c r="J144" s="21">
+        <v>4.5400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A145" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="21">
+        <v>0</v>
+      </c>
+      <c r="E145" s="21">
+        <v>0</v>
+      </c>
+      <c r="F145" s="21">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="G145" s="21">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H145" s="21">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="I145" s="21">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="J145" s="21">
+        <v>2.4199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A146" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="21">
+        <v>0</v>
+      </c>
+      <c r="E146" s="21">
+        <v>0</v>
+      </c>
+      <c r="F146" s="21">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="G146" s="21">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="H146" s="21">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="I146" s="21">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="J146" s="21">
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A147" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="21">
+        <v>0</v>
+      </c>
+      <c r="E147" s="21">
+        <v>0</v>
+      </c>
+      <c r="F147" s="21">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="G147" s="21">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="H147" s="21">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="I147" s="21">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="J147" s="21">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A148" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="21">
+        <v>0</v>
+      </c>
+      <c r="E148" s="21">
+        <v>0</v>
+      </c>
+      <c r="F148" s="21">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="G148" s="21">
+        <v>3.56E-2</v>
+      </c>
+      <c r="H148" s="21">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I148" s="21">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="J148" s="21">
+        <v>3.56E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A149" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="21">
+        <v>0</v>
+      </c>
+      <c r="E149" s="21">
+        <v>0</v>
+      </c>
+      <c r="F149" s="21">
+        <v>2.64E-2</v>
+      </c>
+      <c r="G149" s="21">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="H149" s="21">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="I149" s="21">
+        <v>4.07E-2</v>
+      </c>
+      <c r="J149" s="21">
+        <v>3.5400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A150" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="21">
+        <v>0</v>
+      </c>
+      <c r="E150" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="F150" s="21">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G150" s="21">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H150" s="21">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I150" s="21">
+        <v>2E-3</v>
+      </c>
+      <c r="J150" s="21">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A151" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="21">
+        <v>0</v>
+      </c>
+      <c r="E151" s="21">
+        <v>0</v>
+      </c>
+      <c r="F151" s="21">
+        <v>0</v>
+      </c>
+      <c r="G151" s="21">
+        <v>0</v>
+      </c>
+      <c r="H151" s="21">
+        <v>0</v>
+      </c>
+      <c r="I151" s="21">
+        <v>0</v>
+      </c>
+      <c r="J151" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A152" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="21">
+        <v>0</v>
+      </c>
+      <c r="E152" s="21">
+        <v>0</v>
+      </c>
+      <c r="F152" s="21">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G152" s="21">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="H152" s="21">
+        <v>1.54E-2</v>
+      </c>
+      <c r="I152" s="21">
         <v>1.46E-2</v>
       </c>
-      <c r="F127" s="1">
-        <v>1.44E-2</v>
-      </c>
-      <c r="G127" s="1">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="H127" s="1">
-        <v>1.83E-2</v>
-      </c>
-      <c r="I127" s="1">
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="J127" s="1">
-        <v>2.0400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A128" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D128" s="1">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="E128" s="1">
-        <v>1.46E-2</v>
-      </c>
-      <c r="F128" s="1">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="G128" s="1">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="H128" s="1">
-        <v>1.78E-2</v>
-      </c>
-      <c r="I128" s="1">
-        <v>2.01E-2</v>
-      </c>
-      <c r="J128" s="1">
-        <v>2.18E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="12.75">
-      <c r="A129" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D129" s="1">
-        <v>1.29E-2</v>
-      </c>
-      <c r="E129" s="1">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="F129" s="1">
-        <v>1.44E-2</v>
-      </c>
-      <c r="G129" s="1">
-        <v>1.54E-2</v>
-      </c>
-      <c r="H129" s="1">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="I129" s="1">
-        <v>1.95E-2</v>
-      </c>
-      <c r="J129" s="1">
-        <v>2.12E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="12.75">
-      <c r="A130" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130" s="1">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="E130" s="1">
-        <v>1.44E-2</v>
-      </c>
-      <c r="F130" s="1">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="G130" s="1">
-        <v>1.54E-2</v>
-      </c>
-      <c r="H130" s="1">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="I130" s="1">
-        <v>1.9E-2</v>
-      </c>
-      <c r="J130" s="1">
-        <v>2.07E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="12.75">
-      <c r="A131" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D131" s="1">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="E131" s="1">
-        <v>1.12E-2</v>
-      </c>
-      <c r="F131" s="1">
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="G131" s="1">
-        <v>1.49E-2</v>
-      </c>
-      <c r="H131" s="1">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="I131" s="1">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="J131" s="1">
-        <v>2.1399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="12.75">
-      <c r="A132" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" s="1">
-        <v>2.98E-2</v>
-      </c>
-      <c r="E132" s="1">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="F132" s="1">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="G132" s="1">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="H132" s="1">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="I132" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J132" s="1">
-        <v>5.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="12.75">
-      <c r="A133" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" s="1">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="E133" s="1">
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="F133" s="1">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="G133" s="1">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="H133" s="1">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="I133" s="1">
-        <v>6.6E-3</v>
-      </c>
-      <c r="J133" s="1">
-        <v>5.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="12.75">
-      <c r="A134" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D134" s="1">
-        <v>1.35E-2</v>
-      </c>
-      <c r="E134" s="1">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="F134" s="1">
-        <v>1.44E-2</v>
-      </c>
-      <c r="G134" s="1">
-        <v>1.46E-2</v>
-      </c>
-      <c r="H134" s="1">
-        <v>1.38E-2</v>
-      </c>
-      <c r="I134" s="1">
-        <v>1.35E-2</v>
-      </c>
-      <c r="J134" s="1">
-        <v>1.32E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="12.75">
-      <c r="A135" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D135" s="1">
-        <v>1.35E-2</v>
-      </c>
-      <c r="E135" s="1">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="F135" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G135" s="1">
-        <v>1.44E-2</v>
-      </c>
-      <c r="H135" s="1">
-        <v>1.52E-2</v>
-      </c>
-      <c r="I135" s="1">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="J135" s="1">
-        <v>1.9599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="12.75"/>
-    <row r="137" spans="1:10" ht="12.75"/>
-    <row r="138" spans="1:10" ht="12.75"/>
-    <row r="139" spans="1:10" ht="12.75"/>
-    <row r="140" spans="1:10" ht="12.75"/>
-    <row r="141" spans="1:10" ht="12.75"/>
-    <row r="142" spans="1:10" ht="12.75"/>
-    <row r="143" spans="1:10" ht="12.75"/>
-    <row r="144" spans="1:10" ht="12.75"/>
-    <row r="145" s="2" customFormat="1" ht="12.75"/>
-    <row r="146" s="2" customFormat="1" ht="12.75"/>
-    <row r="147" s="2" customFormat="1" ht="12.75"/>
-    <row r="148" s="2" customFormat="1" ht="12.75"/>
-    <row r="149" s="2" customFormat="1" ht="12.75"/>
-    <row r="150" s="2" customFormat="1" ht="12.75"/>
-    <row r="151" s="2" customFormat="1" ht="12.75"/>
-    <row r="152" s="2" customFormat="1" ht="12.75"/>
-    <row r="153" s="2" customFormat="1" ht="12.75"/>
-    <row r="154" s="2" customFormat="1" ht="12.75"/>
-    <row r="155" s="2" customFormat="1" ht="12.75"/>
-    <row r="156" s="2" customFormat="1" ht="12.75"/>
-    <row r="157" s="2" customFormat="1" ht="12.75"/>
-    <row r="158" s="2" customFormat="1" ht="12.75"/>
-    <row r="159" s="2" customFormat="1" ht="12.75"/>
-    <row r="160" s="2" customFormat="1" ht="12.75"/>
-    <row r="161" s="2" customFormat="1" ht="12.75"/>
-    <row r="162" s="2" customFormat="1" ht="12.75"/>
-    <row r="163" s="2" customFormat="1" ht="12.75"/>
-    <row r="164" s="2" customFormat="1" ht="12.75"/>
-    <row r="165" s="2" customFormat="1" ht="12.75"/>
-    <row r="166" s="2" customFormat="1" ht="12.75"/>
-    <row r="167" s="2" customFormat="1" ht="12.75"/>
-    <row r="168" s="2" customFormat="1" ht="12.75"/>
-    <row r="169" s="2" customFormat="1" ht="12.75"/>
-    <row r="170" s="2" customFormat="1" ht="12.75"/>
-    <row r="171" s="2" customFormat="1" ht="12.75"/>
-    <row r="172" s="2" customFormat="1" ht="12.75"/>
-    <row r="173" s="2" customFormat="1" ht="12.75"/>
-    <row r="174" s="2" customFormat="1" ht="12.75"/>
-    <row r="175" s="2" customFormat="1" ht="12.75"/>
-    <row r="176" s="2" customFormat="1" ht="12.75"/>
-    <row r="177" s="2" customFormat="1" ht="12.75"/>
-    <row r="178" s="2" customFormat="1" ht="12.75"/>
-    <row r="179" s="2" customFormat="1" ht="12.75"/>
-    <row r="180" s="2" customFormat="1" ht="12.75"/>
-    <row r="181" s="2" customFormat="1" ht="12.75"/>
-    <row r="182" s="2" customFormat="1" ht="12.75"/>
-    <row r="183" s="2" customFormat="1" ht="12.75"/>
-    <row r="184" s="2" customFormat="1" ht="12.75"/>
-    <row r="185" s="2" customFormat="1" ht="12.75"/>
-    <row r="186" s="2" customFormat="1" ht="12.75"/>
-    <row r="187" s="2" customFormat="1" ht="12.75"/>
-    <row r="188" s="2" customFormat="1" ht="12.75"/>
-    <row r="189" s="2" customFormat="1" ht="12.75"/>
-    <row r="190" s="2" customFormat="1" ht="12.75"/>
-    <row r="191" s="2" customFormat="1" ht="12.75"/>
-    <row r="192" s="2" customFormat="1" ht="12.75"/>
-    <row r="193" s="2" customFormat="1" ht="12.75"/>
-    <row r="194" s="2" customFormat="1" ht="12.75"/>
-    <row r="195" s="2" customFormat="1" ht="12.75"/>
-    <row r="196" s="2" customFormat="1" ht="12.75"/>
-    <row r="197" s="2" customFormat="1" ht="12.75"/>
-    <row r="198" s="2" customFormat="1" ht="12.75"/>
-    <row r="199" s="2" customFormat="1" ht="12.75"/>
-    <row r="200" s="2" customFormat="1" ht="12.75"/>
-    <row r="201" s="2" customFormat="1" ht="12.75"/>
-    <row r="202" s="2" customFormat="1" ht="12.75"/>
-    <row r="203" s="2" customFormat="1" ht="12.75"/>
-    <row r="204" s="2" customFormat="1" ht="12.75"/>
-    <row r="205" s="2" customFormat="1" ht="12.75"/>
-    <row r="206" s="2" customFormat="1" ht="12.75"/>
-    <row r="207" s="2" customFormat="1" ht="12.75"/>
-    <row r="208" s="2" customFormat="1" ht="12.75"/>
-    <row r="209" s="2" customFormat="1" ht="12.75"/>
-    <row r="210" s="2" customFormat="1" ht="12.75"/>
-    <row r="211" s="2" customFormat="1" ht="12.75"/>
-    <row r="212" s="2" customFormat="1" ht="12.75"/>
-    <row r="213" s="2" customFormat="1" ht="12.75"/>
-    <row r="214" s="2" customFormat="1" ht="12.75"/>
-    <row r="215" s="2" customFormat="1" ht="12.75"/>
-    <row r="216" s="2" customFormat="1" ht="12.75"/>
-    <row r="217" s="2" customFormat="1" ht="12.75"/>
-    <row r="218" s="2" customFormat="1" ht="12.75"/>
-    <row r="219" s="2" customFormat="1" ht="12.75"/>
-    <row r="220" s="2" customFormat="1" ht="12.75"/>
-    <row r="221" s="2" customFormat="1" ht="12.75"/>
-    <row r="222" s="2" customFormat="1" ht="12.75"/>
-    <row r="223" s="2" customFormat="1" ht="12.75"/>
-    <row r="224" s="2" customFormat="1" ht="12.75"/>
-    <row r="225" s="2" customFormat="1" ht="12.75"/>
-    <row r="226" s="2" customFormat="1" ht="12.75"/>
-    <row r="227" s="2" customFormat="1" ht="12.75"/>
-    <row r="228" s="2" customFormat="1" ht="12.75"/>
-    <row r="229" s="2" customFormat="1" ht="12.75"/>
-    <row r="230" s="2" customFormat="1" ht="12.75"/>
-    <row r="231" s="2" customFormat="1" ht="12.75"/>
-    <row r="232" s="2" customFormat="1" ht="12.75"/>
-    <row r="233" s="2" customFormat="1" ht="12.75"/>
-    <row r="234" s="2" customFormat="1" ht="12.75"/>
-    <row r="235" s="2" customFormat="1" ht="12.75"/>
-    <row r="236" s="2" customFormat="1" ht="12.75"/>
-    <row r="237" s="2" customFormat="1" ht="12.75"/>
-    <row r="238" s="2" customFormat="1" ht="12.75"/>
-    <row r="239" s="2" customFormat="1" ht="12.75"/>
-    <row r="240" s="2" customFormat="1" ht="12.75"/>
-    <row r="241" s="2" customFormat="1" ht="12.75"/>
-    <row r="242" s="2" customFormat="1" ht="12.75"/>
-    <row r="243" s="2" customFormat="1" ht="12.75"/>
-    <row r="244" s="2" customFormat="1" ht="12.75"/>
-    <row r="245" s="2" customFormat="1" ht="12.75"/>
-    <row r="246" s="2" customFormat="1" ht="12.75"/>
-    <row r="247" s="2" customFormat="1" ht="12.75"/>
-    <row r="248" s="2" customFormat="1" ht="12.75"/>
-    <row r="249" s="2" customFormat="1" ht="12.75"/>
-    <row r="250" s="2" customFormat="1" ht="12.75"/>
-    <row r="251" s="2" customFormat="1" ht="12.75"/>
-    <row r="252" s="2" customFormat="1" ht="12.75"/>
-    <row r="253" s="2" customFormat="1" ht="12.75"/>
-    <row r="254" s="2" customFormat="1" ht="12.75"/>
-    <row r="255" s="2" customFormat="1" ht="12.75"/>
-    <row r="256" s="2" customFormat="1" ht="12.75"/>
-    <row r="257" s="2" customFormat="1" ht="12.75"/>
-    <row r="258" s="2" customFormat="1" ht="12.75"/>
-    <row r="259" s="2" customFormat="1" ht="12.75"/>
-    <row r="260" s="2" customFormat="1" ht="12.75"/>
-    <row r="261" s="2" customFormat="1" ht="12.75"/>
-    <row r="262" s="2" customFormat="1" ht="12.75"/>
-    <row r="263" s="2" customFormat="1" ht="12.75"/>
-    <row r="264" s="2" customFormat="1" ht="12.75"/>
-    <row r="265" s="2" customFormat="1" ht="12.75"/>
-    <row r="266" s="2" customFormat="1" ht="12.75"/>
-    <row r="267" s="2" customFormat="1" ht="12.75"/>
-    <row r="268" s="2" customFormat="1" ht="12.75"/>
-    <row r="269" s="2" customFormat="1" ht="12.75"/>
-    <row r="270" s="2" customFormat="1" ht="12.75"/>
-    <row r="271" s="2" customFormat="1" ht="12.75"/>
-    <row r="272" s="2" customFormat="1" ht="12.75"/>
-    <row r="273" s="2" customFormat="1" ht="12.75"/>
-    <row r="274" s="2" customFormat="1" ht="12.75"/>
-    <row r="275" s="2" customFormat="1" ht="12.75"/>
-    <row r="276" s="2" customFormat="1" ht="12.75"/>
-    <row r="277" s="2" customFormat="1" ht="12.75"/>
-    <row r="278" s="2" customFormat="1" ht="12.75"/>
-    <row r="279" s="2" customFormat="1" ht="12.75"/>
-    <row r="280" s="2" customFormat="1" ht="12.75"/>
-    <row r="281" s="2" customFormat="1" ht="12.75"/>
-    <row r="282" s="2" customFormat="1" ht="12.75"/>
-    <row r="283" s="2" customFormat="1" ht="12.75"/>
-    <row r="284" s="2" customFormat="1" ht="12.75"/>
-    <row r="285" s="2" customFormat="1" ht="12.75"/>
-    <row r="286" s="2" customFormat="1" ht="12.75"/>
-    <row r="287" s="2" customFormat="1" ht="12.75"/>
-    <row r="288" s="2" customFormat="1" ht="12.75"/>
-    <row r="289" s="2" customFormat="1" ht="12.75"/>
-    <row r="290" s="2" customFormat="1" ht="12.75"/>
-    <row r="291" s="2" customFormat="1" ht="12.75"/>
-    <row r="292" s="2" customFormat="1" ht="12.75"/>
-    <row r="293" s="2" customFormat="1" ht="12.75"/>
-    <row r="294" s="2" customFormat="1" ht="12.75"/>
-    <row r="295" s="2" customFormat="1" ht="12.75"/>
-    <row r="296" s="2" customFormat="1" ht="12.75"/>
-    <row r="297" s="2" customFormat="1" ht="12.75"/>
-    <row r="298" s="2" customFormat="1" ht="12.75"/>
-    <row r="299" s="2" customFormat="1" ht="12.75"/>
-    <row r="300" s="2" customFormat="1" ht="12.75"/>
-    <row r="301" s="2" customFormat="1" ht="12.75"/>
-    <row r="302" s="2" customFormat="1" ht="12.75"/>
-    <row r="303" s="2" customFormat="1" ht="12.75"/>
-    <row r="304" s="2" customFormat="1" ht="12.75"/>
-    <row r="305" s="2" customFormat="1" ht="12.75"/>
-    <row r="306" s="2" customFormat="1" ht="12.75"/>
-    <row r="307" s="2" customFormat="1" ht="12.75"/>
-    <row r="308" s="2" customFormat="1" ht="12.75"/>
-    <row r="309" s="2" customFormat="1" ht="12.75"/>
-    <row r="310" s="2" customFormat="1" ht="12.75"/>
-    <row r="311" s="2" customFormat="1" ht="12.75"/>
-    <row r="312" s="2" customFormat="1" ht="12.75"/>
-    <row r="313" s="2" customFormat="1" ht="12.75"/>
-    <row r="314" s="2" customFormat="1" ht="12.75"/>
-    <row r="315" s="2" customFormat="1" ht="12.75"/>
-    <row r="316" s="2" customFormat="1" ht="12.75"/>
-    <row r="317" s="2" customFormat="1" ht="12.75"/>
-    <row r="318" s="2" customFormat="1" ht="12.75"/>
-    <row r="319" s="2" customFormat="1" ht="12.75"/>
-    <row r="320" s="2" customFormat="1" ht="12.75"/>
-    <row r="321" s="2" customFormat="1" ht="12.75"/>
-    <row r="322" s="2" customFormat="1" ht="12.75"/>
-    <row r="323" s="2" customFormat="1" ht="12.75"/>
-    <row r="324" s="2" customFormat="1" ht="12.75"/>
-    <row r="325" s="2" customFormat="1" ht="12.75"/>
-    <row r="326" s="2" customFormat="1" ht="12.75"/>
-    <row r="327" s="2" customFormat="1" ht="12.75"/>
-    <row r="328" s="2" customFormat="1" ht="12.75"/>
-    <row r="329" s="2" customFormat="1" ht="12.75"/>
-    <row r="330" s="2" customFormat="1" ht="12.75"/>
-    <row r="331" s="2" customFormat="1" ht="12.75"/>
-    <row r="332" s="2" customFormat="1" ht="12.75"/>
-    <row r="333" s="2" customFormat="1" ht="12.75"/>
-    <row r="334" s="2" customFormat="1" ht="12.75"/>
-    <row r="335" s="2" customFormat="1" ht="12.75"/>
-    <row r="336" s="2" customFormat="1" ht="12.75"/>
-    <row r="337" s="2" customFormat="1" ht="12.75"/>
-    <row r="338" s="2" customFormat="1" ht="12.75"/>
-    <row r="339" s="2" customFormat="1" ht="12.75"/>
-    <row r="340" s="2" customFormat="1" ht="12.75"/>
-    <row r="341" s="2" customFormat="1" ht="12.75"/>
-    <row r="342" s="2" customFormat="1" ht="12.75"/>
-    <row r="343" s="2" customFormat="1" ht="12.75"/>
-    <row r="344" s="2" customFormat="1" ht="12.75"/>
-    <row r="345" s="2" customFormat="1" ht="12.75"/>
-    <row r="346" s="2" customFormat="1" ht="12.75"/>
-    <row r="347" s="2" customFormat="1" ht="12.75"/>
-    <row r="348" s="2" customFormat="1" ht="12.75"/>
-    <row r="349" s="2" customFormat="1" ht="12.75"/>
-    <row r="350" s="2" customFormat="1" ht="12.75"/>
-    <row r="351" s="2" customFormat="1" ht="12.75"/>
-    <row r="352" s="2" customFormat="1" ht="12.75"/>
-    <row r="353" s="2" customFormat="1" ht="12.75"/>
-    <row r="354" s="2" customFormat="1" ht="12.75"/>
-    <row r="355" s="2" customFormat="1" ht="12.75"/>
-    <row r="356" s="2" customFormat="1" ht="12.75"/>
-    <row r="357" s="2" customFormat="1" ht="12.75"/>
-    <row r="358" s="2" customFormat="1" ht="12.75"/>
-    <row r="359" s="2" customFormat="1" ht="12.75"/>
-    <row r="360" s="2" customFormat="1" ht="12.75"/>
-    <row r="361" s="2" customFormat="1" ht="12.75"/>
-    <row r="362" s="2" customFormat="1" ht="12.75"/>
-    <row r="363" s="2" customFormat="1" ht="12.75"/>
-    <row r="364" s="2" customFormat="1" ht="12.75"/>
-    <row r="365" s="2" customFormat="1" ht="12.75"/>
-    <row r="366" s="2" customFormat="1" ht="12.75"/>
-    <row r="367" s="2" customFormat="1" ht="12.75"/>
-    <row r="368" s="2" customFormat="1" ht="12.75"/>
-    <row r="369" s="2" customFormat="1" ht="12.75"/>
-    <row r="370" s="2" customFormat="1" ht="12.75"/>
-    <row r="371" s="2" customFormat="1" ht="12.75"/>
-    <row r="372" s="2" customFormat="1" ht="12.75"/>
-    <row r="373" s="2" customFormat="1" ht="12.75"/>
-    <row r="374" s="2" customFormat="1" ht="12.75"/>
-    <row r="375" s="2" customFormat="1" ht="12.75"/>
-    <row r="376" s="2" customFormat="1" ht="12.75"/>
-    <row r="377" s="2" customFormat="1" ht="12.75"/>
-    <row r="378" s="2" customFormat="1" ht="12.75"/>
-    <row r="379" s="2" customFormat="1" ht="12.75"/>
-    <row r="380" s="2" customFormat="1" ht="12.75"/>
-    <row r="381" s="2" customFormat="1" ht="12.75"/>
-    <row r="382" s="2" customFormat="1" ht="12.75"/>
-    <row r="383" s="2" customFormat="1" ht="12.75"/>
-    <row r="384" s="2" customFormat="1" ht="12.75"/>
-    <row r="385" s="2" customFormat="1" ht="12.75"/>
-    <row r="386" s="2" customFormat="1" ht="12.75"/>
-    <row r="387" s="2" customFormat="1" ht="12.75"/>
-    <row r="388" s="2" customFormat="1" ht="12.75"/>
-    <row r="389" s="2" customFormat="1" ht="12.75"/>
-    <row r="390" s="2" customFormat="1" ht="12.75"/>
-    <row r="391" s="2" customFormat="1" ht="12.75"/>
-    <row r="392" s="2" customFormat="1" ht="12.75"/>
-    <row r="393" s="2" customFormat="1" ht="12.75"/>
-    <row r="394" s="2" customFormat="1" ht="12.75"/>
-    <row r="395" s="2" customFormat="1" ht="12.75"/>
-    <row r="396" s="2" customFormat="1" ht="12.75"/>
-    <row r="397" s="2" customFormat="1" ht="12.75"/>
-    <row r="398" s="2" customFormat="1" ht="12.75"/>
-    <row r="399" s="2" customFormat="1" ht="12.75"/>
-    <row r="400" s="2" customFormat="1" ht="12.75"/>
-    <row r="401" s="2" customFormat="1" ht="12.75"/>
-    <row r="402" s="2" customFormat="1" ht="12.75"/>
-    <row r="403" s="2" customFormat="1" ht="12.75"/>
-    <row r="404" s="2" customFormat="1" ht="12.75"/>
-    <row r="405" s="2" customFormat="1" ht="12.75"/>
-    <row r="406" s="2" customFormat="1" ht="12.75"/>
-    <row r="407" s="2" customFormat="1" ht="12.75"/>
-    <row r="408" s="2" customFormat="1" ht="12.75"/>
-    <row r="409" s="2" customFormat="1" ht="12.75"/>
-    <row r="410" s="2" customFormat="1" ht="12.75"/>
-    <row r="411" s="2" customFormat="1" ht="12.75"/>
-    <row r="412" s="2" customFormat="1" ht="12.75"/>
-    <row r="413" s="2" customFormat="1" ht="12.75"/>
-    <row r="414" s="2" customFormat="1" ht="12.75"/>
-    <row r="415" s="2" customFormat="1" ht="12.75"/>
-    <row r="416" s="2" customFormat="1" ht="12.75"/>
-    <row r="417" s="2" customFormat="1" ht="12.75"/>
-    <row r="418" s="2" customFormat="1" ht="12.75"/>
-    <row r="419" s="2" customFormat="1" ht="12.75"/>
-    <row r="420" s="2" customFormat="1" ht="12.75"/>
-    <row r="421" s="2" customFormat="1" ht="12.75"/>
-    <row r="422" s="2" customFormat="1" ht="12.75"/>
-    <row r="423" s="2" customFormat="1" ht="12.75"/>
-    <row r="424" s="2" customFormat="1" ht="12.75"/>
-    <row r="425" s="2" customFormat="1" ht="12.75"/>
-    <row r="426" s="2" customFormat="1" ht="12.75"/>
-    <row r="427" s="2" customFormat="1" ht="12.75"/>
-    <row r="428" s="2" customFormat="1" ht="12.75"/>
-    <row r="429" s="2" customFormat="1" ht="12.75"/>
-    <row r="430" s="2" customFormat="1" ht="12.75"/>
-    <row r="431" s="2" customFormat="1" ht="12.75"/>
-    <row r="432" s="2" customFormat="1" ht="12.75"/>
-    <row r="433" s="2" customFormat="1" ht="12.75"/>
-    <row r="434" s="2" customFormat="1" ht="12.75"/>
-    <row r="435" s="2" customFormat="1" ht="12.75"/>
-    <row r="436" s="2" customFormat="1" ht="12.75"/>
-    <row r="437" s="2" customFormat="1" ht="12.75"/>
-    <row r="438" s="2" customFormat="1" ht="12.75"/>
-    <row r="439" s="2" customFormat="1" ht="12.75"/>
-    <row r="440" s="2" customFormat="1" ht="12.75"/>
-    <row r="441" s="2" customFormat="1" ht="12.75"/>
-    <row r="442" s="2" customFormat="1" ht="12.75"/>
-    <row r="443" s="2" customFormat="1" ht="12.75"/>
-    <row r="444" s="2" customFormat="1" ht="12.75"/>
-    <row r="445" s="2" customFormat="1" ht="12.75"/>
-    <row r="446" s="2" customFormat="1" ht="12.75"/>
-    <row r="447" s="2" customFormat="1" ht="12.75"/>
-    <row r="448" s="2" customFormat="1" ht="12.75"/>
-    <row r="449" s="2" customFormat="1" ht="12.75"/>
-    <row r="450" s="2" customFormat="1" ht="12.75"/>
-    <row r="451" s="2" customFormat="1" ht="12.75"/>
-    <row r="452" s="2" customFormat="1" ht="12.75"/>
-    <row r="453" s="2" customFormat="1" ht="12.75"/>
-    <row r="454" s="2" customFormat="1" ht="12.75"/>
-    <row r="455" s="2" customFormat="1" ht="12.75"/>
-    <row r="456" s="2" customFormat="1" ht="12.75"/>
-    <row r="457" s="2" customFormat="1" ht="12.75"/>
-    <row r="458" s="2" customFormat="1" ht="12.75"/>
-    <row r="459" s="2" customFormat="1" ht="12.75"/>
-    <row r="460" s="2" customFormat="1" ht="12.75"/>
-    <row r="461" s="2" customFormat="1" ht="12.75"/>
-    <row r="462" s="2" customFormat="1" ht="12.75"/>
-    <row r="463" s="2" customFormat="1" ht="12.75"/>
-    <row r="464" s="2" customFormat="1" ht="12.75"/>
-    <row r="465" s="2" customFormat="1" ht="12.75"/>
-    <row r="466" s="2" customFormat="1" ht="12.75"/>
-    <row r="467" s="2" customFormat="1" ht="12.75"/>
-    <row r="468" s="2" customFormat="1" ht="12.75"/>
-    <row r="469" s="2" customFormat="1" ht="12.75"/>
-    <row r="470" s="2" customFormat="1" ht="12.75"/>
-    <row r="471" s="2" customFormat="1" ht="12.75"/>
-    <row r="472" s="2" customFormat="1" ht="12.75"/>
-    <row r="473" s="2" customFormat="1" ht="12.75"/>
-    <row r="474" s="2" customFormat="1" ht="12.75"/>
-    <row r="475" s="2" customFormat="1" ht="12.75"/>
-    <row r="476" s="2" customFormat="1" ht="12.75"/>
-    <row r="477" s="2" customFormat="1" ht="12.75"/>
-    <row r="478" s="2" customFormat="1" ht="12.75"/>
-    <row r="479" s="2" customFormat="1" ht="12.75"/>
-    <row r="480" s="2" customFormat="1" ht="12.75"/>
-    <row r="481" s="2" customFormat="1" ht="12.75"/>
-    <row r="482" s="2" customFormat="1" ht="12.75"/>
-    <row r="483" s="2" customFormat="1" ht="12.75"/>
-    <row r="484" s="2" customFormat="1" ht="12.75"/>
-    <row r="485" s="2" customFormat="1" ht="12.75"/>
-    <row r="486" s="2" customFormat="1" ht="12.75"/>
-    <row r="487" s="2" customFormat="1" ht="12.75"/>
-    <row r="488" s="2" customFormat="1" ht="12.75"/>
-    <row r="489" s="2" customFormat="1" ht="12.75"/>
-    <row r="490" s="2" customFormat="1" ht="12.75"/>
-    <row r="491" s="2" customFormat="1" ht="12.75"/>
-    <row r="492" s="2" customFormat="1" ht="12.75"/>
-    <row r="493" s="2" customFormat="1" ht="12.75"/>
-    <row r="494" s="2" customFormat="1" ht="12.75"/>
-    <row r="495" s="2" customFormat="1" ht="12.75"/>
-    <row r="496" s="2" customFormat="1" ht="12.75"/>
-    <row r="497" s="2" customFormat="1" ht="12.75"/>
-    <row r="498" s="2" customFormat="1" ht="12.75"/>
-    <row r="499" s="2" customFormat="1" ht="12.75"/>
-    <row r="500" s="2" customFormat="1" ht="12.75"/>
-    <row r="501" s="2" customFormat="1" ht="12.75"/>
-    <row r="502" s="2" customFormat="1" ht="12.75"/>
-    <row r="503" s="2" customFormat="1" ht="12.75"/>
-    <row r="504" s="2" customFormat="1" ht="12.75"/>
-    <row r="505" s="2" customFormat="1" ht="12.75"/>
-    <row r="506" s="2" customFormat="1" ht="12.75"/>
-    <row r="507" s="2" customFormat="1" ht="12.75"/>
-    <row r="508" s="2" customFormat="1" ht="12.75"/>
-    <row r="509" s="2" customFormat="1" ht="12.75"/>
-    <row r="510" s="2" customFormat="1" ht="12.75"/>
-    <row r="511" s="2" customFormat="1" ht="12.75"/>
-    <row r="512" s="2" customFormat="1" ht="12.75"/>
-    <row r="513" s="2" customFormat="1" ht="12.75"/>
-    <row r="514" s="2" customFormat="1" ht="12.75"/>
-    <row r="515" s="2" customFormat="1" ht="12.75"/>
-    <row r="516" s="2" customFormat="1" ht="12.75"/>
-    <row r="517" s="2" customFormat="1" ht="12.75"/>
-    <row r="518" s="2" customFormat="1" ht="12.75"/>
-    <row r="519" s="2" customFormat="1" ht="12.75"/>
-    <row r="520" s="2" customFormat="1" ht="12.75"/>
-    <row r="521" s="2" customFormat="1" ht="12.75"/>
-    <row r="522" s="2" customFormat="1" ht="12.75"/>
-    <row r="523" s="2" customFormat="1" ht="12.75"/>
-    <row r="524" s="2" customFormat="1" ht="12.75"/>
-    <row r="525" s="2" customFormat="1" ht="12.75"/>
-    <row r="526" s="2" customFormat="1" ht="12.75"/>
-    <row r="527" s="2" customFormat="1" ht="12.75"/>
-    <row r="528" s="2" customFormat="1" ht="12.75"/>
-    <row r="529" s="2" customFormat="1" ht="12.75"/>
-    <row r="530" s="2" customFormat="1" ht="12.75"/>
-    <row r="531" s="2" customFormat="1" ht="12.75"/>
-    <row r="532" s="2" customFormat="1" ht="12.75"/>
-    <row r="533" s="2" customFormat="1" ht="12.75"/>
-    <row r="534" s="2" customFormat="1" ht="12.75"/>
-    <row r="535" s="2" customFormat="1" ht="12.75"/>
-    <row r="536" s="2" customFormat="1" ht="12.75"/>
-    <row r="537" s="2" customFormat="1" ht="12.75"/>
-    <row r="538" s="2" customFormat="1" ht="12.75"/>
-    <row r="539" s="2" customFormat="1" ht="12.75"/>
-    <row r="540" s="2" customFormat="1" ht="12.75"/>
-    <row r="541" s="2" customFormat="1" ht="12.75"/>
-    <row r="542" s="2" customFormat="1" ht="12.75"/>
-    <row r="543" s="2" customFormat="1" ht="12.75"/>
-    <row r="544" s="2" customFormat="1" ht="12.75"/>
-    <row r="545" s="2" customFormat="1" ht="12.75"/>
-    <row r="546" s="2" customFormat="1" ht="12.75"/>
-    <row r="547" s="2" customFormat="1" ht="12.75"/>
-    <row r="548" s="2" customFormat="1" ht="12.75"/>
-    <row r="549" s="2" customFormat="1" ht="12.75"/>
-    <row r="550" s="2" customFormat="1" ht="12.75"/>
-    <row r="551" s="2" customFormat="1" ht="12.75"/>
-    <row r="552" s="2" customFormat="1" ht="12.75"/>
-    <row r="553" s="2" customFormat="1" ht="12.75"/>
-    <row r="554" s="2" customFormat="1" ht="12.75"/>
-    <row r="555" s="2" customFormat="1" ht="12.75"/>
-    <row r="556" s="2" customFormat="1" ht="12.75"/>
-    <row r="557" s="2" customFormat="1" ht="12.75"/>
-    <row r="558" s="2" customFormat="1" ht="12.75"/>
-    <row r="559" s="2" customFormat="1" ht="12.75"/>
-    <row r="560" s="2" customFormat="1" ht="12.75"/>
-    <row r="561" s="2" customFormat="1" ht="12.75"/>
-    <row r="562" s="2" customFormat="1" ht="12.75"/>
-    <row r="563" s="2" customFormat="1" ht="12.75"/>
-    <row r="564" s="2" customFormat="1" ht="12.75"/>
-    <row r="565" s="2" customFormat="1" ht="12.75"/>
-    <row r="566" s="2" customFormat="1" ht="12.75"/>
-    <row r="567" s="2" customFormat="1" ht="12.75"/>
-    <row r="568" s="2" customFormat="1" ht="12.75"/>
-    <row r="569" s="2" customFormat="1" ht="12.75"/>
-    <row r="570" s="2" customFormat="1" ht="12.75"/>
-    <row r="571" s="2" customFormat="1" ht="12.75"/>
-    <row r="572" s="2" customFormat="1" ht="12.75"/>
-    <row r="573" s="2" customFormat="1" ht="12.75"/>
-    <row r="574" s="2" customFormat="1" ht="12.75"/>
-    <row r="575" s="2" customFormat="1" ht="12.75"/>
-    <row r="576" s="2" customFormat="1" ht="12.75"/>
-    <row r="577" s="2" customFormat="1" ht="12.75"/>
-    <row r="578" s="2" customFormat="1" ht="12.75"/>
-    <row r="579" s="2" customFormat="1" ht="12.75"/>
-    <row r="580" s="2" customFormat="1" ht="12.75"/>
-    <row r="581" s="2" customFormat="1" ht="12.75"/>
-    <row r="582" s="2" customFormat="1" ht="12.75"/>
-    <row r="583" s="2" customFormat="1" ht="12.75"/>
-    <row r="584" s="2" customFormat="1" ht="12.75"/>
-    <row r="585" s="2" customFormat="1" ht="12.75"/>
-    <row r="586" s="2" customFormat="1" ht="12.75"/>
-    <row r="587" s="2" customFormat="1" ht="12.75"/>
-    <row r="588" s="2" customFormat="1" ht="12.75"/>
-    <row r="589" s="2" customFormat="1" ht="12.75"/>
-    <row r="590" s="2" customFormat="1" ht="12.75"/>
-    <row r="591" s="2" customFormat="1" ht="12.75"/>
-    <row r="592" s="2" customFormat="1" ht="12.75"/>
-    <row r="593" s="2" customFormat="1" ht="12.75"/>
-    <row r="594" s="2" customFormat="1" ht="12.75"/>
-    <row r="595" s="2" customFormat="1" ht="12.75"/>
-    <row r="596" s="2" customFormat="1" ht="12.75"/>
-    <row r="597" s="2" customFormat="1" ht="12.75"/>
-    <row r="598" s="2" customFormat="1" ht="12.75"/>
-    <row r="599" s="2" customFormat="1" ht="12.75"/>
-    <row r="600" s="2" customFormat="1" ht="12.75"/>
-    <row r="601" s="2" customFormat="1" ht="12.75"/>
-    <row r="602" s="2" customFormat="1" ht="12.75"/>
-    <row r="603" s="2" customFormat="1" ht="12.75"/>
-    <row r="604" s="2" customFormat="1" ht="12.75"/>
-    <row r="605" s="2" customFormat="1" ht="12.75"/>
-    <row r="606" s="2" customFormat="1" ht="12.75"/>
-    <row r="607" s="2" customFormat="1" ht="12.75"/>
-    <row r="608" s="2" customFormat="1" ht="12.75"/>
-    <row r="609" s="2" customFormat="1" ht="12.75"/>
-    <row r="610" s="2" customFormat="1" ht="12.75"/>
-    <row r="611" s="2" customFormat="1" ht="12.75"/>
-    <row r="612" s="2" customFormat="1" ht="12.75"/>
-    <row r="613" s="2" customFormat="1" ht="12.75"/>
-    <row r="614" s="2" customFormat="1" ht="12.75"/>
-    <row r="615" s="2" customFormat="1" ht="12.75"/>
-    <row r="616" s="2" customFormat="1" ht="12.75"/>
-    <row r="617" s="2" customFormat="1" ht="12.75"/>
-    <row r="618" s="2" customFormat="1" ht="12.75"/>
-    <row r="619" s="2" customFormat="1" ht="12.75"/>
-    <row r="620" s="2" customFormat="1" ht="12.75"/>
-    <row r="621" s="2" customFormat="1" ht="12.75"/>
-    <row r="622" s="2" customFormat="1" ht="12.75"/>
-    <row r="623" s="2" customFormat="1" ht="12.75"/>
-    <row r="624" s="2" customFormat="1" ht="12.75"/>
-    <row r="625" s="2" customFormat="1" ht="12.75"/>
-    <row r="626" s="2" customFormat="1" ht="12.75"/>
-    <row r="627" s="2" customFormat="1" ht="12.75"/>
-    <row r="628" s="2" customFormat="1" ht="12.75"/>
-    <row r="629" s="2" customFormat="1" ht="12.75"/>
-    <row r="630" s="2" customFormat="1" ht="12.75"/>
-    <row r="631" s="2" customFormat="1" ht="12.75"/>
-    <row r="632" s="2" customFormat="1" ht="12.75"/>
-    <row r="633" s="2" customFormat="1" ht="12.75"/>
-    <row r="634" s="2" customFormat="1" ht="12.75"/>
-    <row r="635" s="2" customFormat="1" ht="12.75"/>
-    <row r="636" s="2" customFormat="1" ht="12.75"/>
-    <row r="637" s="2" customFormat="1" ht="12.75"/>
-    <row r="638" s="2" customFormat="1" ht="12.75"/>
-    <row r="639" s="2" customFormat="1" ht="12.75"/>
-    <row r="640" s="2" customFormat="1" ht="12.75"/>
-    <row r="641" s="2" customFormat="1" ht="12.75"/>
-    <row r="642" s="2" customFormat="1" ht="12.75"/>
-    <row r="643" s="2" customFormat="1" ht="12.75"/>
-    <row r="644" s="2" customFormat="1" ht="12.75"/>
-    <row r="645" s="2" customFormat="1" ht="12.75"/>
-    <row r="646" s="2" customFormat="1" ht="12.75"/>
-    <row r="647" s="2" customFormat="1" ht="12.75"/>
-    <row r="648" s="2" customFormat="1" ht="12.75"/>
-    <row r="649" s="2" customFormat="1" ht="12.75"/>
-    <row r="650" s="2" customFormat="1" ht="12.75"/>
-    <row r="651" s="2" customFormat="1" ht="12.75"/>
-    <row r="652" s="2" customFormat="1" ht="12.75"/>
-    <row r="653" s="2" customFormat="1" ht="12.75"/>
-    <row r="654" s="2" customFormat="1" ht="12.75"/>
-    <row r="655" s="2" customFormat="1" ht="12.75"/>
-    <row r="656" s="2" customFormat="1" ht="12.75"/>
-    <row r="657" s="2" customFormat="1" ht="12.75"/>
-    <row r="658" s="2" customFormat="1" ht="12.75"/>
-    <row r="659" s="2" customFormat="1" ht="12.75"/>
-    <row r="660" s="2" customFormat="1" ht="12.75"/>
-    <row r="661" s="2" customFormat="1" ht="12.75"/>
-    <row r="662" s="2" customFormat="1" ht="12.75"/>
-    <row r="663" s="2" customFormat="1" ht="12.75"/>
-    <row r="664" s="2" customFormat="1" ht="12.75"/>
-    <row r="665" s="2" customFormat="1" ht="12.75"/>
-    <row r="666" s="2" customFormat="1" ht="12.75"/>
-    <row r="667" s="2" customFormat="1" ht="12.75"/>
-    <row r="668" s="2" customFormat="1" ht="12.75"/>
-    <row r="669" s="2" customFormat="1" ht="12.75"/>
-    <row r="670" s="2" customFormat="1" ht="12.75"/>
-    <row r="671" s="2" customFormat="1" ht="12.75"/>
-    <row r="672" s="2" customFormat="1" ht="12.75"/>
-    <row r="673" s="2" customFormat="1" ht="12.75"/>
-    <row r="674" s="2" customFormat="1" ht="12.75"/>
-    <row r="675" s="2" customFormat="1" ht="12.75"/>
-    <row r="676" s="2" customFormat="1" ht="12.75"/>
-    <row r="677" s="2" customFormat="1" ht="12.75"/>
-    <row r="678" s="2" customFormat="1" ht="12.75"/>
-    <row r="679" s="2" customFormat="1" ht="12.75"/>
-    <row r="680" s="2" customFormat="1" ht="12.75"/>
-    <row r="681" s="2" customFormat="1" ht="12.75"/>
-    <row r="682" s="2" customFormat="1" ht="12.75"/>
-    <row r="683" s="2" customFormat="1" ht="12.75"/>
-    <row r="684" s="2" customFormat="1" ht="12.75"/>
-    <row r="685" s="2" customFormat="1" ht="12.75"/>
-    <row r="686" s="2" customFormat="1" ht="12.75"/>
-    <row r="687" s="2" customFormat="1" ht="12.75"/>
-    <row r="688" s="2" customFormat="1" ht="12.75"/>
-    <row r="689" s="2" customFormat="1" ht="12.75"/>
-    <row r="690" s="2" customFormat="1" ht="12.75"/>
-    <row r="691" s="2" customFormat="1" ht="12.75"/>
-    <row r="692" s="2" customFormat="1" ht="12.75"/>
-    <row r="693" s="2" customFormat="1" ht="12.75"/>
-    <row r="694" s="2" customFormat="1" ht="12.75"/>
-    <row r="695" s="2" customFormat="1" ht="12.75"/>
-    <row r="696" s="2" customFormat="1" ht="12.75"/>
-    <row r="697" s="2" customFormat="1" ht="12.75"/>
-    <row r="698" s="2" customFormat="1" ht="12.75"/>
-    <row r="699" s="2" customFormat="1" ht="12.75"/>
-    <row r="700" s="2" customFormat="1" ht="12.75"/>
-    <row r="701" s="2" customFormat="1" ht="12.75"/>
-    <row r="702" s="2" customFormat="1" ht="12.75"/>
-    <row r="703" s="2" customFormat="1" ht="12.75"/>
-    <row r="704" s="2" customFormat="1" ht="12.75"/>
-    <row r="705" s="2" customFormat="1" ht="12.75"/>
-    <row r="706" s="2" customFormat="1" ht="12.75"/>
-    <row r="707" s="2" customFormat="1" ht="12.75"/>
-    <row r="708" s="2" customFormat="1" ht="12.75"/>
-    <row r="709" s="2" customFormat="1" ht="12.75"/>
-    <row r="710" s="2" customFormat="1" ht="12.75"/>
-    <row r="711" s="2" customFormat="1" ht="12.75"/>
-    <row r="712" s="2" customFormat="1" ht="12.75"/>
-    <row r="713" s="2" customFormat="1" ht="12.75"/>
-    <row r="714" s="2" customFormat="1" ht="12.75"/>
-    <row r="715" s="2" customFormat="1" ht="12.75"/>
-    <row r="716" s="2" customFormat="1" ht="12.75"/>
-    <row r="717" s="2" customFormat="1" ht="12.75"/>
-    <row r="718" s="2" customFormat="1" ht="12.75"/>
-    <row r="719" s="2" customFormat="1" ht="12.75"/>
-    <row r="720" s="2" customFormat="1" ht="12.75"/>
-    <row r="721" s="2" customFormat="1" ht="12.75"/>
-    <row r="722" s="2" customFormat="1" ht="12.75"/>
-    <row r="723" s="2" customFormat="1" ht="12.75"/>
-    <row r="724" s="2" customFormat="1" ht="12.75"/>
-    <row r="725" s="2" customFormat="1" ht="12.75"/>
-    <row r="726" s="2" customFormat="1" ht="12.75"/>
-    <row r="727" s="2" customFormat="1" ht="12.75"/>
-    <row r="728" s="2" customFormat="1" ht="12.75"/>
-    <row r="729" s="2" customFormat="1" ht="12.75"/>
-    <row r="730" s="2" customFormat="1" ht="12.75"/>
-    <row r="731" s="2" customFormat="1" ht="12.75"/>
-    <row r="732" s="2" customFormat="1" ht="12.75"/>
-    <row r="733" s="2" customFormat="1" ht="12.75"/>
-    <row r="734" s="2" customFormat="1" ht="12.75"/>
-    <row r="735" s="2" customFormat="1" ht="12.75"/>
-    <row r="736" s="2" customFormat="1" ht="12.75"/>
-    <row r="737" s="2" customFormat="1" ht="12.75"/>
-    <row r="738" s="2" customFormat="1" ht="12.75"/>
-    <row r="739" s="2" customFormat="1" ht="12.75"/>
-    <row r="740" s="2" customFormat="1" ht="12.75"/>
-    <row r="741" s="2" customFormat="1" ht="12.75"/>
-    <row r="742" s="2" customFormat="1" ht="12.75"/>
-    <row r="743" s="2" customFormat="1" ht="12.75"/>
-    <row r="744" s="2" customFormat="1" ht="12.75"/>
-    <row r="745" s="2" customFormat="1" ht="12.75"/>
-    <row r="746" s="2" customFormat="1" ht="12.75"/>
-    <row r="747" s="2" customFormat="1" ht="12.75"/>
-    <row r="748" s="2" customFormat="1" ht="12.75"/>
-    <row r="749" s="2" customFormat="1" ht="12.75"/>
-    <row r="750" s="2" customFormat="1" ht="12.75"/>
-    <row r="751" s="2" customFormat="1" ht="12.75"/>
-    <row r="752" s="2" customFormat="1" ht="12.75"/>
-    <row r="753" s="2" customFormat="1" ht="12.75"/>
-    <row r="754" s="2" customFormat="1" ht="12.75"/>
-    <row r="755" s="2" customFormat="1" ht="12.75"/>
-    <row r="756" s="2" customFormat="1" ht="12.75"/>
-    <row r="757" s="2" customFormat="1" ht="12.75"/>
-    <row r="758" s="2" customFormat="1" ht="12.75"/>
-    <row r="759" s="2" customFormat="1" ht="12.75"/>
-    <row r="760" s="2" customFormat="1" ht="12.75"/>
-    <row r="761" s="2" customFormat="1" ht="12.75"/>
-    <row r="762" s="2" customFormat="1" ht="12.75"/>
-    <row r="763" s="2" customFormat="1" ht="12.75"/>
-    <row r="764" s="2" customFormat="1" ht="12.75"/>
-    <row r="765" s="2" customFormat="1" ht="12.75"/>
-    <row r="766" s="2" customFormat="1" ht="12.75"/>
-    <row r="767" s="2" customFormat="1" ht="12.75"/>
-    <row r="768" s="2" customFormat="1" ht="12.75"/>
-    <row r="769" s="2" customFormat="1" ht="12.75"/>
-    <row r="770" s="2" customFormat="1" ht="12.75"/>
-    <row r="771" s="2" customFormat="1" ht="12.75"/>
-    <row r="772" s="2" customFormat="1" ht="12.75"/>
-    <row r="773" s="2" customFormat="1" ht="12.75"/>
-    <row r="774" s="2" customFormat="1" ht="12.75"/>
-    <row r="775" s="2" customFormat="1" ht="12.75"/>
-    <row r="776" s="2" customFormat="1" ht="12.75"/>
-    <row r="777" s="2" customFormat="1" ht="12.75"/>
-    <row r="778" s="2" customFormat="1" ht="12.75"/>
-    <row r="779" s="2" customFormat="1" ht="12.75"/>
-    <row r="780" s="2" customFormat="1" ht="12.75"/>
-    <row r="781" s="2" customFormat="1" ht="12.75"/>
-    <row r="782" s="2" customFormat="1" ht="12.75"/>
-    <row r="783" s="2" customFormat="1" ht="12.75"/>
-    <row r="784" s="2" customFormat="1" ht="12.75"/>
-    <row r="785" s="2" customFormat="1" ht="12.75"/>
-    <row r="786" s="2" customFormat="1" ht="12.75"/>
-    <row r="787" s="2" customFormat="1" ht="12.75"/>
-    <row r="788" s="2" customFormat="1" ht="12.75"/>
-    <row r="789" s="2" customFormat="1" ht="12.75"/>
-    <row r="790" s="2" customFormat="1" ht="12.75"/>
-    <row r="791" s="2" customFormat="1" ht="12.75"/>
-    <row r="792" s="2" customFormat="1" ht="12.75"/>
-    <row r="793" s="2" customFormat="1" ht="12.75"/>
-    <row r="794" s="2" customFormat="1" ht="12.75"/>
-    <row r="795" s="2" customFormat="1" ht="12.75"/>
-    <row r="796" s="2" customFormat="1" ht="12.75"/>
-    <row r="797" s="2" customFormat="1" ht="12.75"/>
-    <row r="798" s="2" customFormat="1" ht="12.75"/>
-    <row r="799" s="2" customFormat="1" ht="12.75"/>
-    <row r="800" s="2" customFormat="1" ht="12.75"/>
-    <row r="801" s="2" customFormat="1" ht="12.75"/>
-    <row r="802" s="2" customFormat="1" ht="12.75"/>
-    <row r="803" s="2" customFormat="1" ht="12.75"/>
-    <row r="804" s="2" customFormat="1" ht="12.75"/>
-    <row r="805" s="2" customFormat="1" ht="12.75"/>
-    <row r="806" s="2" customFormat="1" ht="12.75"/>
-    <row r="807" s="2" customFormat="1" ht="12.75"/>
-    <row r="808" s="2" customFormat="1" ht="12.75"/>
-    <row r="809" s="2" customFormat="1" ht="12.75"/>
-    <row r="810" s="2" customFormat="1" ht="12.75"/>
-    <row r="811" s="2" customFormat="1" ht="12.75"/>
-    <row r="812" s="2" customFormat="1" ht="12.75"/>
-    <row r="813" s="2" customFormat="1" ht="12.75"/>
-    <row r="814" s="2" customFormat="1" ht="12.75"/>
-    <row r="815" s="2" customFormat="1" ht="12.75"/>
-    <row r="816" s="2" customFormat="1" ht="12.75"/>
-    <row r="817" s="2" customFormat="1" ht="12.75"/>
-    <row r="818" s="2" customFormat="1" ht="12.75"/>
-    <row r="819" s="2" customFormat="1" ht="12.75"/>
-    <row r="820" s="2" customFormat="1" ht="12.75"/>
-    <row r="821" s="2" customFormat="1" ht="12.75"/>
-    <row r="822" s="2" customFormat="1" ht="12.75"/>
-    <row r="823" s="2" customFormat="1" ht="12.75"/>
-    <row r="824" s="2" customFormat="1" ht="12.75"/>
-    <row r="825" s="2" customFormat="1" ht="12.75"/>
-    <row r="826" s="2" customFormat="1" ht="12.75"/>
-    <row r="827" s="2" customFormat="1" ht="12.75"/>
-    <row r="828" s="2" customFormat="1" ht="12.75"/>
-    <row r="829" s="2" customFormat="1" ht="12.75"/>
-    <row r="830" s="2" customFormat="1" ht="12.75"/>
-    <row r="831" s="2" customFormat="1" ht="12.75"/>
-    <row r="832" s="2" customFormat="1" ht="12.75"/>
-    <row r="833" s="2" customFormat="1" ht="12.75"/>
-    <row r="834" s="2" customFormat="1" ht="12.75"/>
-    <row r="835" s="2" customFormat="1" ht="12.75"/>
-    <row r="836" s="2" customFormat="1" ht="12.75"/>
-    <row r="837" s="2" customFormat="1" ht="12.75"/>
-    <row r="838" s="2" customFormat="1" ht="12.75"/>
-    <row r="839" s="2" customFormat="1" ht="12.75"/>
-    <row r="840" s="2" customFormat="1" ht="12.75"/>
-    <row r="841" s="2" customFormat="1" ht="12.75"/>
-    <row r="842" s="2" customFormat="1" ht="12.75"/>
-    <row r="843" s="2" customFormat="1" ht="12.75"/>
-    <row r="844" s="2" customFormat="1" ht="12.75"/>
-    <row r="845" s="2" customFormat="1" ht="12.75"/>
-    <row r="846" s="2" customFormat="1" ht="12.75"/>
-    <row r="847" s="2" customFormat="1" ht="12.75"/>
-    <row r="848" s="2" customFormat="1" ht="12.75"/>
-    <row r="849" s="2" customFormat="1" ht="12.75"/>
-    <row r="850" s="2" customFormat="1" ht="12.75"/>
-    <row r="851" s="2" customFormat="1" ht="12.75"/>
-    <row r="852" s="2" customFormat="1" ht="12.75"/>
-    <row r="853" s="2" customFormat="1" ht="12.75"/>
-    <row r="854" s="2" customFormat="1" ht="12.75"/>
-    <row r="855" s="2" customFormat="1" ht="12.75"/>
-    <row r="856" s="2" customFormat="1" ht="12.75"/>
-    <row r="857" s="2" customFormat="1" ht="12.75"/>
-    <row r="858" s="2" customFormat="1" ht="12.75"/>
-    <row r="859" s="2" customFormat="1" ht="12.75"/>
-    <row r="860" s="2" customFormat="1" ht="12.75"/>
-    <row r="861" s="2" customFormat="1" ht="12.75"/>
-    <row r="862" s="2" customFormat="1" ht="12.75"/>
-    <row r="863" s="2" customFormat="1" ht="12.75"/>
-    <row r="864" s="2" customFormat="1" ht="12.75"/>
-    <row r="865" s="2" customFormat="1" ht="12.75"/>
-    <row r="866" s="2" customFormat="1" ht="12.75"/>
-    <row r="867" s="2" customFormat="1" ht="12.75"/>
-    <row r="868" s="2" customFormat="1" ht="12.75"/>
-    <row r="869" s="2" customFormat="1" ht="12.75"/>
-    <row r="870" s="2" customFormat="1" ht="12.75"/>
-    <row r="871" s="2" customFormat="1" ht="12.75"/>
-    <row r="872" s="2" customFormat="1" ht="12.75"/>
-    <row r="873" s="2" customFormat="1" ht="12.75"/>
-    <row r="874" s="2" customFormat="1" ht="12.75"/>
-    <row r="875" s="2" customFormat="1" ht="12.75"/>
-    <row r="876" s="2" customFormat="1" ht="12.75"/>
-    <row r="877" s="2" customFormat="1" ht="12.75"/>
-    <row r="878" s="2" customFormat="1" ht="12.75"/>
-    <row r="879" s="2" customFormat="1" ht="12.75"/>
-    <row r="880" s="2" customFormat="1" ht="12.75"/>
-    <row r="881" s="2" customFormat="1" ht="12.75"/>
-    <row r="882" s="2" customFormat="1" ht="12.75"/>
-    <row r="883" s="2" customFormat="1" ht="12.75"/>
-    <row r="884" s="2" customFormat="1" ht="12.75"/>
-    <row r="885" s="2" customFormat="1" ht="12.75"/>
-    <row r="886" s="2" customFormat="1" ht="12.75"/>
-    <row r="887" s="2" customFormat="1" ht="12.75"/>
-    <row r="888" s="2" customFormat="1" ht="12.75"/>
-    <row r="889" s="2" customFormat="1" ht="12.75"/>
-    <row r="890" s="2" customFormat="1" ht="12.75"/>
-    <row r="891" s="2" customFormat="1" ht="12.75"/>
-    <row r="892" s="2" customFormat="1" ht="12.75"/>
-    <row r="893" s="2" customFormat="1" ht="12.75"/>
-    <row r="894" s="2" customFormat="1" ht="12.75"/>
-    <row r="895" s="2" customFormat="1" ht="12.75"/>
-    <row r="896" s="2" customFormat="1" ht="12.75"/>
-    <row r="897" s="2" customFormat="1" ht="12.75"/>
-    <row r="898" s="2" customFormat="1" ht="12.75"/>
-    <row r="899" s="2" customFormat="1" ht="12.75"/>
-    <row r="900" s="2" customFormat="1" ht="12.75"/>
-    <row r="901" s="2" customFormat="1" ht="12.75"/>
-    <row r="902" s="2" customFormat="1" ht="12.75"/>
-    <row r="903" s="2" customFormat="1" ht="12.75"/>
-    <row r="904" s="2" customFormat="1" ht="12.75"/>
-    <row r="905" s="2" customFormat="1" ht="12.75"/>
-    <row r="906" s="2" customFormat="1" ht="12.75"/>
-    <row r="907" s="2" customFormat="1" ht="12.75"/>
-    <row r="908" s="2" customFormat="1" ht="12.75"/>
-    <row r="909" s="2" customFormat="1" ht="12.75"/>
-    <row r="910" s="2" customFormat="1" ht="12.75"/>
-    <row r="911" s="2" customFormat="1" ht="12.75"/>
-    <row r="912" s="2" customFormat="1" ht="12.75"/>
-    <row r="913" s="2" customFormat="1" ht="12.75"/>
-    <row r="914" s="2" customFormat="1" ht="12.75"/>
-    <row r="915" s="2" customFormat="1" ht="12.75"/>
-    <row r="916" s="2" customFormat="1" ht="12.75"/>
-    <row r="917" s="2" customFormat="1" ht="12.75"/>
-    <row r="918" s="2" customFormat="1" ht="12.75"/>
-    <row r="919" s="2" customFormat="1" ht="12.75"/>
-    <row r="920" s="2" customFormat="1" ht="12.75"/>
-    <row r="921" s="2" customFormat="1" ht="12.75"/>
-    <row r="922" s="2" customFormat="1" ht="12.75"/>
-    <row r="923" s="2" customFormat="1" ht="12.75"/>
-    <row r="924" s="2" customFormat="1" ht="12.75"/>
-    <row r="925" s="2" customFormat="1" ht="12.75"/>
-    <row r="926" s="2" customFormat="1" ht="12.75"/>
-    <row r="927" s="2" customFormat="1" ht="12.75"/>
-    <row r="928" s="2" customFormat="1" ht="12.75"/>
-    <row r="929" s="2" customFormat="1" ht="12.75"/>
-    <row r="930" s="2" customFormat="1" ht="12.75"/>
-    <row r="931" s="2" customFormat="1" ht="12.75"/>
-    <row r="932" s="2" customFormat="1" ht="12.75"/>
-    <row r="933" s="2" customFormat="1" ht="12.75"/>
-    <row r="934" s="2" customFormat="1" ht="12.75"/>
-    <row r="935" s="2" customFormat="1" ht="12.75"/>
-    <row r="936" s="2" customFormat="1" ht="12.75"/>
-    <row r="937" s="2" customFormat="1" ht="12.75"/>
-    <row r="938" s="2" customFormat="1" ht="12.75"/>
-    <row r="939" s="2" customFormat="1" ht="12.75"/>
-    <row r="940" s="2" customFormat="1" ht="12.75"/>
-    <row r="941" s="2" customFormat="1" ht="12.75"/>
-    <row r="942" s="2" customFormat="1" ht="12.75"/>
-    <row r="943" s="2" customFormat="1" ht="12.75"/>
-    <row r="944" s="2" customFormat="1" ht="12.75"/>
-    <row r="945" s="2" customFormat="1" ht="12.75"/>
-    <row r="946" s="2" customFormat="1" ht="12.75"/>
-    <row r="947" s="2" customFormat="1" ht="12.75"/>
-    <row r="948" s="2" customFormat="1" ht="12.75"/>
-    <row r="949" s="2" customFormat="1" ht="12.75"/>
-    <row r="950" s="2" customFormat="1" ht="12.75"/>
-    <row r="951" s="2" customFormat="1" ht="12.75"/>
-    <row r="952" s="2" customFormat="1" ht="12.75"/>
-    <row r="953" s="2" customFormat="1" ht="12.75"/>
-    <row r="954" s="2" customFormat="1" ht="12.75"/>
-    <row r="955" s="2" customFormat="1" ht="12.75"/>
-    <row r="956" s="2" customFormat="1" ht="12.75"/>
-    <row r="957" s="2" customFormat="1" ht="12.75"/>
-    <row r="958" s="2" customFormat="1" ht="12.75"/>
-    <row r="959" s="2" customFormat="1" ht="12.75"/>
-    <row r="960" s="2" customFormat="1" ht="12.75"/>
-    <row r="961" s="2" customFormat="1" ht="12.75"/>
-    <row r="962" s="2" customFormat="1" ht="12.75"/>
-    <row r="963" s="2" customFormat="1" ht="12.75"/>
-    <row r="964" s="2" customFormat="1" ht="12.75"/>
-    <row r="965" s="2" customFormat="1" ht="12.75"/>
-    <row r="966" s="2" customFormat="1" ht="12.75"/>
-    <row r="967" s="2" customFormat="1" ht="12.75"/>
-    <row r="968" s="2" customFormat="1" ht="12.75"/>
-    <row r="969" s="2" customFormat="1" ht="12.75"/>
-    <row r="970" s="2" customFormat="1" ht="12.75"/>
-    <row r="971" s="2" customFormat="1" ht="12.75"/>
-    <row r="972" s="2" customFormat="1" ht="12.75"/>
-    <row r="973" s="2" customFormat="1" ht="12.75"/>
-    <row r="974" s="2" customFormat="1" ht="12.75"/>
-    <row r="975" s="2" customFormat="1" ht="12.75"/>
-    <row r="976" s="2" customFormat="1" ht="12.75"/>
-    <row r="977" s="2" customFormat="1" ht="12.75"/>
-    <row r="978" s="2" customFormat="1" ht="12.75"/>
-    <row r="979" s="2" customFormat="1" ht="12.75"/>
-    <row r="980" s="2" customFormat="1" ht="12.75"/>
-    <row r="981" s="2" customFormat="1" ht="12.75"/>
-    <row r="982" s="2" customFormat="1" ht="12.75"/>
-    <row r="983" s="2" customFormat="1" ht="12.75"/>
-    <row r="984" s="2" customFormat="1" ht="12.75"/>
-    <row r="985" s="2" customFormat="1" ht="12.75"/>
-    <row r="986" s="2" customFormat="1" ht="12.75"/>
-    <row r="987" s="2" customFormat="1" ht="12.75"/>
-    <row r="988" s="2" customFormat="1" ht="12.75"/>
-    <row r="989" s="2" customFormat="1" ht="12.75"/>
-    <row r="990" s="2" customFormat="1" ht="12.75"/>
-    <row r="991" s="2" customFormat="1" ht="12.75"/>
-    <row r="992" s="2" customFormat="1" ht="12.75"/>
-    <row r="993" s="2" customFormat="1" ht="12.75"/>
-    <row r="994" s="2" customFormat="1" ht="12.75"/>
-    <row r="995" s="2" customFormat="1" ht="12.75"/>
-    <row r="996" s="2" customFormat="1" ht="12.75"/>
-    <row r="997" s="2" customFormat="1" ht="12.75"/>
-    <row r="998" s="2" customFormat="1" ht="12.75"/>
-    <row r="999" s="2" customFormat="1" ht="12.75"/>
-    <row r="1000" s="2" customFormat="1" ht="12.75"/>
-    <row r="1001" s="2" customFormat="1" ht="12.75"/>
-    <row r="1002" s="2" customFormat="1" ht="12.75"/>
-    <row r="1003" s="2" customFormat="1" ht="12.75"/>
-    <row r="1004" s="2" customFormat="1" ht="12.75"/>
-    <row r="1005" s="2" customFormat="1" ht="12.75"/>
-    <row r="1006" s="2" customFormat="1" ht="12.75"/>
-    <row r="1007" s="2" customFormat="1" ht="12.75"/>
-    <row r="1008" s="2" customFormat="1" ht="12.75"/>
-    <row r="1009" s="2" customFormat="1" ht="12.75"/>
-    <row r="1010" s="2" customFormat="1" ht="12.75"/>
-    <row r="1011" s="2" customFormat="1" ht="12.75"/>
-    <row r="1012" s="2" customFormat="1" ht="12.75"/>
-    <row r="1013" s="2" customFormat="1" ht="12.75"/>
-    <row r="1014" s="2" customFormat="1" ht="12.75"/>
-    <row r="1015" s="2" customFormat="1" ht="12.75"/>
-    <row r="1016" s="2" customFormat="1" ht="12.75"/>
-    <row r="1017" s="2" customFormat="1" ht="12.75"/>
-    <row r="1018" s="2" customFormat="1" ht="12.75"/>
-    <row r="1019" s="2" customFormat="1" ht="12.75"/>
-    <row r="1020" s="2" customFormat="1" ht="12.75"/>
-    <row r="1021" s="2" customFormat="1" ht="12.75"/>
-    <row r="1022" s="2" customFormat="1" ht="12.75"/>
-    <row r="1023" s="2" customFormat="1" ht="12.75"/>
-    <row r="1024" s="2" customFormat="1" ht="12.75"/>
-    <row r="1025" s="2" customFormat="1" ht="12.75"/>
-    <row r="1026" s="2" customFormat="1" ht="12.75"/>
-    <row r="1027" s="2" customFormat="1" ht="12.75"/>
-    <row r="1028" s="2" customFormat="1" ht="12.75"/>
-    <row r="1029" s="2" customFormat="1" ht="12.75"/>
-    <row r="1030" s="2" customFormat="1" ht="12.75"/>
-    <row r="1031" s="2" customFormat="1" ht="12.75"/>
-    <row r="1032" s="2" customFormat="1" ht="12.75"/>
-    <row r="1033" s="2" customFormat="1" ht="12.75"/>
+      <c r="J152" s="21">
+        <v>1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="12.75"/>
+    <row r="154" spans="1:10" ht="12.75"/>
+    <row r="155" spans="1:10" ht="12.75"/>
+    <row r="156" spans="1:10" ht="12.75"/>
+    <row r="157" spans="1:10" ht="12.75"/>
+    <row r="158" spans="1:10" ht="12.75"/>
+    <row r="159" spans="1:10" ht="12.75"/>
+    <row r="160" spans="1:10" ht="12.75"/>
+    <row r="161" ht="12.75"/>
+    <row r="162" ht="12.75"/>
+    <row r="163" ht="12.75"/>
+    <row r="164" ht="12.75"/>
+    <row r="165" ht="12.75"/>
+    <row r="166" ht="12.75"/>
+    <row r="167" ht="12.75"/>
+    <row r="168" ht="12.75"/>
+    <row r="169" ht="12.75"/>
+    <row r="170" ht="12.75"/>
+    <row r="171" ht="12.75"/>
+    <row r="172" ht="12.75"/>
+    <row r="173" ht="12.75"/>
+    <row r="174" ht="12.75"/>
+    <row r="175" ht="12.75"/>
+    <row r="176" ht="12.75"/>
+    <row r="177" ht="12.75"/>
+    <row r="178" ht="12.75"/>
+    <row r="179" ht="12.75"/>
+    <row r="180" ht="12.75"/>
+    <row r="181" ht="12.75"/>
+    <row r="182" ht="12.75"/>
+    <row r="183" ht="12.75"/>
+    <row r="184" ht="12.75"/>
+    <row r="185" ht="12.75"/>
+    <row r="186" ht="12.75"/>
+    <row r="187" ht="12.75"/>
+    <row r="188" ht="12.75"/>
+    <row r="189" ht="12.75"/>
+    <row r="190" ht="12.75"/>
+    <row r="191" ht="12.75"/>
+    <row r="192" ht="12.75"/>
+    <row r="193" ht="12.75"/>
+    <row r="194" ht="12.75"/>
+    <row r="195" ht="12.75"/>
+    <row r="196" ht="12.75"/>
+    <row r="197" ht="12.75"/>
+    <row r="198" ht="12.75"/>
+    <row r="199" ht="12.75"/>
+    <row r="200" ht="12.75"/>
+    <row r="201" ht="12.75"/>
+    <row r="202" ht="12.75"/>
+    <row r="203" ht="12.75"/>
+    <row r="204" ht="12.75"/>
+    <row r="205" ht="12.75"/>
+    <row r="206" ht="12.75"/>
+    <row r="207" ht="12.75"/>
+    <row r="208" ht="12.75"/>
+    <row r="209" ht="12.75"/>
+    <row r="210" ht="12.75"/>
+    <row r="211" ht="12.75"/>
+    <row r="212" ht="12.75"/>
+    <row r="213" ht="12.75"/>
+    <row r="214" ht="12.75"/>
+    <row r="215" ht="12.75"/>
+    <row r="216" ht="12.75"/>
+    <row r="217" ht="12.75"/>
+    <row r="218" ht="12.75"/>
+    <row r="219" ht="12.75"/>
+    <row r="220" ht="12.75"/>
+    <row r="221" ht="12.75"/>
+    <row r="222" ht="12.75"/>
+    <row r="223" ht="12.75"/>
+    <row r="224" ht="12.75"/>
+    <row r="225" ht="12.75"/>
+    <row r="226" ht="12.75"/>
+    <row r="227" ht="12.75"/>
+    <row r="228" ht="12.75"/>
+    <row r="229" ht="12.75"/>
+    <row r="230" ht="12.75"/>
+    <row r="231" ht="12.75"/>
+    <row r="232" ht="12.75"/>
+    <row r="233" ht="12.75"/>
+    <row r="234" ht="12.75"/>
+    <row r="235" ht="12.75"/>
+    <row r="236" ht="12.75"/>
+    <row r="237" ht="12.75"/>
+    <row r="238" ht="12.75"/>
+    <row r="239" ht="12.75"/>
+    <row r="240" ht="12.75"/>
+    <row r="241" ht="12.75"/>
+    <row r="242" ht="12.75"/>
+    <row r="243" ht="12.75"/>
+    <row r="244" ht="12.75"/>
+    <row r="245" ht="12.75"/>
+    <row r="246" ht="12.75"/>
+    <row r="247" ht="12.75"/>
+    <row r="248" ht="12.75"/>
+    <row r="249" ht="12.75"/>
+    <row r="250" ht="12.75"/>
+    <row r="251" ht="12.75"/>
+    <row r="252" ht="12.75"/>
+    <row r="253" ht="12.75"/>
+    <row r="254" ht="12.75"/>
+    <row r="255" ht="12.75"/>
+    <row r="256" ht="12.75"/>
+    <row r="257" ht="12.75"/>
+    <row r="258" ht="12.75"/>
+    <row r="259" ht="12.75"/>
+    <row r="260" ht="12.75"/>
+    <row r="261" ht="12.75"/>
+    <row r="262" ht="12.75"/>
+    <row r="263" ht="12.75"/>
+    <row r="264" ht="12.75"/>
+    <row r="265" ht="12.75"/>
+    <row r="266" ht="12.75"/>
+    <row r="267" ht="12.75"/>
+    <row r="268" ht="12.75"/>
+    <row r="269" ht="12.75"/>
+    <row r="270" ht="12.75"/>
+    <row r="271" ht="12.75"/>
+    <row r="272" ht="12.75"/>
+    <row r="273" ht="12.75"/>
+    <row r="274" ht="12.75"/>
+    <row r="275" ht="12.75"/>
+    <row r="276" ht="12.75"/>
+    <row r="277" ht="12.75"/>
+    <row r="278" ht="12.75"/>
+    <row r="279" ht="12.75"/>
+    <row r="280" ht="12.75"/>
+    <row r="281" ht="12.75"/>
+    <row r="282" ht="12.75"/>
+    <row r="283" ht="12.75"/>
+    <row r="284" ht="12.75"/>
+    <row r="285" ht="12.75"/>
+    <row r="286" ht="12.75"/>
+    <row r="287" ht="12.75"/>
+    <row r="288" ht="12.75"/>
+    <row r="289" ht="12.75"/>
+    <row r="290" ht="12.75"/>
+    <row r="291" ht="12.75"/>
+    <row r="292" ht="12.75"/>
+    <row r="293" ht="12.75"/>
+    <row r="294" ht="12.75"/>
+    <row r="295" ht="12.75"/>
+    <row r="296" ht="12.75"/>
+    <row r="297" ht="12.75"/>
+    <row r="298" ht="12.75"/>
+    <row r="299" ht="12.75"/>
+    <row r="300" ht="12.75"/>
+    <row r="301" ht="12.75"/>
+    <row r="302" ht="12.75"/>
+    <row r="303" ht="12.75"/>
+    <row r="304" ht="12.75"/>
+    <row r="305" ht="12.75"/>
+    <row r="306" ht="12.75"/>
+    <row r="307" ht="12.75"/>
+    <row r="308" ht="12.75"/>
+    <row r="309" ht="12.75"/>
+    <row r="310" ht="12.75"/>
+    <row r="311" ht="12.75"/>
+    <row r="312" ht="12.75"/>
+    <row r="313" ht="12.75"/>
+    <row r="314" ht="12.75"/>
+    <row r="315" ht="12.75"/>
+    <row r="316" ht="12.75"/>
+    <row r="317" ht="12.75"/>
+    <row r="318" ht="12.75"/>
+    <row r="319" ht="12.75"/>
+    <row r="320" ht="12.75"/>
+    <row r="321" ht="12.75"/>
+    <row r="322" ht="12.75"/>
+    <row r="323" ht="12.75"/>
+    <row r="324" ht="12.75"/>
+    <row r="325" ht="12.75"/>
+    <row r="326" ht="12.75"/>
+    <row r="327" ht="12.75"/>
+    <row r="328" ht="12.75"/>
+    <row r="329" ht="12.75"/>
+    <row r="330" ht="12.75"/>
+    <row r="331" ht="12.75"/>
+    <row r="332" ht="12.75"/>
+    <row r="333" ht="12.75"/>
+    <row r="334" ht="12.75"/>
+    <row r="335" ht="12.75"/>
+    <row r="336" ht="12.75"/>
+    <row r="337" ht="12.75"/>
+    <row r="338" ht="12.75"/>
+    <row r="339" ht="12.75"/>
+    <row r="340" ht="12.75"/>
+    <row r="341" ht="12.75"/>
+    <row r="342" ht="12.75"/>
+    <row r="343" ht="12.75"/>
+    <row r="344" ht="12.75"/>
+    <row r="345" ht="12.75"/>
+    <row r="346" ht="12.75"/>
+    <row r="347" ht="12.75"/>
+    <row r="348" ht="12.75"/>
+    <row r="349" ht="12.75"/>
+    <row r="350" ht="12.75"/>
+    <row r="351" ht="12.75"/>
+    <row r="352" ht="12.75"/>
+    <row r="353" ht="12.75"/>
+    <row r="354" ht="12.75"/>
+    <row r="355" ht="12.75"/>
+    <row r="356" ht="12.75"/>
+    <row r="357" ht="12.75"/>
+    <row r="358" ht="12.75"/>
+    <row r="359" ht="12.75"/>
+    <row r="360" ht="12.75"/>
+    <row r="361" ht="12.75"/>
+    <row r="362" ht="12.75"/>
+    <row r="363" ht="12.75"/>
+    <row r="364" ht="12.75"/>
+    <row r="365" ht="12.75"/>
+    <row r="366" ht="12.75"/>
+    <row r="367" ht="12.75"/>
+    <row r="368" ht="12.75"/>
+    <row r="369" ht="12.75"/>
+    <row r="370" ht="12.75"/>
+    <row r="371" ht="12.75"/>
+    <row r="372" ht="12.75"/>
+    <row r="373" ht="12.75"/>
+    <row r="374" ht="12.75"/>
+    <row r="375" ht="12.75"/>
+    <row r="376" ht="12.75"/>
+    <row r="377" ht="12.75"/>
+    <row r="378" ht="12.75"/>
+    <row r="379" ht="12.75"/>
+    <row r="380" ht="12.75"/>
+    <row r="381" ht="12.75"/>
+    <row r="382" ht="12.75"/>
+    <row r="383" ht="12.75"/>
+    <row r="384" ht="12.75"/>
+    <row r="385" ht="12.75"/>
+    <row r="386" ht="12.75"/>
+    <row r="387" ht="12.75"/>
+    <row r="388" ht="12.75"/>
+    <row r="389" ht="12.75"/>
+    <row r="390" ht="12.75"/>
+    <row r="391" ht="12.75"/>
+    <row r="392" ht="12.75"/>
+    <row r="393" ht="12.75"/>
+    <row r="394" ht="12.75"/>
+    <row r="395" ht="12.75"/>
+    <row r="396" ht="12.75"/>
+    <row r="397" ht="12.75"/>
+    <row r="398" ht="12.75"/>
+    <row r="399" ht="12.75"/>
+    <row r="400" ht="12.75"/>
+    <row r="401" ht="12.75"/>
+    <row r="402" ht="12.75"/>
+    <row r="403" ht="12.75"/>
+    <row r="404" ht="12.75"/>
+    <row r="405" ht="12.75"/>
+    <row r="406" ht="12.75"/>
+    <row r="407" ht="12.75"/>
+    <row r="408" ht="12.75"/>
+    <row r="409" ht="12.75"/>
+    <row r="410" ht="12.75"/>
+    <row r="411" ht="12.75"/>
+    <row r="412" ht="12.75"/>
+    <row r="413" ht="12.75"/>
+    <row r="414" ht="12.75"/>
+    <row r="415" ht="12.75"/>
+    <row r="416" ht="12.75"/>
+    <row r="417" ht="12.75"/>
+    <row r="418" ht="12.75"/>
+    <row r="419" ht="12.75"/>
+    <row r="420" ht="12.75"/>
+    <row r="421" ht="12.75"/>
+    <row r="422" ht="12.75"/>
+    <row r="423" ht="12.75"/>
+    <row r="424" ht="12.75"/>
+    <row r="425" ht="12.75"/>
+    <row r="426" ht="12.75"/>
+    <row r="427" ht="12.75"/>
+    <row r="428" ht="12.75"/>
+    <row r="429" ht="12.75"/>
+    <row r="430" ht="12.75"/>
+    <row r="431" ht="12.75"/>
+    <row r="432" ht="12.75"/>
+    <row r="433" ht="12.75"/>
+    <row r="434" ht="12.75"/>
+    <row r="435" ht="12.75"/>
+    <row r="436" ht="12.75"/>
+    <row r="437" ht="12.75"/>
+    <row r="438" ht="12.75"/>
+    <row r="439" ht="12.75"/>
+    <row r="440" ht="12.75"/>
+    <row r="441" ht="12.75"/>
+    <row r="442" ht="12.75"/>
+    <row r="443" ht="12.75"/>
+    <row r="444" ht="12.75"/>
+    <row r="445" ht="12.75"/>
+    <row r="446" ht="12.75"/>
+    <row r="447" ht="12.75"/>
+    <row r="448" ht="12.75"/>
+    <row r="449" ht="12.75"/>
+    <row r="450" ht="12.75"/>
+    <row r="451" ht="12.75"/>
+    <row r="452" ht="12.75"/>
+    <row r="453" ht="12.75"/>
+    <row r="454" ht="12.75"/>
+    <row r="455" ht="12.75"/>
+    <row r="456" ht="12.75"/>
+    <row r="457" ht="12.75"/>
+    <row r="458" ht="12.75"/>
+    <row r="459" ht="12.75"/>
+    <row r="460" ht="12.75"/>
+    <row r="461" ht="12.75"/>
+    <row r="462" ht="12.75"/>
+    <row r="463" ht="12.75"/>
+    <row r="464" ht="12.75"/>
+    <row r="465" ht="12.75"/>
+    <row r="466" ht="12.75"/>
+    <row r="467" ht="12.75"/>
+    <row r="468" ht="12.75"/>
+    <row r="469" ht="12.75"/>
+    <row r="470" ht="12.75"/>
+    <row r="471" ht="12.75"/>
+    <row r="472" ht="12.75"/>
+    <row r="473" ht="12.75"/>
+    <row r="474" ht="12.75"/>
+    <row r="475" ht="12.75"/>
+    <row r="476" ht="12.75"/>
+    <row r="477" ht="12.75"/>
+    <row r="478" ht="12.75"/>
+    <row r="479" ht="12.75"/>
+    <row r="480" ht="12.75"/>
+    <row r="481" ht="12.75"/>
+    <row r="482" ht="12.75"/>
+    <row r="483" ht="12.75"/>
+    <row r="484" ht="12.75"/>
+    <row r="485" ht="12.75"/>
+    <row r="486" ht="12.75"/>
+    <row r="487" ht="12.75"/>
+    <row r="488" ht="12.75"/>
+    <row r="489" ht="12.75"/>
+    <row r="490" ht="12.75"/>
+    <row r="491" ht="12.75"/>
+    <row r="492" ht="12.75"/>
+    <row r="493" ht="12.75"/>
+    <row r="494" ht="12.75"/>
+    <row r="495" ht="12.75"/>
+    <row r="496" ht="12.75"/>
+    <row r="497" ht="12.75"/>
+    <row r="498" ht="12.75"/>
+    <row r="499" ht="12.75"/>
+    <row r="500" ht="12.75"/>
+    <row r="501" ht="12.75"/>
+    <row r="502" ht="12.75"/>
+    <row r="503" ht="12.75"/>
+    <row r="504" ht="12.75"/>
+    <row r="505" ht="12.75"/>
+    <row r="506" ht="12.75"/>
+    <row r="507" ht="12.75"/>
+    <row r="508" ht="12.75"/>
+    <row r="509" ht="12.75"/>
+    <row r="510" ht="12.75"/>
+    <row r="511" ht="12.75"/>
+    <row r="512" ht="12.75"/>
+    <row r="513" ht="12.75"/>
+    <row r="514" ht="12.75"/>
+    <row r="515" ht="12.75"/>
+    <row r="516" ht="12.75"/>
+    <row r="517" ht="12.75"/>
+    <row r="518" ht="12.75"/>
+    <row r="519" ht="12.75"/>
+    <row r="520" ht="12.75"/>
+    <row r="521" ht="12.75"/>
+    <row r="522" ht="12.75"/>
+    <row r="523" ht="12.75"/>
+    <row r="524" ht="12.75"/>
+    <row r="525" ht="12.75"/>
+    <row r="526" ht="12.75"/>
+    <row r="527" ht="12.75"/>
+    <row r="528" ht="12.75"/>
+    <row r="529" ht="12.75"/>
+    <row r="530" ht="12.75"/>
+    <row r="531" ht="12.75"/>
+    <row r="532" ht="12.75"/>
+    <row r="533" ht="12.75"/>
+    <row r="534" ht="12.75"/>
+    <row r="535" ht="12.75"/>
+    <row r="536" ht="12.75"/>
+    <row r="537" ht="12.75"/>
+    <row r="538" ht="12.75"/>
+    <row r="539" ht="12.75"/>
+    <row r="540" ht="12.75"/>
+    <row r="541" ht="12.75"/>
+    <row r="542" ht="12.75"/>
+    <row r="543" ht="12.75"/>
+    <row r="544" ht="12.75"/>
+    <row r="545" ht="12.75"/>
+    <row r="546" ht="12.75"/>
+    <row r="547" ht="12.75"/>
+    <row r="548" ht="12.75"/>
+    <row r="549" ht="12.75"/>
+    <row r="550" ht="12.75"/>
+    <row r="551" ht="12.75"/>
+    <row r="552" ht="12.75"/>
+    <row r="553" ht="12.75"/>
+    <row r="554" ht="12.75"/>
+    <row r="555" ht="12.75"/>
+    <row r="556" ht="12.75"/>
+    <row r="557" ht="12.75"/>
+    <row r="558" ht="12.75"/>
+    <row r="559" ht="12.75"/>
+    <row r="560" ht="12.75"/>
+    <row r="561" ht="12.75"/>
+    <row r="562" ht="12.75"/>
+    <row r="563" ht="12.75"/>
+    <row r="564" ht="12.75"/>
+    <row r="565" ht="12.75"/>
+    <row r="566" ht="12.75"/>
+    <row r="567" ht="12.75"/>
+    <row r="568" ht="12.75"/>
+    <row r="569" ht="12.75"/>
+    <row r="570" ht="12.75"/>
+    <row r="571" ht="12.75"/>
+    <row r="572" ht="12.75"/>
+    <row r="573" ht="12.75"/>
+    <row r="574" ht="12.75"/>
+    <row r="575" ht="12.75"/>
+    <row r="576" ht="12.75"/>
+    <row r="577" ht="12.75"/>
+    <row r="578" ht="12.75"/>
+    <row r="579" ht="12.75"/>
+    <row r="580" ht="12.75"/>
+    <row r="581" ht="12.75"/>
+    <row r="582" ht="12.75"/>
+    <row r="583" ht="12.75"/>
+    <row r="584" ht="12.75"/>
+    <row r="585" ht="12.75"/>
+    <row r="586" ht="12.75"/>
+    <row r="587" ht="12.75"/>
+    <row r="588" ht="12.75"/>
+    <row r="589" ht="12.75"/>
+    <row r="590" ht="12.75"/>
+    <row r="591" ht="12.75"/>
+    <row r="592" ht="12.75"/>
+    <row r="593" ht="12.75"/>
+    <row r="594" ht="12.75"/>
+    <row r="595" ht="12.75"/>
+    <row r="596" ht="12.75"/>
+    <row r="597" ht="12.75"/>
+    <row r="598" ht="12.75"/>
+    <row r="599" ht="12.75"/>
+    <row r="600" ht="12.75"/>
+    <row r="601" ht="12.75"/>
+    <row r="602" ht="12.75"/>
+    <row r="603" ht="12.75"/>
+    <row r="604" ht="12.75"/>
+    <row r="605" ht="12.75"/>
+    <row r="606" ht="12.75"/>
+    <row r="607" ht="12.75"/>
+    <row r="608" ht="12.75"/>
+    <row r="609" ht="12.75"/>
+    <row r="610" ht="12.75"/>
+    <row r="611" ht="12.75"/>
+    <row r="612" ht="12.75"/>
+    <row r="613" ht="12.75"/>
+    <row r="614" ht="12.75"/>
+    <row r="615" ht="12.75"/>
+    <row r="616" ht="12.75"/>
+    <row r="617" ht="12.75"/>
+    <row r="618" ht="12.75"/>
+    <row r="619" ht="12.75"/>
+    <row r="620" ht="12.75"/>
+    <row r="621" ht="12.75"/>
+    <row r="622" ht="12.75"/>
+    <row r="623" ht="12.75"/>
+    <row r="624" ht="12.75"/>
+    <row r="625" ht="12.75"/>
+    <row r="626" ht="12.75"/>
+    <row r="627" ht="12.75"/>
+    <row r="628" ht="12.75"/>
+    <row r="629" ht="12.75"/>
+    <row r="630" ht="12.75"/>
+    <row r="631" ht="12.75"/>
+    <row r="632" ht="12.75"/>
+    <row r="633" ht="12.75"/>
+    <row r="634" ht="12.75"/>
+    <row r="635" ht="12.75"/>
+    <row r="636" ht="12.75"/>
+    <row r="637" ht="12.75"/>
+    <row r="638" ht="12.75"/>
+    <row r="639" ht="12.75"/>
+    <row r="640" ht="12.75"/>
+    <row r="641" ht="12.75"/>
+    <row r="642" ht="12.75"/>
+    <row r="643" ht="12.75"/>
+    <row r="644" ht="12.75"/>
+    <row r="645" ht="12.75"/>
+    <row r="646" ht="12.75"/>
+    <row r="647" ht="12.75"/>
+    <row r="648" ht="12.75"/>
+    <row r="649" ht="12.75"/>
+    <row r="650" ht="12.75"/>
+    <row r="651" ht="12.75"/>
+    <row r="652" ht="12.75"/>
+    <row r="653" ht="12.75"/>
+    <row r="654" ht="12.75"/>
+    <row r="655" ht="12.75"/>
+    <row r="656" ht="12.75"/>
+    <row r="657" ht="12.75"/>
+    <row r="658" ht="12.75"/>
+    <row r="659" ht="12.75"/>
+    <row r="660" ht="12.75"/>
+    <row r="661" ht="12.75"/>
+    <row r="662" ht="12.75"/>
+    <row r="663" ht="12.75"/>
+    <row r="664" ht="12.75"/>
+    <row r="665" ht="12.75"/>
+    <row r="666" ht="12.75"/>
+    <row r="667" ht="12.75"/>
+    <row r="668" ht="12.75"/>
+    <row r="669" ht="12.75"/>
+    <row r="670" ht="12.75"/>
+    <row r="671" ht="12.75"/>
+    <row r="672" ht="12.75"/>
+    <row r="673" ht="12.75"/>
+    <row r="674" ht="12.75"/>
+    <row r="675" ht="12.75"/>
+    <row r="676" ht="12.75"/>
+    <row r="677" ht="12.75"/>
+    <row r="678" ht="12.75"/>
+    <row r="679" ht="12.75"/>
+    <row r="680" ht="12.75"/>
+    <row r="681" ht="12.75"/>
+    <row r="682" ht="12.75"/>
+    <row r="683" ht="12.75"/>
+    <row r="684" ht="12.75"/>
+    <row r="685" ht="12.75"/>
+    <row r="686" ht="12.75"/>
+    <row r="687" ht="12.75"/>
+    <row r="688" ht="12.75"/>
+    <row r="689" ht="12.75"/>
+    <row r="690" ht="12.75"/>
+    <row r="691" ht="12.75"/>
+    <row r="692" ht="12.75"/>
+    <row r="693" ht="12.75"/>
+    <row r="694" ht="12.75"/>
+    <row r="695" ht="12.75"/>
+    <row r="696" ht="12.75"/>
+    <row r="697" ht="12.75"/>
+    <row r="698" ht="12.75"/>
+    <row r="699" ht="12.75"/>
+    <row r="700" ht="12.75"/>
+    <row r="701" ht="12.75"/>
+    <row r="702" ht="12.75"/>
+    <row r="703" ht="12.75"/>
+    <row r="704" ht="12.75"/>
+    <row r="705" ht="12.75"/>
+    <row r="706" ht="12.75"/>
+    <row r="707" ht="12.75"/>
+    <row r="708" ht="12.75"/>
+    <row r="709" ht="12.75"/>
+    <row r="710" ht="12.75"/>
+    <row r="711" ht="12.75"/>
+    <row r="712" ht="12.75"/>
+    <row r="713" ht="12.75"/>
+    <row r="714" ht="12.75"/>
+    <row r="715" ht="12.75"/>
+    <row r="716" ht="12.75"/>
+    <row r="717" ht="12.75"/>
+    <row r="718" ht="12.75"/>
+    <row r="719" ht="12.75"/>
+    <row r="720" ht="12.75"/>
+    <row r="721" ht="12.75"/>
+    <row r="722" ht="12.75"/>
+    <row r="723" ht="12.75"/>
+    <row r="724" ht="12.75"/>
+    <row r="725" ht="12.75"/>
+    <row r="726" ht="12.75"/>
+    <row r="727" ht="12.75"/>
+    <row r="728" ht="12.75"/>
+    <row r="729" ht="12.75"/>
+    <row r="730" ht="12.75"/>
+    <row r="731" ht="12.75"/>
+    <row r="732" ht="12.75"/>
+    <row r="733" ht="12.75"/>
+    <row r="734" ht="12.75"/>
+    <row r="735" ht="12.75"/>
+    <row r="736" ht="12.75"/>
+    <row r="737" ht="12.75"/>
+    <row r="738" ht="12.75"/>
+    <row r="739" ht="12.75"/>
+    <row r="740" ht="12.75"/>
+    <row r="741" ht="12.75"/>
+    <row r="742" ht="12.75"/>
+    <row r="743" ht="12.75"/>
+    <row r="744" ht="12.75"/>
+    <row r="745" ht="12.75"/>
+    <row r="746" ht="12.75"/>
+    <row r="747" ht="12.75"/>
+    <row r="748" ht="12.75"/>
+    <row r="749" ht="12.75"/>
+    <row r="750" ht="12.75"/>
+    <row r="751" ht="12.75"/>
+    <row r="752" ht="12.75"/>
+    <row r="753" ht="12.75"/>
+    <row r="754" ht="12.75"/>
+    <row r="755" ht="12.75"/>
+    <row r="756" ht="12.75"/>
+    <row r="757" ht="12.75"/>
+    <row r="758" ht="12.75"/>
+    <row r="759" ht="12.75"/>
+    <row r="760" ht="12.75"/>
+    <row r="761" ht="12.75"/>
+    <row r="762" ht="12.75"/>
+    <row r="763" ht="12.75"/>
+    <row r="764" ht="12.75"/>
+    <row r="765" ht="12.75"/>
+    <row r="766" ht="12.75"/>
+    <row r="767" ht="12.75"/>
+    <row r="768" ht="12.75"/>
+    <row r="769" ht="12.75"/>
+    <row r="770" ht="12.75"/>
+    <row r="771" ht="12.75"/>
+    <row r="772" ht="12.75"/>
+    <row r="773" ht="12.75"/>
+    <row r="774" ht="12.75"/>
+    <row r="775" ht="12.75"/>
+    <row r="776" ht="12.75"/>
+    <row r="777" ht="12.75"/>
+    <row r="778" ht="12.75"/>
+    <row r="779" ht="12.75"/>
+    <row r="780" ht="12.75"/>
+    <row r="781" ht="12.75"/>
+    <row r="782" ht="12.75"/>
+    <row r="783" ht="12.75"/>
+    <row r="784" ht="12.75"/>
+    <row r="785" ht="12.75"/>
+    <row r="786" ht="12.75"/>
+    <row r="787" ht="12.75"/>
+    <row r="788" ht="12.75"/>
+    <row r="789" ht="12.75"/>
+    <row r="790" ht="12.75"/>
+    <row r="791" ht="12.75"/>
+    <row r="792" ht="12.75"/>
+    <row r="793" ht="12.75"/>
+    <row r="794" ht="12.75"/>
+    <row r="795" ht="12.75"/>
+    <row r="796" ht="12.75"/>
+    <row r="797" ht="12.75"/>
+    <row r="798" ht="12.75"/>
+    <row r="799" ht="12.75"/>
+    <row r="800" ht="12.75"/>
+    <row r="801" ht="12.75"/>
+    <row r="802" ht="12.75"/>
+    <row r="803" ht="12.75"/>
+    <row r="804" ht="12.75"/>
+    <row r="805" ht="12.75"/>
+    <row r="806" ht="12.75"/>
+    <row r="807" ht="12.75"/>
+    <row r="808" ht="12.75"/>
+    <row r="809" ht="12.75"/>
+    <row r="810" ht="12.75"/>
+    <row r="811" ht="12.75"/>
+    <row r="812" ht="12.75"/>
+    <row r="813" ht="12.75"/>
+    <row r="814" ht="12.75"/>
+    <row r="815" ht="12.75"/>
+    <row r="816" ht="12.75"/>
+    <row r="817" ht="12.75"/>
+    <row r="818" ht="12.75"/>
+    <row r="819" ht="12.75"/>
+    <row r="820" ht="12.75"/>
+    <row r="821" ht="12.75"/>
+    <row r="822" ht="12.75"/>
+    <row r="823" ht="12.75"/>
+    <row r="824" ht="12.75"/>
+    <row r="825" ht="12.75"/>
+    <row r="826" ht="12.75"/>
+    <row r="827" ht="12.75"/>
+    <row r="828" ht="12.75"/>
+    <row r="829" ht="12.75"/>
+    <row r="830" ht="12.75"/>
+    <row r="831" ht="12.75"/>
+    <row r="832" ht="12.75"/>
+    <row r="833" ht="12.75"/>
+    <row r="834" ht="12.75"/>
+    <row r="835" ht="12.75"/>
+    <row r="836" ht="12.75"/>
+    <row r="837" ht="12.75"/>
+    <row r="838" ht="12.75"/>
+    <row r="839" ht="12.75"/>
+    <row r="840" ht="12.75"/>
+    <row r="841" ht="12.75"/>
+    <row r="842" ht="12.75"/>
+    <row r="843" ht="12.75"/>
+    <row r="844" ht="12.75"/>
+    <row r="845" ht="12.75"/>
+    <row r="846" ht="12.75"/>
+    <row r="847" ht="12.75"/>
+    <row r="848" ht="12.75"/>
+    <row r="849" ht="12.75"/>
+    <row r="850" ht="12.75"/>
+    <row r="851" ht="12.75"/>
+    <row r="852" ht="12.75"/>
+    <row r="853" ht="12.75"/>
+    <row r="854" ht="12.75"/>
+    <row r="855" ht="12.75"/>
+    <row r="856" ht="12.75"/>
+    <row r="857" ht="12.75"/>
+    <row r="858" ht="12.75"/>
+    <row r="859" ht="12.75"/>
+    <row r="860" ht="12.75"/>
+    <row r="861" ht="12.75"/>
+    <row r="862" ht="12.75"/>
+    <row r="863" ht="12.75"/>
+    <row r="864" ht="12.75"/>
+    <row r="865" ht="12.75"/>
+    <row r="866" ht="12.75"/>
+    <row r="867" ht="12.75"/>
+    <row r="868" ht="12.75"/>
+    <row r="869" ht="12.75"/>
+    <row r="870" ht="12.75"/>
+    <row r="871" ht="12.75"/>
+    <row r="872" ht="12.75"/>
+    <row r="873" ht="12.75"/>
+    <row r="874" ht="12.75"/>
+    <row r="875" ht="12.75"/>
+    <row r="876" ht="12.75"/>
+    <row r="877" ht="12.75"/>
+    <row r="878" ht="12.75"/>
+    <row r="879" ht="12.75"/>
+    <row r="880" ht="12.75"/>
+    <row r="881" ht="12.75"/>
+    <row r="882" ht="12.75"/>
+    <row r="883" ht="12.75"/>
+    <row r="884" ht="12.75"/>
+    <row r="885" ht="12.75"/>
+    <row r="886" ht="12.75"/>
+    <row r="887" ht="12.75"/>
+    <row r="888" ht="12.75"/>
+    <row r="889" ht="12.75"/>
+    <row r="890" ht="12.75"/>
+    <row r="891" ht="12.75"/>
+    <row r="892" ht="12.75"/>
+    <row r="893" ht="12.75"/>
+    <row r="894" ht="12.75"/>
+    <row r="895" ht="12.75"/>
+    <row r="896" ht="12.75"/>
+    <row r="897" ht="12.75"/>
+    <row r="898" ht="12.75"/>
+    <row r="899" ht="12.75"/>
+    <row r="900" ht="12.75"/>
+    <row r="901" ht="12.75"/>
+    <row r="902" ht="12.75"/>
+    <row r="903" ht="12.75"/>
+    <row r="904" ht="12.75"/>
+    <row r="905" ht="12.75"/>
+    <row r="906" ht="12.75"/>
+    <row r="907" ht="12.75"/>
+    <row r="908" ht="12.75"/>
+    <row r="909" ht="12.75"/>
+    <row r="910" ht="12.75"/>
+    <row r="911" ht="12.75"/>
+    <row r="912" ht="12.75"/>
+    <row r="913" ht="12.75"/>
+    <row r="914" ht="12.75"/>
+    <row r="915" ht="12.75"/>
+    <row r="916" ht="12.75"/>
+    <row r="917" ht="12.75"/>
+    <row r="918" ht="12.75"/>
+    <row r="919" ht="12.75"/>
+    <row r="920" ht="12.75"/>
+    <row r="921" ht="12.75"/>
+    <row r="922" ht="12.75"/>
+    <row r="923" ht="12.75"/>
+    <row r="924" ht="12.75"/>
+    <row r="925" ht="12.75"/>
+    <row r="926" ht="12.75"/>
+    <row r="927" ht="12.75"/>
+    <row r="928" ht="12.75"/>
+    <row r="929" ht="12.75"/>
+    <row r="930" ht="12.75"/>
+    <row r="931" ht="12.75"/>
+    <row r="932" ht="12.75"/>
+    <row r="933" ht="12.75"/>
+    <row r="934" ht="12.75"/>
+    <row r="935" ht="12.75"/>
+    <row r="936" ht="12.75"/>
+    <row r="937" ht="12.75"/>
+    <row r="938" ht="12.75"/>
+    <row r="939" ht="12.75"/>
+    <row r="940" ht="12.75"/>
+    <row r="941" ht="12.75"/>
+    <row r="942" ht="12.75"/>
+    <row r="943" ht="12.75"/>
+    <row r="944" ht="12.75"/>
+    <row r="945" ht="12.75"/>
+    <row r="946" ht="12.75"/>
+    <row r="947" ht="12.75"/>
+    <row r="948" ht="12.75"/>
+    <row r="949" ht="12.75"/>
+    <row r="950" ht="12.75"/>
+    <row r="951" ht="12.75"/>
+    <row r="952" ht="12.75"/>
+    <row r="953" ht="12.75"/>
+    <row r="954" ht="12.75"/>
+    <row r="955" ht="12.75"/>
+    <row r="956" ht="12.75"/>
+    <row r="957" ht="12.75"/>
+    <row r="958" ht="12.75"/>
+    <row r="959" ht="12.75"/>
+    <row r="960" ht="12.75"/>
+    <row r="961" ht="12.75"/>
+    <row r="962" ht="12.75"/>
+    <row r="963" ht="12.75"/>
+    <row r="964" ht="12.75"/>
+    <row r="965" ht="12.75"/>
+    <row r="966" ht="12.75"/>
+    <row r="967" ht="12.75"/>
+    <row r="968" ht="12.75"/>
+    <row r="969" ht="12.75"/>
+    <row r="970" ht="12.75"/>
+    <row r="971" ht="12.75"/>
+    <row r="972" ht="12.75"/>
+    <row r="973" ht="12.75"/>
+    <row r="974" ht="12.75"/>
+    <row r="975" ht="12.75"/>
+    <row r="976" ht="12.75"/>
+    <row r="977" ht="12.75"/>
+    <row r="978" ht="12.75"/>
+    <row r="979" ht="12.75"/>
+    <row r="980" ht="12.75"/>
+    <row r="981" ht="12.75"/>
+    <row r="982" ht="12.75"/>
+    <row r="983" ht="12.75"/>
+    <row r="984" ht="12.75"/>
+    <row r="985" ht="12.75"/>
+    <row r="986" ht="12.75"/>
+    <row r="987" ht="12.75"/>
+    <row r="988" ht="12.75"/>
+    <row r="989" ht="12.75"/>
+    <row r="990" ht="12.75"/>
+    <row r="991" ht="12.75"/>
+    <row r="992" ht="12.75"/>
+    <row r="993" ht="12.75"/>
+    <row r="994" ht="12.75"/>
+    <row r="995" ht="12.75"/>
+    <row r="996" ht="12.75"/>
+    <row r="997" ht="12.75"/>
+    <row r="998" ht="12.75"/>
+    <row r="999" ht="12.75"/>
+    <row r="1000" ht="12.75"/>
+    <row r="1001" ht="12.75"/>
+    <row r="1002" ht="12.75"/>
+    <row r="1003" ht="12.75"/>
+    <row r="1004" ht="12.75"/>
+    <row r="1005" ht="12.75"/>
+    <row r="1006" ht="12.75"/>
+    <row r="1007" ht="12.75"/>
+    <row r="1008" ht="12.75"/>
+    <row r="1009" ht="12.75"/>
+    <row r="1010" ht="12.75"/>
+    <row r="1011" ht="12.75"/>
+    <row r="1012" ht="12.75"/>
+    <row r="1013" ht="12.75"/>
+    <row r="1014" ht="12.75"/>
+    <row r="1015" ht="12.75"/>
+    <row r="1016" ht="12.75"/>
+    <row r="1017" ht="12.75"/>
+    <row r="1018" ht="12.75"/>
+    <row r="1019" ht="12.75"/>
+    <row r="1020" ht="12.75"/>
+    <row r="1021" ht="12.75"/>
+    <row r="1022" ht="12.75"/>
+    <row r="1023" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5782,7 +6417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBF3C3B-240C-4F7F-A1B9-C9337BE32FB4}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -5792,20 +6427,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="100.5" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="A1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
       <c r="M1" s="5"/>
       <c r="N1" s="6"/>
     </row>
@@ -5825,19 +6460,19 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="7">
         <v>2020</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>2030</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>2040</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>2050</v>
       </c>
       <c r="F3" s="4"/>
@@ -5850,17 +6485,17 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10">
+      <c r="A4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9">
         <v>0.82299999999999995</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>0.99299999999999999</v>
       </c>
       <c r="F4" s="4"/>
@@ -5873,19 +6508,19 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="A5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="10">
         <v>0.7</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>0.17</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>0.05</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>0.04</v>
       </c>
       <c r="F5" s="4"/>
@@ -5898,19 +6533,19 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="A6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="10">
         <v>0.37</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>0.85</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>0.96</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>0.96</v>
       </c>
       <c r="F6" s="4"/>
@@ -5923,19 +6558,19 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="10">
         <v>0.3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>0.83</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>0.95</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>0.95</v>
       </c>
       <c r="F7" s="6"/>
@@ -5948,19 +6583,19 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="A8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="10">
         <v>0.74</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>0.89</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>0.95</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>0.98</v>
       </c>
       <c r="F8" s="6"/>
@@ -5973,19 +6608,19 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="A9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="10">
         <v>0.03</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>0.01</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0</v>
       </c>
       <c r="F9" s="4"/>
@@ -5998,15 +6633,15 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="13">
+      <c r="A10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="12">
         <v>2040</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
